--- a/BackTest/2019-11-01 BackTest ANKR.xlsx
+++ b/BackTest/2019-11-01 BackTest ANKR.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M123"/>
+  <dimension ref="A1:M112"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -394,22 +394,22 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>MA60</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>fluc_close</t>
+          <t>low_check</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>BuyPrice</t>
+          <t>high_check</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>SPP</t>
+          <t>BuyPrice</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
@@ -448,12 +448,14 @@
         <v>160389.0796</v>
       </c>
       <c r="G2" t="n">
-        <v>2.637999999999999</v>
+        <v>-1443669.6401</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
-      <c r="I2" t="inlineStr"/>
+      <c r="I2" t="n">
+        <v>0</v>
+      </c>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
       <c r="L2" t="inlineStr"/>
@@ -481,12 +483,14 @@
         <v>56379.8615</v>
       </c>
       <c r="G3" t="n">
-        <v>2.638333333333333</v>
+        <v>-1387289.7786</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
-      <c r="I3" t="inlineStr"/>
+      <c r="I3" t="n">
+        <v>0</v>
+      </c>
       <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="inlineStr"/>
@@ -514,12 +518,14 @@
         <v>94377</v>
       </c>
       <c r="G4" t="n">
-        <v>2.6385</v>
+        <v>-1481666.7786</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
       </c>
-      <c r="I4" t="inlineStr"/>
+      <c r="I4" t="n">
+        <v>0</v>
+      </c>
       <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr"/>
       <c r="L4" t="inlineStr"/>
@@ -547,12 +553,14 @@
         <v>20000</v>
       </c>
       <c r="G5" t="n">
-        <v>2.639333333333333</v>
+        <v>-1481666.7786</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
-      <c r="I5" t="inlineStr"/>
+      <c r="I5" t="n">
+        <v>0</v>
+      </c>
       <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr"/>
       <c r="L5" t="inlineStr"/>
@@ -580,12 +588,14 @@
         <v>12129</v>
       </c>
       <c r="G6" t="n">
-        <v>2.639166666666667</v>
+        <v>-1493795.7786</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
       </c>
-      <c r="I6" t="inlineStr"/>
+      <c r="I6" t="n">
+        <v>0</v>
+      </c>
       <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
       <c r="L6" t="inlineStr"/>
@@ -613,12 +623,14 @@
         <v>1594.8743</v>
       </c>
       <c r="G7" t="n">
-        <v>2.639</v>
+        <v>-1493795.7786</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
       </c>
-      <c r="I7" t="inlineStr"/>
+      <c r="I7" t="n">
+        <v>0</v>
+      </c>
       <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr"/>
       <c r="L7" t="inlineStr"/>
@@ -646,12 +658,14 @@
         <v>10</v>
       </c>
       <c r="G8" t="n">
-        <v>2.640666666666667</v>
+        <v>-1493785.7786</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
-      <c r="I8" t="inlineStr"/>
+      <c r="I8" t="n">
+        <v>0</v>
+      </c>
       <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr"/>
       <c r="L8" t="inlineStr"/>
@@ -679,12 +693,14 @@
         <v>1000</v>
       </c>
       <c r="G9" t="n">
-        <v>2.640833333333334</v>
+        <v>-1494785.7786</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
       </c>
-      <c r="I9" t="inlineStr"/>
+      <c r="I9" t="n">
+        <v>0</v>
+      </c>
       <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr"/>
       <c r="L9" t="inlineStr"/>
@@ -712,12 +728,14 @@
         <v>634730.4248</v>
       </c>
       <c r="G10" t="n">
-        <v>2.642333333333334</v>
+        <v>-860055.3538000003</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
       </c>
-      <c r="I10" t="inlineStr"/>
+      <c r="I10" t="n">
+        <v>0</v>
+      </c>
       <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr"/>
       <c r="L10" t="inlineStr"/>
@@ -745,12 +763,14 @@
         <v>205170.5168</v>
       </c>
       <c r="G11" t="n">
-        <v>2.643333333333334</v>
+        <v>-1065225.8706</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
       </c>
-      <c r="I11" t="inlineStr"/>
+      <c r="I11" t="n">
+        <v>1</v>
+      </c>
       <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr"/>
       <c r="L11" t="inlineStr"/>
@@ -778,12 +798,14 @@
         <v>233434.8314</v>
       </c>
       <c r="G12" t="n">
-        <v>2.643833333333334</v>
+        <v>-831791.0392000002</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
       </c>
-      <c r="I12" t="inlineStr"/>
+      <c r="I12" t="n">
+        <v>0</v>
+      </c>
       <c r="J12" t="inlineStr"/>
       <c r="K12" t="inlineStr"/>
       <c r="L12" t="inlineStr"/>
@@ -811,12 +833,14 @@
         <v>36206.2846</v>
       </c>
       <c r="G13" t="n">
-        <v>2.643833333333334</v>
+        <v>-867997.3238000002</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
       </c>
-      <c r="I13" t="inlineStr"/>
+      <c r="I13" t="n">
+        <v>0</v>
+      </c>
       <c r="J13" t="inlineStr"/>
       <c r="K13" t="inlineStr"/>
       <c r="L13" t="inlineStr"/>
@@ -844,12 +868,14 @@
         <v>6061.2559</v>
       </c>
       <c r="G14" t="n">
-        <v>2.643833333333334</v>
+        <v>-867997.3238000002</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
       </c>
-      <c r="I14" t="inlineStr"/>
+      <c r="I14" t="n">
+        <v>0</v>
+      </c>
       <c r="J14" t="inlineStr"/>
       <c r="K14" t="inlineStr"/>
       <c r="L14" t="inlineStr"/>
@@ -877,12 +903,14 @@
         <v>10</v>
       </c>
       <c r="G15" t="n">
-        <v>2.644</v>
+        <v>-867997.3238000002</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
       </c>
-      <c r="I15" t="inlineStr"/>
+      <c r="I15" t="n">
+        <v>0</v>
+      </c>
       <c r="J15" t="inlineStr"/>
       <c r="K15" t="inlineStr"/>
       <c r="L15" t="inlineStr"/>
@@ -910,12 +938,14 @@
         <v>45828.1398</v>
       </c>
       <c r="G16" t="n">
-        <v>2.644666666666667</v>
+        <v>-822169.1840000002</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
       </c>
-      <c r="I16" t="inlineStr"/>
+      <c r="I16" t="n">
+        <v>0</v>
+      </c>
       <c r="J16" t="inlineStr"/>
       <c r="K16" t="inlineStr"/>
       <c r="L16" t="inlineStr"/>
@@ -943,12 +973,14 @@
         <v>92271.8003</v>
       </c>
       <c r="G17" t="n">
-        <v>2.645000000000001</v>
+        <v>-914440.9843000002</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
       </c>
-      <c r="I17" t="inlineStr"/>
+      <c r="I17" t="n">
+        <v>0</v>
+      </c>
       <c r="J17" t="inlineStr"/>
       <c r="K17" t="inlineStr"/>
       <c r="L17" t="inlineStr"/>
@@ -976,12 +1008,14 @@
         <v>99196.3959</v>
       </c>
       <c r="G18" t="n">
-        <v>2.645166666666667</v>
+        <v>-1013637.3802</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
       </c>
-      <c r="I18" t="inlineStr"/>
+      <c r="I18" t="n">
+        <v>0</v>
+      </c>
       <c r="J18" t="inlineStr"/>
       <c r="K18" t="inlineStr"/>
       <c r="L18" t="inlineStr"/>
@@ -1009,12 +1043,14 @@
         <v>276742.3401</v>
       </c>
       <c r="G19" t="n">
-        <v>2.645166666666667</v>
+        <v>-1290379.7203</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
       </c>
-      <c r="I19" t="inlineStr"/>
+      <c r="I19" t="n">
+        <v>0</v>
+      </c>
       <c r="J19" t="inlineStr"/>
       <c r="K19" t="inlineStr"/>
       <c r="L19" t="inlineStr"/>
@@ -1042,12 +1078,14 @@
         <v>29031.1787</v>
       </c>
       <c r="G20" t="n">
-        <v>2.645333333333334</v>
+        <v>-1290379.7203</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
       </c>
-      <c r="I20" t="inlineStr"/>
+      <c r="I20" t="n">
+        <v>0</v>
+      </c>
       <c r="J20" t="inlineStr"/>
       <c r="K20" t="inlineStr"/>
       <c r="L20" t="inlineStr"/>
@@ -1075,12 +1113,14 @@
         <v>7393.5361</v>
       </c>
       <c r="G21" t="n">
-        <v>2.6455</v>
+        <v>-1290379.7203</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
       </c>
-      <c r="I21" t="inlineStr"/>
+      <c r="I21" t="n">
+        <v>0</v>
+      </c>
       <c r="J21" t="inlineStr"/>
       <c r="K21" t="inlineStr"/>
       <c r="L21" t="inlineStr"/>
@@ -1108,12 +1148,14 @@
         <v>364738.6636</v>
       </c>
       <c r="G22" t="n">
-        <v>2.6455</v>
+        <v>-1655118.3839</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
       </c>
-      <c r="I22" t="inlineStr"/>
+      <c r="I22" t="n">
+        <v>0</v>
+      </c>
       <c r="J22" t="inlineStr"/>
       <c r="K22" t="inlineStr"/>
       <c r="L22" t="inlineStr"/>
@@ -1141,12 +1183,14 @@
         <v>449503.003</v>
       </c>
       <c r="G23" t="n">
-        <v>2.645166666666667</v>
+        <v>-2104621.3869</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
       </c>
-      <c r="I23" t="inlineStr"/>
+      <c r="I23" t="n">
+        <v>0</v>
+      </c>
       <c r="J23" t="inlineStr"/>
       <c r="K23" t="inlineStr"/>
       <c r="L23" t="inlineStr"/>
@@ -1174,12 +1218,14 @@
         <v>4752.3106</v>
       </c>
       <c r="G24" t="n">
-        <v>2.644666666666667</v>
+        <v>-2104621.3869</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
       </c>
-      <c r="I24" t="inlineStr"/>
+      <c r="I24" t="n">
+        <v>0</v>
+      </c>
       <c r="J24" t="inlineStr"/>
       <c r="K24" t="inlineStr"/>
       <c r="L24" t="inlineStr"/>
@@ -1207,12 +1253,14 @@
         <v>28002.1039</v>
       </c>
       <c r="G25" t="n">
-        <v>2.644333333333333</v>
+        <v>-2104621.3869</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
       </c>
-      <c r="I25" t="inlineStr"/>
+      <c r="I25" t="n">
+        <v>0</v>
+      </c>
       <c r="J25" t="inlineStr"/>
       <c r="K25" t="inlineStr"/>
       <c r="L25" t="inlineStr"/>
@@ -1240,14 +1288,20 @@
         <v>100000</v>
       </c>
       <c r="G26" t="n">
-        <v>2.644333333333333</v>
+        <v>-2004621.3869</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
-      </c>
-      <c r="I26" t="inlineStr"/>
-      <c r="J26" t="inlineStr"/>
-      <c r="K26" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I26" t="n">
+        <v>0</v>
+      </c>
+      <c r="J26" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="K26" t="n">
+        <v>2.6</v>
+      </c>
       <c r="L26" t="inlineStr"/>
       <c r="M26" t="n">
         <v>1</v>
@@ -1273,15 +1327,25 @@
         <v>908040.8506</v>
       </c>
       <c r="G27" t="n">
-        <v>2.645166666666666</v>
+        <v>-1096580.5363</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
-      </c>
-      <c r="I27" t="inlineStr"/>
-      <c r="J27" t="inlineStr"/>
-      <c r="K27" t="inlineStr"/>
-      <c r="L27" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I27" t="n">
+        <v>0</v>
+      </c>
+      <c r="J27" t="n">
+        <v>2.61</v>
+      </c>
+      <c r="K27" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="L27" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="M27" t="n">
         <v>1</v>
       </c>
@@ -1306,15 +1370,23 @@
         <v>206395.2787</v>
       </c>
       <c r="G28" t="n">
-        <v>2.645666666666666</v>
+        <v>-1096580.5363</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
       </c>
-      <c r="I28" t="inlineStr"/>
+      <c r="I28" t="n">
+        <v>0</v>
+      </c>
       <c r="J28" t="inlineStr"/>
-      <c r="K28" t="inlineStr"/>
-      <c r="L28" t="inlineStr"/>
+      <c r="K28" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="L28" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M28" t="n">
         <v>1</v>
       </c>
@@ -1339,15 +1411,23 @@
         <v>20000</v>
       </c>
       <c r="G29" t="n">
-        <v>2.645166666666666</v>
+        <v>-1116580.5363</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
       </c>
-      <c r="I29" t="inlineStr"/>
+      <c r="I29" t="n">
+        <v>0</v>
+      </c>
       <c r="J29" t="inlineStr"/>
-      <c r="K29" t="inlineStr"/>
-      <c r="L29" t="inlineStr"/>
+      <c r="K29" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="L29" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M29" t="n">
         <v>1</v>
       </c>
@@ -1372,15 +1452,23 @@
         <v>10</v>
       </c>
       <c r="G30" t="n">
-        <v>2.645833333333333</v>
+        <v>-1116570.5363</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
       </c>
-      <c r="I30" t="inlineStr"/>
+      <c r="I30" t="n">
+        <v>0</v>
+      </c>
       <c r="J30" t="inlineStr"/>
-      <c r="K30" t="inlineStr"/>
-      <c r="L30" t="inlineStr"/>
+      <c r="K30" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="L30" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M30" t="n">
         <v>1</v>
       </c>
@@ -1405,15 +1493,23 @@
         <v>1435.9962</v>
       </c>
       <c r="G31" t="n">
-        <v>2.646999999999999</v>
+        <v>-1116570.5363</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
       </c>
-      <c r="I31" t="inlineStr"/>
+      <c r="I31" t="n">
+        <v>0</v>
+      </c>
       <c r="J31" t="inlineStr"/>
-      <c r="K31" t="inlineStr"/>
-      <c r="L31" t="inlineStr"/>
+      <c r="K31" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="L31" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M31" t="n">
         <v>1</v>
       </c>
@@ -1438,15 +1534,23 @@
         <v>2562.4528</v>
       </c>
       <c r="G32" t="n">
-        <v>2.647999999999999</v>
+        <v>-1119132.9891</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
       </c>
-      <c r="I32" t="inlineStr"/>
+      <c r="I32" t="n">
+        <v>0</v>
+      </c>
       <c r="J32" t="inlineStr"/>
-      <c r="K32" t="inlineStr"/>
-      <c r="L32" t="inlineStr"/>
+      <c r="K32" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="L32" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M32" t="n">
         <v>1</v>
       </c>
@@ -1471,15 +1575,23 @@
         <v>1929.1666</v>
       </c>
       <c r="G33" t="n">
-        <v>2.648833333333333</v>
+        <v>-1121062.1557</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
       </c>
-      <c r="I33" t="inlineStr"/>
+      <c r="I33" t="n">
+        <v>0</v>
+      </c>
       <c r="J33" t="inlineStr"/>
-      <c r="K33" t="inlineStr"/>
-      <c r="L33" t="inlineStr"/>
+      <c r="K33" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="L33" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M33" t="n">
         <v>1</v>
       </c>
@@ -1504,15 +1616,23 @@
         <v>22388.0597</v>
       </c>
       <c r="G34" t="n">
-        <v>2.650333333333333</v>
+        <v>-1098674.096</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
       </c>
-      <c r="I34" t="inlineStr"/>
+      <c r="I34" t="n">
+        <v>0</v>
+      </c>
       <c r="J34" t="inlineStr"/>
-      <c r="K34" t="inlineStr"/>
-      <c r="L34" t="inlineStr"/>
+      <c r="K34" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="L34" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M34" t="n">
         <v>1</v>
       </c>
@@ -1537,15 +1657,23 @@
         <v>15671.6417</v>
       </c>
       <c r="G35" t="n">
-        <v>2.651499999999999</v>
+        <v>-1098674.096</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
       </c>
-      <c r="I35" t="inlineStr"/>
+      <c r="I35" t="n">
+        <v>0</v>
+      </c>
       <c r="J35" t="inlineStr"/>
-      <c r="K35" t="inlineStr"/>
-      <c r="L35" t="inlineStr"/>
+      <c r="K35" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="L35" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M35" t="n">
         <v>1</v>
       </c>
@@ -1570,15 +1698,23 @@
         <v>16000</v>
       </c>
       <c r="G36" t="n">
-        <v>2.652833333333332</v>
+        <v>-1082674.096</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
       </c>
-      <c r="I36" t="inlineStr"/>
+      <c r="I36" t="n">
+        <v>0</v>
+      </c>
       <c r="J36" t="inlineStr"/>
-      <c r="K36" t="inlineStr"/>
-      <c r="L36" t="inlineStr"/>
+      <c r="K36" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="L36" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M36" t="n">
         <v>1</v>
       </c>
@@ -1603,15 +1739,23 @@
         <v>37642.6877</v>
       </c>
       <c r="G37" t="n">
-        <v>2.652666666666666</v>
+        <v>-1120316.7837</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
       </c>
-      <c r="I37" t="inlineStr"/>
+      <c r="I37" t="n">
+        <v>0</v>
+      </c>
       <c r="J37" t="inlineStr"/>
-      <c r="K37" t="inlineStr"/>
-      <c r="L37" t="inlineStr"/>
+      <c r="K37" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="L37" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M37" t="n">
         <v>1</v>
       </c>
@@ -1636,15 +1780,23 @@
         <v>22304.8327</v>
       </c>
       <c r="G38" t="n">
-        <v>2.653499999999999</v>
+        <v>-1098011.951</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
       </c>
-      <c r="I38" t="inlineStr"/>
+      <c r="I38" t="n">
+        <v>0</v>
+      </c>
       <c r="J38" t="inlineStr"/>
-      <c r="K38" t="inlineStr"/>
-      <c r="L38" t="inlineStr"/>
+      <c r="K38" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="L38" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M38" t="n">
         <v>1</v>
       </c>
@@ -1669,15 +1821,23 @@
         <v>37642.6877</v>
       </c>
       <c r="G39" t="n">
-        <v>2.653833333333332</v>
+        <v>-1135654.6387</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
       </c>
-      <c r="I39" t="inlineStr"/>
+      <c r="I39" t="n">
+        <v>0</v>
+      </c>
       <c r="J39" t="inlineStr"/>
-      <c r="K39" t="inlineStr"/>
-      <c r="L39" t="inlineStr"/>
+      <c r="K39" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="L39" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M39" t="n">
         <v>1</v>
       </c>
@@ -1702,15 +1862,23 @@
         <v>728093.101</v>
       </c>
       <c r="G40" t="n">
-        <v>2.654166666666665</v>
+        <v>-1135654.6387</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
       </c>
-      <c r="I40" t="inlineStr"/>
+      <c r="I40" t="n">
+        <v>0</v>
+      </c>
       <c r="J40" t="inlineStr"/>
-      <c r="K40" t="inlineStr"/>
-      <c r="L40" t="inlineStr"/>
+      <c r="K40" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="L40" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M40" t="n">
         <v>1</v>
       </c>
@@ -1735,15 +1903,23 @@
         <v>357859.7169</v>
       </c>
       <c r="G41" t="n">
-        <v>2.654333333333332</v>
+        <v>-1135654.6387</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
       </c>
-      <c r="I41" t="inlineStr"/>
+      <c r="I41" t="n">
+        <v>0</v>
+      </c>
       <c r="J41" t="inlineStr"/>
-      <c r="K41" t="inlineStr"/>
-      <c r="L41" t="inlineStr"/>
+      <c r="K41" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="L41" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M41" t="n">
         <v>1</v>
       </c>
@@ -1768,15 +1944,23 @@
         <v>18773.2342</v>
       </c>
       <c r="G42" t="n">
-        <v>2.655499999999998</v>
+        <v>-1116881.4045</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
       </c>
-      <c r="I42" t="inlineStr"/>
+      <c r="I42" t="n">
+        <v>0</v>
+      </c>
       <c r="J42" t="inlineStr"/>
-      <c r="K42" t="inlineStr"/>
-      <c r="L42" t="inlineStr"/>
+      <c r="K42" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="L42" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M42" t="n">
         <v>1</v>
       </c>
@@ -1801,15 +1985,23 @@
         <v>25000</v>
       </c>
       <c r="G43" t="n">
-        <v>2.656999999999998</v>
+        <v>-1091881.4045</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
       </c>
-      <c r="I43" t="inlineStr"/>
+      <c r="I43" t="n">
+        <v>0</v>
+      </c>
       <c r="J43" t="inlineStr"/>
-      <c r="K43" t="inlineStr"/>
-      <c r="L43" t="inlineStr"/>
+      <c r="K43" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="L43" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M43" t="n">
         <v>1</v>
       </c>
@@ -1834,15 +2026,23 @@
         <v>10</v>
       </c>
       <c r="G44" t="n">
-        <v>2.656333333333331</v>
+        <v>-1091891.4045</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
       </c>
-      <c r="I44" t="inlineStr"/>
+      <c r="I44" t="n">
+        <v>0</v>
+      </c>
       <c r="J44" t="inlineStr"/>
-      <c r="K44" t="inlineStr"/>
-      <c r="L44" t="inlineStr"/>
+      <c r="K44" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="L44" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M44" t="n">
         <v>1</v>
       </c>
@@ -1867,15 +2067,23 @@
         <v>14925.3731</v>
       </c>
       <c r="G45" t="n">
-        <v>2.656499999999999</v>
+        <v>-1076966.0314</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
       </c>
-      <c r="I45" t="inlineStr"/>
+      <c r="I45" t="n">
+        <v>0</v>
+      </c>
       <c r="J45" t="inlineStr"/>
-      <c r="K45" t="inlineStr"/>
-      <c r="L45" t="inlineStr"/>
+      <c r="K45" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="L45" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M45" t="n">
         <v>1</v>
       </c>
@@ -1900,15 +2108,23 @@
         <v>3800</v>
       </c>
       <c r="G46" t="n">
-        <v>2.656666666666665</v>
+        <v>-1076966.0314</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
       </c>
-      <c r="I46" t="inlineStr"/>
+      <c r="I46" t="n">
+        <v>0</v>
+      </c>
       <c r="J46" t="inlineStr"/>
-      <c r="K46" t="inlineStr"/>
-      <c r="L46" t="inlineStr"/>
+      <c r="K46" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="L46" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M46" t="n">
         <v>1</v>
       </c>
@@ -1933,15 +2149,23 @@
         <v>9660.237300000001</v>
       </c>
       <c r="G47" t="n">
-        <v>2.656499999999999</v>
+        <v>-1086626.2687</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
       </c>
-      <c r="I47" t="inlineStr"/>
+      <c r="I47" t="n">
+        <v>0</v>
+      </c>
       <c r="J47" t="inlineStr"/>
-      <c r="K47" t="inlineStr"/>
-      <c r="L47" t="inlineStr"/>
+      <c r="K47" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="L47" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M47" t="n">
         <v>1</v>
       </c>
@@ -1966,15 +2190,23 @@
         <v>24000</v>
       </c>
       <c r="G48" t="n">
-        <v>2.656666666666665</v>
+        <v>-1062626.2687</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
       </c>
-      <c r="I48" t="inlineStr"/>
+      <c r="I48" t="n">
+        <v>0</v>
+      </c>
       <c r="J48" t="inlineStr"/>
-      <c r="K48" t="inlineStr"/>
-      <c r="L48" t="inlineStr"/>
+      <c r="K48" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="L48" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M48" t="n">
         <v>1</v>
       </c>
@@ -1999,15 +2231,23 @@
         <v>17000</v>
       </c>
       <c r="G49" t="n">
-        <v>2.656833333333332</v>
+        <v>-1062626.2687</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
       </c>
-      <c r="I49" t="inlineStr"/>
+      <c r="I49" t="n">
+        <v>0</v>
+      </c>
       <c r="J49" t="inlineStr"/>
-      <c r="K49" t="inlineStr"/>
-      <c r="L49" t="inlineStr"/>
+      <c r="K49" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="L49" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M49" t="n">
         <v>1</v>
       </c>
@@ -2032,17 +2272,25 @@
         <v>2926.3157</v>
       </c>
       <c r="G50" t="n">
-        <v>2.656666666666666</v>
+        <v>-1065552.5844</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
       </c>
-      <c r="I50" t="inlineStr"/>
+      <c r="I50" t="n">
+        <v>1</v>
+      </c>
       <c r="J50" t="inlineStr"/>
-      <c r="K50" t="inlineStr"/>
-      <c r="L50" t="inlineStr"/>
+      <c r="K50" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="L50" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
       <c r="M50" t="n">
-        <v>1</v>
+        <v>1.018076923076923</v>
       </c>
     </row>
     <row r="51">
@@ -2065,12 +2313,14 @@
         <v>17000</v>
       </c>
       <c r="G51" t="n">
-        <v>2.656333333333333</v>
+        <v>-1048552.5844</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
       </c>
-      <c r="I51" t="inlineStr"/>
+      <c r="I51" t="n">
+        <v>0</v>
+      </c>
       <c r="J51" t="inlineStr"/>
       <c r="K51" t="inlineStr"/>
       <c r="L51" t="inlineStr"/>
@@ -2098,12 +2348,14 @@
         <v>1468.6792</v>
       </c>
       <c r="G52" t="n">
-        <v>2.655666666666666</v>
+        <v>-1050021.2636</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
       </c>
-      <c r="I52" t="inlineStr"/>
+      <c r="I52" t="n">
+        <v>1</v>
+      </c>
       <c r="J52" t="inlineStr"/>
       <c r="K52" t="inlineStr"/>
       <c r="L52" t="inlineStr"/>
@@ -2131,12 +2383,14 @@
         <v>813760.3202</v>
       </c>
       <c r="G53" t="n">
-        <v>2.6555</v>
+        <v>-1863781.5838</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
       </c>
-      <c r="I53" t="inlineStr"/>
+      <c r="I53" t="n">
+        <v>0</v>
+      </c>
       <c r="J53" t="inlineStr"/>
       <c r="K53" t="inlineStr"/>
       <c r="L53" t="inlineStr"/>
@@ -2164,12 +2418,14 @@
         <v>659657.5074999999</v>
       </c>
       <c r="G54" t="n">
-        <v>2.653999999999999</v>
+        <v>-1863781.5838</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
       </c>
-      <c r="I54" t="inlineStr"/>
+      <c r="I54" t="n">
+        <v>0</v>
+      </c>
       <c r="J54" t="inlineStr"/>
       <c r="K54" t="inlineStr"/>
       <c r="L54" t="inlineStr"/>
@@ -2197,12 +2453,14 @@
         <v>11320.7547</v>
       </c>
       <c r="G55" t="n">
-        <v>2.653</v>
+        <v>-1852460.8291</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
       </c>
-      <c r="I55" t="inlineStr"/>
+      <c r="I55" t="n">
+        <v>0</v>
+      </c>
       <c r="J55" t="inlineStr"/>
       <c r="K55" t="inlineStr"/>
       <c r="L55" t="inlineStr"/>
@@ -2230,12 +2488,14 @@
         <v>60775.5211</v>
       </c>
       <c r="G56" t="n">
-        <v>2.652333333333333</v>
+        <v>-1852460.8291</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
       </c>
-      <c r="I56" t="inlineStr"/>
+      <c r="I56" t="n">
+        <v>0</v>
+      </c>
       <c r="J56" t="inlineStr"/>
       <c r="K56" t="inlineStr"/>
       <c r="L56" t="inlineStr"/>
@@ -2263,12 +2523,14 @@
         <v>10933</v>
       </c>
       <c r="G57" t="n">
-        <v>2.651833333333333</v>
+        <v>-1841527.8291</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
       </c>
-      <c r="I57" t="inlineStr"/>
+      <c r="I57" t="n">
+        <v>0</v>
+      </c>
       <c r="J57" t="inlineStr"/>
       <c r="K57" t="inlineStr"/>
       <c r="L57" t="inlineStr"/>
@@ -2296,12 +2558,14 @@
         <v>417.2284</v>
       </c>
       <c r="G58" t="n">
-        <v>2.652</v>
+        <v>-1841527.8291</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
       </c>
-      <c r="I58" t="inlineStr"/>
+      <c r="I58" t="n">
+        <v>0</v>
+      </c>
       <c r="J58" t="inlineStr"/>
       <c r="K58" t="inlineStr"/>
       <c r="L58" t="inlineStr"/>
@@ -2329,12 +2593,14 @@
         <v>831.086</v>
       </c>
       <c r="G59" t="n">
-        <v>2.652166666666666</v>
+        <v>-1841527.8291</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
       </c>
-      <c r="I59" t="inlineStr"/>
+      <c r="I59" t="n">
+        <v>0</v>
+      </c>
       <c r="J59" t="inlineStr"/>
       <c r="K59" t="inlineStr"/>
       <c r="L59" t="inlineStr"/>
@@ -2362,12 +2628,14 @@
         <v>1238.5766</v>
       </c>
       <c r="G60" t="n">
-        <v>2.652499999999999</v>
+        <v>-1840289.2525</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
       </c>
-      <c r="I60" t="inlineStr"/>
+      <c r="I60" t="n">
+        <v>0</v>
+      </c>
       <c r="J60" t="inlineStr"/>
       <c r="K60" t="inlineStr"/>
       <c r="L60" t="inlineStr"/>
@@ -2395,12 +2663,14 @@
         <v>820.5992</v>
       </c>
       <c r="G61" t="n">
-        <v>2.652833333333332</v>
+        <v>-1840289.2525</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
       </c>
-      <c r="I61" t="inlineStr"/>
+      <c r="I61" t="n">
+        <v>0</v>
+      </c>
       <c r="J61" t="inlineStr"/>
       <c r="K61" t="inlineStr"/>
       <c r="L61" t="inlineStr"/>
@@ -2428,12 +2698,14 @@
         <v>408.6142</v>
       </c>
       <c r="G62" t="n">
-        <v>2.652999999999999</v>
+        <v>-1840697.8667</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
       </c>
-      <c r="I62" t="inlineStr"/>
+      <c r="I62" t="n">
+        <v>0</v>
+      </c>
       <c r="J62" t="inlineStr"/>
       <c r="K62" t="inlineStr"/>
       <c r="L62" t="inlineStr"/>
@@ -2461,12 +2733,14 @@
         <v>1444.4096</v>
       </c>
       <c r="G63" t="n">
-        <v>2.652999999999999</v>
+        <v>-1840697.8667</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
       </c>
-      <c r="I63" t="inlineStr"/>
+      <c r="I63" t="n">
+        <v>0</v>
+      </c>
       <c r="J63" t="inlineStr"/>
       <c r="K63" t="inlineStr"/>
       <c r="L63" t="inlineStr"/>
@@ -2494,12 +2768,14 @@
         <v>0.0001</v>
       </c>
       <c r="G64" t="n">
-        <v>2.653166666666665</v>
+        <v>-1840697.8667</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
       </c>
-      <c r="I64" t="inlineStr"/>
+      <c r="I64" t="n">
+        <v>0</v>
+      </c>
       <c r="J64" t="inlineStr"/>
       <c r="K64" t="inlineStr"/>
       <c r="L64" t="inlineStr"/>
@@ -2527,12 +2803,14 @@
         <v>10</v>
       </c>
       <c r="G65" t="n">
-        <v>2.653666666666665</v>
+        <v>-1840687.8667</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
       </c>
-      <c r="I65" t="inlineStr"/>
+      <c r="I65" t="n">
+        <v>0</v>
+      </c>
       <c r="J65" t="inlineStr"/>
       <c r="K65" t="inlineStr"/>
       <c r="L65" t="inlineStr"/>
@@ -2560,12 +2838,14 @@
         <v>846.8045</v>
       </c>
       <c r="G66" t="n">
-        <v>2.654166666666665</v>
+        <v>-1841534.6712</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
       </c>
-      <c r="I66" t="inlineStr"/>
+      <c r="I66" t="n">
+        <v>0</v>
+      </c>
       <c r="J66" t="inlineStr"/>
       <c r="K66" t="inlineStr"/>
       <c r="L66" t="inlineStr"/>
@@ -2593,12 +2873,14 @@
         <v>1000</v>
       </c>
       <c r="G67" t="n">
-        <v>2.654999999999999</v>
+        <v>-1840534.6712</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
       </c>
-      <c r="I67" t="inlineStr"/>
+      <c r="I67" t="n">
+        <v>0</v>
+      </c>
       <c r="J67" t="inlineStr"/>
       <c r="K67" t="inlineStr"/>
       <c r="L67" t="inlineStr"/>
@@ -2626,12 +2908,14 @@
         <v>836.194</v>
       </c>
       <c r="G68" t="n">
-        <v>2.655333333333332</v>
+        <v>-1840534.6712</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
       </c>
-      <c r="I68" t="inlineStr"/>
+      <c r="I68" t="n">
+        <v>0</v>
+      </c>
       <c r="J68" t="inlineStr"/>
       <c r="K68" t="inlineStr"/>
       <c r="L68" t="inlineStr"/>
@@ -2659,12 +2943,14 @@
         <v>47980</v>
       </c>
       <c r="G69" t="n">
-        <v>2.655166666666665</v>
+        <v>-1888514.6712</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
       </c>
-      <c r="I69" t="inlineStr"/>
+      <c r="I69" t="n">
+        <v>0</v>
+      </c>
       <c r="J69" t="inlineStr"/>
       <c r="K69" t="inlineStr"/>
       <c r="L69" t="inlineStr"/>
@@ -2692,12 +2978,14 @@
         <v>60031.6383</v>
       </c>
       <c r="G70" t="n">
-        <v>2.654666666666665</v>
+        <v>-1828483.0329</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
       </c>
-      <c r="I70" t="inlineStr"/>
+      <c r="I70" t="n">
+        <v>0</v>
+      </c>
       <c r="J70" t="inlineStr"/>
       <c r="K70" t="inlineStr"/>
       <c r="L70" t="inlineStr"/>
@@ -2725,12 +3013,14 @@
         <v>8302.081099999999</v>
       </c>
       <c r="G71" t="n">
-        <v>2.654999999999999</v>
+        <v>-1828483.0329</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
       </c>
-      <c r="I71" t="inlineStr"/>
+      <c r="I71" t="n">
+        <v>0</v>
+      </c>
       <c r="J71" t="inlineStr"/>
       <c r="K71" t="inlineStr"/>
       <c r="L71" t="inlineStr"/>
@@ -2758,12 +3048,14 @@
         <v>1224320.4966</v>
       </c>
       <c r="G72" t="n">
-        <v>2.654333333333332</v>
+        <v>-3052803.5295</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
       </c>
-      <c r="I72" t="inlineStr"/>
+      <c r="I72" t="n">
+        <v>0</v>
+      </c>
       <c r="J72" t="inlineStr"/>
       <c r="K72" t="inlineStr"/>
       <c r="L72" t="inlineStr"/>
@@ -2791,12 +3083,14 @@
         <v>25739.3277</v>
       </c>
       <c r="G73" t="n">
-        <v>2.654166666666666</v>
+        <v>-3052803.5295</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
       </c>
-      <c r="I73" t="inlineStr"/>
+      <c r="I73" t="n">
+        <v>0</v>
+      </c>
       <c r="J73" t="inlineStr"/>
       <c r="K73" t="inlineStr"/>
       <c r="L73" t="inlineStr"/>
@@ -2824,12 +3118,14 @@
         <v>20000</v>
       </c>
       <c r="G74" t="n">
-        <v>2.653833333333333</v>
+        <v>-3072803.5295</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
       </c>
-      <c r="I74" t="inlineStr"/>
+      <c r="I74" t="n">
+        <v>0</v>
+      </c>
       <c r="J74" t="inlineStr"/>
       <c r="K74" t="inlineStr"/>
       <c r="L74" t="inlineStr"/>
@@ -2857,12 +3153,14 @@
         <v>10</v>
       </c>
       <c r="G75" t="n">
-        <v>2.654166666666666</v>
+        <v>-3072793.5295</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
       </c>
-      <c r="I75" t="inlineStr"/>
+      <c r="I75" t="n">
+        <v>0</v>
+      </c>
       <c r="J75" t="inlineStr"/>
       <c r="K75" t="inlineStr"/>
       <c r="L75" t="inlineStr"/>
@@ -2890,12 +3188,14 @@
         <v>40000</v>
       </c>
       <c r="G76" t="n">
-        <v>2.653166666666666</v>
+        <v>-3112793.5295</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
       </c>
-      <c r="I76" t="inlineStr"/>
+      <c r="I76" t="n">
+        <v>0</v>
+      </c>
       <c r="J76" t="inlineStr"/>
       <c r="K76" t="inlineStr"/>
       <c r="L76" t="inlineStr"/>
@@ -2923,12 +3223,14 @@
         <v>10</v>
       </c>
       <c r="G77" t="n">
-        <v>2.653166666666666</v>
+        <v>-3112783.5295</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
       </c>
-      <c r="I77" t="inlineStr"/>
+      <c r="I77" t="n">
+        <v>0</v>
+      </c>
       <c r="J77" t="inlineStr"/>
       <c r="K77" t="inlineStr"/>
       <c r="L77" t="inlineStr"/>
@@ -2956,12 +3258,14 @@
         <v>60000</v>
       </c>
       <c r="G78" t="n">
-        <v>2.652833333333333</v>
+        <v>-3172783.5295</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
       </c>
-      <c r="I78" t="inlineStr"/>
+      <c r="I78" t="n">
+        <v>0</v>
+      </c>
       <c r="J78" t="inlineStr"/>
       <c r="K78" t="inlineStr"/>
       <c r="L78" t="inlineStr"/>
@@ -2989,12 +3293,14 @@
         <v>593936.3381000001</v>
       </c>
       <c r="G79" t="n">
-        <v>2.652833333333333</v>
+        <v>-2578847.1914</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
       </c>
-      <c r="I79" t="inlineStr"/>
+      <c r="I79" t="n">
+        <v>0</v>
+      </c>
       <c r="J79" t="inlineStr"/>
       <c r="K79" t="inlineStr"/>
       <c r="L79" t="inlineStr"/>
@@ -3022,12 +3328,14 @@
         <v>20906.3432</v>
       </c>
       <c r="G80" t="n">
-        <v>2.653</v>
+        <v>-2557940.8482</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
       </c>
-      <c r="I80" t="inlineStr"/>
+      <c r="I80" t="n">
+        <v>0</v>
+      </c>
       <c r="J80" t="inlineStr"/>
       <c r="K80" t="inlineStr"/>
       <c r="L80" t="inlineStr"/>
@@ -3055,12 +3363,14 @@
         <v>29093.6568</v>
       </c>
       <c r="G81" t="n">
-        <v>2.653166666666666</v>
+        <v>-2557940.8482</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
       </c>
-      <c r="I81" t="inlineStr"/>
+      <c r="I81" t="n">
+        <v>0</v>
+      </c>
       <c r="J81" t="inlineStr"/>
       <c r="K81" t="inlineStr"/>
       <c r="L81" t="inlineStr"/>
@@ -3088,12 +3398,14 @@
         <v>62746.4232</v>
       </c>
       <c r="G82" t="n">
-        <v>2.654333333333333</v>
+        <v>-2495194.425</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
       </c>
-      <c r="I82" t="inlineStr"/>
+      <c r="I82" t="n">
+        <v>0</v>
+      </c>
       <c r="J82" t="inlineStr"/>
       <c r="K82" t="inlineStr"/>
       <c r="L82" t="inlineStr"/>
@@ -3121,12 +3433,14 @@
         <v>292286.3763</v>
       </c>
       <c r="G83" t="n">
-        <v>2.654999999999999</v>
+        <v>-2787480.8013</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
       </c>
-      <c r="I83" t="inlineStr"/>
+      <c r="I83" t="n">
+        <v>0</v>
+      </c>
       <c r="J83" t="inlineStr"/>
       <c r="K83" t="inlineStr"/>
       <c r="L83" t="inlineStr"/>
@@ -3154,12 +3468,14 @@
         <v>53703.7037</v>
       </c>
       <c r="G84" t="n">
-        <v>2.656666666666666</v>
+        <v>-2733777.0976</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
       </c>
-      <c r="I84" t="inlineStr"/>
+      <c r="I84" t="n">
+        <v>0</v>
+      </c>
       <c r="J84" t="inlineStr"/>
       <c r="K84" t="inlineStr"/>
       <c r="L84" t="inlineStr"/>
@@ -3187,12 +3503,14 @@
         <v>40277.7777</v>
       </c>
       <c r="G85" t="n">
-        <v>2.658333333333332</v>
+        <v>-2733777.0976</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
       </c>
-      <c r="I85" t="inlineStr"/>
+      <c r="I85" t="n">
+        <v>0</v>
+      </c>
       <c r="J85" t="inlineStr"/>
       <c r="K85" t="inlineStr"/>
       <c r="L85" t="inlineStr"/>
@@ -3220,12 +3538,14 @@
         <v>23013.2526</v>
       </c>
       <c r="G86" t="n">
-        <v>2.659833333333332</v>
+        <v>-2733777.0976</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
       </c>
-      <c r="I86" t="inlineStr"/>
+      <c r="I86" t="n">
+        <v>1</v>
+      </c>
       <c r="J86" t="inlineStr"/>
       <c r="K86" t="inlineStr"/>
       <c r="L86" t="inlineStr"/>
@@ -3253,12 +3573,14 @@
         <v>4893.7592</v>
       </c>
       <c r="G87" t="n">
-        <v>2.660499999999999</v>
+        <v>-2733777.0976</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
       </c>
-      <c r="I87" t="inlineStr"/>
+      <c r="I87" t="n">
+        <v>0</v>
+      </c>
       <c r="J87" t="inlineStr"/>
       <c r="K87" t="inlineStr"/>
       <c r="L87" t="inlineStr"/>
@@ -3286,12 +3608,14 @@
         <v>9298.1111</v>
       </c>
       <c r="G88" t="n">
-        <v>2.661166666666665</v>
+        <v>-2733777.0976</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
       </c>
-      <c r="I88" t="inlineStr"/>
+      <c r="I88" t="n">
+        <v>0</v>
+      </c>
       <c r="J88" t="inlineStr"/>
       <c r="K88" t="inlineStr"/>
       <c r="L88" t="inlineStr"/>
@@ -3319,12 +3643,14 @@
         <v>45573.2962</v>
       </c>
       <c r="G89" t="n">
-        <v>2.662666666666665</v>
+        <v>-2779350.3938</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
       </c>
-      <c r="I89" t="inlineStr"/>
+      <c r="I89" t="n">
+        <v>0</v>
+      </c>
       <c r="J89" t="inlineStr"/>
       <c r="K89" t="inlineStr"/>
       <c r="L89" t="inlineStr"/>
@@ -3352,12 +3678,14 @@
         <v>47608.2155</v>
       </c>
       <c r="G90" t="n">
-        <v>2.663166666666665</v>
+        <v>-2779350.3938</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
       </c>
-      <c r="I90" t="inlineStr"/>
+      <c r="I90" t="n">
+        <v>0</v>
+      </c>
       <c r="J90" t="inlineStr"/>
       <c r="K90" t="inlineStr"/>
       <c r="L90" t="inlineStr"/>
@@ -3385,12 +3713,14 @@
         <v>1811.6666</v>
       </c>
       <c r="G91" t="n">
-        <v>2.663833333333331</v>
+        <v>-2777538.7272</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
       </c>
-      <c r="I91" t="inlineStr"/>
+      <c r="I91" t="n">
+        <v>0</v>
+      </c>
       <c r="J91" t="inlineStr"/>
       <c r="K91" t="inlineStr"/>
       <c r="L91" t="inlineStr"/>
@@ -3418,12 +3748,14 @@
         <v>51636.5799</v>
       </c>
       <c r="G92" t="n">
-        <v>2.664499999999998</v>
+        <v>-2829175.3071</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
       </c>
-      <c r="I92" t="inlineStr"/>
+      <c r="I92" t="n">
+        <v>0</v>
+      </c>
       <c r="J92" t="inlineStr"/>
       <c r="K92" t="inlineStr"/>
       <c r="L92" t="inlineStr"/>
@@ -3451,12 +3783,14 @@
         <v>3682.249</v>
       </c>
       <c r="G93" t="n">
-        <v>2.665333333333332</v>
+        <v>-2829175.3071</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
       </c>
-      <c r="I93" t="inlineStr"/>
+      <c r="I93" t="n">
+        <v>0</v>
+      </c>
       <c r="J93" t="inlineStr"/>
       <c r="K93" t="inlineStr"/>
       <c r="L93" t="inlineStr"/>
@@ -3484,12 +3818,14 @@
         <v>2761.71</v>
       </c>
       <c r="G94" t="n">
-        <v>2.665499999999998</v>
+        <v>-2829175.3071</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
       </c>
-      <c r="I94" t="inlineStr"/>
+      <c r="I94" t="n">
+        <v>0</v>
+      </c>
       <c r="J94" t="inlineStr"/>
       <c r="K94" t="inlineStr"/>
       <c r="L94" t="inlineStr"/>
@@ -3517,12 +3853,14 @@
         <v>2071.2825</v>
       </c>
       <c r="G95" t="n">
-        <v>2.665666666666665</v>
+        <v>-2829175.3071</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
       </c>
-      <c r="I95" t="inlineStr"/>
+      <c r="I95" t="n">
+        <v>0</v>
+      </c>
       <c r="J95" t="inlineStr"/>
       <c r="K95" t="inlineStr"/>
       <c r="L95" t="inlineStr"/>
@@ -3550,12 +3888,14 @@
         <v>1553.4386</v>
       </c>
       <c r="G96" t="n">
-        <v>2.665499999999998</v>
+        <v>-2829175.3071</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
       </c>
-      <c r="I96" t="inlineStr"/>
+      <c r="I96" t="n">
+        <v>0</v>
+      </c>
       <c r="J96" t="inlineStr"/>
       <c r="K96" t="inlineStr"/>
       <c r="L96" t="inlineStr"/>
@@ -3583,12 +3923,14 @@
         <v>466.0594</v>
       </c>
       <c r="G97" t="n">
-        <v>2.666666666666665</v>
+        <v>-2829175.3071</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
       </c>
-      <c r="I97" t="inlineStr"/>
+      <c r="I97" t="n">
+        <v>0</v>
+      </c>
       <c r="J97" t="inlineStr"/>
       <c r="K97" t="inlineStr"/>
       <c r="L97" t="inlineStr"/>
@@ -3616,12 +3958,14 @@
         <v>209.7211</v>
       </c>
       <c r="G98" t="n">
-        <v>2.666666666666665</v>
+        <v>-2829175.3071</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
       </c>
-      <c r="I98" t="inlineStr"/>
+      <c r="I98" t="n">
+        <v>0</v>
+      </c>
       <c r="J98" t="inlineStr"/>
       <c r="K98" t="inlineStr"/>
       <c r="L98" t="inlineStr"/>
@@ -3649,12 +3993,14 @@
         <v>11623.0482</v>
       </c>
       <c r="G99" t="n">
-        <v>2.666999999999998</v>
+        <v>-2829175.3071</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
       </c>
-      <c r="I99" t="inlineStr"/>
+      <c r="I99" t="n">
+        <v>0</v>
+      </c>
       <c r="J99" t="inlineStr"/>
       <c r="K99" t="inlineStr"/>
       <c r="L99" t="inlineStr"/>
@@ -3682,12 +4028,14 @@
         <v>7407.4074</v>
       </c>
       <c r="G100" t="n">
-        <v>2.667499999999998</v>
+        <v>-2821767.8997</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
       </c>
-      <c r="I100" t="inlineStr"/>
+      <c r="I100" t="n">
+        <v>0</v>
+      </c>
       <c r="J100" t="inlineStr"/>
       <c r="K100" t="inlineStr"/>
       <c r="L100" t="inlineStr"/>
@@ -3715,12 +4063,14 @@
         <v>50000</v>
       </c>
       <c r="G101" t="n">
-        <v>2.667999999999998</v>
+        <v>-2821767.8997</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
       </c>
-      <c r="I101" t="inlineStr"/>
+      <c r="I101" t="n">
+        <v>0</v>
+      </c>
       <c r="J101" t="inlineStr"/>
       <c r="K101" t="inlineStr"/>
       <c r="L101" t="inlineStr"/>
@@ -3748,12 +4098,14 @@
         <v>909191.3638000001</v>
       </c>
       <c r="G102" t="n">
-        <v>2.668333333333332</v>
+        <v>-1912576.5359</v>
       </c>
       <c r="H102" t="n">
         <v>0</v>
       </c>
-      <c r="I102" t="inlineStr"/>
+      <c r="I102" t="n">
+        <v>1</v>
+      </c>
       <c r="J102" t="inlineStr"/>
       <c r="K102" t="inlineStr"/>
       <c r="L102" t="inlineStr"/>
@@ -3781,12 +4133,14 @@
         <v>102292.2727</v>
       </c>
       <c r="G103" t="n">
-        <v>2.667499999999999</v>
+        <v>-2014868.8086</v>
       </c>
       <c r="H103" t="n">
         <v>0</v>
       </c>
-      <c r="I103" t="inlineStr"/>
+      <c r="I103" t="n">
+        <v>1</v>
+      </c>
       <c r="J103" t="inlineStr"/>
       <c r="K103" t="inlineStr"/>
       <c r="L103" t="inlineStr"/>
@@ -3814,12 +4168,14 @@
         <v>7064</v>
       </c>
       <c r="G104" t="n">
-        <v>2.668166666666665</v>
+        <v>-2007804.8086</v>
       </c>
       <c r="H104" t="n">
         <v>0</v>
       </c>
-      <c r="I104" t="inlineStr"/>
+      <c r="I104" t="n">
+        <v>0</v>
+      </c>
       <c r="J104" t="inlineStr"/>
       <c r="K104" t="inlineStr"/>
       <c r="L104" t="inlineStr"/>
@@ -3847,12 +4203,14 @@
         <v>40412</v>
       </c>
       <c r="G105" t="n">
-        <v>2.667999999999998</v>
+        <v>-2007804.8086</v>
       </c>
       <c r="H105" t="n">
         <v>0</v>
       </c>
-      <c r="I105" t="inlineStr"/>
+      <c r="I105" t="n">
+        <v>0</v>
+      </c>
       <c r="J105" t="inlineStr"/>
       <c r="K105" t="inlineStr"/>
       <c r="L105" t="inlineStr"/>
@@ -3880,12 +4238,14 @@
         <v>1108994.0469</v>
       </c>
       <c r="G106" t="n">
-        <v>2.667833333333332</v>
+        <v>-2007804.8086</v>
       </c>
       <c r="H106" t="n">
         <v>0</v>
       </c>
-      <c r="I106" t="inlineStr"/>
+      <c r="I106" t="n">
+        <v>0</v>
+      </c>
       <c r="J106" t="inlineStr"/>
       <c r="K106" t="inlineStr"/>
       <c r="L106" t="inlineStr"/>
@@ -3913,12 +4273,14 @@
         <v>201676.6399</v>
       </c>
       <c r="G107" t="n">
-        <v>2.667833333333332</v>
+        <v>-2007804.8086</v>
       </c>
       <c r="H107" t="n">
         <v>0</v>
       </c>
-      <c r="I107" t="inlineStr"/>
+      <c r="I107" t="n">
+        <v>0</v>
+      </c>
       <c r="J107" t="inlineStr"/>
       <c r="K107" t="inlineStr"/>
       <c r="L107" t="inlineStr"/>
@@ -3946,12 +4308,14 @@
         <v>992.5</v>
       </c>
       <c r="G108" t="n">
-        <v>2.668166666666664</v>
+        <v>-2006812.3086</v>
       </c>
       <c r="H108" t="n">
         <v>0</v>
       </c>
-      <c r="I108" t="inlineStr"/>
+      <c r="I108" t="n">
+        <v>0</v>
+      </c>
       <c r="J108" t="inlineStr"/>
       <c r="K108" t="inlineStr"/>
       <c r="L108" t="inlineStr"/>
@@ -3979,12 +4343,14 @@
         <v>562692.3012</v>
       </c>
       <c r="G109" t="n">
-        <v>2.667833333333331</v>
+        <v>-2569504.6098</v>
       </c>
       <c r="H109" t="n">
         <v>0</v>
       </c>
-      <c r="I109" t="inlineStr"/>
+      <c r="I109" t="n">
+        <v>0</v>
+      </c>
       <c r="J109" t="inlineStr"/>
       <c r="K109" t="inlineStr"/>
       <c r="L109" t="inlineStr"/>
@@ -4012,12 +4378,14 @@
         <v>549319</v>
       </c>
       <c r="G110" t="n">
-        <v>2.667666666666664</v>
+        <v>-3118823.6098</v>
       </c>
       <c r="H110" t="n">
         <v>0</v>
       </c>
-      <c r="I110" t="inlineStr"/>
+      <c r="I110" t="n">
+        <v>0</v>
+      </c>
       <c r="J110" t="inlineStr"/>
       <c r="K110" t="inlineStr"/>
       <c r="L110" t="inlineStr"/>
@@ -4045,12 +4413,14 @@
         <v>10</v>
       </c>
       <c r="G111" t="n">
-        <v>2.667999999999997</v>
+        <v>-3118813.6098</v>
       </c>
       <c r="H111" t="n">
         <v>0</v>
       </c>
-      <c r="I111" t="inlineStr"/>
+      <c r="I111" t="n">
+        <v>0</v>
+      </c>
       <c r="J111" t="inlineStr"/>
       <c r="K111" t="inlineStr"/>
       <c r="L111" t="inlineStr"/>
@@ -4078,12 +4448,14 @@
         <v>53542.4758</v>
       </c>
       <c r="G112" t="n">
-        <v>2.668666666666664</v>
+        <v>-3172356.0856</v>
       </c>
       <c r="H112" t="n">
         <v>0</v>
       </c>
-      <c r="I112" t="inlineStr"/>
+      <c r="I112" t="n">
+        <v>0</v>
+      </c>
       <c r="J112" t="inlineStr"/>
       <c r="K112" t="inlineStr"/>
       <c r="L112" t="inlineStr"/>
@@ -4091,369 +4463,6 @@
         <v>1</v>
       </c>
     </row>
-    <row r="113">
-      <c r="A113" s="1" t="n">
-        <v>111</v>
-      </c>
-      <c r="B113" t="n">
-        <v>2.65</v>
-      </c>
-      <c r="C113" t="n">
-        <v>2.7</v>
-      </c>
-      <c r="D113" t="n">
-        <v>2.7</v>
-      </c>
-      <c r="E113" t="n">
-        <v>2.65</v>
-      </c>
-      <c r="F113" t="n">
-        <v>58279</v>
-      </c>
-      <c r="G113" t="n">
-        <v>2.66983333333333</v>
-      </c>
-      <c r="H113" t="n">
-        <v>0</v>
-      </c>
-      <c r="I113" t="inlineStr"/>
-      <c r="J113" t="inlineStr"/>
-      <c r="K113" t="inlineStr"/>
-      <c r="L113" t="inlineStr"/>
-      <c r="M113" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="114">
-      <c r="A114" s="1" t="n">
-        <v>112</v>
-      </c>
-      <c r="B114" t="n">
-        <v>2.65</v>
-      </c>
-      <c r="C114" t="n">
-        <v>2.7</v>
-      </c>
-      <c r="D114" t="n">
-        <v>2.7</v>
-      </c>
-      <c r="E114" t="n">
-        <v>2.65</v>
-      </c>
-      <c r="F114" t="n">
-        <v>78961</v>
-      </c>
-      <c r="G114" t="n">
-        <v>2.670999999999997</v>
-      </c>
-      <c r="H114" t="n">
-        <v>0</v>
-      </c>
-      <c r="I114" t="inlineStr"/>
-      <c r="J114" t="inlineStr"/>
-      <c r="K114" t="inlineStr"/>
-      <c r="L114" t="inlineStr"/>
-      <c r="M114" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="115">
-      <c r="A115" s="1" t="n">
-        <v>113</v>
-      </c>
-      <c r="B115" t="n">
-        <v>2.68</v>
-      </c>
-      <c r="C115" t="n">
-        <v>2.68</v>
-      </c>
-      <c r="D115" t="n">
-        <v>2.68</v>
-      </c>
-      <c r="E115" t="n">
-        <v>2.65</v>
-      </c>
-      <c r="F115" t="n">
-        <v>571887.0723999999</v>
-      </c>
-      <c r="G115" t="n">
-        <v>2.671499999999997</v>
-      </c>
-      <c r="H115" t="n">
-        <v>0</v>
-      </c>
-      <c r="I115" t="inlineStr"/>
-      <c r="J115" t="inlineStr"/>
-      <c r="K115" t="inlineStr"/>
-      <c r="L115" t="inlineStr"/>
-      <c r="M115" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="116">
-      <c r="A116" s="1" t="n">
-        <v>114</v>
-      </c>
-      <c r="B116" t="n">
-        <v>2.68</v>
-      </c>
-      <c r="C116" t="n">
-        <v>2.68</v>
-      </c>
-      <c r="D116" t="n">
-        <v>2.68</v>
-      </c>
-      <c r="E116" t="n">
-        <v>2.68</v>
-      </c>
-      <c r="F116" t="n">
-        <v>7204.4249</v>
-      </c>
-      <c r="G116" t="n">
-        <v>2.671999999999997</v>
-      </c>
-      <c r="H116" t="n">
-        <v>0</v>
-      </c>
-      <c r="I116" t="inlineStr"/>
-      <c r="J116" t="inlineStr"/>
-      <c r="K116" t="inlineStr"/>
-      <c r="L116" t="inlineStr"/>
-      <c r="M116" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="117">
-      <c r="A117" s="1" t="n">
-        <v>115</v>
-      </c>
-      <c r="B117" t="n">
-        <v>2.69</v>
-      </c>
-      <c r="C117" t="n">
-        <v>2.69</v>
-      </c>
-      <c r="D117" t="n">
-        <v>2.69</v>
-      </c>
-      <c r="E117" t="n">
-        <v>2.69</v>
-      </c>
-      <c r="F117" t="n">
-        <v>20000</v>
-      </c>
-      <c r="G117" t="n">
-        <v>2.672499999999997</v>
-      </c>
-      <c r="H117" t="n">
-        <v>0</v>
-      </c>
-      <c r="I117" t="inlineStr"/>
-      <c r="J117" t="inlineStr"/>
-      <c r="K117" t="inlineStr"/>
-      <c r="L117" t="inlineStr"/>
-      <c r="M117" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="118">
-      <c r="A118" s="1" t="n">
-        <v>116</v>
-      </c>
-      <c r="B118" t="n">
-        <v>2.65</v>
-      </c>
-      <c r="C118" t="n">
-        <v>2.65</v>
-      </c>
-      <c r="D118" t="n">
-        <v>2.65</v>
-      </c>
-      <c r="E118" t="n">
-        <v>2.65</v>
-      </c>
-      <c r="F118" t="n">
-        <v>886823.0943</v>
-      </c>
-      <c r="G118" t="n">
-        <v>2.67233333333333</v>
-      </c>
-      <c r="H118" t="n">
-        <v>0</v>
-      </c>
-      <c r="I118" t="inlineStr"/>
-      <c r="J118" t="inlineStr"/>
-      <c r="K118" t="inlineStr"/>
-      <c r="L118" t="inlineStr"/>
-      <c r="M118" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="119">
-      <c r="A119" s="1" t="n">
-        <v>117</v>
-      </c>
-      <c r="B119" t="n">
-        <v>2.65</v>
-      </c>
-      <c r="C119" t="n">
-        <v>2.65</v>
-      </c>
-      <c r="D119" t="n">
-        <v>2.65</v>
-      </c>
-      <c r="E119" t="n">
-        <v>2.65</v>
-      </c>
-      <c r="F119" t="n">
-        <v>987581.8536</v>
-      </c>
-      <c r="G119" t="n">
-        <v>2.672166666666664</v>
-      </c>
-      <c r="H119" t="n">
-        <v>0</v>
-      </c>
-      <c r="I119" t="inlineStr"/>
-      <c r="J119" t="inlineStr"/>
-      <c r="K119" t="inlineStr"/>
-      <c r="L119" t="inlineStr"/>
-      <c r="M119" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="120">
-      <c r="A120" s="1" t="n">
-        <v>118</v>
-      </c>
-      <c r="B120" t="n">
-        <v>2.66</v>
-      </c>
-      <c r="C120" t="n">
-        <v>2.66</v>
-      </c>
-      <c r="D120" t="n">
-        <v>2.66</v>
-      </c>
-      <c r="E120" t="n">
-        <v>2.66</v>
-      </c>
-      <c r="F120" t="n">
-        <v>20000</v>
-      </c>
-      <c r="G120" t="n">
-        <v>2.671999999999997</v>
-      </c>
-      <c r="H120" t="n">
-        <v>0</v>
-      </c>
-      <c r="I120" t="inlineStr"/>
-      <c r="J120" t="inlineStr"/>
-      <c r="K120" t="inlineStr"/>
-      <c r="L120" t="inlineStr"/>
-      <c r="M120" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="121">
-      <c r="A121" s="1" t="n">
-        <v>119</v>
-      </c>
-      <c r="B121" t="n">
-        <v>2.66</v>
-      </c>
-      <c r="C121" t="n">
-        <v>2.66</v>
-      </c>
-      <c r="D121" t="n">
-        <v>2.66</v>
-      </c>
-      <c r="E121" t="n">
-        <v>2.66</v>
-      </c>
-      <c r="F121" t="n">
-        <v>265054.2689</v>
-      </c>
-      <c r="G121" t="n">
-        <v>2.671833333333331</v>
-      </c>
-      <c r="H121" t="n">
-        <v>0</v>
-      </c>
-      <c r="I121" t="inlineStr"/>
-      <c r="J121" t="inlineStr"/>
-      <c r="K121" t="inlineStr"/>
-      <c r="L121" t="inlineStr"/>
-      <c r="M121" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="122">
-      <c r="A122" s="1" t="n">
-        <v>120</v>
-      </c>
-      <c r="B122" t="n">
-        <v>2.65</v>
-      </c>
-      <c r="C122" t="n">
-        <v>2.65</v>
-      </c>
-      <c r="D122" t="n">
-        <v>2.65</v>
-      </c>
-      <c r="E122" t="n">
-        <v>2.65</v>
-      </c>
-      <c r="F122" t="n">
-        <v>100000</v>
-      </c>
-      <c r="G122" t="n">
-        <v>2.671666666666665</v>
-      </c>
-      <c r="H122" t="n">
-        <v>0</v>
-      </c>
-      <c r="I122" t="inlineStr"/>
-      <c r="J122" t="inlineStr"/>
-      <c r="K122" t="inlineStr"/>
-      <c r="L122" t="inlineStr"/>
-      <c r="M122" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="123">
-      <c r="A123" s="1" t="n">
-        <v>121</v>
-      </c>
-      <c r="B123" t="n">
-        <v>2.66</v>
-      </c>
-      <c r="C123" t="n">
-        <v>2.66</v>
-      </c>
-      <c r="D123" t="n">
-        <v>2.66</v>
-      </c>
-      <c r="E123" t="n">
-        <v>2.66</v>
-      </c>
-      <c r="F123" t="n">
-        <v>23470.0746</v>
-      </c>
-      <c r="G123" t="n">
-        <v>2.671666666666665</v>
-      </c>
-      <c r="H123" t="n">
-        <v>0</v>
-      </c>
-      <c r="I123" t="inlineStr"/>
-      <c r="J123" t="inlineStr"/>
-      <c r="K123" t="inlineStr"/>
-      <c r="L123" t="inlineStr"/>
-      <c r="M123" t="n">
-        <v>1</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>

--- a/BackTest/2019-11-01 BackTest ANKR.xlsx
+++ b/BackTest/2019-11-01 BackTest ANKR.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M112"/>
+  <dimension ref="A1:N112"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -427,6 +427,11 @@
           <t>Profits</t>
         </is>
       </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>Price_gap</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -462,6 +467,7 @@
       <c r="M2" t="n">
         <v>1</v>
       </c>
+      <c r="N2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -497,6 +503,7 @@
       <c r="M3" t="n">
         <v>1</v>
       </c>
+      <c r="N3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -532,6 +539,7 @@
       <c r="M4" t="n">
         <v>1</v>
       </c>
+      <c r="N4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -559,7 +567,7 @@
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr"/>
@@ -567,6 +575,7 @@
       <c r="M5" t="n">
         <v>1</v>
       </c>
+      <c r="N5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -594,7 +603,7 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
@@ -602,6 +611,7 @@
       <c r="M6" t="n">
         <v>1</v>
       </c>
+      <c r="N6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -629,7 +639,7 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr"/>
@@ -637,6 +647,7 @@
       <c r="M7" t="n">
         <v>1</v>
       </c>
+      <c r="N7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -664,7 +675,7 @@
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr"/>
@@ -672,6 +683,7 @@
       <c r="M8" t="n">
         <v>1</v>
       </c>
+      <c r="N8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -699,7 +711,7 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr"/>
@@ -707,6 +719,7 @@
       <c r="M9" t="n">
         <v>1</v>
       </c>
+      <c r="N9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -734,7 +747,7 @@
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr"/>
@@ -742,6 +755,7 @@
       <c r="M10" t="n">
         <v>1</v>
       </c>
+      <c r="N10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -777,6 +791,7 @@
       <c r="M11" t="n">
         <v>1</v>
       </c>
+      <c r="N11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -804,7 +819,7 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J12" t="inlineStr"/>
       <c r="K12" t="inlineStr"/>
@@ -812,6 +827,7 @@
       <c r="M12" t="n">
         <v>1</v>
       </c>
+      <c r="N12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -839,7 +855,7 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J13" t="inlineStr"/>
       <c r="K13" t="inlineStr"/>
@@ -847,6 +863,7 @@
       <c r="M13" t="n">
         <v>1</v>
       </c>
+      <c r="N13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -874,7 +891,7 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J14" t="inlineStr"/>
       <c r="K14" t="inlineStr"/>
@@ -882,6 +899,7 @@
       <c r="M14" t="n">
         <v>1</v>
       </c>
+      <c r="N14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -917,6 +935,7 @@
       <c r="M15" t="n">
         <v>1</v>
       </c>
+      <c r="N15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -952,6 +971,7 @@
       <c r="M16" t="n">
         <v>1</v>
       </c>
+      <c r="N16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -987,6 +1007,7 @@
       <c r="M17" t="n">
         <v>1</v>
       </c>
+      <c r="N17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -1014,7 +1035,7 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J18" t="inlineStr"/>
       <c r="K18" t="inlineStr"/>
@@ -1022,6 +1043,7 @@
       <c r="M18" t="n">
         <v>1</v>
       </c>
+      <c r="N18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -1057,6 +1079,7 @@
       <c r="M19" t="n">
         <v>1</v>
       </c>
+      <c r="N19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -1092,6 +1115,7 @@
       <c r="M20" t="n">
         <v>1</v>
       </c>
+      <c r="N20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1127,6 +1151,7 @@
       <c r="M21" t="n">
         <v>1</v>
       </c>
+      <c r="N21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1162,6 +1187,7 @@
       <c r="M22" t="n">
         <v>1</v>
       </c>
+      <c r="N22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1197,6 +1223,7 @@
       <c r="M23" t="n">
         <v>1</v>
       </c>
+      <c r="N23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1232,6 +1259,7 @@
       <c r="M24" t="n">
         <v>1</v>
       </c>
+      <c r="N24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1267,6 +1295,7 @@
       <c r="M25" t="n">
         <v>1</v>
       </c>
+      <c r="N25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1306,6 +1335,7 @@
       <c r="M26" t="n">
         <v>1</v>
       </c>
+      <c r="N26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1349,6 +1379,7 @@
       <c r="M27" t="n">
         <v>1</v>
       </c>
+      <c r="N27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1376,7 +1407,7 @@
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J28" t="inlineStr"/>
       <c r="K28" t="n">
@@ -1390,6 +1421,7 @@
       <c r="M28" t="n">
         <v>1</v>
       </c>
+      <c r="N28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1417,7 +1449,7 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J29" t="inlineStr"/>
       <c r="K29" t="n">
@@ -1431,6 +1463,7 @@
       <c r="M29" t="n">
         <v>1</v>
       </c>
+      <c r="N29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -1472,6 +1505,7 @@
       <c r="M30" t="n">
         <v>1</v>
       </c>
+      <c r="N30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1513,6 +1547,7 @@
       <c r="M31" t="n">
         <v>1</v>
       </c>
+      <c r="N31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1554,6 +1589,7 @@
       <c r="M32" t="n">
         <v>1</v>
       </c>
+      <c r="N32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1595,6 +1631,7 @@
       <c r="M33" t="n">
         <v>1</v>
       </c>
+      <c r="N33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1636,6 +1673,7 @@
       <c r="M34" t="n">
         <v>1</v>
       </c>
+      <c r="N34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1677,6 +1715,7 @@
       <c r="M35" t="n">
         <v>1</v>
       </c>
+      <c r="N35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1718,6 +1757,7 @@
       <c r="M36" t="n">
         <v>1</v>
       </c>
+      <c r="N36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1759,6 +1799,7 @@
       <c r="M37" t="n">
         <v>1</v>
       </c>
+      <c r="N37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1800,6 +1841,7 @@
       <c r="M38" t="n">
         <v>1</v>
       </c>
+      <c r="N38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1841,6 +1883,7 @@
       <c r="M39" t="n">
         <v>1</v>
       </c>
+      <c r="N39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1882,6 +1925,7 @@
       <c r="M40" t="n">
         <v>1</v>
       </c>
+      <c r="N40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1923,6 +1967,7 @@
       <c r="M41" t="n">
         <v>1</v>
       </c>
+      <c r="N41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -1964,6 +2009,7 @@
       <c r="M42" t="n">
         <v>1</v>
       </c>
+      <c r="N42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -1991,7 +2037,7 @@
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J43" t="inlineStr"/>
       <c r="K43" t="n">
@@ -1999,11 +2045,14 @@
       </c>
       <c r="L43" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매도 체결</t>
         </is>
       </c>
       <c r="M43" t="n">
-        <v>1</v>
+        <v>1.033461538461539</v>
+      </c>
+      <c r="N43" t="n">
+        <v>1.030769230769231</v>
       </c>
     </row>
     <row r="44">
@@ -2032,20 +2081,15 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J44" t="inlineStr"/>
-      <c r="K44" t="n">
-        <v>2.6</v>
-      </c>
-      <c r="L44" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K44" t="inlineStr"/>
+      <c r="L44" t="inlineStr"/>
       <c r="M44" t="n">
         <v>1</v>
       </c>
+      <c r="N44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -2076,17 +2120,12 @@
         <v>0</v>
       </c>
       <c r="J45" t="inlineStr"/>
-      <c r="K45" t="n">
-        <v>2.6</v>
-      </c>
-      <c r="L45" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K45" t="inlineStr"/>
+      <c r="L45" t="inlineStr"/>
       <c r="M45" t="n">
         <v>1</v>
       </c>
+      <c r="N45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -2114,20 +2153,15 @@
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J46" t="inlineStr"/>
-      <c r="K46" t="n">
-        <v>2.6</v>
-      </c>
-      <c r="L46" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K46" t="inlineStr"/>
+      <c r="L46" t="inlineStr"/>
       <c r="M46" t="n">
         <v>1</v>
       </c>
+      <c r="N46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -2158,17 +2192,12 @@
         <v>0</v>
       </c>
       <c r="J47" t="inlineStr"/>
-      <c r="K47" t="n">
-        <v>2.6</v>
-      </c>
-      <c r="L47" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K47" t="inlineStr"/>
+      <c r="L47" t="inlineStr"/>
       <c r="M47" t="n">
         <v>1</v>
       </c>
+      <c r="N47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -2196,20 +2225,15 @@
         <v>0</v>
       </c>
       <c r="I48" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J48" t="inlineStr"/>
-      <c r="K48" t="n">
-        <v>2.6</v>
-      </c>
-      <c r="L48" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K48" t="inlineStr"/>
+      <c r="L48" t="inlineStr"/>
       <c r="M48" t="n">
         <v>1</v>
       </c>
+      <c r="N48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -2237,20 +2261,15 @@
         <v>0</v>
       </c>
       <c r="I49" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J49" t="inlineStr"/>
-      <c r="K49" t="n">
-        <v>2.6</v>
-      </c>
-      <c r="L49" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K49" t="inlineStr"/>
+      <c r="L49" t="inlineStr"/>
       <c r="M49" t="n">
         <v>1</v>
       </c>
+      <c r="N49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -2281,17 +2300,12 @@
         <v>1</v>
       </c>
       <c r="J50" t="inlineStr"/>
-      <c r="K50" t="n">
-        <v>2.6</v>
-      </c>
-      <c r="L50" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
+      <c r="K50" t="inlineStr"/>
+      <c r="L50" t="inlineStr"/>
       <c r="M50" t="n">
-        <v>1.018076923076923</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="N50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -2319,7 +2333,7 @@
         <v>0</v>
       </c>
       <c r="I51" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J51" t="inlineStr"/>
       <c r="K51" t="inlineStr"/>
@@ -2327,6 +2341,7 @@
       <c r="M51" t="n">
         <v>1</v>
       </c>
+      <c r="N51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -2362,6 +2377,7 @@
       <c r="M52" t="n">
         <v>1</v>
       </c>
+      <c r="N52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -2397,6 +2413,7 @@
       <c r="M53" t="n">
         <v>1</v>
       </c>
+      <c r="N53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -2432,6 +2449,7 @@
       <c r="M54" t="n">
         <v>1</v>
       </c>
+      <c r="N54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -2467,6 +2485,7 @@
       <c r="M55" t="n">
         <v>1</v>
       </c>
+      <c r="N55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -2502,6 +2521,7 @@
       <c r="M56" t="n">
         <v>1</v>
       </c>
+      <c r="N56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2537,6 +2557,7 @@
       <c r="M57" t="n">
         <v>1</v>
       </c>
+      <c r="N57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -2572,6 +2593,7 @@
       <c r="M58" t="n">
         <v>1</v>
       </c>
+      <c r="N58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2607,6 +2629,7 @@
       <c r="M59" t="n">
         <v>1</v>
       </c>
+      <c r="N59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -2634,7 +2657,7 @@
         <v>0</v>
       </c>
       <c r="I60" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J60" t="inlineStr"/>
       <c r="K60" t="inlineStr"/>
@@ -2642,6 +2665,7 @@
       <c r="M60" t="n">
         <v>1</v>
       </c>
+      <c r="N60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2677,6 +2701,7 @@
       <c r="M61" t="n">
         <v>1</v>
       </c>
+      <c r="N61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2712,6 +2737,7 @@
       <c r="M62" t="n">
         <v>1</v>
       </c>
+      <c r="N62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2747,6 +2773,7 @@
       <c r="M63" t="n">
         <v>1</v>
       </c>
+      <c r="N63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -2782,6 +2809,7 @@
       <c r="M64" t="n">
         <v>1</v>
       </c>
+      <c r="N64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -2817,6 +2845,7 @@
       <c r="M65" t="n">
         <v>1</v>
       </c>
+      <c r="N65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -2844,7 +2873,7 @@
         <v>0</v>
       </c>
       <c r="I66" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J66" t="inlineStr"/>
       <c r="K66" t="inlineStr"/>
@@ -2852,6 +2881,7 @@
       <c r="M66" t="n">
         <v>1</v>
       </c>
+      <c r="N66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -2887,6 +2917,7 @@
       <c r="M67" t="n">
         <v>1</v>
       </c>
+      <c r="N67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -2914,7 +2945,7 @@
         <v>0</v>
       </c>
       <c r="I68" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J68" t="inlineStr"/>
       <c r="K68" t="inlineStr"/>
@@ -2922,6 +2953,7 @@
       <c r="M68" t="n">
         <v>1</v>
       </c>
+      <c r="N68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -2949,7 +2981,7 @@
         <v>0</v>
       </c>
       <c r="I69" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J69" t="inlineStr"/>
       <c r="K69" t="inlineStr"/>
@@ -2957,6 +2989,7 @@
       <c r="M69" t="n">
         <v>1</v>
       </c>
+      <c r="N69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -2992,6 +3025,7 @@
       <c r="M70" t="n">
         <v>1</v>
       </c>
+      <c r="N70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -3027,6 +3061,7 @@
       <c r="M71" t="n">
         <v>1</v>
       </c>
+      <c r="N71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -3062,6 +3097,7 @@
       <c r="M72" t="n">
         <v>1</v>
       </c>
+      <c r="N72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -3097,6 +3133,7 @@
       <c r="M73" t="n">
         <v>1</v>
       </c>
+      <c r="N73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -3132,6 +3169,7 @@
       <c r="M74" t="n">
         <v>1</v>
       </c>
+      <c r="N74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -3167,6 +3205,7 @@
       <c r="M75" t="n">
         <v>1</v>
       </c>
+      <c r="N75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -3202,6 +3241,7 @@
       <c r="M76" t="n">
         <v>1</v>
       </c>
+      <c r="N76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -3237,6 +3277,7 @@
       <c r="M77" t="n">
         <v>1</v>
       </c>
+      <c r="N77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -3272,6 +3313,7 @@
       <c r="M78" t="n">
         <v>1</v>
       </c>
+      <c r="N78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -3307,6 +3349,7 @@
       <c r="M79" t="n">
         <v>1</v>
       </c>
+      <c r="N79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -3342,6 +3385,7 @@
       <c r="M80" t="n">
         <v>1</v>
       </c>
+      <c r="N80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -3377,6 +3421,7 @@
       <c r="M81" t="n">
         <v>1</v>
       </c>
+      <c r="N81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -3412,6 +3457,7 @@
       <c r="M82" t="n">
         <v>1</v>
       </c>
+      <c r="N82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -3447,6 +3493,7 @@
       <c r="M83" t="n">
         <v>1</v>
       </c>
+      <c r="N83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -3482,6 +3529,7 @@
       <c r="M84" t="n">
         <v>1</v>
       </c>
+      <c r="N84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -3509,7 +3557,7 @@
         <v>0</v>
       </c>
       <c r="I85" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J85" t="inlineStr"/>
       <c r="K85" t="inlineStr"/>
@@ -3517,6 +3565,7 @@
       <c r="M85" t="n">
         <v>1</v>
       </c>
+      <c r="N85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -3552,6 +3601,7 @@
       <c r="M86" t="n">
         <v>1</v>
       </c>
+      <c r="N86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -3587,6 +3637,7 @@
       <c r="M87" t="n">
         <v>1</v>
       </c>
+      <c r="N87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -3622,6 +3673,7 @@
       <c r="M88" t="n">
         <v>1</v>
       </c>
+      <c r="N88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -3657,6 +3709,7 @@
       <c r="M89" t="n">
         <v>1</v>
       </c>
+      <c r="N89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -3684,7 +3737,7 @@
         <v>0</v>
       </c>
       <c r="I90" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J90" t="inlineStr"/>
       <c r="K90" t="inlineStr"/>
@@ -3692,6 +3745,7 @@
       <c r="M90" t="n">
         <v>1</v>
       </c>
+      <c r="N90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -3727,6 +3781,7 @@
       <c r="M91" t="n">
         <v>1</v>
       </c>
+      <c r="N91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -3762,6 +3817,7 @@
       <c r="M92" t="n">
         <v>1</v>
       </c>
+      <c r="N92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -3797,6 +3853,7 @@
       <c r="M93" t="n">
         <v>1</v>
       </c>
+      <c r="N93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -3832,6 +3889,7 @@
       <c r="M94" t="n">
         <v>1</v>
       </c>
+      <c r="N94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -3867,6 +3925,7 @@
       <c r="M95" t="n">
         <v>1</v>
       </c>
+      <c r="N95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -3902,6 +3961,7 @@
       <c r="M96" t="n">
         <v>1</v>
       </c>
+      <c r="N96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -3929,7 +3989,7 @@
         <v>0</v>
       </c>
       <c r="I97" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J97" t="inlineStr"/>
       <c r="K97" t="inlineStr"/>
@@ -3937,6 +3997,7 @@
       <c r="M97" t="n">
         <v>1</v>
       </c>
+      <c r="N97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -3972,6 +4033,7 @@
       <c r="M98" t="n">
         <v>1</v>
       </c>
+      <c r="N98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -3999,7 +4061,7 @@
         <v>0</v>
       </c>
       <c r="I99" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J99" t="inlineStr"/>
       <c r="K99" t="inlineStr"/>
@@ -4007,6 +4069,7 @@
       <c r="M99" t="n">
         <v>1</v>
       </c>
+      <c r="N99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -4034,7 +4097,7 @@
         <v>0</v>
       </c>
       <c r="I100" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J100" t="inlineStr"/>
       <c r="K100" t="inlineStr"/>
@@ -4042,6 +4105,7 @@
       <c r="M100" t="n">
         <v>1</v>
       </c>
+      <c r="N100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -4069,7 +4133,7 @@
         <v>0</v>
       </c>
       <c r="I101" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J101" t="inlineStr"/>
       <c r="K101" t="inlineStr"/>
@@ -4077,6 +4141,7 @@
       <c r="M101" t="n">
         <v>1</v>
       </c>
+      <c r="N101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
@@ -4112,6 +4177,7 @@
       <c r="M102" t="n">
         <v>1</v>
       </c>
+      <c r="N102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
@@ -4147,6 +4213,7 @@
       <c r="M103" t="n">
         <v>1</v>
       </c>
+      <c r="N103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
@@ -4174,7 +4241,7 @@
         <v>0</v>
       </c>
       <c r="I104" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J104" t="inlineStr"/>
       <c r="K104" t="inlineStr"/>
@@ -4182,6 +4249,7 @@
       <c r="M104" t="n">
         <v>1</v>
       </c>
+      <c r="N104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
@@ -4209,7 +4277,7 @@
         <v>0</v>
       </c>
       <c r="I105" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J105" t="inlineStr"/>
       <c r="K105" t="inlineStr"/>
@@ -4217,6 +4285,7 @@
       <c r="M105" t="n">
         <v>1</v>
       </c>
+      <c r="N105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
@@ -4252,6 +4321,7 @@
       <c r="M106" t="n">
         <v>1</v>
       </c>
+      <c r="N106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
@@ -4279,7 +4349,7 @@
         <v>0</v>
       </c>
       <c r="I107" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J107" t="inlineStr"/>
       <c r="K107" t="inlineStr"/>
@@ -4287,6 +4357,7 @@
       <c r="M107" t="n">
         <v>1</v>
       </c>
+      <c r="N107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
@@ -4314,7 +4385,7 @@
         <v>0</v>
       </c>
       <c r="I108" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J108" t="inlineStr"/>
       <c r="K108" t="inlineStr"/>
@@ -4322,6 +4393,7 @@
       <c r="M108" t="n">
         <v>1</v>
       </c>
+      <c r="N108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
@@ -4349,7 +4421,7 @@
         <v>0</v>
       </c>
       <c r="I109" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J109" t="inlineStr"/>
       <c r="K109" t="inlineStr"/>
@@ -4357,6 +4429,7 @@
       <c r="M109" t="n">
         <v>1</v>
       </c>
+      <c r="N109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
@@ -4392,6 +4465,7 @@
       <c r="M110" t="n">
         <v>1</v>
       </c>
+      <c r="N110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
@@ -4427,6 +4501,7 @@
       <c r="M111" t="n">
         <v>1</v>
       </c>
+      <c r="N111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
@@ -4454,7 +4529,7 @@
         <v>0</v>
       </c>
       <c r="I112" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J112" t="inlineStr"/>
       <c r="K112" t="inlineStr"/>
@@ -4462,6 +4537,7 @@
       <c r="M112" t="n">
         <v>1</v>
       </c>
+      <c r="N112" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>

--- a/BackTest/2019-11-01 BackTest ANKR.xlsx
+++ b/BackTest/2019-11-01 BackTest ANKR.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N112"/>
+  <dimension ref="A1:N141"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -429,7 +429,7 @@
       </c>
       <c r="N1" s="1" t="inlineStr">
         <is>
-          <t>Price_gap</t>
+          <t>Price_point</t>
         </is>
       </c>
     </row>
@@ -438,22 +438,22 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>2.65</v>
+        <v>2.59</v>
       </c>
       <c r="C2" t="n">
-        <v>2.65</v>
+        <v>2.59</v>
       </c>
       <c r="D2" t="n">
-        <v>2.66</v>
+        <v>2.59</v>
       </c>
       <c r="E2" t="n">
-        <v>2.65</v>
+        <v>2.59</v>
       </c>
       <c r="F2" t="n">
-        <v>160389.0796</v>
+        <v>587949.3998</v>
       </c>
       <c r="G2" t="n">
-        <v>-1443669.6401</v>
+        <v>-2344945.8647</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -474,22 +474,22 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>2.66</v>
+        <v>2.59</v>
       </c>
       <c r="C3" t="n">
-        <v>2.66</v>
+        <v>2.59</v>
       </c>
       <c r="D3" t="n">
-        <v>2.66</v>
+        <v>2.59</v>
       </c>
       <c r="E3" t="n">
-        <v>2.65</v>
+        <v>2.59</v>
       </c>
       <c r="F3" t="n">
-        <v>56379.8615</v>
+        <v>249084.5435</v>
       </c>
       <c r="G3" t="n">
-        <v>-1387289.7786</v>
+        <v>-2344945.8647</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -510,22 +510,22 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>2.65</v>
+        <v>2.61</v>
       </c>
       <c r="C4" t="n">
-        <v>2.65</v>
+        <v>2.61</v>
       </c>
       <c r="D4" t="n">
-        <v>2.65</v>
+        <v>2.61</v>
       </c>
       <c r="E4" t="n">
-        <v>2.65</v>
+        <v>2.61</v>
       </c>
       <c r="F4" t="n">
-        <v>94377</v>
+        <v>26854.5826</v>
       </c>
       <c r="G4" t="n">
-        <v>-1481666.7786</v>
+        <v>-2318091.2821</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -546,28 +546,28 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>2.65</v>
+        <v>2.62</v>
       </c>
       <c r="C5" t="n">
-        <v>2.65</v>
+        <v>2.62</v>
       </c>
       <c r="D5" t="n">
-        <v>2.65</v>
+        <v>2.62</v>
       </c>
       <c r="E5" t="n">
-        <v>2.65</v>
+        <v>2.62</v>
       </c>
       <c r="F5" t="n">
-        <v>20000</v>
+        <v>7491.98</v>
       </c>
       <c r="G5" t="n">
-        <v>-1481666.7786</v>
+        <v>-2310599.3021</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr"/>
@@ -582,28 +582,28 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>2.65</v>
+        <v>2.63</v>
       </c>
       <c r="C6" t="n">
         <v>2.63</v>
       </c>
       <c r="D6" t="n">
-        <v>2.65</v>
+        <v>2.63</v>
       </c>
       <c r="E6" t="n">
         <v>2.63</v>
       </c>
       <c r="F6" t="n">
-        <v>12129</v>
+        <v>10267.4965</v>
       </c>
       <c r="G6" t="n">
-        <v>-1493795.7786</v>
+        <v>-2300331.8056</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
@@ -618,28 +618,28 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>2.63</v>
+        <v>2.64</v>
       </c>
       <c r="C7" t="n">
-        <v>2.63</v>
+        <v>2.64</v>
       </c>
       <c r="D7" t="n">
-        <v>2.63</v>
+        <v>2.65</v>
       </c>
       <c r="E7" t="n">
-        <v>2.63</v>
+        <v>2.64</v>
       </c>
       <c r="F7" t="n">
-        <v>1594.8743</v>
+        <v>168355.1392</v>
       </c>
       <c r="G7" t="n">
-        <v>-1493795.7786</v>
+        <v>-2131976.6664</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr"/>
@@ -654,28 +654,28 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>2.66</v>
+        <v>2.65</v>
       </c>
       <c r="C8" t="n">
-        <v>2.66</v>
+        <v>2.65</v>
       </c>
       <c r="D8" t="n">
-        <v>2.66</v>
+        <v>2.65</v>
       </c>
       <c r="E8" t="n">
-        <v>2.66</v>
+        <v>2.65</v>
       </c>
       <c r="F8" t="n">
         <v>10</v>
       </c>
       <c r="G8" t="n">
-        <v>-1493785.7786</v>
+        <v>-2131966.6664</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr"/>
@@ -702,16 +702,16 @@
         <v>2.65</v>
       </c>
       <c r="F9" t="n">
-        <v>1000</v>
+        <v>64713.0942</v>
       </c>
       <c r="G9" t="n">
-        <v>-1494785.7786</v>
+        <v>-2131966.6664</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr"/>
@@ -726,28 +726,28 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>2.67</v>
+        <v>2.66</v>
       </c>
       <c r="C10" t="n">
-        <v>2.68</v>
+        <v>2.66</v>
       </c>
       <c r="D10" t="n">
-        <v>2.68</v>
+        <v>2.66</v>
       </c>
       <c r="E10" t="n">
-        <v>2.63</v>
+        <v>2.66</v>
       </c>
       <c r="F10" t="n">
-        <v>634730.4248</v>
+        <v>167120.3123</v>
       </c>
       <c r="G10" t="n">
-        <v>-860055.3538000003</v>
+        <v>-1964846.3541</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr"/>
@@ -765,25 +765,25 @@
         <v>2.67</v>
       </c>
       <c r="C11" t="n">
-        <v>2.63</v>
+        <v>2.62</v>
       </c>
       <c r="D11" t="n">
         <v>2.67</v>
       </c>
       <c r="E11" t="n">
-        <v>2.63</v>
+        <v>2.62</v>
       </c>
       <c r="F11" t="n">
-        <v>205170.5168</v>
+        <v>187258.3632</v>
       </c>
       <c r="G11" t="n">
-        <v>-1065225.8706</v>
+        <v>-2152104.7173</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr"/>
@@ -798,28 +798,28 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>2.67</v>
+        <v>2.61</v>
       </c>
       <c r="C12" t="n">
-        <v>2.67</v>
+        <v>2.61</v>
       </c>
       <c r="D12" t="n">
-        <v>2.67</v>
+        <v>2.61</v>
       </c>
       <c r="E12" t="n">
-        <v>2.67</v>
+        <v>2.61</v>
       </c>
       <c r="F12" t="n">
-        <v>233434.8314</v>
+        <v>20000</v>
       </c>
       <c r="G12" t="n">
-        <v>-831791.0392000002</v>
+        <v>-2172104.7173</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J12" t="inlineStr"/>
       <c r="K12" t="inlineStr"/>
@@ -837,25 +837,25 @@
         <v>2.67</v>
       </c>
       <c r="C13" t="n">
-        <v>2.64</v>
+        <v>2.67</v>
       </c>
       <c r="D13" t="n">
-        <v>2.67</v>
+        <v>2.68</v>
       </c>
       <c r="E13" t="n">
-        <v>2.64</v>
+        <v>2.67</v>
       </c>
       <c r="F13" t="n">
-        <v>36206.2846</v>
+        <v>49180</v>
       </c>
       <c r="G13" t="n">
-        <v>-867997.3238000002</v>
+        <v>-2122924.7173</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J13" t="inlineStr"/>
       <c r="K13" t="inlineStr"/>
@@ -870,28 +870,28 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>2.64</v>
+        <v>2.67</v>
       </c>
       <c r="C14" t="n">
-        <v>2.64</v>
+        <v>2.67</v>
       </c>
       <c r="D14" t="n">
-        <v>2.64</v>
+        <v>2.67</v>
       </c>
       <c r="E14" t="n">
-        <v>2.64</v>
+        <v>2.67</v>
       </c>
       <c r="F14" t="n">
-        <v>6061.2559</v>
+        <v>62032</v>
       </c>
       <c r="G14" t="n">
-        <v>-867997.3238000002</v>
+        <v>-2122924.7173</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J14" t="inlineStr"/>
       <c r="K14" t="inlineStr"/>
@@ -906,22 +906,22 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>2.64</v>
+        <v>2.67</v>
       </c>
       <c r="C15" t="n">
-        <v>2.64</v>
+        <v>2.67</v>
       </c>
       <c r="D15" t="n">
-        <v>2.64</v>
+        <v>2.67</v>
       </c>
       <c r="E15" t="n">
-        <v>2.64</v>
+        <v>2.67</v>
       </c>
       <c r="F15" t="n">
-        <v>10</v>
+        <v>15866</v>
       </c>
       <c r="G15" t="n">
-        <v>-867997.3238000002</v>
+        <v>-2122924.7173</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
@@ -942,7 +942,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>2.68</v>
+        <v>2.67</v>
       </c>
       <c r="C16" t="n">
         <v>2.68</v>
@@ -951,13 +951,13 @@
         <v>2.68</v>
       </c>
       <c r="E16" t="n">
-        <v>2.68</v>
+        <v>2.67</v>
       </c>
       <c r="F16" t="n">
-        <v>45828.1398</v>
+        <v>296189.0688</v>
       </c>
       <c r="G16" t="n">
-        <v>-822169.1840000002</v>
+        <v>-1826735.6485</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -981,19 +981,19 @@
         <v>2.68</v>
       </c>
       <c r="C17" t="n">
-        <v>2.66</v>
+        <v>2.67</v>
       </c>
       <c r="D17" t="n">
         <v>2.68</v>
       </c>
       <c r="E17" t="n">
-        <v>2.66</v>
+        <v>2.67</v>
       </c>
       <c r="F17" t="n">
-        <v>92271.8003</v>
+        <v>226582.831</v>
       </c>
       <c r="G17" t="n">
-        <v>-914440.9843000002</v>
+        <v>-2053318.4795</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -1014,28 +1014,28 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>2.64</v>
+        <v>2.67</v>
       </c>
       <c r="C18" t="n">
-        <v>2.64</v>
+        <v>2.67</v>
       </c>
       <c r="D18" t="n">
-        <v>2.64</v>
+        <v>2.67</v>
       </c>
       <c r="E18" t="n">
-        <v>2.64</v>
+        <v>2.67</v>
       </c>
       <c r="F18" t="n">
-        <v>99196.3959</v>
+        <v>96415.5981</v>
       </c>
       <c r="G18" t="n">
-        <v>-1013637.3802</v>
+        <v>-2053318.4795</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J18" t="inlineStr"/>
       <c r="K18" t="inlineStr"/>
@@ -1050,22 +1050,22 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>2.63</v>
+        <v>2.68</v>
       </c>
       <c r="C19" t="n">
-        <v>2.63</v>
+        <v>2.67</v>
       </c>
       <c r="D19" t="n">
-        <v>2.63</v>
+        <v>2.68</v>
       </c>
       <c r="E19" t="n">
-        <v>2.63</v>
+        <v>2.67</v>
       </c>
       <c r="F19" t="n">
-        <v>276742.3401</v>
+        <v>43443.1707</v>
       </c>
       <c r="G19" t="n">
-        <v>-1290379.7203</v>
+        <v>-2053318.4795</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -1086,22 +1086,22 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>2.63</v>
+        <v>2.68</v>
       </c>
       <c r="C20" t="n">
-        <v>2.63</v>
+        <v>2.7</v>
       </c>
       <c r="D20" t="n">
-        <v>2.63</v>
+        <v>2.7</v>
       </c>
       <c r="E20" t="n">
-        <v>2.63</v>
+        <v>2.68</v>
       </c>
       <c r="F20" t="n">
-        <v>29031.1787</v>
+        <v>1455207.318</v>
       </c>
       <c r="G20" t="n">
-        <v>-1290379.7203</v>
+        <v>-598111.1615000002</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -1122,22 +1122,22 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>2.63</v>
+        <v>2.7</v>
       </c>
       <c r="C21" t="n">
-        <v>2.63</v>
+        <v>2.69</v>
       </c>
       <c r="D21" t="n">
-        <v>2.63</v>
+        <v>2.72</v>
       </c>
       <c r="E21" t="n">
-        <v>2.63</v>
+        <v>2.69</v>
       </c>
       <c r="F21" t="n">
-        <v>7393.5361</v>
+        <v>280936.1029</v>
       </c>
       <c r="G21" t="n">
-        <v>-1290379.7203</v>
+        <v>-879047.2644000002</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -1158,28 +1158,28 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>2.62</v>
+        <v>2.68</v>
       </c>
       <c r="C22" t="n">
-        <v>2.62</v>
+        <v>2.64</v>
       </c>
       <c r="D22" t="n">
-        <v>2.62</v>
+        <v>2.68</v>
       </c>
       <c r="E22" t="n">
-        <v>2.62</v>
+        <v>2.64</v>
       </c>
       <c r="F22" t="n">
-        <v>364738.6636</v>
+        <v>28000</v>
       </c>
       <c r="G22" t="n">
-        <v>-1655118.3839</v>
+        <v>-907047.2644000002</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J22" t="inlineStr"/>
       <c r="K22" t="inlineStr"/>
@@ -1194,22 +1194,22 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>2.62</v>
+        <v>2.72</v>
       </c>
       <c r="C23" t="n">
-        <v>2.6</v>
+        <v>2.72</v>
       </c>
       <c r="D23" t="n">
-        <v>2.62</v>
+        <v>2.72</v>
       </c>
       <c r="E23" t="n">
-        <v>2.6</v>
+        <v>2.72</v>
       </c>
       <c r="F23" t="n">
-        <v>449503.003</v>
+        <v>10</v>
       </c>
       <c r="G23" t="n">
-        <v>-2104621.3869</v>
+        <v>-907037.2644000002</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -1230,28 +1230,28 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>2.6</v>
+        <v>2.65</v>
       </c>
       <c r="C24" t="n">
-        <v>2.6</v>
+        <v>2.71</v>
       </c>
       <c r="D24" t="n">
-        <v>2.6</v>
+        <v>2.71</v>
       </c>
       <c r="E24" t="n">
-        <v>2.6</v>
+        <v>2.63</v>
       </c>
       <c r="F24" t="n">
-        <v>4752.3106</v>
+        <v>74003.5356</v>
       </c>
       <c r="G24" t="n">
-        <v>-2104621.3869</v>
+        <v>-981040.8000000003</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J24" t="inlineStr"/>
       <c r="K24" t="inlineStr"/>
@@ -1266,22 +1266,22 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>2.6</v>
+        <v>2.69</v>
       </c>
       <c r="C25" t="n">
-        <v>2.6</v>
+        <v>2.69</v>
       </c>
       <c r="D25" t="n">
-        <v>2.6</v>
+        <v>2.69</v>
       </c>
       <c r="E25" t="n">
-        <v>2.6</v>
+        <v>2.69</v>
       </c>
       <c r="F25" t="n">
-        <v>28002.1039</v>
+        <v>342535.6851</v>
       </c>
       <c r="G25" t="n">
-        <v>-2104621.3869</v>
+        <v>-1323576.4851</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -1302,35 +1302,31 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>2.61</v>
+        <v>2.69</v>
       </c>
       <c r="C26" t="n">
-        <v>2.61</v>
+        <v>2.69</v>
       </c>
       <c r="D26" t="n">
-        <v>2.61</v>
+        <v>2.69</v>
       </c>
       <c r="E26" t="n">
-        <v>2.61</v>
+        <v>2.69</v>
       </c>
       <c r="F26" t="n">
-        <v>100000</v>
+        <v>66204.83530000001</v>
       </c>
       <c r="G26" t="n">
-        <v>-2004621.3869</v>
+        <v>-1323576.4851</v>
       </c>
       <c r="H26" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
       </c>
-      <c r="J26" t="n">
-        <v>2.6</v>
-      </c>
-      <c r="K26" t="n">
-        <v>2.6</v>
-      </c>
+      <c r="J26" t="inlineStr"/>
+      <c r="K26" t="inlineStr"/>
       <c r="L26" t="inlineStr"/>
       <c r="M26" t="n">
         <v>1</v>
@@ -1342,40 +1338,32 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>2.68</v>
+        <v>2.65</v>
       </c>
       <c r="C27" t="n">
-        <v>2.66</v>
+        <v>2.65</v>
       </c>
       <c r="D27" t="n">
-        <v>2.68</v>
+        <v>2.65</v>
       </c>
       <c r="E27" t="n">
-        <v>2.6</v>
+        <v>2.64</v>
       </c>
       <c r="F27" t="n">
-        <v>908040.8506</v>
+        <v>120093.155</v>
       </c>
       <c r="G27" t="n">
-        <v>-1096580.5363</v>
+        <v>-1443669.6401</v>
       </c>
       <c r="H27" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I27" t="n">
         <v>0</v>
       </c>
-      <c r="J27" t="n">
-        <v>2.61</v>
-      </c>
-      <c r="K27" t="n">
-        <v>2.6</v>
-      </c>
-      <c r="L27" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+      <c r="J27" t="inlineStr"/>
+      <c r="K27" t="inlineStr"/>
+      <c r="L27" t="inlineStr"/>
       <c r="M27" t="n">
         <v>1</v>
       </c>
@@ -1386,38 +1374,32 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>2.66</v>
+        <v>2.65</v>
       </c>
       <c r="C28" t="n">
-        <v>2.66</v>
+        <v>2.65</v>
       </c>
       <c r="D28" t="n">
-        <v>2.66</v>
+        <v>2.65</v>
       </c>
       <c r="E28" t="n">
-        <v>2.66</v>
+        <v>2.65</v>
       </c>
       <c r="F28" t="n">
-        <v>206395.2787</v>
+        <v>24809.3816</v>
       </c>
       <c r="G28" t="n">
-        <v>-1096580.5363</v>
+        <v>-1443669.6401</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J28" t="inlineStr"/>
-      <c r="K28" t="n">
-        <v>2.6</v>
-      </c>
-      <c r="L28" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K28" t="inlineStr"/>
+      <c r="L28" t="inlineStr"/>
       <c r="M28" t="n">
         <v>1</v>
       </c>
@@ -1428,38 +1410,32 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>2.6</v>
+        <v>2.65</v>
       </c>
       <c r="C29" t="n">
-        <v>2.6</v>
+        <v>2.65</v>
       </c>
       <c r="D29" t="n">
-        <v>2.6</v>
+        <v>2.65</v>
       </c>
       <c r="E29" t="n">
-        <v>2.6</v>
+        <v>2.65</v>
       </c>
       <c r="F29" t="n">
-        <v>20000</v>
+        <v>26874.5319</v>
       </c>
       <c r="G29" t="n">
-        <v>-1116580.5363</v>
+        <v>-1443669.6401</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J29" t="inlineStr"/>
-      <c r="K29" t="n">
-        <v>2.6</v>
-      </c>
-      <c r="L29" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K29" t="inlineStr"/>
+      <c r="L29" t="inlineStr"/>
       <c r="M29" t="n">
         <v>1</v>
       </c>
@@ -1470,22 +1446,22 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>2.66</v>
+        <v>2.65</v>
       </c>
       <c r="C30" t="n">
-        <v>2.66</v>
+        <v>2.65</v>
       </c>
       <c r="D30" t="n">
-        <v>2.66</v>
+        <v>2.65</v>
       </c>
       <c r="E30" t="n">
-        <v>2.66</v>
+        <v>2.65</v>
       </c>
       <c r="F30" t="n">
-        <v>10</v>
+        <v>33481</v>
       </c>
       <c r="G30" t="n">
-        <v>-1116570.5363</v>
+        <v>-1443669.6401</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -1494,14 +1470,8 @@
         <v>0</v>
       </c>
       <c r="J30" t="inlineStr"/>
-      <c r="K30" t="n">
-        <v>2.6</v>
-      </c>
-      <c r="L30" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K30" t="inlineStr"/>
+      <c r="L30" t="inlineStr"/>
       <c r="M30" t="n">
         <v>1</v>
       </c>
@@ -1512,22 +1482,22 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>2.66</v>
+        <v>2.65</v>
       </c>
       <c r="C31" t="n">
-        <v>2.66</v>
+        <v>2.65</v>
       </c>
       <c r="D31" t="n">
         <v>2.66</v>
       </c>
       <c r="E31" t="n">
-        <v>2.66</v>
+        <v>2.65</v>
       </c>
       <c r="F31" t="n">
-        <v>1435.9962</v>
+        <v>160389.0796</v>
       </c>
       <c r="G31" t="n">
-        <v>-1116570.5363</v>
+        <v>-1443669.6401</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -1536,14 +1506,8 @@
         <v>0</v>
       </c>
       <c r="J31" t="inlineStr"/>
-      <c r="K31" t="n">
-        <v>2.6</v>
-      </c>
-      <c r="L31" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K31" t="inlineStr"/>
+      <c r="L31" t="inlineStr"/>
       <c r="M31" t="n">
         <v>1</v>
       </c>
@@ -1554,22 +1518,22 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>2.65</v>
+        <v>2.66</v>
       </c>
       <c r="C32" t="n">
-        <v>2.65</v>
+        <v>2.66</v>
       </c>
       <c r="D32" t="n">
-        <v>2.65</v>
+        <v>2.66</v>
       </c>
       <c r="E32" t="n">
         <v>2.65</v>
       </c>
       <c r="F32" t="n">
-        <v>2562.4528</v>
+        <v>56379.8615</v>
       </c>
       <c r="G32" t="n">
-        <v>-1119132.9891</v>
+        <v>-1387289.7786</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -1578,14 +1542,8 @@
         <v>0</v>
       </c>
       <c r="J32" t="inlineStr"/>
-      <c r="K32" t="n">
-        <v>2.6</v>
-      </c>
-      <c r="L32" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K32" t="inlineStr"/>
+      <c r="L32" t="inlineStr"/>
       <c r="M32" t="n">
         <v>1</v>
       </c>
@@ -1596,22 +1554,22 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>2.64</v>
+        <v>2.65</v>
       </c>
       <c r="C33" t="n">
-        <v>2.64</v>
+        <v>2.65</v>
       </c>
       <c r="D33" t="n">
-        <v>2.64</v>
+        <v>2.65</v>
       </c>
       <c r="E33" t="n">
-        <v>2.64</v>
+        <v>2.65</v>
       </c>
       <c r="F33" t="n">
-        <v>1929.1666</v>
+        <v>94377</v>
       </c>
       <c r="G33" t="n">
-        <v>-1121062.1557</v>
+        <v>-1481666.7786</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -1620,14 +1578,8 @@
         <v>0</v>
       </c>
       <c r="J33" t="inlineStr"/>
-      <c r="K33" t="n">
-        <v>2.6</v>
-      </c>
-      <c r="L33" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K33" t="inlineStr"/>
+      <c r="L33" t="inlineStr"/>
       <c r="M33" t="n">
         <v>1</v>
       </c>
@@ -1638,22 +1590,22 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>2.66</v>
+        <v>2.65</v>
       </c>
       <c r="C34" t="n">
-        <v>2.68</v>
+        <v>2.65</v>
       </c>
       <c r="D34" t="n">
-        <v>2.68</v>
+        <v>2.65</v>
       </c>
       <c r="E34" t="n">
-        <v>2.66</v>
+        <v>2.65</v>
       </c>
       <c r="F34" t="n">
-        <v>22388.0597</v>
+        <v>20000</v>
       </c>
       <c r="G34" t="n">
-        <v>-1098674.096</v>
+        <v>-1481666.7786</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -1662,14 +1614,8 @@
         <v>0</v>
       </c>
       <c r="J34" t="inlineStr"/>
-      <c r="K34" t="n">
-        <v>2.6</v>
-      </c>
-      <c r="L34" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K34" t="inlineStr"/>
+      <c r="L34" t="inlineStr"/>
       <c r="M34" t="n">
         <v>1</v>
       </c>
@@ -1680,22 +1626,22 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>2.68</v>
+        <v>2.65</v>
       </c>
       <c r="C35" t="n">
-        <v>2.68</v>
+        <v>2.63</v>
       </c>
       <c r="D35" t="n">
-        <v>2.68</v>
+        <v>2.65</v>
       </c>
       <c r="E35" t="n">
-        <v>2.68</v>
+        <v>2.63</v>
       </c>
       <c r="F35" t="n">
-        <v>15671.6417</v>
+        <v>12129</v>
       </c>
       <c r="G35" t="n">
-        <v>-1098674.096</v>
+        <v>-1493795.7786</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -1704,14 +1650,8 @@
         <v>0</v>
       </c>
       <c r="J35" t="inlineStr"/>
-      <c r="K35" t="n">
-        <v>2.6</v>
-      </c>
-      <c r="L35" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K35" t="inlineStr"/>
+      <c r="L35" t="inlineStr"/>
       <c r="M35" t="n">
         <v>1</v>
       </c>
@@ -1722,22 +1662,22 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>2.69</v>
+        <v>2.63</v>
       </c>
       <c r="C36" t="n">
-        <v>2.7</v>
+        <v>2.63</v>
       </c>
       <c r="D36" t="n">
-        <v>2.7</v>
+        <v>2.63</v>
       </c>
       <c r="E36" t="n">
-        <v>2.69</v>
+        <v>2.63</v>
       </c>
       <c r="F36" t="n">
-        <v>16000</v>
+        <v>1594.8743</v>
       </c>
       <c r="G36" t="n">
-        <v>-1082674.096</v>
+        <v>-1493795.7786</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -1746,14 +1686,8 @@
         <v>0</v>
       </c>
       <c r="J36" t="inlineStr"/>
-      <c r="K36" t="n">
-        <v>2.6</v>
-      </c>
-      <c r="L36" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K36" t="inlineStr"/>
+      <c r="L36" t="inlineStr"/>
       <c r="M36" t="n">
         <v>1</v>
       </c>
@@ -1764,22 +1698,22 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>2.62</v>
+        <v>2.66</v>
       </c>
       <c r="C37" t="n">
-        <v>2.62</v>
+        <v>2.66</v>
       </c>
       <c r="D37" t="n">
-        <v>2.62</v>
+        <v>2.66</v>
       </c>
       <c r="E37" t="n">
-        <v>2.62</v>
+        <v>2.66</v>
       </c>
       <c r="F37" t="n">
-        <v>37642.6877</v>
+        <v>10</v>
       </c>
       <c r="G37" t="n">
-        <v>-1120316.7837</v>
+        <v>-1493785.7786</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -1788,14 +1722,8 @@
         <v>0</v>
       </c>
       <c r="J37" t="inlineStr"/>
-      <c r="K37" t="n">
-        <v>2.6</v>
-      </c>
-      <c r="L37" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K37" t="inlineStr"/>
+      <c r="L37" t="inlineStr"/>
       <c r="M37" t="n">
         <v>1</v>
       </c>
@@ -1806,22 +1734,22 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>2.69</v>
+        <v>2.65</v>
       </c>
       <c r="C38" t="n">
-        <v>2.69</v>
+        <v>2.65</v>
       </c>
       <c r="D38" t="n">
-        <v>2.69</v>
+        <v>2.65</v>
       </c>
       <c r="E38" t="n">
-        <v>2.69</v>
+        <v>2.65</v>
       </c>
       <c r="F38" t="n">
-        <v>22304.8327</v>
+        <v>1000</v>
       </c>
       <c r="G38" t="n">
-        <v>-1098011.951</v>
+        <v>-1494785.7786</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -1830,14 +1758,8 @@
         <v>0</v>
       </c>
       <c r="J38" t="inlineStr"/>
-      <c r="K38" t="n">
-        <v>2.6</v>
-      </c>
-      <c r="L38" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K38" t="inlineStr"/>
+      <c r="L38" t="inlineStr"/>
       <c r="M38" t="n">
         <v>1</v>
       </c>
@@ -1851,19 +1773,19 @@
         <v>2.67</v>
       </c>
       <c r="C39" t="n">
-        <v>2.67</v>
+        <v>2.68</v>
       </c>
       <c r="D39" t="n">
-        <v>2.67</v>
+        <v>2.68</v>
       </c>
       <c r="E39" t="n">
-        <v>2.67</v>
+        <v>2.63</v>
       </c>
       <c r="F39" t="n">
-        <v>37642.6877</v>
+        <v>634730.4248</v>
       </c>
       <c r="G39" t="n">
-        <v>-1135654.6387</v>
+        <v>-860055.3538000003</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -1872,14 +1794,8 @@
         <v>0</v>
       </c>
       <c r="J39" t="inlineStr"/>
-      <c r="K39" t="n">
-        <v>2.6</v>
-      </c>
-      <c r="L39" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K39" t="inlineStr"/>
+      <c r="L39" t="inlineStr"/>
       <c r="M39" t="n">
         <v>1</v>
       </c>
@@ -1893,19 +1809,19 @@
         <v>2.67</v>
       </c>
       <c r="C40" t="n">
-        <v>2.67</v>
+        <v>2.63</v>
       </c>
       <c r="D40" t="n">
         <v>2.67</v>
       </c>
       <c r="E40" t="n">
-        <v>2.67</v>
+        <v>2.63</v>
       </c>
       <c r="F40" t="n">
-        <v>728093.101</v>
+        <v>205170.5168</v>
       </c>
       <c r="G40" t="n">
-        <v>-1135654.6387</v>
+        <v>-1065225.8706</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -1914,14 +1830,8 @@
         <v>0</v>
       </c>
       <c r="J40" t="inlineStr"/>
-      <c r="K40" t="n">
-        <v>2.6</v>
-      </c>
-      <c r="L40" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K40" t="inlineStr"/>
+      <c r="L40" t="inlineStr"/>
       <c r="M40" t="n">
         <v>1</v>
       </c>
@@ -1944,10 +1854,10 @@
         <v>2.67</v>
       </c>
       <c r="F41" t="n">
-        <v>357859.7169</v>
+        <v>233434.8314</v>
       </c>
       <c r="G41" t="n">
-        <v>-1135654.6387</v>
+        <v>-831791.0392000002</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -1956,14 +1866,8 @@
         <v>0</v>
       </c>
       <c r="J41" t="inlineStr"/>
-      <c r="K41" t="n">
-        <v>2.6</v>
-      </c>
-      <c r="L41" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K41" t="inlineStr"/>
+      <c r="L41" t="inlineStr"/>
       <c r="M41" t="n">
         <v>1</v>
       </c>
@@ -1974,22 +1878,22 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>2.69</v>
+        <v>2.67</v>
       </c>
       <c r="C42" t="n">
-        <v>2.69</v>
+        <v>2.64</v>
       </c>
       <c r="D42" t="n">
-        <v>2.69</v>
+        <v>2.67</v>
       </c>
       <c r="E42" t="n">
-        <v>2.69</v>
+        <v>2.64</v>
       </c>
       <c r="F42" t="n">
-        <v>18773.2342</v>
+        <v>36206.2846</v>
       </c>
       <c r="G42" t="n">
-        <v>-1116881.4045</v>
+        <v>-867997.3238000002</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -1998,14 +1902,8 @@
         <v>0</v>
       </c>
       <c r="J42" t="inlineStr"/>
-      <c r="K42" t="n">
-        <v>2.6</v>
-      </c>
-      <c r="L42" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K42" t="inlineStr"/>
+      <c r="L42" t="inlineStr"/>
       <c r="M42" t="n">
         <v>1</v>
       </c>
@@ -2016,72 +1914,64 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>2.69</v>
+        <v>2.64</v>
       </c>
       <c r="C43" t="n">
-        <v>2.7</v>
+        <v>2.64</v>
       </c>
       <c r="D43" t="n">
-        <v>2.7</v>
+        <v>2.64</v>
       </c>
       <c r="E43" t="n">
-        <v>2.69</v>
+        <v>2.64</v>
       </c>
       <c r="F43" t="n">
-        <v>25000</v>
+        <v>6061.2559</v>
       </c>
       <c r="G43" t="n">
-        <v>-1091881.4045</v>
+        <v>-867997.3238000002</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J43" t="inlineStr"/>
-      <c r="K43" t="n">
-        <v>2.6</v>
-      </c>
-      <c r="L43" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
+      <c r="K43" t="inlineStr"/>
+      <c r="L43" t="inlineStr"/>
       <c r="M43" t="n">
-        <v>1.033461538461539</v>
-      </c>
-      <c r="N43" t="n">
-        <v>1.030769230769231</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="N43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>2.63</v>
+        <v>2.64</v>
       </c>
       <c r="C44" t="n">
-        <v>2.63</v>
+        <v>2.64</v>
       </c>
       <c r="D44" t="n">
-        <v>2.63</v>
+        <v>2.64</v>
       </c>
       <c r="E44" t="n">
-        <v>2.63</v>
+        <v>2.64</v>
       </c>
       <c r="F44" t="n">
         <v>10</v>
       </c>
       <c r="G44" t="n">
-        <v>-1091891.4045</v>
+        <v>-867997.3238000002</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J44" t="inlineStr"/>
       <c r="K44" t="inlineStr"/>
@@ -2108,10 +1998,10 @@
         <v>2.68</v>
       </c>
       <c r="F45" t="n">
-        <v>14925.3731</v>
+        <v>45828.1398</v>
       </c>
       <c r="G45" t="n">
-        <v>-1076966.0314</v>
+        <v>-822169.1840000002</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -2135,19 +2025,19 @@
         <v>2.68</v>
       </c>
       <c r="C46" t="n">
-        <v>2.68</v>
+        <v>2.66</v>
       </c>
       <c r="D46" t="n">
         <v>2.68</v>
       </c>
       <c r="E46" t="n">
-        <v>2.68</v>
+        <v>2.66</v>
       </c>
       <c r="F46" t="n">
-        <v>3800</v>
+        <v>92271.8003</v>
       </c>
       <c r="G46" t="n">
-        <v>-1076966.0314</v>
+        <v>-914440.9843000002</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -2168,28 +2058,28 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>2.67</v>
+        <v>2.64</v>
       </c>
       <c r="C47" t="n">
-        <v>2.67</v>
+        <v>2.64</v>
       </c>
       <c r="D47" t="n">
-        <v>2.67</v>
+        <v>2.64</v>
       </c>
       <c r="E47" t="n">
-        <v>2.67</v>
+        <v>2.64</v>
       </c>
       <c r="F47" t="n">
-        <v>9660.237300000001</v>
+        <v>99196.3959</v>
       </c>
       <c r="G47" t="n">
-        <v>-1086626.2687</v>
+        <v>-1013637.3802</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
       </c>
       <c r="I47" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J47" t="inlineStr"/>
       <c r="K47" t="inlineStr"/>
@@ -2204,28 +2094,28 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>2.67</v>
+        <v>2.63</v>
       </c>
       <c r="C48" t="n">
-        <v>2.68</v>
+        <v>2.63</v>
       </c>
       <c r="D48" t="n">
-        <v>2.68</v>
+        <v>2.63</v>
       </c>
       <c r="E48" t="n">
-        <v>2.67</v>
+        <v>2.63</v>
       </c>
       <c r="F48" t="n">
-        <v>24000</v>
+        <v>276742.3401</v>
       </c>
       <c r="G48" t="n">
-        <v>-1062626.2687</v>
+        <v>-1290379.7203</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
       </c>
       <c r="I48" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J48" t="inlineStr"/>
       <c r="K48" t="inlineStr"/>
@@ -2240,28 +2130,28 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>2.67</v>
+        <v>2.63</v>
       </c>
       <c r="C49" t="n">
-        <v>2.68</v>
+        <v>2.63</v>
       </c>
       <c r="D49" t="n">
-        <v>2.68</v>
+        <v>2.63</v>
       </c>
       <c r="E49" t="n">
-        <v>2.67</v>
+        <v>2.63</v>
       </c>
       <c r="F49" t="n">
-        <v>17000</v>
+        <v>29031.1787</v>
       </c>
       <c r="G49" t="n">
-        <v>-1062626.2687</v>
+        <v>-1290379.7203</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
       </c>
       <c r="I49" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J49" t="inlineStr"/>
       <c r="K49" t="inlineStr"/>
@@ -2276,28 +2166,28 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>2.66</v>
+        <v>2.63</v>
       </c>
       <c r="C50" t="n">
-        <v>2.66</v>
+        <v>2.63</v>
       </c>
       <c r="D50" t="n">
-        <v>2.66</v>
+        <v>2.63</v>
       </c>
       <c r="E50" t="n">
-        <v>2.66</v>
+        <v>2.63</v>
       </c>
       <c r="F50" t="n">
-        <v>2926.3157</v>
+        <v>7393.5361</v>
       </c>
       <c r="G50" t="n">
-        <v>-1065552.5844</v>
+        <v>-1290379.7203</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
       </c>
       <c r="I50" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J50" t="inlineStr"/>
       <c r="K50" t="inlineStr"/>
@@ -2312,28 +2202,28 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>2.67</v>
+        <v>2.62</v>
       </c>
       <c r="C51" t="n">
-        <v>2.68</v>
+        <v>2.62</v>
       </c>
       <c r="D51" t="n">
-        <v>2.68</v>
+        <v>2.62</v>
       </c>
       <c r="E51" t="n">
-        <v>2.67</v>
+        <v>2.62</v>
       </c>
       <c r="F51" t="n">
-        <v>17000</v>
+        <v>364738.6636</v>
       </c>
       <c r="G51" t="n">
-        <v>-1048552.5844</v>
+        <v>-1655118.3839</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
       </c>
       <c r="I51" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J51" t="inlineStr"/>
       <c r="K51" t="inlineStr"/>
@@ -2348,28 +2238,28 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>2.65</v>
+        <v>2.62</v>
       </c>
       <c r="C52" t="n">
-        <v>2.65</v>
+        <v>2.6</v>
       </c>
       <c r="D52" t="n">
-        <v>2.65</v>
+        <v>2.62</v>
       </c>
       <c r="E52" t="n">
-        <v>2.65</v>
+        <v>2.6</v>
       </c>
       <c r="F52" t="n">
-        <v>1468.6792</v>
+        <v>449503.003</v>
       </c>
       <c r="G52" t="n">
-        <v>-1050021.2636</v>
+        <v>-2104621.3869</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
       </c>
       <c r="I52" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J52" t="inlineStr"/>
       <c r="K52" t="inlineStr"/>
@@ -2384,22 +2274,22 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>2.63</v>
+        <v>2.6</v>
       </c>
       <c r="C53" t="n">
-        <v>2.63</v>
+        <v>2.6</v>
       </c>
       <c r="D53" t="n">
-        <v>2.63</v>
+        <v>2.6</v>
       </c>
       <c r="E53" t="n">
-        <v>2.63</v>
+        <v>2.6</v>
       </c>
       <c r="F53" t="n">
-        <v>813760.3202</v>
+        <v>4752.3106</v>
       </c>
       <c r="G53" t="n">
-        <v>-1863781.5838</v>
+        <v>-2104621.3869</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
@@ -2420,31 +2310,35 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>2.63</v>
+        <v>2.6</v>
       </c>
       <c r="C54" t="n">
-        <v>2.63</v>
+        <v>2.6</v>
       </c>
       <c r="D54" t="n">
-        <v>2.63</v>
+        <v>2.6</v>
       </c>
       <c r="E54" t="n">
-        <v>2.63</v>
+        <v>2.6</v>
       </c>
       <c r="F54" t="n">
-        <v>659657.5074999999</v>
+        <v>28002.1039</v>
       </c>
       <c r="G54" t="n">
-        <v>-1863781.5838</v>
+        <v>-2104621.3869</v>
       </c>
       <c r="H54" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I54" t="n">
         <v>0</v>
       </c>
-      <c r="J54" t="inlineStr"/>
-      <c r="K54" t="inlineStr"/>
+      <c r="J54" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="K54" t="n">
+        <v>2.6</v>
+      </c>
       <c r="L54" t="inlineStr"/>
       <c r="M54" t="n">
         <v>1</v>
@@ -2456,32 +2350,40 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>2.65</v>
+        <v>2.61</v>
       </c>
       <c r="C55" t="n">
-        <v>2.65</v>
+        <v>2.61</v>
       </c>
       <c r="D55" t="n">
-        <v>2.65</v>
+        <v>2.61</v>
       </c>
       <c r="E55" t="n">
-        <v>2.65</v>
+        <v>2.61</v>
       </c>
       <c r="F55" t="n">
-        <v>11320.7547</v>
+        <v>100000</v>
       </c>
       <c r="G55" t="n">
-        <v>-1852460.8291</v>
+        <v>-2004621.3869</v>
       </c>
       <c r="H55" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I55" t="n">
         <v>0</v>
       </c>
-      <c r="J55" t="inlineStr"/>
-      <c r="K55" t="inlineStr"/>
-      <c r="L55" t="inlineStr"/>
+      <c r="J55" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="K55" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="L55" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M55" t="n">
         <v>1</v>
       </c>
@@ -2492,32 +2394,40 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>2.65</v>
+        <v>2.68</v>
       </c>
       <c r="C56" t="n">
-        <v>2.65</v>
+        <v>2.66</v>
       </c>
       <c r="D56" t="n">
-        <v>2.65</v>
+        <v>2.68</v>
       </c>
       <c r="E56" t="n">
-        <v>2.65</v>
+        <v>2.6</v>
       </c>
       <c r="F56" t="n">
-        <v>60775.5211</v>
+        <v>908040.8506</v>
       </c>
       <c r="G56" t="n">
-        <v>-1852460.8291</v>
+        <v>-1096580.5363</v>
       </c>
       <c r="H56" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I56" t="n">
         <v>0</v>
       </c>
-      <c r="J56" t="inlineStr"/>
-      <c r="K56" t="inlineStr"/>
-      <c r="L56" t="inlineStr"/>
+      <c r="J56" t="n">
+        <v>2.61</v>
+      </c>
+      <c r="K56" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="L56" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="M56" t="n">
         <v>1</v>
       </c>
@@ -2528,7 +2438,7 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>2.65</v>
+        <v>2.66</v>
       </c>
       <c r="C57" t="n">
         <v>2.66</v>
@@ -2537,13 +2447,13 @@
         <v>2.66</v>
       </c>
       <c r="E57" t="n">
-        <v>2.65</v>
+        <v>2.66</v>
       </c>
       <c r="F57" t="n">
-        <v>10933</v>
+        <v>206395.2787</v>
       </c>
       <c r="G57" t="n">
-        <v>-1841527.8291</v>
+        <v>-1096580.5363</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
@@ -2552,8 +2462,14 @@
         <v>0</v>
       </c>
       <c r="J57" t="inlineStr"/>
-      <c r="K57" t="inlineStr"/>
-      <c r="L57" t="inlineStr"/>
+      <c r="K57" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="L57" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M57" t="n">
         <v>1</v>
       </c>
@@ -2564,22 +2480,22 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>2.66</v>
+        <v>2.6</v>
       </c>
       <c r="C58" t="n">
-        <v>2.66</v>
+        <v>2.6</v>
       </c>
       <c r="D58" t="n">
-        <v>2.66</v>
+        <v>2.6</v>
       </c>
       <c r="E58" t="n">
-        <v>2.66</v>
+        <v>2.6</v>
       </c>
       <c r="F58" t="n">
-        <v>417.2284</v>
+        <v>20000</v>
       </c>
       <c r="G58" t="n">
-        <v>-1841527.8291</v>
+        <v>-1116580.5363</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
@@ -2588,8 +2504,14 @@
         <v>0</v>
       </c>
       <c r="J58" t="inlineStr"/>
-      <c r="K58" t="inlineStr"/>
-      <c r="L58" t="inlineStr"/>
+      <c r="K58" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="L58" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M58" t="n">
         <v>1</v>
       </c>
@@ -2612,10 +2534,10 @@
         <v>2.66</v>
       </c>
       <c r="F59" t="n">
-        <v>831.086</v>
+        <v>10</v>
       </c>
       <c r="G59" t="n">
-        <v>-1841527.8291</v>
+        <v>-1116570.5363</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -2624,8 +2546,14 @@
         <v>0</v>
       </c>
       <c r="J59" t="inlineStr"/>
-      <c r="K59" t="inlineStr"/>
-      <c r="L59" t="inlineStr"/>
+      <c r="K59" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="L59" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M59" t="n">
         <v>1</v>
       </c>
@@ -2639,29 +2567,35 @@
         <v>2.66</v>
       </c>
       <c r="C60" t="n">
-        <v>2.67</v>
+        <v>2.66</v>
       </c>
       <c r="D60" t="n">
-        <v>2.67</v>
+        <v>2.66</v>
       </c>
       <c r="E60" t="n">
         <v>2.66</v>
       </c>
       <c r="F60" t="n">
-        <v>1238.5766</v>
+        <v>1435.9962</v>
       </c>
       <c r="G60" t="n">
-        <v>-1840289.2525</v>
+        <v>-1116570.5363</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
       </c>
       <c r="I60" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J60" t="inlineStr"/>
-      <c r="K60" t="inlineStr"/>
-      <c r="L60" t="inlineStr"/>
+      <c r="K60" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="L60" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M60" t="n">
         <v>1</v>
       </c>
@@ -2672,22 +2606,22 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>2.67</v>
+        <v>2.65</v>
       </c>
       <c r="C61" t="n">
-        <v>2.67</v>
+        <v>2.65</v>
       </c>
       <c r="D61" t="n">
-        <v>2.67</v>
+        <v>2.65</v>
       </c>
       <c r="E61" t="n">
-        <v>2.67</v>
+        <v>2.65</v>
       </c>
       <c r="F61" t="n">
-        <v>820.5992</v>
+        <v>2562.4528</v>
       </c>
       <c r="G61" t="n">
-        <v>-1840289.2525</v>
+        <v>-1119132.9891</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -2696,8 +2630,14 @@
         <v>0</v>
       </c>
       <c r="J61" t="inlineStr"/>
-      <c r="K61" t="inlineStr"/>
-      <c r="L61" t="inlineStr"/>
+      <c r="K61" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="L61" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M61" t="n">
         <v>1</v>
       </c>
@@ -2708,22 +2648,22 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>2.66</v>
+        <v>2.64</v>
       </c>
       <c r="C62" t="n">
-        <v>2.66</v>
+        <v>2.64</v>
       </c>
       <c r="D62" t="n">
-        <v>2.66</v>
+        <v>2.64</v>
       </c>
       <c r="E62" t="n">
-        <v>2.66</v>
+        <v>2.64</v>
       </c>
       <c r="F62" t="n">
-        <v>408.6142</v>
+        <v>1929.1666</v>
       </c>
       <c r="G62" t="n">
-        <v>-1840697.8667</v>
+        <v>-1121062.1557</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -2732,8 +2672,14 @@
         <v>0</v>
       </c>
       <c r="J62" t="inlineStr"/>
-      <c r="K62" t="inlineStr"/>
-      <c r="L62" t="inlineStr"/>
+      <c r="K62" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="L62" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M62" t="n">
         <v>1</v>
       </c>
@@ -2747,19 +2693,19 @@
         <v>2.66</v>
       </c>
       <c r="C63" t="n">
-        <v>2.66</v>
+        <v>2.68</v>
       </c>
       <c r="D63" t="n">
-        <v>2.66</v>
+        <v>2.68</v>
       </c>
       <c r="E63" t="n">
         <v>2.66</v>
       </c>
       <c r="F63" t="n">
-        <v>1444.4096</v>
+        <v>22388.0597</v>
       </c>
       <c r="G63" t="n">
-        <v>-1840697.8667</v>
+        <v>-1098674.096</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -2768,8 +2714,14 @@
         <v>0</v>
       </c>
       <c r="J63" t="inlineStr"/>
-      <c r="K63" t="inlineStr"/>
-      <c r="L63" t="inlineStr"/>
+      <c r="K63" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="L63" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M63" t="n">
         <v>1</v>
       </c>
@@ -2780,22 +2732,22 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>2.66</v>
+        <v>2.68</v>
       </c>
       <c r="C64" t="n">
-        <v>2.66</v>
+        <v>2.68</v>
       </c>
       <c r="D64" t="n">
-        <v>2.66</v>
+        <v>2.68</v>
       </c>
       <c r="E64" t="n">
-        <v>2.66</v>
+        <v>2.68</v>
       </c>
       <c r="F64" t="n">
-        <v>0.0001</v>
+        <v>15671.6417</v>
       </c>
       <c r="G64" t="n">
-        <v>-1840697.8667</v>
+        <v>-1098674.096</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -2804,8 +2756,14 @@
         <v>0</v>
       </c>
       <c r="J64" t="inlineStr"/>
-      <c r="K64" t="inlineStr"/>
-      <c r="L64" t="inlineStr"/>
+      <c r="K64" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="L64" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M64" t="n">
         <v>1</v>
       </c>
@@ -2816,22 +2774,22 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>2.68</v>
+        <v>2.69</v>
       </c>
       <c r="C65" t="n">
-        <v>2.68</v>
+        <v>2.7</v>
       </c>
       <c r="D65" t="n">
-        <v>2.68</v>
+        <v>2.7</v>
       </c>
       <c r="E65" t="n">
-        <v>2.68</v>
+        <v>2.69</v>
       </c>
       <c r="F65" t="n">
-        <v>10</v>
+        <v>16000</v>
       </c>
       <c r="G65" t="n">
-        <v>-1840687.8667</v>
+        <v>-1082674.096</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -2840,8 +2798,14 @@
         <v>0</v>
       </c>
       <c r="J65" t="inlineStr"/>
-      <c r="K65" t="inlineStr"/>
-      <c r="L65" t="inlineStr"/>
+      <c r="K65" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="L65" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M65" t="n">
         <v>1</v>
       </c>
@@ -2852,32 +2816,38 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>2.66</v>
+        <v>2.62</v>
       </c>
       <c r="C66" t="n">
-        <v>2.66</v>
+        <v>2.62</v>
       </c>
       <c r="D66" t="n">
-        <v>2.66</v>
+        <v>2.62</v>
       </c>
       <c r="E66" t="n">
-        <v>2.66</v>
+        <v>2.62</v>
       </c>
       <c r="F66" t="n">
-        <v>846.8045</v>
+        <v>37642.6877</v>
       </c>
       <c r="G66" t="n">
-        <v>-1841534.6712</v>
+        <v>-1120316.7837</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
       </c>
       <c r="I66" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J66" t="inlineStr"/>
-      <c r="K66" t="inlineStr"/>
-      <c r="L66" t="inlineStr"/>
+      <c r="K66" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="L66" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M66" t="n">
         <v>1</v>
       </c>
@@ -2888,22 +2858,22 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>2.66</v>
+        <v>2.69</v>
       </c>
       <c r="C67" t="n">
-        <v>2.68</v>
+        <v>2.69</v>
       </c>
       <c r="D67" t="n">
-        <v>2.68</v>
+        <v>2.69</v>
       </c>
       <c r="E67" t="n">
-        <v>2.66</v>
+        <v>2.69</v>
       </c>
       <c r="F67" t="n">
-        <v>1000</v>
+        <v>22304.8327</v>
       </c>
       <c r="G67" t="n">
-        <v>-1840534.6712</v>
+        <v>-1098011.951</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -2912,8 +2882,14 @@
         <v>0</v>
       </c>
       <c r="J67" t="inlineStr"/>
-      <c r="K67" t="inlineStr"/>
-      <c r="L67" t="inlineStr"/>
+      <c r="K67" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="L67" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M67" t="n">
         <v>1</v>
       </c>
@@ -2924,32 +2900,38 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>2.68</v>
+        <v>2.67</v>
       </c>
       <c r="C68" t="n">
-        <v>2.68</v>
+        <v>2.67</v>
       </c>
       <c r="D68" t="n">
-        <v>2.68</v>
+        <v>2.67</v>
       </c>
       <c r="E68" t="n">
-        <v>2.68</v>
+        <v>2.67</v>
       </c>
       <c r="F68" t="n">
-        <v>836.194</v>
+        <v>37642.6877</v>
       </c>
       <c r="G68" t="n">
-        <v>-1840534.6712</v>
+        <v>-1135654.6387</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
       </c>
       <c r="I68" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J68" t="inlineStr"/>
-      <c r="K68" t="inlineStr"/>
-      <c r="L68" t="inlineStr"/>
+      <c r="K68" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="L68" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M68" t="n">
         <v>1</v>
       </c>
@@ -2960,32 +2942,38 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>2.64</v>
+        <v>2.67</v>
       </c>
       <c r="C69" t="n">
-        <v>2.64</v>
+        <v>2.67</v>
       </c>
       <c r="D69" t="n">
-        <v>2.64</v>
+        <v>2.67</v>
       </c>
       <c r="E69" t="n">
-        <v>2.64</v>
+        <v>2.67</v>
       </c>
       <c r="F69" t="n">
-        <v>47980</v>
+        <v>728093.101</v>
       </c>
       <c r="G69" t="n">
-        <v>-1888514.6712</v>
+        <v>-1135654.6387</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
       </c>
       <c r="I69" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J69" t="inlineStr"/>
-      <c r="K69" t="inlineStr"/>
-      <c r="L69" t="inlineStr"/>
+      <c r="K69" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="L69" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M69" t="n">
         <v>1</v>
       </c>
@@ -2996,22 +2984,22 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>2.66</v>
+        <v>2.67</v>
       </c>
       <c r="C70" t="n">
-        <v>2.65</v>
+        <v>2.67</v>
       </c>
       <c r="D70" t="n">
-        <v>2.66</v>
+        <v>2.67</v>
       </c>
       <c r="E70" t="n">
-        <v>2.65</v>
+        <v>2.67</v>
       </c>
       <c r="F70" t="n">
-        <v>60031.6383</v>
+        <v>357859.7169</v>
       </c>
       <c r="G70" t="n">
-        <v>-1828483.0329</v>
+        <v>-1135654.6387</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -3020,8 +3008,14 @@
         <v>0</v>
       </c>
       <c r="J70" t="inlineStr"/>
-      <c r="K70" t="inlineStr"/>
-      <c r="L70" t="inlineStr"/>
+      <c r="K70" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="L70" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M70" t="n">
         <v>1</v>
       </c>
@@ -3032,22 +3026,22 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>2.65</v>
+        <v>2.69</v>
       </c>
       <c r="C71" t="n">
-        <v>2.65</v>
+        <v>2.69</v>
       </c>
       <c r="D71" t="n">
-        <v>2.65</v>
+        <v>2.69</v>
       </c>
       <c r="E71" t="n">
-        <v>2.65</v>
+        <v>2.69</v>
       </c>
       <c r="F71" t="n">
-        <v>8302.081099999999</v>
+        <v>18773.2342</v>
       </c>
       <c r="G71" t="n">
-        <v>-1828483.0329</v>
+        <v>-1116881.4045</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -3056,8 +3050,14 @@
         <v>0</v>
       </c>
       <c r="J71" t="inlineStr"/>
-      <c r="K71" t="inlineStr"/>
-      <c r="L71" t="inlineStr"/>
+      <c r="K71" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="L71" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M71" t="n">
         <v>1</v>
       </c>
@@ -3068,22 +3068,22 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>2.65</v>
+        <v>2.69</v>
       </c>
       <c r="C72" t="n">
-        <v>2.63</v>
+        <v>2.7</v>
       </c>
       <c r="D72" t="n">
-        <v>2.65</v>
+        <v>2.7</v>
       </c>
       <c r="E72" t="n">
-        <v>2.63</v>
+        <v>2.69</v>
       </c>
       <c r="F72" t="n">
-        <v>1224320.4966</v>
+        <v>25000</v>
       </c>
       <c r="G72" t="n">
-        <v>-3052803.5295</v>
+        <v>-1091881.4045</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -3092,8 +3092,14 @@
         <v>0</v>
       </c>
       <c r="J72" t="inlineStr"/>
-      <c r="K72" t="inlineStr"/>
-      <c r="L72" t="inlineStr"/>
+      <c r="K72" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="L72" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M72" t="n">
         <v>1</v>
       </c>
@@ -3116,10 +3122,10 @@
         <v>2.63</v>
       </c>
       <c r="F73" t="n">
-        <v>25739.3277</v>
+        <v>10</v>
       </c>
       <c r="G73" t="n">
-        <v>-3052803.5295</v>
+        <v>-1091891.4045</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -3128,8 +3134,14 @@
         <v>0</v>
       </c>
       <c r="J73" t="inlineStr"/>
-      <c r="K73" t="inlineStr"/>
-      <c r="L73" t="inlineStr"/>
+      <c r="K73" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="L73" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M73" t="n">
         <v>1</v>
       </c>
@@ -3140,22 +3152,22 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>2.62</v>
+        <v>2.68</v>
       </c>
       <c r="C74" t="n">
-        <v>2.62</v>
+        <v>2.68</v>
       </c>
       <c r="D74" t="n">
-        <v>2.62</v>
+        <v>2.68</v>
       </c>
       <c r="E74" t="n">
-        <v>2.62</v>
+        <v>2.68</v>
       </c>
       <c r="F74" t="n">
-        <v>20000</v>
+        <v>14925.3731</v>
       </c>
       <c r="G74" t="n">
-        <v>-3072803.5295</v>
+        <v>-1076966.0314</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -3164,8 +3176,14 @@
         <v>0</v>
       </c>
       <c r="J74" t="inlineStr"/>
-      <c r="K74" t="inlineStr"/>
-      <c r="L74" t="inlineStr"/>
+      <c r="K74" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="L74" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M74" t="n">
         <v>1</v>
       </c>
@@ -3176,22 +3194,22 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>2.63</v>
+        <v>2.68</v>
       </c>
       <c r="C75" t="n">
-        <v>2.66</v>
+        <v>2.68</v>
       </c>
       <c r="D75" t="n">
-        <v>2.66</v>
+        <v>2.68</v>
       </c>
       <c r="E75" t="n">
-        <v>2.63</v>
+        <v>2.68</v>
       </c>
       <c r="F75" t="n">
-        <v>10</v>
+        <v>3800</v>
       </c>
       <c r="G75" t="n">
-        <v>-3072793.5295</v>
+        <v>-1076966.0314</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -3200,8 +3218,14 @@
         <v>0</v>
       </c>
       <c r="J75" t="inlineStr"/>
-      <c r="K75" t="inlineStr"/>
-      <c r="L75" t="inlineStr"/>
+      <c r="K75" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="L75" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M75" t="n">
         <v>1</v>
       </c>
@@ -3212,22 +3236,22 @@
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>2.63</v>
+        <v>2.67</v>
       </c>
       <c r="C76" t="n">
-        <v>2.62</v>
+        <v>2.67</v>
       </c>
       <c r="D76" t="n">
-        <v>2.63</v>
+        <v>2.67</v>
       </c>
       <c r="E76" t="n">
-        <v>2.62</v>
+        <v>2.67</v>
       </c>
       <c r="F76" t="n">
-        <v>40000</v>
+        <v>9660.237300000001</v>
       </c>
       <c r="G76" t="n">
-        <v>-3112793.5295</v>
+        <v>-1086626.2687</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -3236,8 +3260,14 @@
         <v>0</v>
       </c>
       <c r="J76" t="inlineStr"/>
-      <c r="K76" t="inlineStr"/>
-      <c r="L76" t="inlineStr"/>
+      <c r="K76" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="L76" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M76" t="n">
         <v>1</v>
       </c>
@@ -3248,22 +3278,22 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>2.66</v>
+        <v>2.67</v>
       </c>
       <c r="C77" t="n">
-        <v>2.66</v>
+        <v>2.68</v>
       </c>
       <c r="D77" t="n">
-        <v>2.66</v>
+        <v>2.68</v>
       </c>
       <c r="E77" t="n">
-        <v>2.66</v>
+        <v>2.67</v>
       </c>
       <c r="F77" t="n">
-        <v>10</v>
+        <v>24000</v>
       </c>
       <c r="G77" t="n">
-        <v>-3112783.5295</v>
+        <v>-1062626.2687</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -3272,8 +3302,14 @@
         <v>0</v>
       </c>
       <c r="J77" t="inlineStr"/>
-      <c r="K77" t="inlineStr"/>
-      <c r="L77" t="inlineStr"/>
+      <c r="K77" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="L77" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M77" t="n">
         <v>1</v>
       </c>
@@ -3284,22 +3320,22 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>2.62</v>
+        <v>2.67</v>
       </c>
       <c r="C78" t="n">
-        <v>2.62</v>
+        <v>2.68</v>
       </c>
       <c r="D78" t="n">
-        <v>2.62</v>
+        <v>2.68</v>
       </c>
       <c r="E78" t="n">
-        <v>2.62</v>
+        <v>2.67</v>
       </c>
       <c r="F78" t="n">
-        <v>60000</v>
+        <v>17000</v>
       </c>
       <c r="G78" t="n">
-        <v>-3172783.5295</v>
+        <v>-1062626.2687</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -3308,8 +3344,14 @@
         <v>0</v>
       </c>
       <c r="J78" t="inlineStr"/>
-      <c r="K78" t="inlineStr"/>
-      <c r="L78" t="inlineStr"/>
+      <c r="K78" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="L78" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M78" t="n">
         <v>1</v>
       </c>
@@ -3323,19 +3365,19 @@
         <v>2.66</v>
       </c>
       <c r="C79" t="n">
-        <v>2.63</v>
+        <v>2.66</v>
       </c>
       <c r="D79" t="n">
-        <v>2.69</v>
+        <v>2.66</v>
       </c>
       <c r="E79" t="n">
-        <v>2.63</v>
+        <v>2.66</v>
       </c>
       <c r="F79" t="n">
-        <v>593936.3381000001</v>
+        <v>2926.3157</v>
       </c>
       <c r="G79" t="n">
-        <v>-2578847.1914</v>
+        <v>-1065552.5844</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
@@ -3344,8 +3386,14 @@
         <v>0</v>
       </c>
       <c r="J79" t="inlineStr"/>
-      <c r="K79" t="inlineStr"/>
-      <c r="L79" t="inlineStr"/>
+      <c r="K79" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="L79" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M79" t="n">
         <v>1</v>
       </c>
@@ -3356,22 +3404,22 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>2.64</v>
+        <v>2.67</v>
       </c>
       <c r="C80" t="n">
-        <v>2.64</v>
+        <v>2.68</v>
       </c>
       <c r="D80" t="n">
-        <v>2.64</v>
+        <v>2.68</v>
       </c>
       <c r="E80" t="n">
-        <v>2.64</v>
+        <v>2.67</v>
       </c>
       <c r="F80" t="n">
-        <v>20906.3432</v>
+        <v>17000</v>
       </c>
       <c r="G80" t="n">
-        <v>-2557940.8482</v>
+        <v>-1048552.5844</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -3380,8 +3428,14 @@
         <v>0</v>
       </c>
       <c r="J80" t="inlineStr"/>
-      <c r="K80" t="inlineStr"/>
-      <c r="L80" t="inlineStr"/>
+      <c r="K80" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="L80" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M80" t="n">
         <v>1</v>
       </c>
@@ -3392,22 +3446,22 @@
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>2.64</v>
+        <v>2.65</v>
       </c>
       <c r="C81" t="n">
-        <v>2.64</v>
+        <v>2.65</v>
       </c>
       <c r="D81" t="n">
-        <v>2.64</v>
+        <v>2.65</v>
       </c>
       <c r="E81" t="n">
-        <v>2.64</v>
+        <v>2.65</v>
       </c>
       <c r="F81" t="n">
-        <v>29093.6568</v>
+        <v>1468.6792</v>
       </c>
       <c r="G81" t="n">
-        <v>-2557940.8482</v>
+        <v>-1050021.2636</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
@@ -3416,8 +3470,14 @@
         <v>0</v>
       </c>
       <c r="J81" t="inlineStr"/>
-      <c r="K81" t="inlineStr"/>
-      <c r="L81" t="inlineStr"/>
+      <c r="K81" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="L81" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M81" t="n">
         <v>1</v>
       </c>
@@ -3428,22 +3488,22 @@
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>2.66</v>
+        <v>2.63</v>
       </c>
       <c r="C82" t="n">
-        <v>2.69</v>
+        <v>2.63</v>
       </c>
       <c r="D82" t="n">
-        <v>2.69</v>
+        <v>2.63</v>
       </c>
       <c r="E82" t="n">
-        <v>2.64</v>
+        <v>2.63</v>
       </c>
       <c r="F82" t="n">
-        <v>62746.4232</v>
+        <v>813760.3202</v>
       </c>
       <c r="G82" t="n">
-        <v>-2495194.425</v>
+        <v>-1863781.5838</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
@@ -3452,8 +3512,14 @@
         <v>0</v>
       </c>
       <c r="J82" t="inlineStr"/>
-      <c r="K82" t="inlineStr"/>
-      <c r="L82" t="inlineStr"/>
+      <c r="K82" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="L82" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M82" t="n">
         <v>1</v>
       </c>
@@ -3464,22 +3530,22 @@
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>2.68</v>
+        <v>2.63</v>
       </c>
       <c r="C83" t="n">
-        <v>2.64</v>
+        <v>2.63</v>
       </c>
       <c r="D83" t="n">
-        <v>2.69</v>
+        <v>2.63</v>
       </c>
       <c r="E83" t="n">
-        <v>2.64</v>
+        <v>2.63</v>
       </c>
       <c r="F83" t="n">
-        <v>292286.3763</v>
+        <v>659657.5074999999</v>
       </c>
       <c r="G83" t="n">
-        <v>-2787480.8013</v>
+        <v>-1863781.5838</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
@@ -3488,8 +3554,14 @@
         <v>0</v>
       </c>
       <c r="J83" t="inlineStr"/>
-      <c r="K83" t="inlineStr"/>
-      <c r="L83" t="inlineStr"/>
+      <c r="K83" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="L83" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M83" t="n">
         <v>1</v>
       </c>
@@ -3500,22 +3572,22 @@
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>2.7</v>
+        <v>2.65</v>
       </c>
       <c r="C84" t="n">
-        <v>2.7</v>
+        <v>2.65</v>
       </c>
       <c r="D84" t="n">
-        <v>2.7</v>
+        <v>2.65</v>
       </c>
       <c r="E84" t="n">
-        <v>2.7</v>
+        <v>2.65</v>
       </c>
       <c r="F84" t="n">
-        <v>53703.7037</v>
+        <v>11320.7547</v>
       </c>
       <c r="G84" t="n">
-        <v>-2733777.0976</v>
+        <v>-1852460.8291</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
@@ -3524,8 +3596,14 @@
         <v>0</v>
       </c>
       <c r="J84" t="inlineStr"/>
-      <c r="K84" t="inlineStr"/>
-      <c r="L84" t="inlineStr"/>
+      <c r="K84" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="L84" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M84" t="n">
         <v>1</v>
       </c>
@@ -3536,32 +3614,38 @@
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>2.7</v>
+        <v>2.65</v>
       </c>
       <c r="C85" t="n">
-        <v>2.7</v>
+        <v>2.65</v>
       </c>
       <c r="D85" t="n">
-        <v>2.7</v>
+        <v>2.65</v>
       </c>
       <c r="E85" t="n">
-        <v>2.7</v>
+        <v>2.65</v>
       </c>
       <c r="F85" t="n">
-        <v>40277.7777</v>
+        <v>60775.5211</v>
       </c>
       <c r="G85" t="n">
-        <v>-2733777.0976</v>
+        <v>-1852460.8291</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
       </c>
       <c r="I85" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J85" t="inlineStr"/>
-      <c r="K85" t="inlineStr"/>
-      <c r="L85" t="inlineStr"/>
+      <c r="K85" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="L85" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M85" t="n">
         <v>1</v>
       </c>
@@ -3572,32 +3656,38 @@
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>2.69</v>
+        <v>2.65</v>
       </c>
       <c r="C86" t="n">
-        <v>2.7</v>
+        <v>2.66</v>
       </c>
       <c r="D86" t="n">
-        <v>2.7</v>
+        <v>2.66</v>
       </c>
       <c r="E86" t="n">
-        <v>2.64</v>
+        <v>2.65</v>
       </c>
       <c r="F86" t="n">
-        <v>23013.2526</v>
+        <v>10933</v>
       </c>
       <c r="G86" t="n">
-        <v>-2733777.0976</v>
+        <v>-1841527.8291</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
       </c>
       <c r="I86" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J86" t="inlineStr"/>
-      <c r="K86" t="inlineStr"/>
-      <c r="L86" t="inlineStr"/>
+      <c r="K86" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="L86" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M86" t="n">
         <v>1</v>
       </c>
@@ -3608,22 +3698,22 @@
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>2.7</v>
+        <v>2.66</v>
       </c>
       <c r="C87" t="n">
-        <v>2.7</v>
+        <v>2.66</v>
       </c>
       <c r="D87" t="n">
-        <v>2.7</v>
+        <v>2.66</v>
       </c>
       <c r="E87" t="n">
-        <v>2.7</v>
+        <v>2.66</v>
       </c>
       <c r="F87" t="n">
-        <v>4893.7592</v>
+        <v>417.2284</v>
       </c>
       <c r="G87" t="n">
-        <v>-2733777.0976</v>
+        <v>-1841527.8291</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
@@ -3632,8 +3722,14 @@
         <v>0</v>
       </c>
       <c r="J87" t="inlineStr"/>
-      <c r="K87" t="inlineStr"/>
-      <c r="L87" t="inlineStr"/>
+      <c r="K87" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="L87" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M87" t="n">
         <v>1</v>
       </c>
@@ -3644,22 +3740,22 @@
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>2.7</v>
+        <v>2.66</v>
       </c>
       <c r="C88" t="n">
-        <v>2.7</v>
+        <v>2.66</v>
       </c>
       <c r="D88" t="n">
-        <v>2.7</v>
+        <v>2.66</v>
       </c>
       <c r="E88" t="n">
-        <v>2.7</v>
+        <v>2.66</v>
       </c>
       <c r="F88" t="n">
-        <v>9298.1111</v>
+        <v>831.086</v>
       </c>
       <c r="G88" t="n">
-        <v>-2733777.0976</v>
+        <v>-1841527.8291</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
@@ -3668,8 +3764,14 @@
         <v>0</v>
       </c>
       <c r="J88" t="inlineStr"/>
-      <c r="K88" t="inlineStr"/>
-      <c r="L88" t="inlineStr"/>
+      <c r="K88" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="L88" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M88" t="n">
         <v>1</v>
       </c>
@@ -3680,22 +3782,22 @@
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>2.7</v>
+        <v>2.66</v>
       </c>
       <c r="C89" t="n">
-        <v>2.69</v>
+        <v>2.67</v>
       </c>
       <c r="D89" t="n">
-        <v>2.7</v>
+        <v>2.67</v>
       </c>
       <c r="E89" t="n">
-        <v>2.69</v>
+        <v>2.66</v>
       </c>
       <c r="F89" t="n">
-        <v>45573.2962</v>
+        <v>1238.5766</v>
       </c>
       <c r="G89" t="n">
-        <v>-2779350.3938</v>
+        <v>-1840289.2525</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
@@ -3704,8 +3806,14 @@
         <v>0</v>
       </c>
       <c r="J89" t="inlineStr"/>
-      <c r="K89" t="inlineStr"/>
-      <c r="L89" t="inlineStr"/>
+      <c r="K89" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="L89" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M89" t="n">
         <v>1</v>
       </c>
@@ -3716,32 +3824,38 @@
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>2.69</v>
+        <v>2.67</v>
       </c>
       <c r="C90" t="n">
-        <v>2.69</v>
+        <v>2.67</v>
       </c>
       <c r="D90" t="n">
-        <v>2.69</v>
+        <v>2.67</v>
       </c>
       <c r="E90" t="n">
-        <v>2.64</v>
+        <v>2.67</v>
       </c>
       <c r="F90" t="n">
-        <v>47608.2155</v>
+        <v>820.5992</v>
       </c>
       <c r="G90" t="n">
-        <v>-2779350.3938</v>
+        <v>-1840289.2525</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
       </c>
       <c r="I90" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J90" t="inlineStr"/>
-      <c r="K90" t="inlineStr"/>
-      <c r="L90" t="inlineStr"/>
+      <c r="K90" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="L90" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M90" t="n">
         <v>1</v>
       </c>
@@ -3752,22 +3866,22 @@
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>2.7</v>
+        <v>2.66</v>
       </c>
       <c r="C91" t="n">
-        <v>2.7</v>
+        <v>2.66</v>
       </c>
       <c r="D91" t="n">
-        <v>2.7</v>
+        <v>2.66</v>
       </c>
       <c r="E91" t="n">
-        <v>2.7</v>
+        <v>2.66</v>
       </c>
       <c r="F91" t="n">
-        <v>1811.6666</v>
+        <v>408.6142</v>
       </c>
       <c r="G91" t="n">
-        <v>-2777538.7272</v>
+        <v>-1840697.8667</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
@@ -3776,8 +3890,14 @@
         <v>0</v>
       </c>
       <c r="J91" t="inlineStr"/>
-      <c r="K91" t="inlineStr"/>
-      <c r="L91" t="inlineStr"/>
+      <c r="K91" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="L91" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M91" t="n">
         <v>1</v>
       </c>
@@ -3788,22 +3908,22 @@
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>2.64</v>
+        <v>2.66</v>
       </c>
       <c r="C92" t="n">
-        <v>2.69</v>
+        <v>2.66</v>
       </c>
       <c r="D92" t="n">
-        <v>2.69</v>
+        <v>2.66</v>
       </c>
       <c r="E92" t="n">
-        <v>2.64</v>
+        <v>2.66</v>
       </c>
       <c r="F92" t="n">
-        <v>51636.5799</v>
+        <v>1444.4096</v>
       </c>
       <c r="G92" t="n">
-        <v>-2829175.3071</v>
+        <v>-1840697.8667</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
@@ -3812,8 +3932,14 @@
         <v>0</v>
       </c>
       <c r="J92" t="inlineStr"/>
-      <c r="K92" t="inlineStr"/>
-      <c r="L92" t="inlineStr"/>
+      <c r="K92" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="L92" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M92" t="n">
         <v>1</v>
       </c>
@@ -3824,22 +3950,22 @@
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>2.69</v>
+        <v>2.66</v>
       </c>
       <c r="C93" t="n">
-        <v>2.69</v>
+        <v>2.66</v>
       </c>
       <c r="D93" t="n">
-        <v>2.69</v>
+        <v>2.66</v>
       </c>
       <c r="E93" t="n">
-        <v>2.69</v>
+        <v>2.66</v>
       </c>
       <c r="F93" t="n">
-        <v>3682.249</v>
+        <v>0.0001</v>
       </c>
       <c r="G93" t="n">
-        <v>-2829175.3071</v>
+        <v>-1840697.8667</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
@@ -3848,8 +3974,14 @@
         <v>0</v>
       </c>
       <c r="J93" t="inlineStr"/>
-      <c r="K93" t="inlineStr"/>
-      <c r="L93" t="inlineStr"/>
+      <c r="K93" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="L93" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M93" t="n">
         <v>1</v>
       </c>
@@ -3860,22 +3992,22 @@
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>2.69</v>
+        <v>2.68</v>
       </c>
       <c r="C94" t="n">
-        <v>2.69</v>
+        <v>2.68</v>
       </c>
       <c r="D94" t="n">
-        <v>2.69</v>
+        <v>2.68</v>
       </c>
       <c r="E94" t="n">
-        <v>2.69</v>
+        <v>2.68</v>
       </c>
       <c r="F94" t="n">
-        <v>2761.71</v>
+        <v>10</v>
       </c>
       <c r="G94" t="n">
-        <v>-2829175.3071</v>
+        <v>-1840687.8667</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
@@ -3884,8 +4016,14 @@
         <v>0</v>
       </c>
       <c r="J94" t="inlineStr"/>
-      <c r="K94" t="inlineStr"/>
-      <c r="L94" t="inlineStr"/>
+      <c r="K94" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="L94" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M94" t="n">
         <v>1</v>
       </c>
@@ -3896,22 +4034,22 @@
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>2.69</v>
+        <v>2.66</v>
       </c>
       <c r="C95" t="n">
-        <v>2.69</v>
+        <v>2.66</v>
       </c>
       <c r="D95" t="n">
-        <v>2.69</v>
+        <v>2.66</v>
       </c>
       <c r="E95" t="n">
-        <v>2.69</v>
+        <v>2.66</v>
       </c>
       <c r="F95" t="n">
-        <v>2071.2825</v>
+        <v>846.8045</v>
       </c>
       <c r="G95" t="n">
-        <v>-2829175.3071</v>
+        <v>-1841534.6712</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
@@ -3920,8 +4058,14 @@
         <v>0</v>
       </c>
       <c r="J95" t="inlineStr"/>
-      <c r="K95" t="inlineStr"/>
-      <c r="L95" t="inlineStr"/>
+      <c r="K95" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="L95" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M95" t="n">
         <v>1</v>
       </c>
@@ -3932,22 +4076,22 @@
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>2.69</v>
+        <v>2.66</v>
       </c>
       <c r="C96" t="n">
-        <v>2.69</v>
+        <v>2.68</v>
       </c>
       <c r="D96" t="n">
-        <v>2.69</v>
+        <v>2.68</v>
       </c>
       <c r="E96" t="n">
-        <v>2.69</v>
+        <v>2.66</v>
       </c>
       <c r="F96" t="n">
-        <v>1553.4386</v>
+        <v>1000</v>
       </c>
       <c r="G96" t="n">
-        <v>-2829175.3071</v>
+        <v>-1840534.6712</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
@@ -3956,8 +4100,14 @@
         <v>0</v>
       </c>
       <c r="J96" t="inlineStr"/>
-      <c r="K96" t="inlineStr"/>
-      <c r="L96" t="inlineStr"/>
+      <c r="K96" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="L96" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M96" t="n">
         <v>1</v>
       </c>
@@ -3968,32 +4118,38 @@
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>2.69</v>
+        <v>2.68</v>
       </c>
       <c r="C97" t="n">
-        <v>2.69</v>
+        <v>2.68</v>
       </c>
       <c r="D97" t="n">
-        <v>2.69</v>
+        <v>2.68</v>
       </c>
       <c r="E97" t="n">
-        <v>2.69</v>
+        <v>2.68</v>
       </c>
       <c r="F97" t="n">
-        <v>466.0594</v>
+        <v>836.194</v>
       </c>
       <c r="G97" t="n">
-        <v>-2829175.3071</v>
+        <v>-1840534.6712</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
       </c>
       <c r="I97" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J97" t="inlineStr"/>
-      <c r="K97" t="inlineStr"/>
-      <c r="L97" t="inlineStr"/>
+      <c r="K97" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="L97" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M97" t="n">
         <v>1</v>
       </c>
@@ -4004,22 +4160,22 @@
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>2.69</v>
+        <v>2.64</v>
       </c>
       <c r="C98" t="n">
-        <v>2.69</v>
+        <v>2.64</v>
       </c>
       <c r="D98" t="n">
-        <v>2.69</v>
+        <v>2.64</v>
       </c>
       <c r="E98" t="n">
-        <v>2.69</v>
+        <v>2.64</v>
       </c>
       <c r="F98" t="n">
-        <v>209.7211</v>
+        <v>47980</v>
       </c>
       <c r="G98" t="n">
-        <v>-2829175.3071</v>
+        <v>-1888514.6712</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
@@ -4028,8 +4184,14 @@
         <v>0</v>
       </c>
       <c r="J98" t="inlineStr"/>
-      <c r="K98" t="inlineStr"/>
-      <c r="L98" t="inlineStr"/>
+      <c r="K98" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="L98" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M98" t="n">
         <v>1</v>
       </c>
@@ -4040,32 +4202,38 @@
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>2.69</v>
+        <v>2.66</v>
       </c>
       <c r="C99" t="n">
-        <v>2.69</v>
+        <v>2.65</v>
       </c>
       <c r="D99" t="n">
-        <v>2.69</v>
+        <v>2.66</v>
       </c>
       <c r="E99" t="n">
-        <v>2.69</v>
+        <v>2.65</v>
       </c>
       <c r="F99" t="n">
-        <v>11623.0482</v>
+        <v>60031.6383</v>
       </c>
       <c r="G99" t="n">
-        <v>-2829175.3071</v>
+        <v>-1828483.0329</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
       </c>
       <c r="I99" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J99" t="inlineStr"/>
-      <c r="K99" t="inlineStr"/>
-      <c r="L99" t="inlineStr"/>
+      <c r="K99" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="L99" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M99" t="n">
         <v>1</v>
       </c>
@@ -4076,32 +4244,38 @@
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>2.7</v>
+        <v>2.65</v>
       </c>
       <c r="C100" t="n">
-        <v>2.7</v>
+        <v>2.65</v>
       </c>
       <c r="D100" t="n">
-        <v>2.7</v>
+        <v>2.65</v>
       </c>
       <c r="E100" t="n">
-        <v>2.7</v>
+        <v>2.65</v>
       </c>
       <c r="F100" t="n">
-        <v>7407.4074</v>
+        <v>8302.081099999999</v>
       </c>
       <c r="G100" t="n">
-        <v>-2821767.8997</v>
+        <v>-1828483.0329</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
       </c>
       <c r="I100" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J100" t="inlineStr"/>
-      <c r="K100" t="inlineStr"/>
-      <c r="L100" t="inlineStr"/>
+      <c r="K100" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="L100" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M100" t="n">
         <v>1</v>
       </c>
@@ -4112,32 +4286,38 @@
         <v>99</v>
       </c>
       <c r="B101" t="n">
-        <v>2.7</v>
+        <v>2.65</v>
       </c>
       <c r="C101" t="n">
-        <v>2.7</v>
+        <v>2.63</v>
       </c>
       <c r="D101" t="n">
-        <v>2.7</v>
+        <v>2.65</v>
       </c>
       <c r="E101" t="n">
-        <v>2.7</v>
+        <v>2.63</v>
       </c>
       <c r="F101" t="n">
-        <v>50000</v>
+        <v>1224320.4966</v>
       </c>
       <c r="G101" t="n">
-        <v>-2821767.8997</v>
+        <v>-3052803.5295</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
       </c>
       <c r="I101" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J101" t="inlineStr"/>
-      <c r="K101" t="inlineStr"/>
-      <c r="L101" t="inlineStr"/>
+      <c r="K101" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="L101" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M101" t="n">
         <v>1</v>
       </c>
@@ -4148,32 +4328,38 @@
         <v>100</v>
       </c>
       <c r="B102" t="n">
-        <v>2.69</v>
+        <v>2.63</v>
       </c>
       <c r="C102" t="n">
-        <v>2.71</v>
+        <v>2.63</v>
       </c>
       <c r="D102" t="n">
-        <v>2.71</v>
+        <v>2.63</v>
       </c>
       <c r="E102" t="n">
-        <v>2.65</v>
+        <v>2.63</v>
       </c>
       <c r="F102" t="n">
-        <v>909191.3638000001</v>
+        <v>25739.3277</v>
       </c>
       <c r="G102" t="n">
-        <v>-1912576.5359</v>
+        <v>-3052803.5295</v>
       </c>
       <c r="H102" t="n">
         <v>0</v>
       </c>
       <c r="I102" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J102" t="inlineStr"/>
-      <c r="K102" t="inlineStr"/>
-      <c r="L102" t="inlineStr"/>
+      <c r="K102" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="L102" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M102" t="n">
         <v>1</v>
       </c>
@@ -4184,32 +4370,38 @@
         <v>101</v>
       </c>
       <c r="B103" t="n">
-        <v>2.71</v>
+        <v>2.62</v>
       </c>
       <c r="C103" t="n">
-        <v>2.65</v>
+        <v>2.62</v>
       </c>
       <c r="D103" t="n">
-        <v>2.71</v>
+        <v>2.62</v>
       </c>
       <c r="E103" t="n">
-        <v>2.65</v>
+        <v>2.62</v>
       </c>
       <c r="F103" t="n">
-        <v>102292.2727</v>
+        <v>20000</v>
       </c>
       <c r="G103" t="n">
-        <v>-2014868.8086</v>
+        <v>-3072803.5295</v>
       </c>
       <c r="H103" t="n">
         <v>0</v>
       </c>
       <c r="I103" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J103" t="inlineStr"/>
-      <c r="K103" t="inlineStr"/>
-      <c r="L103" t="inlineStr"/>
+      <c r="K103" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="L103" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M103" t="n">
         <v>1</v>
       </c>
@@ -4220,32 +4412,38 @@
         <v>102</v>
       </c>
       <c r="B104" t="n">
-        <v>2.67</v>
+        <v>2.63</v>
       </c>
       <c r="C104" t="n">
-        <v>2.67</v>
+        <v>2.66</v>
       </c>
       <c r="D104" t="n">
-        <v>2.67</v>
+        <v>2.66</v>
       </c>
       <c r="E104" t="n">
-        <v>2.67</v>
+        <v>2.63</v>
       </c>
       <c r="F104" t="n">
-        <v>7064</v>
+        <v>10</v>
       </c>
       <c r="G104" t="n">
-        <v>-2007804.8086</v>
+        <v>-3072793.5295</v>
       </c>
       <c r="H104" t="n">
         <v>0</v>
       </c>
       <c r="I104" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J104" t="inlineStr"/>
-      <c r="K104" t="inlineStr"/>
-      <c r="L104" t="inlineStr"/>
+      <c r="K104" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="L104" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M104" t="n">
         <v>1</v>
       </c>
@@ -4256,32 +4454,38 @@
         <v>103</v>
       </c>
       <c r="B105" t="n">
-        <v>2.66</v>
+        <v>2.63</v>
       </c>
       <c r="C105" t="n">
-        <v>2.67</v>
+        <v>2.62</v>
       </c>
       <c r="D105" t="n">
-        <v>2.67</v>
+        <v>2.63</v>
       </c>
       <c r="E105" t="n">
-        <v>2.66</v>
+        <v>2.62</v>
       </c>
       <c r="F105" t="n">
-        <v>40412</v>
+        <v>40000</v>
       </c>
       <c r="G105" t="n">
-        <v>-2007804.8086</v>
+        <v>-3112793.5295</v>
       </c>
       <c r="H105" t="n">
         <v>0</v>
       </c>
       <c r="I105" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J105" t="inlineStr"/>
-      <c r="K105" t="inlineStr"/>
-      <c r="L105" t="inlineStr"/>
+      <c r="K105" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="L105" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M105" t="n">
         <v>1</v>
       </c>
@@ -4292,22 +4496,22 @@
         <v>104</v>
       </c>
       <c r="B106" t="n">
-        <v>2.65</v>
+        <v>2.66</v>
       </c>
       <c r="C106" t="n">
-        <v>2.67</v>
+        <v>2.66</v>
       </c>
       <c r="D106" t="n">
-        <v>2.67</v>
+        <v>2.66</v>
       </c>
       <c r="E106" t="n">
-        <v>2.65</v>
+        <v>2.66</v>
       </c>
       <c r="F106" t="n">
-        <v>1108994.0469</v>
+        <v>10</v>
       </c>
       <c r="G106" t="n">
-        <v>-2007804.8086</v>
+        <v>-3112783.5295</v>
       </c>
       <c r="H106" t="n">
         <v>0</v>
@@ -4316,8 +4520,14 @@
         <v>0</v>
       </c>
       <c r="J106" t="inlineStr"/>
-      <c r="K106" t="inlineStr"/>
-      <c r="L106" t="inlineStr"/>
+      <c r="K106" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="L106" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M106" t="n">
         <v>1</v>
       </c>
@@ -4328,32 +4538,38 @@
         <v>105</v>
       </c>
       <c r="B107" t="n">
-        <v>2.67</v>
+        <v>2.62</v>
       </c>
       <c r="C107" t="n">
-        <v>2.67</v>
+        <v>2.62</v>
       </c>
       <c r="D107" t="n">
-        <v>2.67</v>
+        <v>2.62</v>
       </c>
       <c r="E107" t="n">
-        <v>2.67</v>
+        <v>2.62</v>
       </c>
       <c r="F107" t="n">
-        <v>201676.6399</v>
+        <v>60000</v>
       </c>
       <c r="G107" t="n">
-        <v>-2007804.8086</v>
+        <v>-3172783.5295</v>
       </c>
       <c r="H107" t="n">
         <v>0</v>
       </c>
       <c r="I107" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J107" t="inlineStr"/>
-      <c r="K107" t="inlineStr"/>
-      <c r="L107" t="inlineStr"/>
+      <c r="K107" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="L107" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M107" t="n">
         <v>1</v>
       </c>
@@ -4364,32 +4580,38 @@
         <v>106</v>
       </c>
       <c r="B108" t="n">
-        <v>2.7</v>
+        <v>2.66</v>
       </c>
       <c r="C108" t="n">
-        <v>2.7</v>
+        <v>2.63</v>
       </c>
       <c r="D108" t="n">
-        <v>2.7</v>
+        <v>2.69</v>
       </c>
       <c r="E108" t="n">
-        <v>2.7</v>
+        <v>2.63</v>
       </c>
       <c r="F108" t="n">
-        <v>992.5</v>
+        <v>593936.3381000001</v>
       </c>
       <c r="G108" t="n">
-        <v>-2006812.3086</v>
+        <v>-2578847.1914</v>
       </c>
       <c r="H108" t="n">
         <v>0</v>
       </c>
       <c r="I108" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J108" t="inlineStr"/>
-      <c r="K108" t="inlineStr"/>
-      <c r="L108" t="inlineStr"/>
+      <c r="K108" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="L108" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M108" t="n">
         <v>1</v>
       </c>
@@ -4400,32 +4622,38 @@
         <v>107</v>
       </c>
       <c r="B109" t="n">
-        <v>2.66</v>
+        <v>2.64</v>
       </c>
       <c r="C109" t="n">
-        <v>2.66</v>
+        <v>2.64</v>
       </c>
       <c r="D109" t="n">
-        <v>2.66</v>
+        <v>2.64</v>
       </c>
       <c r="E109" t="n">
-        <v>2.66</v>
+        <v>2.64</v>
       </c>
       <c r="F109" t="n">
-        <v>562692.3012</v>
+        <v>20906.3432</v>
       </c>
       <c r="G109" t="n">
-        <v>-2569504.6098</v>
+        <v>-2557940.8482</v>
       </c>
       <c r="H109" t="n">
         <v>0</v>
       </c>
       <c r="I109" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J109" t="inlineStr"/>
-      <c r="K109" t="inlineStr"/>
-      <c r="L109" t="inlineStr"/>
+      <c r="K109" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="L109" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M109" t="n">
         <v>1</v>
       </c>
@@ -4436,22 +4664,22 @@
         <v>108</v>
       </c>
       <c r="B110" t="n">
-        <v>2.65</v>
+        <v>2.64</v>
       </c>
       <c r="C110" t="n">
-        <v>2.65</v>
+        <v>2.64</v>
       </c>
       <c r="D110" t="n">
-        <v>2.7</v>
+        <v>2.64</v>
       </c>
       <c r="E110" t="n">
-        <v>2.65</v>
+        <v>2.64</v>
       </c>
       <c r="F110" t="n">
-        <v>549319</v>
+        <v>29093.6568</v>
       </c>
       <c r="G110" t="n">
-        <v>-3118823.6098</v>
+        <v>-2557940.8482</v>
       </c>
       <c r="H110" t="n">
         <v>0</v>
@@ -4460,8 +4688,14 @@
         <v>0</v>
       </c>
       <c r="J110" t="inlineStr"/>
-      <c r="K110" t="inlineStr"/>
-      <c r="L110" t="inlineStr"/>
+      <c r="K110" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="L110" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M110" t="n">
         <v>1</v>
       </c>
@@ -4472,22 +4706,22 @@
         <v>109</v>
       </c>
       <c r="B111" t="n">
-        <v>2.7</v>
+        <v>2.66</v>
       </c>
       <c r="C111" t="n">
-        <v>2.7</v>
+        <v>2.69</v>
       </c>
       <c r="D111" t="n">
-        <v>2.7</v>
+        <v>2.69</v>
       </c>
       <c r="E111" t="n">
-        <v>2.7</v>
+        <v>2.64</v>
       </c>
       <c r="F111" t="n">
-        <v>10</v>
+        <v>62746.4232</v>
       </c>
       <c r="G111" t="n">
-        <v>-3118813.6098</v>
+        <v>-2495194.425</v>
       </c>
       <c r="H111" t="n">
         <v>0</v>
@@ -4496,8 +4730,14 @@
         <v>0</v>
       </c>
       <c r="J111" t="inlineStr"/>
-      <c r="K111" t="inlineStr"/>
-      <c r="L111" t="inlineStr"/>
+      <c r="K111" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="L111" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M111" t="n">
         <v>1</v>
       </c>
@@ -4508,36 +4748,1260 @@
         <v>110</v>
       </c>
       <c r="B112" t="n">
-        <v>2.65</v>
+        <v>2.68</v>
       </c>
       <c r="C112" t="n">
-        <v>2.69</v>
+        <v>2.64</v>
       </c>
       <c r="D112" t="n">
         <v>2.69</v>
       </c>
       <c r="E112" t="n">
-        <v>2.65</v>
+        <v>2.64</v>
       </c>
       <c r="F112" t="n">
+        <v>292286.3763</v>
+      </c>
+      <c r="G112" t="n">
+        <v>-2787480.8013</v>
+      </c>
+      <c r="H112" t="n">
+        <v>0</v>
+      </c>
+      <c r="I112" t="n">
+        <v>0</v>
+      </c>
+      <c r="J112" t="inlineStr"/>
+      <c r="K112" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="L112" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M112" t="n">
+        <v>1</v>
+      </c>
+      <c r="N112" t="inlineStr"/>
+    </row>
+    <row r="113">
+      <c r="A113" s="1" t="n">
+        <v>111</v>
+      </c>
+      <c r="B113" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="C113" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="D113" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="E113" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="F113" t="n">
+        <v>53703.7037</v>
+      </c>
+      <c r="G113" t="n">
+        <v>-2733777.0976</v>
+      </c>
+      <c r="H113" t="n">
+        <v>0</v>
+      </c>
+      <c r="I113" t="n">
+        <v>0</v>
+      </c>
+      <c r="J113" t="inlineStr"/>
+      <c r="K113" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="L113" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M113" t="n">
+        <v>1</v>
+      </c>
+      <c r="N113" t="inlineStr"/>
+    </row>
+    <row r="114">
+      <c r="A114" s="1" t="n">
+        <v>112</v>
+      </c>
+      <c r="B114" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="C114" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="D114" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="E114" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="F114" t="n">
+        <v>40277.7777</v>
+      </c>
+      <c r="G114" t="n">
+        <v>-2733777.0976</v>
+      </c>
+      <c r="H114" t="n">
+        <v>0</v>
+      </c>
+      <c r="I114" t="n">
+        <v>0</v>
+      </c>
+      <c r="J114" t="inlineStr"/>
+      <c r="K114" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="L114" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M114" t="n">
+        <v>1</v>
+      </c>
+      <c r="N114" t="inlineStr"/>
+    </row>
+    <row r="115">
+      <c r="A115" s="1" t="n">
+        <v>113</v>
+      </c>
+      <c r="B115" t="n">
+        <v>2.69</v>
+      </c>
+      <c r="C115" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="D115" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="E115" t="n">
+        <v>2.64</v>
+      </c>
+      <c r="F115" t="n">
+        <v>23013.2526</v>
+      </c>
+      <c r="G115" t="n">
+        <v>-2733777.0976</v>
+      </c>
+      <c r="H115" t="n">
+        <v>0</v>
+      </c>
+      <c r="I115" t="n">
+        <v>0</v>
+      </c>
+      <c r="J115" t="inlineStr"/>
+      <c r="K115" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="L115" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M115" t="n">
+        <v>1</v>
+      </c>
+      <c r="N115" t="inlineStr"/>
+    </row>
+    <row r="116">
+      <c r="A116" s="1" t="n">
+        <v>114</v>
+      </c>
+      <c r="B116" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="C116" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="D116" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="E116" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="F116" t="n">
+        <v>4893.7592</v>
+      </c>
+      <c r="G116" t="n">
+        <v>-2733777.0976</v>
+      </c>
+      <c r="H116" t="n">
+        <v>0</v>
+      </c>
+      <c r="I116" t="n">
+        <v>0</v>
+      </c>
+      <c r="J116" t="inlineStr"/>
+      <c r="K116" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="L116" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M116" t="n">
+        <v>1</v>
+      </c>
+      <c r="N116" t="inlineStr"/>
+    </row>
+    <row r="117">
+      <c r="A117" s="1" t="n">
+        <v>115</v>
+      </c>
+      <c r="B117" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="C117" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="D117" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="E117" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="F117" t="n">
+        <v>9298.1111</v>
+      </c>
+      <c r="G117" t="n">
+        <v>-2733777.0976</v>
+      </c>
+      <c r="H117" t="n">
+        <v>0</v>
+      </c>
+      <c r="I117" t="n">
+        <v>0</v>
+      </c>
+      <c r="J117" t="inlineStr"/>
+      <c r="K117" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="L117" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M117" t="n">
+        <v>1</v>
+      </c>
+      <c r="N117" t="inlineStr"/>
+    </row>
+    <row r="118">
+      <c r="A118" s="1" t="n">
+        <v>116</v>
+      </c>
+      <c r="B118" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="C118" t="n">
+        <v>2.69</v>
+      </c>
+      <c r="D118" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="E118" t="n">
+        <v>2.69</v>
+      </c>
+      <c r="F118" t="n">
+        <v>45573.2962</v>
+      </c>
+      <c r="G118" t="n">
+        <v>-2779350.3938</v>
+      </c>
+      <c r="H118" t="n">
+        <v>0</v>
+      </c>
+      <c r="I118" t="n">
+        <v>0</v>
+      </c>
+      <c r="J118" t="inlineStr"/>
+      <c r="K118" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="L118" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M118" t="n">
+        <v>1</v>
+      </c>
+      <c r="N118" t="inlineStr"/>
+    </row>
+    <row r="119">
+      <c r="A119" s="1" t="n">
+        <v>117</v>
+      </c>
+      <c r="B119" t="n">
+        <v>2.69</v>
+      </c>
+      <c r="C119" t="n">
+        <v>2.69</v>
+      </c>
+      <c r="D119" t="n">
+        <v>2.69</v>
+      </c>
+      <c r="E119" t="n">
+        <v>2.64</v>
+      </c>
+      <c r="F119" t="n">
+        <v>47608.2155</v>
+      </c>
+      <c r="G119" t="n">
+        <v>-2779350.3938</v>
+      </c>
+      <c r="H119" t="n">
+        <v>0</v>
+      </c>
+      <c r="I119" t="n">
+        <v>0</v>
+      </c>
+      <c r="J119" t="inlineStr"/>
+      <c r="K119" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="L119" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M119" t="n">
+        <v>1</v>
+      </c>
+      <c r="N119" t="inlineStr"/>
+    </row>
+    <row r="120">
+      <c r="A120" s="1" t="n">
+        <v>118</v>
+      </c>
+      <c r="B120" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="C120" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="D120" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="E120" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="F120" t="n">
+        <v>1811.6666</v>
+      </c>
+      <c r="G120" t="n">
+        <v>-2777538.7272</v>
+      </c>
+      <c r="H120" t="n">
+        <v>0</v>
+      </c>
+      <c r="I120" t="n">
+        <v>0</v>
+      </c>
+      <c r="J120" t="inlineStr"/>
+      <c r="K120" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="L120" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M120" t="n">
+        <v>1</v>
+      </c>
+      <c r="N120" t="inlineStr"/>
+    </row>
+    <row r="121">
+      <c r="A121" s="1" t="n">
+        <v>119</v>
+      </c>
+      <c r="B121" t="n">
+        <v>2.64</v>
+      </c>
+      <c r="C121" t="n">
+        <v>2.69</v>
+      </c>
+      <c r="D121" t="n">
+        <v>2.69</v>
+      </c>
+      <c r="E121" t="n">
+        <v>2.64</v>
+      </c>
+      <c r="F121" t="n">
+        <v>51636.5799</v>
+      </c>
+      <c r="G121" t="n">
+        <v>-2829175.3071</v>
+      </c>
+      <c r="H121" t="n">
+        <v>0</v>
+      </c>
+      <c r="I121" t="n">
+        <v>0</v>
+      </c>
+      <c r="J121" t="inlineStr"/>
+      <c r="K121" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="L121" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M121" t="n">
+        <v>1</v>
+      </c>
+      <c r="N121" t="inlineStr"/>
+    </row>
+    <row r="122">
+      <c r="A122" s="1" t="n">
+        <v>120</v>
+      </c>
+      <c r="B122" t="n">
+        <v>2.69</v>
+      </c>
+      <c r="C122" t="n">
+        <v>2.69</v>
+      </c>
+      <c r="D122" t="n">
+        <v>2.69</v>
+      </c>
+      <c r="E122" t="n">
+        <v>2.69</v>
+      </c>
+      <c r="F122" t="n">
+        <v>3682.249</v>
+      </c>
+      <c r="G122" t="n">
+        <v>-2829175.3071</v>
+      </c>
+      <c r="H122" t="n">
+        <v>0</v>
+      </c>
+      <c r="I122" t="n">
+        <v>0</v>
+      </c>
+      <c r="J122" t="inlineStr"/>
+      <c r="K122" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="L122" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M122" t="n">
+        <v>1</v>
+      </c>
+      <c r="N122" t="inlineStr"/>
+    </row>
+    <row r="123">
+      <c r="A123" s="1" t="n">
+        <v>121</v>
+      </c>
+      <c r="B123" t="n">
+        <v>2.69</v>
+      </c>
+      <c r="C123" t="n">
+        <v>2.69</v>
+      </c>
+      <c r="D123" t="n">
+        <v>2.69</v>
+      </c>
+      <c r="E123" t="n">
+        <v>2.69</v>
+      </c>
+      <c r="F123" t="n">
+        <v>2761.71</v>
+      </c>
+      <c r="G123" t="n">
+        <v>-2829175.3071</v>
+      </c>
+      <c r="H123" t="n">
+        <v>0</v>
+      </c>
+      <c r="I123" t="n">
+        <v>0</v>
+      </c>
+      <c r="J123" t="inlineStr"/>
+      <c r="K123" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="L123" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M123" t="n">
+        <v>1</v>
+      </c>
+      <c r="N123" t="inlineStr"/>
+    </row>
+    <row r="124">
+      <c r="A124" s="1" t="n">
+        <v>122</v>
+      </c>
+      <c r="B124" t="n">
+        <v>2.69</v>
+      </c>
+      <c r="C124" t="n">
+        <v>2.69</v>
+      </c>
+      <c r="D124" t="n">
+        <v>2.69</v>
+      </c>
+      <c r="E124" t="n">
+        <v>2.69</v>
+      </c>
+      <c r="F124" t="n">
+        <v>2071.2825</v>
+      </c>
+      <c r="G124" t="n">
+        <v>-2829175.3071</v>
+      </c>
+      <c r="H124" t="n">
+        <v>0</v>
+      </c>
+      <c r="I124" t="n">
+        <v>0</v>
+      </c>
+      <c r="J124" t="inlineStr"/>
+      <c r="K124" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="L124" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M124" t="n">
+        <v>1</v>
+      </c>
+      <c r="N124" t="inlineStr"/>
+    </row>
+    <row r="125">
+      <c r="A125" s="1" t="n">
+        <v>123</v>
+      </c>
+      <c r="B125" t="n">
+        <v>2.69</v>
+      </c>
+      <c r="C125" t="n">
+        <v>2.69</v>
+      </c>
+      <c r="D125" t="n">
+        <v>2.69</v>
+      </c>
+      <c r="E125" t="n">
+        <v>2.69</v>
+      </c>
+      <c r="F125" t="n">
+        <v>1553.4386</v>
+      </c>
+      <c r="G125" t="n">
+        <v>-2829175.3071</v>
+      </c>
+      <c r="H125" t="n">
+        <v>0</v>
+      </c>
+      <c r="I125" t="n">
+        <v>0</v>
+      </c>
+      <c r="J125" t="inlineStr"/>
+      <c r="K125" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="L125" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M125" t="n">
+        <v>1</v>
+      </c>
+      <c r="N125" t="inlineStr"/>
+    </row>
+    <row r="126">
+      <c r="A126" s="1" t="n">
+        <v>124</v>
+      </c>
+      <c r="B126" t="n">
+        <v>2.69</v>
+      </c>
+      <c r="C126" t="n">
+        <v>2.69</v>
+      </c>
+      <c r="D126" t="n">
+        <v>2.69</v>
+      </c>
+      <c r="E126" t="n">
+        <v>2.69</v>
+      </c>
+      <c r="F126" t="n">
+        <v>466.0594</v>
+      </c>
+      <c r="G126" t="n">
+        <v>-2829175.3071</v>
+      </c>
+      <c r="H126" t="n">
+        <v>0</v>
+      </c>
+      <c r="I126" t="n">
+        <v>0</v>
+      </c>
+      <c r="J126" t="inlineStr"/>
+      <c r="K126" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="L126" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M126" t="n">
+        <v>1</v>
+      </c>
+      <c r="N126" t="inlineStr"/>
+    </row>
+    <row r="127">
+      <c r="A127" s="1" t="n">
+        <v>125</v>
+      </c>
+      <c r="B127" t="n">
+        <v>2.69</v>
+      </c>
+      <c r="C127" t="n">
+        <v>2.69</v>
+      </c>
+      <c r="D127" t="n">
+        <v>2.69</v>
+      </c>
+      <c r="E127" t="n">
+        <v>2.69</v>
+      </c>
+      <c r="F127" t="n">
+        <v>209.7211</v>
+      </c>
+      <c r="G127" t="n">
+        <v>-2829175.3071</v>
+      </c>
+      <c r="H127" t="n">
+        <v>0</v>
+      </c>
+      <c r="I127" t="n">
+        <v>0</v>
+      </c>
+      <c r="J127" t="inlineStr"/>
+      <c r="K127" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="L127" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M127" t="n">
+        <v>1</v>
+      </c>
+      <c r="N127" t="inlineStr"/>
+    </row>
+    <row r="128">
+      <c r="A128" s="1" t="n">
+        <v>126</v>
+      </c>
+      <c r="B128" t="n">
+        <v>2.69</v>
+      </c>
+      <c r="C128" t="n">
+        <v>2.69</v>
+      </c>
+      <c r="D128" t="n">
+        <v>2.69</v>
+      </c>
+      <c r="E128" t="n">
+        <v>2.69</v>
+      </c>
+      <c r="F128" t="n">
+        <v>11623.0482</v>
+      </c>
+      <c r="G128" t="n">
+        <v>-2829175.3071</v>
+      </c>
+      <c r="H128" t="n">
+        <v>0</v>
+      </c>
+      <c r="I128" t="n">
+        <v>0</v>
+      </c>
+      <c r="J128" t="inlineStr"/>
+      <c r="K128" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="L128" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M128" t="n">
+        <v>1</v>
+      </c>
+      <c r="N128" t="inlineStr"/>
+    </row>
+    <row r="129">
+      <c r="A129" s="1" t="n">
+        <v>127</v>
+      </c>
+      <c r="B129" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="C129" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="D129" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="E129" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="F129" t="n">
+        <v>7407.4074</v>
+      </c>
+      <c r="G129" t="n">
+        <v>-2821767.8997</v>
+      </c>
+      <c r="H129" t="n">
+        <v>0</v>
+      </c>
+      <c r="I129" t="n">
+        <v>0</v>
+      </c>
+      <c r="J129" t="inlineStr"/>
+      <c r="K129" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="L129" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M129" t="n">
+        <v>1</v>
+      </c>
+      <c r="N129" t="inlineStr"/>
+    </row>
+    <row r="130">
+      <c r="A130" s="1" t="n">
+        <v>128</v>
+      </c>
+      <c r="B130" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="C130" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="D130" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="E130" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="F130" t="n">
+        <v>50000</v>
+      </c>
+      <c r="G130" t="n">
+        <v>-2821767.8997</v>
+      </c>
+      <c r="H130" t="n">
+        <v>0</v>
+      </c>
+      <c r="I130" t="n">
+        <v>0</v>
+      </c>
+      <c r="J130" t="inlineStr"/>
+      <c r="K130" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="L130" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M130" t="n">
+        <v>1</v>
+      </c>
+      <c r="N130" t="inlineStr"/>
+    </row>
+    <row r="131">
+      <c r="A131" s="1" t="n">
+        <v>129</v>
+      </c>
+      <c r="B131" t="n">
+        <v>2.69</v>
+      </c>
+      <c r="C131" t="n">
+        <v>2.71</v>
+      </c>
+      <c r="D131" t="n">
+        <v>2.71</v>
+      </c>
+      <c r="E131" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="F131" t="n">
+        <v>909191.3638000001</v>
+      </c>
+      <c r="G131" t="n">
+        <v>-1912576.5359</v>
+      </c>
+      <c r="H131" t="n">
+        <v>0</v>
+      </c>
+      <c r="I131" t="n">
+        <v>0</v>
+      </c>
+      <c r="J131" t="inlineStr"/>
+      <c r="K131" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="L131" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M131" t="n">
+        <v>1</v>
+      </c>
+      <c r="N131" t="inlineStr"/>
+    </row>
+    <row r="132">
+      <c r="A132" s="1" t="n">
+        <v>130</v>
+      </c>
+      <c r="B132" t="n">
+        <v>2.71</v>
+      </c>
+      <c r="C132" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="D132" t="n">
+        <v>2.71</v>
+      </c>
+      <c r="E132" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="F132" t="n">
+        <v>102292.2727</v>
+      </c>
+      <c r="G132" t="n">
+        <v>-2014868.8086</v>
+      </c>
+      <c r="H132" t="n">
+        <v>0</v>
+      </c>
+      <c r="I132" t="n">
+        <v>0</v>
+      </c>
+      <c r="J132" t="inlineStr"/>
+      <c r="K132" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="L132" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M132" t="n">
+        <v>1</v>
+      </c>
+      <c r="N132" t="inlineStr"/>
+    </row>
+    <row r="133">
+      <c r="A133" s="1" t="n">
+        <v>131</v>
+      </c>
+      <c r="B133" t="n">
+        <v>2.67</v>
+      </c>
+      <c r="C133" t="n">
+        <v>2.67</v>
+      </c>
+      <c r="D133" t="n">
+        <v>2.67</v>
+      </c>
+      <c r="E133" t="n">
+        <v>2.67</v>
+      </c>
+      <c r="F133" t="n">
+        <v>7064</v>
+      </c>
+      <c r="G133" t="n">
+        <v>-2007804.8086</v>
+      </c>
+      <c r="H133" t="n">
+        <v>0</v>
+      </c>
+      <c r="I133" t="n">
+        <v>0</v>
+      </c>
+      <c r="J133" t="inlineStr"/>
+      <c r="K133" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="L133" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M133" t="n">
+        <v>1</v>
+      </c>
+      <c r="N133" t="inlineStr"/>
+    </row>
+    <row r="134">
+      <c r="A134" s="1" t="n">
+        <v>132</v>
+      </c>
+      <c r="B134" t="n">
+        <v>2.66</v>
+      </c>
+      <c r="C134" t="n">
+        <v>2.67</v>
+      </c>
+      <c r="D134" t="n">
+        <v>2.67</v>
+      </c>
+      <c r="E134" t="n">
+        <v>2.66</v>
+      </c>
+      <c r="F134" t="n">
+        <v>40412</v>
+      </c>
+      <c r="G134" t="n">
+        <v>-2007804.8086</v>
+      </c>
+      <c r="H134" t="n">
+        <v>0</v>
+      </c>
+      <c r="I134" t="n">
+        <v>0</v>
+      </c>
+      <c r="J134" t="inlineStr"/>
+      <c r="K134" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="L134" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M134" t="n">
+        <v>1</v>
+      </c>
+      <c r="N134" t="inlineStr"/>
+    </row>
+    <row r="135">
+      <c r="A135" s="1" t="n">
+        <v>133</v>
+      </c>
+      <c r="B135" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="C135" t="n">
+        <v>2.67</v>
+      </c>
+      <c r="D135" t="n">
+        <v>2.67</v>
+      </c>
+      <c r="E135" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="F135" t="n">
+        <v>1108994.0469</v>
+      </c>
+      <c r="G135" t="n">
+        <v>-2007804.8086</v>
+      </c>
+      <c r="H135" t="n">
+        <v>0</v>
+      </c>
+      <c r="I135" t="n">
+        <v>0</v>
+      </c>
+      <c r="J135" t="inlineStr"/>
+      <c r="K135" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="L135" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M135" t="n">
+        <v>1</v>
+      </c>
+      <c r="N135" t="inlineStr"/>
+    </row>
+    <row r="136">
+      <c r="A136" s="1" t="n">
+        <v>134</v>
+      </c>
+      <c r="B136" t="n">
+        <v>2.67</v>
+      </c>
+      <c r="C136" t="n">
+        <v>2.67</v>
+      </c>
+      <c r="D136" t="n">
+        <v>2.67</v>
+      </c>
+      <c r="E136" t="n">
+        <v>2.67</v>
+      </c>
+      <c r="F136" t="n">
+        <v>201676.6399</v>
+      </c>
+      <c r="G136" t="n">
+        <v>-2007804.8086</v>
+      </c>
+      <c r="H136" t="n">
+        <v>0</v>
+      </c>
+      <c r="I136" t="n">
+        <v>0</v>
+      </c>
+      <c r="J136" t="inlineStr"/>
+      <c r="K136" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="L136" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M136" t="n">
+        <v>1</v>
+      </c>
+      <c r="N136" t="inlineStr"/>
+    </row>
+    <row r="137">
+      <c r="A137" s="1" t="n">
+        <v>135</v>
+      </c>
+      <c r="B137" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="C137" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="D137" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="E137" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="F137" t="n">
+        <v>992.5</v>
+      </c>
+      <c r="G137" t="n">
+        <v>-2006812.3086</v>
+      </c>
+      <c r="H137" t="n">
+        <v>0</v>
+      </c>
+      <c r="I137" t="n">
+        <v>0</v>
+      </c>
+      <c r="J137" t="inlineStr"/>
+      <c r="K137" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="L137" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M137" t="n">
+        <v>1</v>
+      </c>
+      <c r="N137" t="inlineStr"/>
+    </row>
+    <row r="138">
+      <c r="A138" s="1" t="n">
+        <v>136</v>
+      </c>
+      <c r="B138" t="n">
+        <v>2.66</v>
+      </c>
+      <c r="C138" t="n">
+        <v>2.66</v>
+      </c>
+      <c r="D138" t="n">
+        <v>2.66</v>
+      </c>
+      <c r="E138" t="n">
+        <v>2.66</v>
+      </c>
+      <c r="F138" t="n">
+        <v>562692.3012</v>
+      </c>
+      <c r="G138" t="n">
+        <v>-2569504.6098</v>
+      </c>
+      <c r="H138" t="n">
+        <v>0</v>
+      </c>
+      <c r="I138" t="n">
+        <v>0</v>
+      </c>
+      <c r="J138" t="inlineStr"/>
+      <c r="K138" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="L138" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M138" t="n">
+        <v>1</v>
+      </c>
+      <c r="N138" t="inlineStr"/>
+    </row>
+    <row r="139">
+      <c r="A139" s="1" t="n">
+        <v>137</v>
+      </c>
+      <c r="B139" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="C139" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="D139" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="E139" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="F139" t="n">
+        <v>549319</v>
+      </c>
+      <c r="G139" t="n">
+        <v>-3118823.6098</v>
+      </c>
+      <c r="H139" t="n">
+        <v>0</v>
+      </c>
+      <c r="I139" t="n">
+        <v>0</v>
+      </c>
+      <c r="J139" t="inlineStr"/>
+      <c r="K139" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="L139" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M139" t="n">
+        <v>1</v>
+      </c>
+      <c r="N139" t="inlineStr"/>
+    </row>
+    <row r="140">
+      <c r="A140" s="1" t="n">
+        <v>138</v>
+      </c>
+      <c r="B140" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="C140" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="D140" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="E140" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="F140" t="n">
+        <v>10</v>
+      </c>
+      <c r="G140" t="n">
+        <v>-3118813.6098</v>
+      </c>
+      <c r="H140" t="n">
+        <v>0</v>
+      </c>
+      <c r="I140" t="n">
+        <v>0</v>
+      </c>
+      <c r="J140" t="inlineStr"/>
+      <c r="K140" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="L140" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M140" t="n">
+        <v>1</v>
+      </c>
+      <c r="N140" t="inlineStr"/>
+    </row>
+    <row r="141">
+      <c r="A141" s="1" t="n">
+        <v>139</v>
+      </c>
+      <c r="B141" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="C141" t="n">
+        <v>2.69</v>
+      </c>
+      <c r="D141" t="n">
+        <v>2.69</v>
+      </c>
+      <c r="E141" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="F141" t="n">
         <v>53542.4758</v>
       </c>
-      <c r="G112" t="n">
+      <c r="G141" t="n">
         <v>-3172356.0856</v>
       </c>
-      <c r="H112" t="n">
-        <v>0</v>
-      </c>
-      <c r="I112" t="n">
-        <v>1</v>
-      </c>
-      <c r="J112" t="inlineStr"/>
-      <c r="K112" t="inlineStr"/>
-      <c r="L112" t="inlineStr"/>
-      <c r="M112" t="n">
-        <v>1</v>
-      </c>
-      <c r="N112" t="inlineStr"/>
+      <c r="H141" t="n">
+        <v>0</v>
+      </c>
+      <c r="I141" t="n">
+        <v>0</v>
+      </c>
+      <c r="J141" t="inlineStr"/>
+      <c r="K141" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="L141" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M141" t="n">
+        <v>1</v>
+      </c>
+      <c r="N141" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>

--- a/BackTest/2019-11-01 BackTest ANKR.xlsx
+++ b/BackTest/2019-11-01 BackTest ANKR.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N141"/>
+  <dimension ref="A1:M141"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -399,35 +399,30 @@
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>low_check</t>
+          <t>trade_state</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>high_check</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>BuyPrice</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>bprelay</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>Condition</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>Profits</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>Price_point</t>
         </is>
@@ -458,16 +453,13 @@
       <c r="H2" t="n">
         <v>0</v>
       </c>
-      <c r="I2" t="n">
-        <v>0</v>
-      </c>
+      <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
-      <c r="L2" t="inlineStr"/>
-      <c r="M2" t="n">
-        <v>1</v>
-      </c>
-      <c r="N2" t="inlineStr"/>
+      <c r="L2" t="n">
+        <v>1</v>
+      </c>
+      <c r="M2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -494,16 +486,13 @@
       <c r="H3" t="n">
         <v>0</v>
       </c>
-      <c r="I3" t="n">
-        <v>0</v>
-      </c>
+      <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
-      <c r="L3" t="inlineStr"/>
-      <c r="M3" t="n">
-        <v>1</v>
-      </c>
-      <c r="N3" t="inlineStr"/>
+      <c r="L3" t="n">
+        <v>1</v>
+      </c>
+      <c r="M3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -528,18 +517,19 @@
         <v>-2318091.2821</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
-      </c>
-      <c r="J4" t="inlineStr"/>
+        <v>2.59</v>
+      </c>
+      <c r="J4" t="n">
+        <v>2.59</v>
+      </c>
       <c r="K4" t="inlineStr"/>
-      <c r="L4" t="inlineStr"/>
-      <c r="M4" t="n">
-        <v>1</v>
-      </c>
-      <c r="N4" t="inlineStr"/>
+      <c r="L4" t="n">
+        <v>1</v>
+      </c>
+      <c r="M4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -566,16 +556,19 @@
       <c r="H5" t="n">
         <v>0</v>
       </c>
-      <c r="I5" t="n">
-        <v>0</v>
-      </c>
-      <c r="J5" t="inlineStr"/>
-      <c r="K5" t="inlineStr"/>
-      <c r="L5" t="inlineStr"/>
-      <c r="M5" t="n">
-        <v>1</v>
-      </c>
-      <c r="N5" t="inlineStr"/>
+      <c r="I5" t="inlineStr"/>
+      <c r="J5" t="n">
+        <v>2.59</v>
+      </c>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="L5" t="n">
+        <v>1</v>
+      </c>
+      <c r="M5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -600,18 +593,23 @@
         <v>-2300331.8056</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
-      </c>
-      <c r="J6" t="inlineStr"/>
-      <c r="K6" t="inlineStr"/>
-      <c r="L6" t="inlineStr"/>
-      <c r="M6" t="n">
-        <v>1</v>
-      </c>
-      <c r="N6" t="inlineStr"/>
+        <v>2.62</v>
+      </c>
+      <c r="J6" t="n">
+        <v>2.59</v>
+      </c>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="L6" t="n">
+        <v>1</v>
+      </c>
+      <c r="M6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -638,16 +636,13 @@
       <c r="H7" t="n">
         <v>0</v>
       </c>
-      <c r="I7" t="n">
-        <v>0</v>
-      </c>
+      <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr"/>
-      <c r="L7" t="inlineStr"/>
-      <c r="M7" t="n">
-        <v>1</v>
-      </c>
-      <c r="N7" t="inlineStr"/>
+      <c r="L7" t="n">
+        <v>1</v>
+      </c>
+      <c r="M7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -672,18 +667,19 @@
         <v>-2131966.6664</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
-      </c>
-      <c r="J8" t="inlineStr"/>
+        <v>2.64</v>
+      </c>
+      <c r="J8" t="n">
+        <v>2.64</v>
+      </c>
       <c r="K8" t="inlineStr"/>
-      <c r="L8" t="inlineStr"/>
-      <c r="M8" t="n">
-        <v>1</v>
-      </c>
-      <c r="N8" t="inlineStr"/>
+      <c r="L8" t="n">
+        <v>1</v>
+      </c>
+      <c r="M8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -710,16 +706,19 @@
       <c r="H9" t="n">
         <v>0</v>
       </c>
-      <c r="I9" t="n">
-        <v>0</v>
-      </c>
-      <c r="J9" t="inlineStr"/>
-      <c r="K9" t="inlineStr"/>
-      <c r="L9" t="inlineStr"/>
-      <c r="M9" t="n">
-        <v>1</v>
-      </c>
-      <c r="N9" t="inlineStr"/>
+      <c r="I9" t="inlineStr"/>
+      <c r="J9" t="n">
+        <v>2.64</v>
+      </c>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="L9" t="n">
+        <v>1</v>
+      </c>
+      <c r="M9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -746,16 +745,19 @@
       <c r="H10" t="n">
         <v>0</v>
       </c>
-      <c r="I10" t="n">
-        <v>0</v>
-      </c>
-      <c r="J10" t="inlineStr"/>
-      <c r="K10" t="inlineStr"/>
-      <c r="L10" t="inlineStr"/>
-      <c r="M10" t="n">
-        <v>1</v>
-      </c>
-      <c r="N10" t="inlineStr"/>
+      <c r="I10" t="inlineStr"/>
+      <c r="J10" t="n">
+        <v>2.64</v>
+      </c>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="L10" t="n">
+        <v>1</v>
+      </c>
+      <c r="M10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -780,18 +782,23 @@
         <v>-2152104.7173</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
-      </c>
-      <c r="J11" t="inlineStr"/>
-      <c r="K11" t="inlineStr"/>
-      <c r="L11" t="inlineStr"/>
-      <c r="M11" t="n">
-        <v>1</v>
-      </c>
-      <c r="N11" t="inlineStr"/>
+        <v>2.66</v>
+      </c>
+      <c r="J11" t="n">
+        <v>2.64</v>
+      </c>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
+      <c r="L11" t="n">
+        <v>1</v>
+      </c>
+      <c r="M11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -816,18 +823,23 @@
         <v>-2172104.7173</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
-      </c>
-      <c r="J12" t="inlineStr"/>
-      <c r="K12" t="inlineStr"/>
-      <c r="L12" t="inlineStr"/>
-      <c r="M12" t="n">
-        <v>1</v>
-      </c>
-      <c r="N12" t="inlineStr"/>
+        <v>2.62</v>
+      </c>
+      <c r="J12" t="n">
+        <v>2.64</v>
+      </c>
+      <c r="K12" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L12" t="n">
+        <v>1</v>
+      </c>
+      <c r="M12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -852,18 +864,23 @@
         <v>-2122924.7173</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
-      </c>
-      <c r="J13" t="inlineStr"/>
-      <c r="K13" t="inlineStr"/>
-      <c r="L13" t="inlineStr"/>
-      <c r="M13" t="n">
-        <v>1</v>
-      </c>
-      <c r="N13" t="inlineStr"/>
+        <v>2.61</v>
+      </c>
+      <c r="J13" t="n">
+        <v>2.64</v>
+      </c>
+      <c r="K13" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L13" t="n">
+        <v>1</v>
+      </c>
+      <c r="M13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -888,18 +905,23 @@
         <v>-2122924.7173</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
-      </c>
-      <c r="J14" t="inlineStr"/>
-      <c r="K14" t="inlineStr"/>
-      <c r="L14" t="inlineStr"/>
-      <c r="M14" t="n">
-        <v>1</v>
-      </c>
-      <c r="N14" t="inlineStr"/>
+        <v>2.67</v>
+      </c>
+      <c r="J14" t="n">
+        <v>2.64</v>
+      </c>
+      <c r="K14" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L14" t="n">
+        <v>1</v>
+      </c>
+      <c r="M14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -926,16 +948,19 @@
       <c r="H15" t="n">
         <v>0</v>
       </c>
-      <c r="I15" t="n">
-        <v>0</v>
-      </c>
-      <c r="J15" t="inlineStr"/>
-      <c r="K15" t="inlineStr"/>
-      <c r="L15" t="inlineStr"/>
-      <c r="M15" t="n">
-        <v>1</v>
-      </c>
-      <c r="N15" t="inlineStr"/>
+      <c r="I15" t="inlineStr"/>
+      <c r="J15" t="n">
+        <v>2.64</v>
+      </c>
+      <c r="K15" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L15" t="n">
+        <v>1</v>
+      </c>
+      <c r="M15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -960,18 +985,23 @@
         <v>-1826735.6485</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
-      </c>
-      <c r="J16" t="inlineStr"/>
-      <c r="K16" t="inlineStr"/>
-      <c r="L16" t="inlineStr"/>
-      <c r="M16" t="n">
-        <v>1</v>
-      </c>
-      <c r="N16" t="inlineStr"/>
+        <v>2.67</v>
+      </c>
+      <c r="J16" t="n">
+        <v>2.64</v>
+      </c>
+      <c r="K16" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L16" t="n">
+        <v>1</v>
+      </c>
+      <c r="M16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -996,18 +1026,23 @@
         <v>-2053318.4795</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
-      </c>
-      <c r="J17" t="inlineStr"/>
-      <c r="K17" t="inlineStr"/>
-      <c r="L17" t="inlineStr"/>
-      <c r="M17" t="n">
-        <v>1</v>
-      </c>
-      <c r="N17" t="inlineStr"/>
+        <v>2.68</v>
+      </c>
+      <c r="J17" t="n">
+        <v>2.64</v>
+      </c>
+      <c r="K17" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L17" t="n">
+        <v>1</v>
+      </c>
+      <c r="M17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -1032,18 +1067,21 @@
         <v>-2053318.4795</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
-      </c>
-      <c r="I18" t="n">
-        <v>0</v>
-      </c>
-      <c r="J18" t="inlineStr"/>
-      <c r="K18" t="inlineStr"/>
-      <c r="L18" t="inlineStr"/>
-      <c r="M18" t="n">
-        <v>1</v>
-      </c>
-      <c r="N18" t="inlineStr"/>
+        <v>3</v>
+      </c>
+      <c r="I18" t="inlineStr"/>
+      <c r="J18" t="n">
+        <v>2.64</v>
+      </c>
+      <c r="K18" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L18" t="n">
+        <v>1</v>
+      </c>
+      <c r="M18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -1070,16 +1108,19 @@
       <c r="H19" t="n">
         <v>0</v>
       </c>
-      <c r="I19" t="n">
-        <v>0</v>
-      </c>
-      <c r="J19" t="inlineStr"/>
-      <c r="K19" t="inlineStr"/>
-      <c r="L19" t="inlineStr"/>
-      <c r="M19" t="n">
-        <v>1</v>
-      </c>
-      <c r="N19" t="inlineStr"/>
+      <c r="I19" t="inlineStr"/>
+      <c r="J19" t="n">
+        <v>2.64</v>
+      </c>
+      <c r="K19" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L19" t="n">
+        <v>1</v>
+      </c>
+      <c r="M19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -1104,18 +1145,21 @@
         <v>-598111.1615000002</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
-      </c>
-      <c r="I20" t="n">
-        <v>0</v>
-      </c>
-      <c r="J20" t="inlineStr"/>
-      <c r="K20" t="inlineStr"/>
-      <c r="L20" t="inlineStr"/>
-      <c r="M20" t="n">
-        <v>1</v>
-      </c>
-      <c r="N20" t="inlineStr"/>
+        <v>3</v>
+      </c>
+      <c r="I20" t="inlineStr"/>
+      <c r="J20" t="n">
+        <v>2.64</v>
+      </c>
+      <c r="K20" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L20" t="n">
+        <v>1</v>
+      </c>
+      <c r="M20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1142,16 +1186,19 @@
       <c r="H21" t="n">
         <v>0</v>
       </c>
-      <c r="I21" t="n">
-        <v>0</v>
-      </c>
-      <c r="J21" t="inlineStr"/>
-      <c r="K21" t="inlineStr"/>
-      <c r="L21" t="inlineStr"/>
-      <c r="M21" t="n">
-        <v>1</v>
-      </c>
-      <c r="N21" t="inlineStr"/>
+      <c r="I21" t="inlineStr"/>
+      <c r="J21" t="n">
+        <v>2.64</v>
+      </c>
+      <c r="K21" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L21" t="n">
+        <v>1</v>
+      </c>
+      <c r="M21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1176,18 +1223,21 @@
         <v>-907047.2644000002</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
-      </c>
-      <c r="I22" t="n">
-        <v>1</v>
-      </c>
-      <c r="J22" t="inlineStr"/>
-      <c r="K22" t="inlineStr"/>
-      <c r="L22" t="inlineStr"/>
-      <c r="M22" t="n">
-        <v>1</v>
-      </c>
-      <c r="N22" t="inlineStr"/>
+        <v>3</v>
+      </c>
+      <c r="I22" t="inlineStr"/>
+      <c r="J22" t="n">
+        <v>2.64</v>
+      </c>
+      <c r="K22" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="L22" t="n">
+        <v>0.995</v>
+      </c>
+      <c r="M22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1212,18 +1262,15 @@
         <v>-907037.2644000002</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
-      </c>
-      <c r="I23" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
       <c r="K23" t="inlineStr"/>
-      <c r="L23" t="inlineStr"/>
-      <c r="M23" t="n">
-        <v>1</v>
-      </c>
-      <c r="N23" t="inlineStr"/>
+      <c r="L23" t="n">
+        <v>1</v>
+      </c>
+      <c r="M23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1248,18 +1295,15 @@
         <v>-981040.8000000003</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
-      </c>
-      <c r="I24" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
       <c r="K24" t="inlineStr"/>
-      <c r="L24" t="inlineStr"/>
-      <c r="M24" t="n">
-        <v>1</v>
-      </c>
-      <c r="N24" t="inlineStr"/>
+      <c r="L24" t="n">
+        <v>1</v>
+      </c>
+      <c r="M24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1286,16 +1330,13 @@
       <c r="H25" t="n">
         <v>0</v>
       </c>
-      <c r="I25" t="n">
-        <v>0</v>
-      </c>
+      <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
       <c r="K25" t="inlineStr"/>
-      <c r="L25" t="inlineStr"/>
-      <c r="M25" t="n">
-        <v>1</v>
-      </c>
-      <c r="N25" t="inlineStr"/>
+      <c r="L25" t="n">
+        <v>1</v>
+      </c>
+      <c r="M25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1320,18 +1361,15 @@
         <v>-1323576.4851</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
-      </c>
-      <c r="I26" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
       <c r="K26" t="inlineStr"/>
-      <c r="L26" t="inlineStr"/>
-      <c r="M26" t="n">
-        <v>1</v>
-      </c>
-      <c r="N26" t="inlineStr"/>
+      <c r="L26" t="n">
+        <v>1</v>
+      </c>
+      <c r="M26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1356,18 +1394,15 @@
         <v>-1443669.6401</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
-      </c>
-      <c r="I27" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
       <c r="K27" t="inlineStr"/>
-      <c r="L27" t="inlineStr"/>
-      <c r="M27" t="n">
-        <v>1</v>
-      </c>
-      <c r="N27" t="inlineStr"/>
+      <c r="L27" t="n">
+        <v>1</v>
+      </c>
+      <c r="M27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1392,18 +1427,15 @@
         <v>-1443669.6401</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
-      </c>
-      <c r="I28" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
       <c r="K28" t="inlineStr"/>
-      <c r="L28" t="inlineStr"/>
-      <c r="M28" t="n">
-        <v>1</v>
-      </c>
-      <c r="N28" t="inlineStr"/>
+      <c r="L28" t="n">
+        <v>1</v>
+      </c>
+      <c r="M28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1430,16 +1462,13 @@
       <c r="H29" t="n">
         <v>0</v>
       </c>
-      <c r="I29" t="n">
-        <v>0</v>
-      </c>
+      <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
       <c r="K29" t="inlineStr"/>
-      <c r="L29" t="inlineStr"/>
-      <c r="M29" t="n">
-        <v>1</v>
-      </c>
-      <c r="N29" t="inlineStr"/>
+      <c r="L29" t="n">
+        <v>1</v>
+      </c>
+      <c r="M29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -1466,16 +1495,13 @@
       <c r="H30" t="n">
         <v>0</v>
       </c>
-      <c r="I30" t="n">
-        <v>0</v>
-      </c>
+      <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
       <c r="K30" t="inlineStr"/>
-      <c r="L30" t="inlineStr"/>
-      <c r="M30" t="n">
-        <v>1</v>
-      </c>
-      <c r="N30" t="inlineStr"/>
+      <c r="L30" t="n">
+        <v>1</v>
+      </c>
+      <c r="M30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1502,16 +1528,13 @@
       <c r="H31" t="n">
         <v>0</v>
       </c>
-      <c r="I31" t="n">
-        <v>0</v>
-      </c>
+      <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
       <c r="K31" t="inlineStr"/>
-      <c r="L31" t="inlineStr"/>
-      <c r="M31" t="n">
-        <v>1</v>
-      </c>
-      <c r="N31" t="inlineStr"/>
+      <c r="L31" t="n">
+        <v>1</v>
+      </c>
+      <c r="M31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1538,16 +1561,13 @@
       <c r="H32" t="n">
         <v>0</v>
       </c>
-      <c r="I32" t="n">
-        <v>0</v>
-      </c>
+      <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
       <c r="K32" t="inlineStr"/>
-      <c r="L32" t="inlineStr"/>
-      <c r="M32" t="n">
-        <v>1</v>
-      </c>
-      <c r="N32" t="inlineStr"/>
+      <c r="L32" t="n">
+        <v>1</v>
+      </c>
+      <c r="M32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1574,16 +1594,13 @@
       <c r="H33" t="n">
         <v>0</v>
       </c>
-      <c r="I33" t="n">
-        <v>0</v>
-      </c>
+      <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
       <c r="K33" t="inlineStr"/>
-      <c r="L33" t="inlineStr"/>
-      <c r="M33" t="n">
-        <v>1</v>
-      </c>
-      <c r="N33" t="inlineStr"/>
+      <c r="L33" t="n">
+        <v>1</v>
+      </c>
+      <c r="M33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1608,18 +1625,15 @@
         <v>-1481666.7786</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
-      </c>
-      <c r="I34" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
       <c r="K34" t="inlineStr"/>
-      <c r="L34" t="inlineStr"/>
-      <c r="M34" t="n">
-        <v>1</v>
-      </c>
-      <c r="N34" t="inlineStr"/>
+      <c r="L34" t="n">
+        <v>1</v>
+      </c>
+      <c r="M34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1646,16 +1660,13 @@
       <c r="H35" t="n">
         <v>0</v>
       </c>
-      <c r="I35" t="n">
-        <v>0</v>
-      </c>
+      <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
       <c r="K35" t="inlineStr"/>
-      <c r="L35" t="inlineStr"/>
-      <c r="M35" t="n">
-        <v>1</v>
-      </c>
-      <c r="N35" t="inlineStr"/>
+      <c r="L35" t="n">
+        <v>1</v>
+      </c>
+      <c r="M35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1682,16 +1693,13 @@
       <c r="H36" t="n">
         <v>0</v>
       </c>
-      <c r="I36" t="n">
-        <v>0</v>
-      </c>
+      <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
       <c r="K36" t="inlineStr"/>
-      <c r="L36" t="inlineStr"/>
-      <c r="M36" t="n">
-        <v>1</v>
-      </c>
-      <c r="N36" t="inlineStr"/>
+      <c r="L36" t="n">
+        <v>1</v>
+      </c>
+      <c r="M36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1716,18 +1724,15 @@
         <v>-1493785.7786</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
-      </c>
-      <c r="I37" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
       <c r="K37" t="inlineStr"/>
-      <c r="L37" t="inlineStr"/>
-      <c r="M37" t="n">
-        <v>1</v>
-      </c>
-      <c r="N37" t="inlineStr"/>
+      <c r="L37" t="n">
+        <v>1</v>
+      </c>
+      <c r="M37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1754,16 +1759,13 @@
       <c r="H38" t="n">
         <v>0</v>
       </c>
-      <c r="I38" t="n">
-        <v>0</v>
-      </c>
+      <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
       <c r="K38" t="inlineStr"/>
-      <c r="L38" t="inlineStr"/>
-      <c r="M38" t="n">
-        <v>1</v>
-      </c>
-      <c r="N38" t="inlineStr"/>
+      <c r="L38" t="n">
+        <v>1</v>
+      </c>
+      <c r="M38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1788,18 +1790,15 @@
         <v>-860055.3538000003</v>
       </c>
       <c r="H39" t="n">
-        <v>0</v>
-      </c>
-      <c r="I39" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
       <c r="K39" t="inlineStr"/>
-      <c r="L39" t="inlineStr"/>
-      <c r="M39" t="n">
-        <v>1</v>
-      </c>
-      <c r="N39" t="inlineStr"/>
+      <c r="L39" t="n">
+        <v>1</v>
+      </c>
+      <c r="M39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1824,18 +1823,15 @@
         <v>-1065225.8706</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
-      </c>
-      <c r="I40" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
       <c r="K40" t="inlineStr"/>
-      <c r="L40" t="inlineStr"/>
-      <c r="M40" t="n">
-        <v>1</v>
-      </c>
-      <c r="N40" t="inlineStr"/>
+      <c r="L40" t="n">
+        <v>1</v>
+      </c>
+      <c r="M40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1860,18 +1856,15 @@
         <v>-831791.0392000002</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
-      </c>
-      <c r="I41" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
       <c r="K41" t="inlineStr"/>
-      <c r="L41" t="inlineStr"/>
-      <c r="M41" t="n">
-        <v>1</v>
-      </c>
-      <c r="N41" t="inlineStr"/>
+      <c r="L41" t="n">
+        <v>1</v>
+      </c>
+      <c r="M41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -1898,16 +1891,13 @@
       <c r="H42" t="n">
         <v>0</v>
       </c>
-      <c r="I42" t="n">
-        <v>0</v>
-      </c>
+      <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
       <c r="K42" t="inlineStr"/>
-      <c r="L42" t="inlineStr"/>
-      <c r="M42" t="n">
-        <v>1</v>
-      </c>
-      <c r="N42" t="inlineStr"/>
+      <c r="L42" t="n">
+        <v>1</v>
+      </c>
+      <c r="M42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -1934,16 +1924,13 @@
       <c r="H43" t="n">
         <v>0</v>
       </c>
-      <c r="I43" t="n">
-        <v>0</v>
-      </c>
+      <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
       <c r="K43" t="inlineStr"/>
-      <c r="L43" t="inlineStr"/>
-      <c r="M43" t="n">
-        <v>1</v>
-      </c>
-      <c r="N43" t="inlineStr"/>
+      <c r="L43" t="n">
+        <v>1</v>
+      </c>
+      <c r="M43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -1970,16 +1957,13 @@
       <c r="H44" t="n">
         <v>0</v>
       </c>
-      <c r="I44" t="n">
-        <v>0</v>
-      </c>
+      <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
       <c r="K44" t="inlineStr"/>
-      <c r="L44" t="inlineStr"/>
-      <c r="M44" t="n">
-        <v>1</v>
-      </c>
-      <c r="N44" t="inlineStr"/>
+      <c r="L44" t="n">
+        <v>1</v>
+      </c>
+      <c r="M44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -2004,18 +1988,15 @@
         <v>-822169.1840000002</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
-      </c>
-      <c r="I45" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
       <c r="K45" t="inlineStr"/>
-      <c r="L45" t="inlineStr"/>
-      <c r="M45" t="n">
-        <v>1</v>
-      </c>
-      <c r="N45" t="inlineStr"/>
+      <c r="L45" t="n">
+        <v>1</v>
+      </c>
+      <c r="M45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -2042,16 +2023,13 @@
       <c r="H46" t="n">
         <v>0</v>
       </c>
-      <c r="I46" t="n">
-        <v>1</v>
-      </c>
+      <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
       <c r="K46" t="inlineStr"/>
-      <c r="L46" t="inlineStr"/>
-      <c r="M46" t="n">
-        <v>1</v>
-      </c>
-      <c r="N46" t="inlineStr"/>
+      <c r="L46" t="n">
+        <v>1</v>
+      </c>
+      <c r="M46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -2078,16 +2056,13 @@
       <c r="H47" t="n">
         <v>0</v>
       </c>
-      <c r="I47" t="n">
-        <v>1</v>
-      </c>
+      <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
       <c r="K47" t="inlineStr"/>
-      <c r="L47" t="inlineStr"/>
-      <c r="M47" t="n">
-        <v>1</v>
-      </c>
-      <c r="N47" t="inlineStr"/>
+      <c r="L47" t="n">
+        <v>1</v>
+      </c>
+      <c r="M47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -2114,16 +2089,13 @@
       <c r="H48" t="n">
         <v>0</v>
       </c>
-      <c r="I48" t="n">
-        <v>0</v>
-      </c>
+      <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
       <c r="K48" t="inlineStr"/>
-      <c r="L48" t="inlineStr"/>
-      <c r="M48" t="n">
-        <v>1</v>
-      </c>
-      <c r="N48" t="inlineStr"/>
+      <c r="L48" t="n">
+        <v>1</v>
+      </c>
+      <c r="M48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -2150,16 +2122,13 @@
       <c r="H49" t="n">
         <v>0</v>
       </c>
-      <c r="I49" t="n">
-        <v>0</v>
-      </c>
+      <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
       <c r="K49" t="inlineStr"/>
-      <c r="L49" t="inlineStr"/>
-      <c r="M49" t="n">
-        <v>1</v>
-      </c>
-      <c r="N49" t="inlineStr"/>
+      <c r="L49" t="n">
+        <v>1</v>
+      </c>
+      <c r="M49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -2186,16 +2155,13 @@
       <c r="H50" t="n">
         <v>0</v>
       </c>
-      <c r="I50" t="n">
-        <v>0</v>
-      </c>
+      <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
       <c r="K50" t="inlineStr"/>
-      <c r="L50" t="inlineStr"/>
-      <c r="M50" t="n">
-        <v>1</v>
-      </c>
-      <c r="N50" t="inlineStr"/>
+      <c r="L50" t="n">
+        <v>1</v>
+      </c>
+      <c r="M50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -2222,16 +2188,13 @@
       <c r="H51" t="n">
         <v>0</v>
       </c>
-      <c r="I51" t="n">
-        <v>0</v>
-      </c>
+      <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
       <c r="K51" t="inlineStr"/>
-      <c r="L51" t="inlineStr"/>
-      <c r="M51" t="n">
-        <v>1</v>
-      </c>
-      <c r="N51" t="inlineStr"/>
+      <c r="L51" t="n">
+        <v>1</v>
+      </c>
+      <c r="M51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -2258,16 +2221,13 @@
       <c r="H52" t="n">
         <v>0</v>
       </c>
-      <c r="I52" t="n">
-        <v>0</v>
-      </c>
+      <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
       <c r="K52" t="inlineStr"/>
-      <c r="L52" t="inlineStr"/>
-      <c r="M52" t="n">
-        <v>1</v>
-      </c>
-      <c r="N52" t="inlineStr"/>
+      <c r="L52" t="n">
+        <v>1</v>
+      </c>
+      <c r="M52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -2294,16 +2254,13 @@
       <c r="H53" t="n">
         <v>0</v>
       </c>
-      <c r="I53" t="n">
-        <v>0</v>
-      </c>
+      <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
       <c r="K53" t="inlineStr"/>
-      <c r="L53" t="inlineStr"/>
-      <c r="M53" t="n">
-        <v>1</v>
-      </c>
-      <c r="N53" t="inlineStr"/>
+      <c r="L53" t="n">
+        <v>1</v>
+      </c>
+      <c r="M53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -2330,20 +2287,13 @@
       <c r="H54" t="n">
         <v>1</v>
       </c>
-      <c r="I54" t="n">
-        <v>0</v>
-      </c>
-      <c r="J54" t="n">
-        <v>2.6</v>
-      </c>
-      <c r="K54" t="n">
-        <v>2.6</v>
-      </c>
-      <c r="L54" t="inlineStr"/>
-      <c r="M54" t="n">
-        <v>1</v>
-      </c>
-      <c r="N54" t="inlineStr"/>
+      <c r="I54" t="inlineStr"/>
+      <c r="J54" t="inlineStr"/>
+      <c r="K54" t="inlineStr"/>
+      <c r="L54" t="n">
+        <v>1</v>
+      </c>
+      <c r="M54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -2370,24 +2320,13 @@
       <c r="H55" t="n">
         <v>1</v>
       </c>
-      <c r="I55" t="n">
-        <v>0</v>
-      </c>
-      <c r="J55" t="n">
-        <v>2.6</v>
-      </c>
-      <c r="K55" t="n">
-        <v>2.6</v>
-      </c>
-      <c r="L55" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="M55" t="n">
-        <v>1</v>
-      </c>
-      <c r="N55" t="inlineStr"/>
+      <c r="I55" t="inlineStr"/>
+      <c r="J55" t="inlineStr"/>
+      <c r="K55" t="inlineStr"/>
+      <c r="L55" t="n">
+        <v>1</v>
+      </c>
+      <c r="M55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -2414,24 +2353,13 @@
       <c r="H56" t="n">
         <v>1</v>
       </c>
-      <c r="I56" t="n">
-        <v>0</v>
-      </c>
-      <c r="J56" t="n">
-        <v>2.61</v>
-      </c>
-      <c r="K56" t="n">
-        <v>2.6</v>
-      </c>
-      <c r="L56" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
-      <c r="M56" t="n">
-        <v>1</v>
-      </c>
-      <c r="N56" t="inlineStr"/>
+      <c r="I56" t="inlineStr"/>
+      <c r="J56" t="inlineStr"/>
+      <c r="K56" t="inlineStr"/>
+      <c r="L56" t="n">
+        <v>1</v>
+      </c>
+      <c r="M56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2458,22 +2386,13 @@
       <c r="H57" t="n">
         <v>0</v>
       </c>
-      <c r="I57" t="n">
-        <v>0</v>
-      </c>
+      <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
-      <c r="K57" t="n">
-        <v>2.6</v>
-      </c>
-      <c r="L57" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M57" t="n">
-        <v>1</v>
-      </c>
-      <c r="N57" t="inlineStr"/>
+      <c r="K57" t="inlineStr"/>
+      <c r="L57" t="n">
+        <v>1</v>
+      </c>
+      <c r="M57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -2500,22 +2419,13 @@
       <c r="H58" t="n">
         <v>0</v>
       </c>
-      <c r="I58" t="n">
-        <v>0</v>
-      </c>
+      <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
-      <c r="K58" t="n">
-        <v>2.6</v>
-      </c>
-      <c r="L58" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M58" t="n">
-        <v>1</v>
-      </c>
-      <c r="N58" t="inlineStr"/>
+      <c r="K58" t="inlineStr"/>
+      <c r="L58" t="n">
+        <v>1</v>
+      </c>
+      <c r="M58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2542,22 +2452,13 @@
       <c r="H59" t="n">
         <v>0</v>
       </c>
-      <c r="I59" t="n">
-        <v>0</v>
-      </c>
+      <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
-      <c r="K59" t="n">
-        <v>2.6</v>
-      </c>
-      <c r="L59" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M59" t="n">
-        <v>1</v>
-      </c>
-      <c r="N59" t="inlineStr"/>
+      <c r="K59" t="inlineStr"/>
+      <c r="L59" t="n">
+        <v>1</v>
+      </c>
+      <c r="M59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -2584,22 +2485,13 @@
       <c r="H60" t="n">
         <v>0</v>
       </c>
-      <c r="I60" t="n">
-        <v>0</v>
-      </c>
+      <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
-      <c r="K60" t="n">
-        <v>2.6</v>
-      </c>
-      <c r="L60" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M60" t="n">
-        <v>1</v>
-      </c>
-      <c r="N60" t="inlineStr"/>
+      <c r="K60" t="inlineStr"/>
+      <c r="L60" t="n">
+        <v>1</v>
+      </c>
+      <c r="M60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2626,22 +2518,13 @@
       <c r="H61" t="n">
         <v>0</v>
       </c>
-      <c r="I61" t="n">
-        <v>0</v>
-      </c>
+      <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
-      <c r="K61" t="n">
-        <v>2.6</v>
-      </c>
-      <c r="L61" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M61" t="n">
-        <v>1</v>
-      </c>
-      <c r="N61" t="inlineStr"/>
+      <c r="K61" t="inlineStr"/>
+      <c r="L61" t="n">
+        <v>1</v>
+      </c>
+      <c r="M61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2668,22 +2551,13 @@
       <c r="H62" t="n">
         <v>0</v>
       </c>
-      <c r="I62" t="n">
-        <v>0</v>
-      </c>
+      <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
-      <c r="K62" t="n">
-        <v>2.6</v>
-      </c>
-      <c r="L62" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M62" t="n">
-        <v>1</v>
-      </c>
-      <c r="N62" t="inlineStr"/>
+      <c r="K62" t="inlineStr"/>
+      <c r="L62" t="n">
+        <v>1</v>
+      </c>
+      <c r="M62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2710,22 +2584,13 @@
       <c r="H63" t="n">
         <v>0</v>
       </c>
-      <c r="I63" t="n">
-        <v>0</v>
-      </c>
+      <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
-      <c r="K63" t="n">
-        <v>2.6</v>
-      </c>
-      <c r="L63" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M63" t="n">
-        <v>1</v>
-      </c>
-      <c r="N63" t="inlineStr"/>
+      <c r="K63" t="inlineStr"/>
+      <c r="L63" t="n">
+        <v>1</v>
+      </c>
+      <c r="M63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -2752,22 +2617,13 @@
       <c r="H64" t="n">
         <v>0</v>
       </c>
-      <c r="I64" t="n">
-        <v>0</v>
-      </c>
+      <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
-      <c r="K64" t="n">
-        <v>2.6</v>
-      </c>
-      <c r="L64" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M64" t="n">
-        <v>1</v>
-      </c>
-      <c r="N64" t="inlineStr"/>
+      <c r="K64" t="inlineStr"/>
+      <c r="L64" t="n">
+        <v>1</v>
+      </c>
+      <c r="M64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -2794,22 +2650,13 @@
       <c r="H65" t="n">
         <v>0</v>
       </c>
-      <c r="I65" t="n">
-        <v>0</v>
-      </c>
+      <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
-      <c r="K65" t="n">
-        <v>2.6</v>
-      </c>
-      <c r="L65" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M65" t="n">
-        <v>1</v>
-      </c>
-      <c r="N65" t="inlineStr"/>
+      <c r="K65" t="inlineStr"/>
+      <c r="L65" t="n">
+        <v>1</v>
+      </c>
+      <c r="M65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -2836,22 +2683,13 @@
       <c r="H66" t="n">
         <v>0</v>
       </c>
-      <c r="I66" t="n">
-        <v>0</v>
-      </c>
+      <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
-      <c r="K66" t="n">
-        <v>2.6</v>
-      </c>
-      <c r="L66" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M66" t="n">
-        <v>1</v>
-      </c>
-      <c r="N66" t="inlineStr"/>
+      <c r="K66" t="inlineStr"/>
+      <c r="L66" t="n">
+        <v>1</v>
+      </c>
+      <c r="M66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -2878,22 +2716,13 @@
       <c r="H67" t="n">
         <v>0</v>
       </c>
-      <c r="I67" t="n">
-        <v>0</v>
-      </c>
+      <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
-      <c r="K67" t="n">
-        <v>2.6</v>
-      </c>
-      <c r="L67" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M67" t="n">
-        <v>1</v>
-      </c>
-      <c r="N67" t="inlineStr"/>
+      <c r="K67" t="inlineStr"/>
+      <c r="L67" t="n">
+        <v>1</v>
+      </c>
+      <c r="M67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -2920,22 +2749,13 @@
       <c r="H68" t="n">
         <v>0</v>
       </c>
-      <c r="I68" t="n">
-        <v>0</v>
-      </c>
+      <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
-      <c r="K68" t="n">
-        <v>2.6</v>
-      </c>
-      <c r="L68" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M68" t="n">
-        <v>1</v>
-      </c>
-      <c r="N68" t="inlineStr"/>
+      <c r="K68" t="inlineStr"/>
+      <c r="L68" t="n">
+        <v>1</v>
+      </c>
+      <c r="M68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -2962,22 +2782,13 @@
       <c r="H69" t="n">
         <v>0</v>
       </c>
-      <c r="I69" t="n">
-        <v>0</v>
-      </c>
+      <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
-      <c r="K69" t="n">
-        <v>2.6</v>
-      </c>
-      <c r="L69" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M69" t="n">
-        <v>1</v>
-      </c>
-      <c r="N69" t="inlineStr"/>
+      <c r="K69" t="inlineStr"/>
+      <c r="L69" t="n">
+        <v>1</v>
+      </c>
+      <c r="M69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -3004,22 +2815,13 @@
       <c r="H70" t="n">
         <v>0</v>
       </c>
-      <c r="I70" t="n">
-        <v>0</v>
-      </c>
+      <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
-      <c r="K70" t="n">
-        <v>2.6</v>
-      </c>
-      <c r="L70" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M70" t="n">
-        <v>1</v>
-      </c>
-      <c r="N70" t="inlineStr"/>
+      <c r="K70" t="inlineStr"/>
+      <c r="L70" t="n">
+        <v>1</v>
+      </c>
+      <c r="M70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -3046,22 +2848,13 @@
       <c r="H71" t="n">
         <v>0</v>
       </c>
-      <c r="I71" t="n">
-        <v>0</v>
-      </c>
+      <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
-      <c r="K71" t="n">
-        <v>2.6</v>
-      </c>
-      <c r="L71" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M71" t="n">
-        <v>1</v>
-      </c>
-      <c r="N71" t="inlineStr"/>
+      <c r="K71" t="inlineStr"/>
+      <c r="L71" t="n">
+        <v>1</v>
+      </c>
+      <c r="M71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -3088,22 +2881,13 @@
       <c r="H72" t="n">
         <v>0</v>
       </c>
-      <c r="I72" t="n">
-        <v>0</v>
-      </c>
+      <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
-      <c r="K72" t="n">
-        <v>2.6</v>
-      </c>
-      <c r="L72" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M72" t="n">
-        <v>1</v>
-      </c>
-      <c r="N72" t="inlineStr"/>
+      <c r="K72" t="inlineStr"/>
+      <c r="L72" t="n">
+        <v>1</v>
+      </c>
+      <c r="M72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -3130,22 +2914,13 @@
       <c r="H73" t="n">
         <v>0</v>
       </c>
-      <c r="I73" t="n">
-        <v>0</v>
-      </c>
+      <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
-      <c r="K73" t="n">
-        <v>2.6</v>
-      </c>
-      <c r="L73" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M73" t="n">
-        <v>1</v>
-      </c>
-      <c r="N73" t="inlineStr"/>
+      <c r="K73" t="inlineStr"/>
+      <c r="L73" t="n">
+        <v>1</v>
+      </c>
+      <c r="M73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -3172,22 +2947,13 @@
       <c r="H74" t="n">
         <v>0</v>
       </c>
-      <c r="I74" t="n">
-        <v>0</v>
-      </c>
+      <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
-      <c r="K74" t="n">
-        <v>2.6</v>
-      </c>
-      <c r="L74" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M74" t="n">
-        <v>1</v>
-      </c>
-      <c r="N74" t="inlineStr"/>
+      <c r="K74" t="inlineStr"/>
+      <c r="L74" t="n">
+        <v>1</v>
+      </c>
+      <c r="M74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -3214,22 +2980,13 @@
       <c r="H75" t="n">
         <v>0</v>
       </c>
-      <c r="I75" t="n">
-        <v>0</v>
-      </c>
+      <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
-      <c r="K75" t="n">
-        <v>2.6</v>
-      </c>
-      <c r="L75" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M75" t="n">
-        <v>1</v>
-      </c>
-      <c r="N75" t="inlineStr"/>
+      <c r="K75" t="inlineStr"/>
+      <c r="L75" t="n">
+        <v>1</v>
+      </c>
+      <c r="M75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -3256,22 +3013,13 @@
       <c r="H76" t="n">
         <v>0</v>
       </c>
-      <c r="I76" t="n">
-        <v>0</v>
-      </c>
+      <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
-      <c r="K76" t="n">
-        <v>2.6</v>
-      </c>
-      <c r="L76" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M76" t="n">
-        <v>1</v>
-      </c>
-      <c r="N76" t="inlineStr"/>
+      <c r="K76" t="inlineStr"/>
+      <c r="L76" t="n">
+        <v>1</v>
+      </c>
+      <c r="M76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -3298,22 +3046,13 @@
       <c r="H77" t="n">
         <v>0</v>
       </c>
-      <c r="I77" t="n">
-        <v>0</v>
-      </c>
+      <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
-      <c r="K77" t="n">
-        <v>2.6</v>
-      </c>
-      <c r="L77" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M77" t="n">
-        <v>1</v>
-      </c>
-      <c r="N77" t="inlineStr"/>
+      <c r="K77" t="inlineStr"/>
+      <c r="L77" t="n">
+        <v>1</v>
+      </c>
+      <c r="M77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -3340,22 +3079,13 @@
       <c r="H78" t="n">
         <v>0</v>
       </c>
-      <c r="I78" t="n">
-        <v>0</v>
-      </c>
+      <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
-      <c r="K78" t="n">
-        <v>2.6</v>
-      </c>
-      <c r="L78" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M78" t="n">
-        <v>1</v>
-      </c>
-      <c r="N78" t="inlineStr"/>
+      <c r="K78" t="inlineStr"/>
+      <c r="L78" t="n">
+        <v>1</v>
+      </c>
+      <c r="M78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -3382,22 +3112,13 @@
       <c r="H79" t="n">
         <v>0</v>
       </c>
-      <c r="I79" t="n">
-        <v>0</v>
-      </c>
+      <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
-      <c r="K79" t="n">
-        <v>2.6</v>
-      </c>
-      <c r="L79" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M79" t="n">
-        <v>1</v>
-      </c>
-      <c r="N79" t="inlineStr"/>
+      <c r="K79" t="inlineStr"/>
+      <c r="L79" t="n">
+        <v>1</v>
+      </c>
+      <c r="M79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -3424,22 +3145,13 @@
       <c r="H80" t="n">
         <v>0</v>
       </c>
-      <c r="I80" t="n">
-        <v>0</v>
-      </c>
+      <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
-      <c r="K80" t="n">
-        <v>2.6</v>
-      </c>
-      <c r="L80" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M80" t="n">
-        <v>1</v>
-      </c>
-      <c r="N80" t="inlineStr"/>
+      <c r="K80" t="inlineStr"/>
+      <c r="L80" t="n">
+        <v>1</v>
+      </c>
+      <c r="M80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -3466,22 +3178,13 @@
       <c r="H81" t="n">
         <v>0</v>
       </c>
-      <c r="I81" t="n">
-        <v>0</v>
-      </c>
+      <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
-      <c r="K81" t="n">
-        <v>2.6</v>
-      </c>
-      <c r="L81" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M81" t="n">
-        <v>1</v>
-      </c>
-      <c r="N81" t="inlineStr"/>
+      <c r="K81" t="inlineStr"/>
+      <c r="L81" t="n">
+        <v>1</v>
+      </c>
+      <c r="M81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -3508,22 +3211,13 @@
       <c r="H82" t="n">
         <v>0</v>
       </c>
-      <c r="I82" t="n">
-        <v>0</v>
-      </c>
+      <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
-      <c r="K82" t="n">
-        <v>2.6</v>
-      </c>
-      <c r="L82" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M82" t="n">
-        <v>1</v>
-      </c>
-      <c r="N82" t="inlineStr"/>
+      <c r="K82" t="inlineStr"/>
+      <c r="L82" t="n">
+        <v>1</v>
+      </c>
+      <c r="M82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -3550,22 +3244,13 @@
       <c r="H83" t="n">
         <v>0</v>
       </c>
-      <c r="I83" t="n">
-        <v>0</v>
-      </c>
+      <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
-      <c r="K83" t="n">
-        <v>2.6</v>
-      </c>
-      <c r="L83" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M83" t="n">
-        <v>1</v>
-      </c>
-      <c r="N83" t="inlineStr"/>
+      <c r="K83" t="inlineStr"/>
+      <c r="L83" t="n">
+        <v>1</v>
+      </c>
+      <c r="M83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -3592,22 +3277,13 @@
       <c r="H84" t="n">
         <v>0</v>
       </c>
-      <c r="I84" t="n">
-        <v>0</v>
-      </c>
+      <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
-      <c r="K84" t="n">
-        <v>2.6</v>
-      </c>
-      <c r="L84" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M84" t="n">
-        <v>1</v>
-      </c>
-      <c r="N84" t="inlineStr"/>
+      <c r="K84" t="inlineStr"/>
+      <c r="L84" t="n">
+        <v>1</v>
+      </c>
+      <c r="M84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -3634,22 +3310,13 @@
       <c r="H85" t="n">
         <v>0</v>
       </c>
-      <c r="I85" t="n">
-        <v>0</v>
-      </c>
+      <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
-      <c r="K85" t="n">
-        <v>2.6</v>
-      </c>
-      <c r="L85" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M85" t="n">
-        <v>1</v>
-      </c>
-      <c r="N85" t="inlineStr"/>
+      <c r="K85" t="inlineStr"/>
+      <c r="L85" t="n">
+        <v>1</v>
+      </c>
+      <c r="M85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -3676,22 +3343,13 @@
       <c r="H86" t="n">
         <v>0</v>
       </c>
-      <c r="I86" t="n">
-        <v>0</v>
-      </c>
+      <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
-      <c r="K86" t="n">
-        <v>2.6</v>
-      </c>
-      <c r="L86" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M86" t="n">
-        <v>1</v>
-      </c>
-      <c r="N86" t="inlineStr"/>
+      <c r="K86" t="inlineStr"/>
+      <c r="L86" t="n">
+        <v>1</v>
+      </c>
+      <c r="M86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -3718,22 +3376,13 @@
       <c r="H87" t="n">
         <v>0</v>
       </c>
-      <c r="I87" t="n">
-        <v>0</v>
-      </c>
+      <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
-      <c r="K87" t="n">
-        <v>2.6</v>
-      </c>
-      <c r="L87" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M87" t="n">
-        <v>1</v>
-      </c>
-      <c r="N87" t="inlineStr"/>
+      <c r="K87" t="inlineStr"/>
+      <c r="L87" t="n">
+        <v>1</v>
+      </c>
+      <c r="M87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -3760,22 +3409,13 @@
       <c r="H88" t="n">
         <v>0</v>
       </c>
-      <c r="I88" t="n">
-        <v>0</v>
-      </c>
+      <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
-      <c r="K88" t="n">
-        <v>2.6</v>
-      </c>
-      <c r="L88" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M88" t="n">
-        <v>1</v>
-      </c>
-      <c r="N88" t="inlineStr"/>
+      <c r="K88" t="inlineStr"/>
+      <c r="L88" t="n">
+        <v>1</v>
+      </c>
+      <c r="M88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -3802,22 +3442,13 @@
       <c r="H89" t="n">
         <v>0</v>
       </c>
-      <c r="I89" t="n">
-        <v>0</v>
-      </c>
+      <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
-      <c r="K89" t="n">
-        <v>2.6</v>
-      </c>
-      <c r="L89" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M89" t="n">
-        <v>1</v>
-      </c>
-      <c r="N89" t="inlineStr"/>
+      <c r="K89" t="inlineStr"/>
+      <c r="L89" t="n">
+        <v>1</v>
+      </c>
+      <c r="M89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -3844,22 +3475,13 @@
       <c r="H90" t="n">
         <v>0</v>
       </c>
-      <c r="I90" t="n">
-        <v>0</v>
-      </c>
+      <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
-      <c r="K90" t="n">
-        <v>2.6</v>
-      </c>
-      <c r="L90" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M90" t="n">
-        <v>1</v>
-      </c>
-      <c r="N90" t="inlineStr"/>
+      <c r="K90" t="inlineStr"/>
+      <c r="L90" t="n">
+        <v>1</v>
+      </c>
+      <c r="M90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -3886,22 +3508,13 @@
       <c r="H91" t="n">
         <v>0</v>
       </c>
-      <c r="I91" t="n">
-        <v>0</v>
-      </c>
+      <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
-      <c r="K91" t="n">
-        <v>2.6</v>
-      </c>
-      <c r="L91" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M91" t="n">
-        <v>1</v>
-      </c>
-      <c r="N91" t="inlineStr"/>
+      <c r="K91" t="inlineStr"/>
+      <c r="L91" t="n">
+        <v>1</v>
+      </c>
+      <c r="M91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -3928,22 +3541,13 @@
       <c r="H92" t="n">
         <v>0</v>
       </c>
-      <c r="I92" t="n">
-        <v>0</v>
-      </c>
+      <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
-      <c r="K92" t="n">
-        <v>2.6</v>
-      </c>
-      <c r="L92" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M92" t="n">
-        <v>1</v>
-      </c>
-      <c r="N92" t="inlineStr"/>
+      <c r="K92" t="inlineStr"/>
+      <c r="L92" t="n">
+        <v>1</v>
+      </c>
+      <c r="M92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -3970,22 +3574,13 @@
       <c r="H93" t="n">
         <v>0</v>
       </c>
-      <c r="I93" t="n">
-        <v>0</v>
-      </c>
+      <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
-      <c r="K93" t="n">
-        <v>2.6</v>
-      </c>
-      <c r="L93" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M93" t="n">
-        <v>1</v>
-      </c>
-      <c r="N93" t="inlineStr"/>
+      <c r="K93" t="inlineStr"/>
+      <c r="L93" t="n">
+        <v>1</v>
+      </c>
+      <c r="M93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -4012,22 +3607,13 @@
       <c r="H94" t="n">
         <v>0</v>
       </c>
-      <c r="I94" t="n">
-        <v>0</v>
-      </c>
+      <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
-      <c r="K94" t="n">
-        <v>2.6</v>
-      </c>
-      <c r="L94" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M94" t="n">
-        <v>1</v>
-      </c>
-      <c r="N94" t="inlineStr"/>
+      <c r="K94" t="inlineStr"/>
+      <c r="L94" t="n">
+        <v>1</v>
+      </c>
+      <c r="M94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -4054,22 +3640,13 @@
       <c r="H95" t="n">
         <v>0</v>
       </c>
-      <c r="I95" t="n">
-        <v>0</v>
-      </c>
+      <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
-      <c r="K95" t="n">
-        <v>2.6</v>
-      </c>
-      <c r="L95" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M95" t="n">
-        <v>1</v>
-      </c>
-      <c r="N95" t="inlineStr"/>
+      <c r="K95" t="inlineStr"/>
+      <c r="L95" t="n">
+        <v>1</v>
+      </c>
+      <c r="M95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -4096,22 +3673,13 @@
       <c r="H96" t="n">
         <v>0</v>
       </c>
-      <c r="I96" t="n">
-        <v>0</v>
-      </c>
+      <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
-      <c r="K96" t="n">
-        <v>2.6</v>
-      </c>
-      <c r="L96" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M96" t="n">
-        <v>1</v>
-      </c>
-      <c r="N96" t="inlineStr"/>
+      <c r="K96" t="inlineStr"/>
+      <c r="L96" t="n">
+        <v>1</v>
+      </c>
+      <c r="M96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -4138,22 +3706,13 @@
       <c r="H97" t="n">
         <v>0</v>
       </c>
-      <c r="I97" t="n">
-        <v>0</v>
-      </c>
+      <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
-      <c r="K97" t="n">
-        <v>2.6</v>
-      </c>
-      <c r="L97" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M97" t="n">
-        <v>1</v>
-      </c>
-      <c r="N97" t="inlineStr"/>
+      <c r="K97" t="inlineStr"/>
+      <c r="L97" t="n">
+        <v>1</v>
+      </c>
+      <c r="M97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -4180,22 +3739,13 @@
       <c r="H98" t="n">
         <v>0</v>
       </c>
-      <c r="I98" t="n">
-        <v>0</v>
-      </c>
+      <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
-      <c r="K98" t="n">
-        <v>2.6</v>
-      </c>
-      <c r="L98" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M98" t="n">
-        <v>1</v>
-      </c>
-      <c r="N98" t="inlineStr"/>
+      <c r="K98" t="inlineStr"/>
+      <c r="L98" t="n">
+        <v>1</v>
+      </c>
+      <c r="M98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -4222,22 +3772,13 @@
       <c r="H99" t="n">
         <v>0</v>
       </c>
-      <c r="I99" t="n">
-        <v>0</v>
-      </c>
+      <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
-      <c r="K99" t="n">
-        <v>2.6</v>
-      </c>
-      <c r="L99" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M99" t="n">
-        <v>1</v>
-      </c>
-      <c r="N99" t="inlineStr"/>
+      <c r="K99" t="inlineStr"/>
+      <c r="L99" t="n">
+        <v>1</v>
+      </c>
+      <c r="M99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -4264,22 +3805,13 @@
       <c r="H100" t="n">
         <v>0</v>
       </c>
-      <c r="I100" t="n">
-        <v>0</v>
-      </c>
+      <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
-      <c r="K100" t="n">
-        <v>2.6</v>
-      </c>
-      <c r="L100" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M100" t="n">
-        <v>1</v>
-      </c>
-      <c r="N100" t="inlineStr"/>
+      <c r="K100" t="inlineStr"/>
+      <c r="L100" t="n">
+        <v>1</v>
+      </c>
+      <c r="M100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -4306,22 +3838,13 @@
       <c r="H101" t="n">
         <v>0</v>
       </c>
-      <c r="I101" t="n">
-        <v>0</v>
-      </c>
+      <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
-      <c r="K101" t="n">
-        <v>2.6</v>
-      </c>
-      <c r="L101" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M101" t="n">
-        <v>1</v>
-      </c>
-      <c r="N101" t="inlineStr"/>
+      <c r="K101" t="inlineStr"/>
+      <c r="L101" t="n">
+        <v>1</v>
+      </c>
+      <c r="M101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
@@ -4348,22 +3871,13 @@
       <c r="H102" t="n">
         <v>0</v>
       </c>
-      <c r="I102" t="n">
-        <v>0</v>
-      </c>
+      <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
-      <c r="K102" t="n">
-        <v>2.6</v>
-      </c>
-      <c r="L102" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M102" t="n">
-        <v>1</v>
-      </c>
-      <c r="N102" t="inlineStr"/>
+      <c r="K102" t="inlineStr"/>
+      <c r="L102" t="n">
+        <v>1</v>
+      </c>
+      <c r="M102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
@@ -4390,22 +3904,13 @@
       <c r="H103" t="n">
         <v>0</v>
       </c>
-      <c r="I103" t="n">
-        <v>0</v>
-      </c>
+      <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
-      <c r="K103" t="n">
-        <v>2.6</v>
-      </c>
-      <c r="L103" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M103" t="n">
-        <v>1</v>
-      </c>
-      <c r="N103" t="inlineStr"/>
+      <c r="K103" t="inlineStr"/>
+      <c r="L103" t="n">
+        <v>1</v>
+      </c>
+      <c r="M103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
@@ -4432,22 +3937,13 @@
       <c r="H104" t="n">
         <v>0</v>
       </c>
-      <c r="I104" t="n">
-        <v>0</v>
-      </c>
+      <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
-      <c r="K104" t="n">
-        <v>2.6</v>
-      </c>
-      <c r="L104" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M104" t="n">
-        <v>1</v>
-      </c>
-      <c r="N104" t="inlineStr"/>
+      <c r="K104" t="inlineStr"/>
+      <c r="L104" t="n">
+        <v>1</v>
+      </c>
+      <c r="M104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
@@ -4474,22 +3970,13 @@
       <c r="H105" t="n">
         <v>0</v>
       </c>
-      <c r="I105" t="n">
-        <v>0</v>
-      </c>
+      <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
-      <c r="K105" t="n">
-        <v>2.6</v>
-      </c>
-      <c r="L105" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M105" t="n">
-        <v>1</v>
-      </c>
-      <c r="N105" t="inlineStr"/>
+      <c r="K105" t="inlineStr"/>
+      <c r="L105" t="n">
+        <v>1</v>
+      </c>
+      <c r="M105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
@@ -4516,22 +4003,13 @@
       <c r="H106" t="n">
         <v>0</v>
       </c>
-      <c r="I106" t="n">
-        <v>0</v>
-      </c>
+      <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
-      <c r="K106" t="n">
-        <v>2.6</v>
-      </c>
-      <c r="L106" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M106" t="n">
-        <v>1</v>
-      </c>
-      <c r="N106" t="inlineStr"/>
+      <c r="K106" t="inlineStr"/>
+      <c r="L106" t="n">
+        <v>1</v>
+      </c>
+      <c r="M106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
@@ -4558,22 +4036,13 @@
       <c r="H107" t="n">
         <v>0</v>
       </c>
-      <c r="I107" t="n">
-        <v>0</v>
-      </c>
+      <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
-      <c r="K107" t="n">
-        <v>2.6</v>
-      </c>
-      <c r="L107" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M107" t="n">
-        <v>1</v>
-      </c>
-      <c r="N107" t="inlineStr"/>
+      <c r="K107" t="inlineStr"/>
+      <c r="L107" t="n">
+        <v>1</v>
+      </c>
+      <c r="M107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
@@ -4600,22 +4069,13 @@
       <c r="H108" t="n">
         <v>0</v>
       </c>
-      <c r="I108" t="n">
-        <v>0</v>
-      </c>
+      <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
-      <c r="K108" t="n">
-        <v>2.6</v>
-      </c>
-      <c r="L108" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M108" t="n">
-        <v>1</v>
-      </c>
-      <c r="N108" t="inlineStr"/>
+      <c r="K108" t="inlineStr"/>
+      <c r="L108" t="n">
+        <v>1</v>
+      </c>
+      <c r="M108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
@@ -4642,22 +4102,13 @@
       <c r="H109" t="n">
         <v>0</v>
       </c>
-      <c r="I109" t="n">
-        <v>0</v>
-      </c>
+      <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
-      <c r="K109" t="n">
-        <v>2.6</v>
-      </c>
-      <c r="L109" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M109" t="n">
-        <v>1</v>
-      </c>
-      <c r="N109" t="inlineStr"/>
+      <c r="K109" t="inlineStr"/>
+      <c r="L109" t="n">
+        <v>1</v>
+      </c>
+      <c r="M109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
@@ -4684,22 +4135,13 @@
       <c r="H110" t="n">
         <v>0</v>
       </c>
-      <c r="I110" t="n">
-        <v>0</v>
-      </c>
+      <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
-      <c r="K110" t="n">
-        <v>2.6</v>
-      </c>
-      <c r="L110" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M110" t="n">
-        <v>1</v>
-      </c>
-      <c r="N110" t="inlineStr"/>
+      <c r="K110" t="inlineStr"/>
+      <c r="L110" t="n">
+        <v>1</v>
+      </c>
+      <c r="M110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
@@ -4726,22 +4168,13 @@
       <c r="H111" t="n">
         <v>0</v>
       </c>
-      <c r="I111" t="n">
-        <v>0</v>
-      </c>
+      <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>
-      <c r="K111" t="n">
-        <v>2.6</v>
-      </c>
-      <c r="L111" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M111" t="n">
-        <v>1</v>
-      </c>
-      <c r="N111" t="inlineStr"/>
+      <c r="K111" t="inlineStr"/>
+      <c r="L111" t="n">
+        <v>1</v>
+      </c>
+      <c r="M111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
@@ -4768,22 +4201,13 @@
       <c r="H112" t="n">
         <v>0</v>
       </c>
-      <c r="I112" t="n">
-        <v>0</v>
-      </c>
+      <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
-      <c r="K112" t="n">
-        <v>2.6</v>
-      </c>
-      <c r="L112" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M112" t="n">
-        <v>1</v>
-      </c>
-      <c r="N112" t="inlineStr"/>
+      <c r="K112" t="inlineStr"/>
+      <c r="L112" t="n">
+        <v>1</v>
+      </c>
+      <c r="M112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
@@ -4810,22 +4234,13 @@
       <c r="H113" t="n">
         <v>0</v>
       </c>
-      <c r="I113" t="n">
-        <v>0</v>
-      </c>
+      <c r="I113" t="inlineStr"/>
       <c r="J113" t="inlineStr"/>
-      <c r="K113" t="n">
-        <v>2.6</v>
-      </c>
-      <c r="L113" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M113" t="n">
-        <v>1</v>
-      </c>
-      <c r="N113" t="inlineStr"/>
+      <c r="K113" t="inlineStr"/>
+      <c r="L113" t="n">
+        <v>1</v>
+      </c>
+      <c r="M113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
@@ -4852,22 +4267,13 @@
       <c r="H114" t="n">
         <v>0</v>
       </c>
-      <c r="I114" t="n">
-        <v>0</v>
-      </c>
+      <c r="I114" t="inlineStr"/>
       <c r="J114" t="inlineStr"/>
-      <c r="K114" t="n">
-        <v>2.6</v>
-      </c>
-      <c r="L114" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M114" t="n">
-        <v>1</v>
-      </c>
-      <c r="N114" t="inlineStr"/>
+      <c r="K114" t="inlineStr"/>
+      <c r="L114" t="n">
+        <v>1</v>
+      </c>
+      <c r="M114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
@@ -4894,22 +4300,13 @@
       <c r="H115" t="n">
         <v>0</v>
       </c>
-      <c r="I115" t="n">
-        <v>0</v>
-      </c>
+      <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr"/>
-      <c r="K115" t="n">
-        <v>2.6</v>
-      </c>
-      <c r="L115" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M115" t="n">
-        <v>1</v>
-      </c>
-      <c r="N115" t="inlineStr"/>
+      <c r="K115" t="inlineStr"/>
+      <c r="L115" t="n">
+        <v>1</v>
+      </c>
+      <c r="M115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
@@ -4936,22 +4333,13 @@
       <c r="H116" t="n">
         <v>0</v>
       </c>
-      <c r="I116" t="n">
-        <v>0</v>
-      </c>
+      <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
-      <c r="K116" t="n">
-        <v>2.6</v>
-      </c>
-      <c r="L116" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M116" t="n">
-        <v>1</v>
-      </c>
-      <c r="N116" t="inlineStr"/>
+      <c r="K116" t="inlineStr"/>
+      <c r="L116" t="n">
+        <v>1</v>
+      </c>
+      <c r="M116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
@@ -4978,22 +4366,13 @@
       <c r="H117" t="n">
         <v>0</v>
       </c>
-      <c r="I117" t="n">
-        <v>0</v>
-      </c>
+      <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
-      <c r="K117" t="n">
-        <v>2.6</v>
-      </c>
-      <c r="L117" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M117" t="n">
-        <v>1</v>
-      </c>
-      <c r="N117" t="inlineStr"/>
+      <c r="K117" t="inlineStr"/>
+      <c r="L117" t="n">
+        <v>1</v>
+      </c>
+      <c r="M117" t="inlineStr"/>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
@@ -5020,22 +4399,13 @@
       <c r="H118" t="n">
         <v>0</v>
       </c>
-      <c r="I118" t="n">
-        <v>0</v>
-      </c>
+      <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr"/>
-      <c r="K118" t="n">
-        <v>2.6</v>
-      </c>
-      <c r="L118" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M118" t="n">
-        <v>1</v>
-      </c>
-      <c r="N118" t="inlineStr"/>
+      <c r="K118" t="inlineStr"/>
+      <c r="L118" t="n">
+        <v>1</v>
+      </c>
+      <c r="M118" t="inlineStr"/>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
@@ -5062,22 +4432,13 @@
       <c r="H119" t="n">
         <v>0</v>
       </c>
-      <c r="I119" t="n">
-        <v>0</v>
-      </c>
+      <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr"/>
-      <c r="K119" t="n">
-        <v>2.6</v>
-      </c>
-      <c r="L119" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M119" t="n">
-        <v>1</v>
-      </c>
-      <c r="N119" t="inlineStr"/>
+      <c r="K119" t="inlineStr"/>
+      <c r="L119" t="n">
+        <v>1</v>
+      </c>
+      <c r="M119" t="inlineStr"/>
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
@@ -5104,22 +4465,13 @@
       <c r="H120" t="n">
         <v>0</v>
       </c>
-      <c r="I120" t="n">
-        <v>0</v>
-      </c>
+      <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr"/>
-      <c r="K120" t="n">
-        <v>2.6</v>
-      </c>
-      <c r="L120" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M120" t="n">
-        <v>1</v>
-      </c>
-      <c r="N120" t="inlineStr"/>
+      <c r="K120" t="inlineStr"/>
+      <c r="L120" t="n">
+        <v>1</v>
+      </c>
+      <c r="M120" t="inlineStr"/>
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
@@ -5146,22 +4498,13 @@
       <c r="H121" t="n">
         <v>0</v>
       </c>
-      <c r="I121" t="n">
-        <v>0</v>
-      </c>
+      <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr"/>
-      <c r="K121" t="n">
-        <v>2.6</v>
-      </c>
-      <c r="L121" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M121" t="n">
-        <v>1</v>
-      </c>
-      <c r="N121" t="inlineStr"/>
+      <c r="K121" t="inlineStr"/>
+      <c r="L121" t="n">
+        <v>1</v>
+      </c>
+      <c r="M121" t="inlineStr"/>
     </row>
     <row r="122">
       <c r="A122" s="1" t="n">
@@ -5188,22 +4531,13 @@
       <c r="H122" t="n">
         <v>0</v>
       </c>
-      <c r="I122" t="n">
-        <v>0</v>
-      </c>
+      <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
-      <c r="K122" t="n">
-        <v>2.6</v>
-      </c>
-      <c r="L122" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M122" t="n">
-        <v>1</v>
-      </c>
-      <c r="N122" t="inlineStr"/>
+      <c r="K122" t="inlineStr"/>
+      <c r="L122" t="n">
+        <v>1</v>
+      </c>
+      <c r="M122" t="inlineStr"/>
     </row>
     <row r="123">
       <c r="A123" s="1" t="n">
@@ -5230,22 +4564,13 @@
       <c r="H123" t="n">
         <v>0</v>
       </c>
-      <c r="I123" t="n">
-        <v>0</v>
-      </c>
+      <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr"/>
-      <c r="K123" t="n">
-        <v>2.6</v>
-      </c>
-      <c r="L123" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M123" t="n">
-        <v>1</v>
-      </c>
-      <c r="N123" t="inlineStr"/>
+      <c r="K123" t="inlineStr"/>
+      <c r="L123" t="n">
+        <v>1</v>
+      </c>
+      <c r="M123" t="inlineStr"/>
     </row>
     <row r="124">
       <c r="A124" s="1" t="n">
@@ -5272,22 +4597,13 @@
       <c r="H124" t="n">
         <v>0</v>
       </c>
-      <c r="I124" t="n">
-        <v>0</v>
-      </c>
+      <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr"/>
-      <c r="K124" t="n">
-        <v>2.6</v>
-      </c>
-      <c r="L124" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M124" t="n">
-        <v>1</v>
-      </c>
-      <c r="N124" t="inlineStr"/>
+      <c r="K124" t="inlineStr"/>
+      <c r="L124" t="n">
+        <v>1</v>
+      </c>
+      <c r="M124" t="inlineStr"/>
     </row>
     <row r="125">
       <c r="A125" s="1" t="n">
@@ -5314,22 +4630,13 @@
       <c r="H125" t="n">
         <v>0</v>
       </c>
-      <c r="I125" t="n">
-        <v>0</v>
-      </c>
+      <c r="I125" t="inlineStr"/>
       <c r="J125" t="inlineStr"/>
-      <c r="K125" t="n">
-        <v>2.6</v>
-      </c>
-      <c r="L125" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M125" t="n">
-        <v>1</v>
-      </c>
-      <c r="N125" t="inlineStr"/>
+      <c r="K125" t="inlineStr"/>
+      <c r="L125" t="n">
+        <v>1</v>
+      </c>
+      <c r="M125" t="inlineStr"/>
     </row>
     <row r="126">
       <c r="A126" s="1" t="n">
@@ -5356,22 +4663,13 @@
       <c r="H126" t="n">
         <v>0</v>
       </c>
-      <c r="I126" t="n">
-        <v>0</v>
-      </c>
+      <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr"/>
-      <c r="K126" t="n">
-        <v>2.6</v>
-      </c>
-      <c r="L126" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M126" t="n">
-        <v>1</v>
-      </c>
-      <c r="N126" t="inlineStr"/>
+      <c r="K126" t="inlineStr"/>
+      <c r="L126" t="n">
+        <v>1</v>
+      </c>
+      <c r="M126" t="inlineStr"/>
     </row>
     <row r="127">
       <c r="A127" s="1" t="n">
@@ -5398,22 +4696,13 @@
       <c r="H127" t="n">
         <v>0</v>
       </c>
-      <c r="I127" t="n">
-        <v>0</v>
-      </c>
+      <c r="I127" t="inlineStr"/>
       <c r="J127" t="inlineStr"/>
-      <c r="K127" t="n">
-        <v>2.6</v>
-      </c>
-      <c r="L127" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M127" t="n">
-        <v>1</v>
-      </c>
-      <c r="N127" t="inlineStr"/>
+      <c r="K127" t="inlineStr"/>
+      <c r="L127" t="n">
+        <v>1</v>
+      </c>
+      <c r="M127" t="inlineStr"/>
     </row>
     <row r="128">
       <c r="A128" s="1" t="n">
@@ -5440,22 +4729,13 @@
       <c r="H128" t="n">
         <v>0</v>
       </c>
-      <c r="I128" t="n">
-        <v>0</v>
-      </c>
+      <c r="I128" t="inlineStr"/>
       <c r="J128" t="inlineStr"/>
-      <c r="K128" t="n">
-        <v>2.6</v>
-      </c>
-      <c r="L128" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M128" t="n">
-        <v>1</v>
-      </c>
-      <c r="N128" t="inlineStr"/>
+      <c r="K128" t="inlineStr"/>
+      <c r="L128" t="n">
+        <v>1</v>
+      </c>
+      <c r="M128" t="inlineStr"/>
     </row>
     <row r="129">
       <c r="A129" s="1" t="n">
@@ -5482,22 +4762,13 @@
       <c r="H129" t="n">
         <v>0</v>
       </c>
-      <c r="I129" t="n">
-        <v>0</v>
-      </c>
+      <c r="I129" t="inlineStr"/>
       <c r="J129" t="inlineStr"/>
-      <c r="K129" t="n">
-        <v>2.6</v>
-      </c>
-      <c r="L129" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M129" t="n">
-        <v>1</v>
-      </c>
-      <c r="N129" t="inlineStr"/>
+      <c r="K129" t="inlineStr"/>
+      <c r="L129" t="n">
+        <v>1</v>
+      </c>
+      <c r="M129" t="inlineStr"/>
     </row>
     <row r="130">
       <c r="A130" s="1" t="n">
@@ -5524,22 +4795,13 @@
       <c r="H130" t="n">
         <v>0</v>
       </c>
-      <c r="I130" t="n">
-        <v>0</v>
-      </c>
+      <c r="I130" t="inlineStr"/>
       <c r="J130" t="inlineStr"/>
-      <c r="K130" t="n">
-        <v>2.6</v>
-      </c>
-      <c r="L130" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M130" t="n">
-        <v>1</v>
-      </c>
-      <c r="N130" t="inlineStr"/>
+      <c r="K130" t="inlineStr"/>
+      <c r="L130" t="n">
+        <v>1</v>
+      </c>
+      <c r="M130" t="inlineStr"/>
     </row>
     <row r="131">
       <c r="A131" s="1" t="n">
@@ -5566,22 +4828,13 @@
       <c r="H131" t="n">
         <v>0</v>
       </c>
-      <c r="I131" t="n">
-        <v>0</v>
-      </c>
+      <c r="I131" t="inlineStr"/>
       <c r="J131" t="inlineStr"/>
-      <c r="K131" t="n">
-        <v>2.6</v>
-      </c>
-      <c r="L131" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M131" t="n">
-        <v>1</v>
-      </c>
-      <c r="N131" t="inlineStr"/>
+      <c r="K131" t="inlineStr"/>
+      <c r="L131" t="n">
+        <v>1</v>
+      </c>
+      <c r="M131" t="inlineStr"/>
     </row>
     <row r="132">
       <c r="A132" s="1" t="n">
@@ -5608,22 +4861,13 @@
       <c r="H132" t="n">
         <v>0</v>
       </c>
-      <c r="I132" t="n">
-        <v>0</v>
-      </c>
+      <c r="I132" t="inlineStr"/>
       <c r="J132" t="inlineStr"/>
-      <c r="K132" t="n">
-        <v>2.6</v>
-      </c>
-      <c r="L132" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M132" t="n">
-        <v>1</v>
-      </c>
-      <c r="N132" t="inlineStr"/>
+      <c r="K132" t="inlineStr"/>
+      <c r="L132" t="n">
+        <v>1</v>
+      </c>
+      <c r="M132" t="inlineStr"/>
     </row>
     <row r="133">
       <c r="A133" s="1" t="n">
@@ -5650,22 +4894,13 @@
       <c r="H133" t="n">
         <v>0</v>
       </c>
-      <c r="I133" t="n">
-        <v>0</v>
-      </c>
+      <c r="I133" t="inlineStr"/>
       <c r="J133" t="inlineStr"/>
-      <c r="K133" t="n">
-        <v>2.6</v>
-      </c>
-      <c r="L133" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M133" t="n">
-        <v>1</v>
-      </c>
-      <c r="N133" t="inlineStr"/>
+      <c r="K133" t="inlineStr"/>
+      <c r="L133" t="n">
+        <v>1</v>
+      </c>
+      <c r="M133" t="inlineStr"/>
     </row>
     <row r="134">
       <c r="A134" s="1" t="n">
@@ -5692,22 +4927,13 @@
       <c r="H134" t="n">
         <v>0</v>
       </c>
-      <c r="I134" t="n">
-        <v>0</v>
-      </c>
+      <c r="I134" t="inlineStr"/>
       <c r="J134" t="inlineStr"/>
-      <c r="K134" t="n">
-        <v>2.6</v>
-      </c>
-      <c r="L134" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M134" t="n">
-        <v>1</v>
-      </c>
-      <c r="N134" t="inlineStr"/>
+      <c r="K134" t="inlineStr"/>
+      <c r="L134" t="n">
+        <v>1</v>
+      </c>
+      <c r="M134" t="inlineStr"/>
     </row>
     <row r="135">
       <c r="A135" s="1" t="n">
@@ -5734,22 +4960,13 @@
       <c r="H135" t="n">
         <v>0</v>
       </c>
-      <c r="I135" t="n">
-        <v>0</v>
-      </c>
+      <c r="I135" t="inlineStr"/>
       <c r="J135" t="inlineStr"/>
-      <c r="K135" t="n">
-        <v>2.6</v>
-      </c>
-      <c r="L135" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M135" t="n">
-        <v>1</v>
-      </c>
-      <c r="N135" t="inlineStr"/>
+      <c r="K135" t="inlineStr"/>
+      <c r="L135" t="n">
+        <v>1</v>
+      </c>
+      <c r="M135" t="inlineStr"/>
     </row>
     <row r="136">
       <c r="A136" s="1" t="n">
@@ -5776,22 +4993,13 @@
       <c r="H136" t="n">
         <v>0</v>
       </c>
-      <c r="I136" t="n">
-        <v>0</v>
-      </c>
+      <c r="I136" t="inlineStr"/>
       <c r="J136" t="inlineStr"/>
-      <c r="K136" t="n">
-        <v>2.6</v>
-      </c>
-      <c r="L136" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M136" t="n">
-        <v>1</v>
-      </c>
-      <c r="N136" t="inlineStr"/>
+      <c r="K136" t="inlineStr"/>
+      <c r="L136" t="n">
+        <v>1</v>
+      </c>
+      <c r="M136" t="inlineStr"/>
     </row>
     <row r="137">
       <c r="A137" s="1" t="n">
@@ -5818,22 +5026,13 @@
       <c r="H137" t="n">
         <v>0</v>
       </c>
-      <c r="I137" t="n">
-        <v>0</v>
-      </c>
+      <c r="I137" t="inlineStr"/>
       <c r="J137" t="inlineStr"/>
-      <c r="K137" t="n">
-        <v>2.6</v>
-      </c>
-      <c r="L137" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M137" t="n">
-        <v>1</v>
-      </c>
-      <c r="N137" t="inlineStr"/>
+      <c r="K137" t="inlineStr"/>
+      <c r="L137" t="n">
+        <v>1</v>
+      </c>
+      <c r="M137" t="inlineStr"/>
     </row>
     <row r="138">
       <c r="A138" s="1" t="n">
@@ -5860,22 +5059,13 @@
       <c r="H138" t="n">
         <v>0</v>
       </c>
-      <c r="I138" t="n">
-        <v>0</v>
-      </c>
+      <c r="I138" t="inlineStr"/>
       <c r="J138" t="inlineStr"/>
-      <c r="K138" t="n">
-        <v>2.6</v>
-      </c>
-      <c r="L138" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M138" t="n">
-        <v>1</v>
-      </c>
-      <c r="N138" t="inlineStr"/>
+      <c r="K138" t="inlineStr"/>
+      <c r="L138" t="n">
+        <v>1</v>
+      </c>
+      <c r="M138" t="inlineStr"/>
     </row>
     <row r="139">
       <c r="A139" s="1" t="n">
@@ -5902,22 +5092,13 @@
       <c r="H139" t="n">
         <v>0</v>
       </c>
-      <c r="I139" t="n">
-        <v>0</v>
-      </c>
+      <c r="I139" t="inlineStr"/>
       <c r="J139" t="inlineStr"/>
-      <c r="K139" t="n">
-        <v>2.6</v>
-      </c>
-      <c r="L139" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M139" t="n">
-        <v>1</v>
-      </c>
-      <c r="N139" t="inlineStr"/>
+      <c r="K139" t="inlineStr"/>
+      <c r="L139" t="n">
+        <v>1</v>
+      </c>
+      <c r="M139" t="inlineStr"/>
     </row>
     <row r="140">
       <c r="A140" s="1" t="n">
@@ -5944,22 +5125,13 @@
       <c r="H140" t="n">
         <v>0</v>
       </c>
-      <c r="I140" t="n">
-        <v>0</v>
-      </c>
+      <c r="I140" t="inlineStr"/>
       <c r="J140" t="inlineStr"/>
-      <c r="K140" t="n">
-        <v>2.6</v>
-      </c>
-      <c r="L140" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M140" t="n">
-        <v>1</v>
-      </c>
-      <c r="N140" t="inlineStr"/>
+      <c r="K140" t="inlineStr"/>
+      <c r="L140" t="n">
+        <v>1</v>
+      </c>
+      <c r="M140" t="inlineStr"/>
     </row>
     <row r="141">
       <c r="A141" s="1" t="n">
@@ -5986,24 +5158,15 @@
       <c r="H141" t="n">
         <v>0</v>
       </c>
-      <c r="I141" t="n">
-        <v>0</v>
-      </c>
+      <c r="I141" t="inlineStr"/>
       <c r="J141" t="inlineStr"/>
-      <c r="K141" t="n">
-        <v>2.6</v>
-      </c>
-      <c r="L141" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M141" t="n">
-        <v>1</v>
-      </c>
-      <c r="N141" t="inlineStr"/>
+      <c r="K141" t="inlineStr"/>
+      <c r="L141" t="n">
+        <v>1</v>
+      </c>
+      <c r="M141" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2019-11-01 BackTest ANKR.xlsx
+++ b/BackTest/2019-11-01 BackTest ANKR.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>CMO</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -517,14 +517,10 @@
         <v>-2318091.2821</v>
       </c>
       <c r="H4" t="n">
-        <v>2</v>
-      </c>
-      <c r="I4" t="n">
-        <v>2.59</v>
-      </c>
-      <c r="J4" t="n">
-        <v>2.59</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I4" t="inlineStr"/>
+      <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr"/>
       <c r="L4" t="n">
         <v>1</v>
@@ -557,14 +553,8 @@
         <v>0</v>
       </c>
       <c r="I5" t="inlineStr"/>
-      <c r="J5" t="n">
-        <v>2.59</v>
-      </c>
-      <c r="K5" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J5" t="inlineStr"/>
+      <c r="K5" t="inlineStr"/>
       <c r="L5" t="n">
         <v>1</v>
       </c>
@@ -593,19 +583,11 @@
         <v>-2300331.8056</v>
       </c>
       <c r="H6" t="n">
-        <v>2</v>
-      </c>
-      <c r="I6" t="n">
-        <v>2.62</v>
-      </c>
-      <c r="J6" t="n">
-        <v>2.59</v>
-      </c>
-      <c r="K6" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I6" t="inlineStr"/>
+      <c r="J6" t="inlineStr"/>
+      <c r="K6" t="inlineStr"/>
       <c r="L6" t="n">
         <v>1</v>
       </c>
@@ -667,14 +649,10 @@
         <v>-2131966.6664</v>
       </c>
       <c r="H8" t="n">
-        <v>2</v>
-      </c>
-      <c r="I8" t="n">
-        <v>2.64</v>
-      </c>
-      <c r="J8" t="n">
-        <v>2.64</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I8" t="inlineStr"/>
+      <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr"/>
       <c r="L8" t="n">
         <v>1</v>
@@ -707,256 +685,222 @@
         <v>0</v>
       </c>
       <c r="I9" t="inlineStr"/>
-      <c r="J9" t="n">
-        <v>2.64</v>
-      </c>
-      <c r="K9" t="inlineStr">
+      <c r="J9" t="inlineStr"/>
+      <c r="K9" t="inlineStr"/>
+      <c r="L9" t="n">
+        <v>1</v>
+      </c>
+      <c r="M9" t="inlineStr"/>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="n">
+        <v>2.66</v>
+      </c>
+      <c r="C10" t="n">
+        <v>2.66</v>
+      </c>
+      <c r="D10" t="n">
+        <v>2.66</v>
+      </c>
+      <c r="E10" t="n">
+        <v>2.66</v>
+      </c>
+      <c r="F10" t="n">
+        <v>167120.3123</v>
+      </c>
+      <c r="G10" t="n">
+        <v>-1964846.3541</v>
+      </c>
+      <c r="H10" t="n">
+        <v>0</v>
+      </c>
+      <c r="I10" t="inlineStr"/>
+      <c r="J10" t="inlineStr"/>
+      <c r="K10" t="inlineStr"/>
+      <c r="L10" t="n">
+        <v>1</v>
+      </c>
+      <c r="M10" t="inlineStr"/>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="n">
+        <v>2.67</v>
+      </c>
+      <c r="C11" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="D11" t="n">
+        <v>2.67</v>
+      </c>
+      <c r="E11" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="F11" t="n">
+        <v>187258.3632</v>
+      </c>
+      <c r="G11" t="n">
+        <v>-2152104.7173</v>
+      </c>
+      <c r="H11" t="n">
+        <v>0</v>
+      </c>
+      <c r="I11" t="inlineStr"/>
+      <c r="J11" t="inlineStr"/>
+      <c r="K11" t="inlineStr"/>
+      <c r="L11" t="n">
+        <v>1</v>
+      </c>
+      <c r="M11" t="inlineStr"/>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="n">
+        <v>2.61</v>
+      </c>
+      <c r="C12" t="n">
+        <v>2.61</v>
+      </c>
+      <c r="D12" t="n">
+        <v>2.61</v>
+      </c>
+      <c r="E12" t="n">
+        <v>2.61</v>
+      </c>
+      <c r="F12" t="n">
+        <v>20000</v>
+      </c>
+      <c r="G12" t="n">
+        <v>-2172104.7173</v>
+      </c>
+      <c r="H12" t="n">
+        <v>0</v>
+      </c>
+      <c r="I12" t="inlineStr"/>
+      <c r="J12" t="inlineStr"/>
+      <c r="K12" t="inlineStr"/>
+      <c r="L12" t="n">
+        <v>1</v>
+      </c>
+      <c r="M12" t="inlineStr"/>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="n">
+        <v>2.67</v>
+      </c>
+      <c r="C13" t="n">
+        <v>2.67</v>
+      </c>
+      <c r="D13" t="n">
+        <v>2.68</v>
+      </c>
+      <c r="E13" t="n">
+        <v>2.67</v>
+      </c>
+      <c r="F13" t="n">
+        <v>49180</v>
+      </c>
+      <c r="G13" t="n">
+        <v>-2122924.7173</v>
+      </c>
+      <c r="H13" t="n">
+        <v>1</v>
+      </c>
+      <c r="I13" t="n">
+        <v>2.61</v>
+      </c>
+      <c r="J13" t="n">
+        <v>2.61</v>
+      </c>
+      <c r="K13" t="inlineStr"/>
+      <c r="L13" t="n">
+        <v>1</v>
+      </c>
+      <c r="M13" t="inlineStr"/>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="n">
+        <v>2.67</v>
+      </c>
+      <c r="C14" t="n">
+        <v>2.67</v>
+      </c>
+      <c r="D14" t="n">
+        <v>2.67</v>
+      </c>
+      <c r="E14" t="n">
+        <v>2.67</v>
+      </c>
+      <c r="F14" t="n">
+        <v>62032</v>
+      </c>
+      <c r="G14" t="n">
+        <v>-2122924.7173</v>
+      </c>
+      <c r="H14" t="n">
+        <v>0</v>
+      </c>
+      <c r="I14" t="inlineStr"/>
+      <c r="J14" t="n">
+        <v>2.61</v>
+      </c>
+      <c r="K14" t="inlineStr">
         <is>
           <t>매수 대기</t>
         </is>
       </c>
-      <c r="L9" t="n">
-        <v>1</v>
-      </c>
-      <c r="M9" t="inlineStr"/>
-    </row>
-    <row r="10">
-      <c r="A10" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="n">
-        <v>2.66</v>
-      </c>
-      <c r="C10" t="n">
-        <v>2.66</v>
-      </c>
-      <c r="D10" t="n">
-        <v>2.66</v>
-      </c>
-      <c r="E10" t="n">
-        <v>2.66</v>
-      </c>
-      <c r="F10" t="n">
-        <v>167120.3123</v>
-      </c>
-      <c r="G10" t="n">
-        <v>-1964846.3541</v>
-      </c>
-      <c r="H10" t="n">
-        <v>0</v>
-      </c>
-      <c r="I10" t="inlineStr"/>
-      <c r="J10" t="n">
-        <v>2.64</v>
-      </c>
-      <c r="K10" t="inlineStr">
+      <c r="L14" t="n">
+        <v>1</v>
+      </c>
+      <c r="M14" t="inlineStr"/>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="n">
+        <v>2.67</v>
+      </c>
+      <c r="C15" t="n">
+        <v>2.67</v>
+      </c>
+      <c r="D15" t="n">
+        <v>2.67</v>
+      </c>
+      <c r="E15" t="n">
+        <v>2.67</v>
+      </c>
+      <c r="F15" t="n">
+        <v>15866</v>
+      </c>
+      <c r="G15" t="n">
+        <v>-2122924.7173</v>
+      </c>
+      <c r="H15" t="n">
+        <v>0</v>
+      </c>
+      <c r="I15" t="inlineStr"/>
+      <c r="J15" t="n">
+        <v>2.61</v>
+      </c>
+      <c r="K15" t="inlineStr">
         <is>
           <t>매수 대기</t>
         </is>
       </c>
-      <c r="L10" t="n">
-        <v>1</v>
-      </c>
-      <c r="M10" t="inlineStr"/>
-    </row>
-    <row r="11">
-      <c r="A11" s="1" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="n">
-        <v>2.67</v>
-      </c>
-      <c r="C11" t="n">
-        <v>2.62</v>
-      </c>
-      <c r="D11" t="n">
-        <v>2.67</v>
-      </c>
-      <c r="E11" t="n">
-        <v>2.62</v>
-      </c>
-      <c r="F11" t="n">
-        <v>187258.3632</v>
-      </c>
-      <c r="G11" t="n">
-        <v>-2152104.7173</v>
-      </c>
-      <c r="H11" t="n">
-        <v>2</v>
-      </c>
-      <c r="I11" t="n">
-        <v>2.66</v>
-      </c>
-      <c r="J11" t="n">
-        <v>2.64</v>
-      </c>
-      <c r="K11" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
-      <c r="L11" t="n">
-        <v>1</v>
-      </c>
-      <c r="M11" t="inlineStr"/>
-    </row>
-    <row r="12">
-      <c r="A12" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="n">
-        <v>2.61</v>
-      </c>
-      <c r="C12" t="n">
-        <v>2.61</v>
-      </c>
-      <c r="D12" t="n">
-        <v>2.61</v>
-      </c>
-      <c r="E12" t="n">
-        <v>2.61</v>
-      </c>
-      <c r="F12" t="n">
-        <v>20000</v>
-      </c>
-      <c r="G12" t="n">
-        <v>-2172104.7173</v>
-      </c>
-      <c r="H12" t="n">
-        <v>2</v>
-      </c>
-      <c r="I12" t="n">
-        <v>2.62</v>
-      </c>
-      <c r="J12" t="n">
-        <v>2.64</v>
-      </c>
-      <c r="K12" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L12" t="n">
-        <v>1</v>
-      </c>
-      <c r="M12" t="inlineStr"/>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="n">
-        <v>2.67</v>
-      </c>
-      <c r="C13" t="n">
-        <v>2.67</v>
-      </c>
-      <c r="D13" t="n">
-        <v>2.68</v>
-      </c>
-      <c r="E13" t="n">
-        <v>2.67</v>
-      </c>
-      <c r="F13" t="n">
-        <v>49180</v>
-      </c>
-      <c r="G13" t="n">
-        <v>-2122924.7173</v>
-      </c>
-      <c r="H13" t="n">
-        <v>2</v>
-      </c>
-      <c r="I13" t="n">
-        <v>2.61</v>
-      </c>
-      <c r="J13" t="n">
-        <v>2.64</v>
-      </c>
-      <c r="K13" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L13" t="n">
-        <v>1</v>
-      </c>
-      <c r="M13" t="inlineStr"/>
-    </row>
-    <row r="14">
-      <c r="A14" s="1" t="n">
-        <v>12</v>
-      </c>
-      <c r="B14" t="n">
-        <v>2.67</v>
-      </c>
-      <c r="C14" t="n">
-        <v>2.67</v>
-      </c>
-      <c r="D14" t="n">
-        <v>2.67</v>
-      </c>
-      <c r="E14" t="n">
-        <v>2.67</v>
-      </c>
-      <c r="F14" t="n">
-        <v>62032</v>
-      </c>
-      <c r="G14" t="n">
-        <v>-2122924.7173</v>
-      </c>
-      <c r="H14" t="n">
-        <v>2</v>
-      </c>
-      <c r="I14" t="n">
-        <v>2.67</v>
-      </c>
-      <c r="J14" t="n">
-        <v>2.64</v>
-      </c>
-      <c r="K14" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L14" t="n">
-        <v>1</v>
-      </c>
-      <c r="M14" t="inlineStr"/>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="n">
-        <v>13</v>
-      </c>
-      <c r="B15" t="n">
-        <v>2.67</v>
-      </c>
-      <c r="C15" t="n">
-        <v>2.67</v>
-      </c>
-      <c r="D15" t="n">
-        <v>2.67</v>
-      </c>
-      <c r="E15" t="n">
-        <v>2.67</v>
-      </c>
-      <c r="F15" t="n">
-        <v>15866</v>
-      </c>
-      <c r="G15" t="n">
-        <v>-2122924.7173</v>
-      </c>
-      <c r="H15" t="n">
-        <v>0</v>
-      </c>
-      <c r="I15" t="inlineStr"/>
-      <c r="J15" t="n">
-        <v>2.64</v>
-      </c>
-      <c r="K15" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
       <c r="L15" t="n">
         <v>1</v>
       </c>
@@ -985,19 +929,11 @@
         <v>-1826735.6485</v>
       </c>
       <c r="H16" t="n">
-        <v>2</v>
-      </c>
-      <c r="I16" t="n">
-        <v>2.67</v>
-      </c>
-      <c r="J16" t="n">
-        <v>2.64</v>
-      </c>
-      <c r="K16" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I16" t="inlineStr"/>
+      <c r="J16" t="inlineStr"/>
+      <c r="K16" t="inlineStr"/>
       <c r="L16" t="n">
         <v>1</v>
       </c>
@@ -1026,19 +962,11 @@
         <v>-2053318.4795</v>
       </c>
       <c r="H17" t="n">
-        <v>2</v>
-      </c>
-      <c r="I17" t="n">
-        <v>2.68</v>
-      </c>
-      <c r="J17" t="n">
-        <v>2.64</v>
-      </c>
-      <c r="K17" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I17" t="inlineStr"/>
+      <c r="J17" t="inlineStr"/>
+      <c r="K17" t="inlineStr"/>
       <c r="L17" t="n">
         <v>1</v>
       </c>
@@ -1067,17 +995,11 @@
         <v>-2053318.4795</v>
       </c>
       <c r="H18" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I18" t="inlineStr"/>
-      <c r="J18" t="n">
-        <v>2.64</v>
-      </c>
-      <c r="K18" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J18" t="inlineStr"/>
+      <c r="K18" t="inlineStr"/>
       <c r="L18" t="n">
         <v>1</v>
       </c>
@@ -1109,14 +1031,8 @@
         <v>0</v>
       </c>
       <c r="I19" t="inlineStr"/>
-      <c r="J19" t="n">
-        <v>2.64</v>
-      </c>
-      <c r="K19" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J19" t="inlineStr"/>
+      <c r="K19" t="inlineStr"/>
       <c r="L19" t="n">
         <v>1</v>
       </c>
@@ -1145,17 +1061,11 @@
         <v>-598111.1615000002</v>
       </c>
       <c r="H20" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I20" t="inlineStr"/>
-      <c r="J20" t="n">
-        <v>2.64</v>
-      </c>
-      <c r="K20" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J20" t="inlineStr"/>
+      <c r="K20" t="inlineStr"/>
       <c r="L20" t="n">
         <v>1</v>
       </c>
@@ -1187,14 +1097,8 @@
         <v>0</v>
       </c>
       <c r="I21" t="inlineStr"/>
-      <c r="J21" t="n">
-        <v>2.64</v>
-      </c>
-      <c r="K21" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J21" t="inlineStr"/>
+      <c r="K21" t="inlineStr"/>
       <c r="L21" t="n">
         <v>1</v>
       </c>
@@ -1223,19 +1127,13 @@
         <v>-907047.2644000002</v>
       </c>
       <c r="H22" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I22" t="inlineStr"/>
-      <c r="J22" t="n">
-        <v>2.64</v>
-      </c>
-      <c r="K22" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
+      <c r="J22" t="inlineStr"/>
+      <c r="K22" t="inlineStr"/>
       <c r="L22" t="n">
-        <v>0.995</v>
+        <v>1</v>
       </c>
       <c r="M22" t="inlineStr"/>
     </row>
@@ -1262,7 +1160,7 @@
         <v>-907037.2644000002</v>
       </c>
       <c r="H23" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
@@ -1295,7 +1193,7 @@
         <v>-981040.8000000003</v>
       </c>
       <c r="H24" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
@@ -1361,7 +1259,7 @@
         <v>-1323576.4851</v>
       </c>
       <c r="H26" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
@@ -1394,7 +1292,7 @@
         <v>-1443669.6401</v>
       </c>
       <c r="H27" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
@@ -1427,7 +1325,7 @@
         <v>-1443669.6401</v>
       </c>
       <c r="H28" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
@@ -1625,7 +1523,7 @@
         <v>-1481666.7786</v>
       </c>
       <c r="H34" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
@@ -1691,10 +1589,14 @@
         <v>-1493795.7786</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
-      </c>
-      <c r="I36" t="inlineStr"/>
-      <c r="J36" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I36" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="J36" t="n">
+        <v>2.63</v>
+      </c>
       <c r="K36" t="inlineStr"/>
       <c r="L36" t="n">
         <v>1</v>
@@ -1726,9 +1628,17 @@
       <c r="H37" t="n">
         <v>1</v>
       </c>
-      <c r="I37" t="inlineStr"/>
-      <c r="J37" t="inlineStr"/>
-      <c r="K37" t="inlineStr"/>
+      <c r="I37" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="J37" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="K37" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L37" t="n">
         <v>1</v>
       </c>
@@ -1760,8 +1670,14 @@
         <v>0</v>
       </c>
       <c r="I38" t="inlineStr"/>
-      <c r="J38" t="inlineStr"/>
-      <c r="K38" t="inlineStr"/>
+      <c r="J38" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="K38" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L38" t="n">
         <v>1</v>
       </c>
@@ -1792,9 +1708,17 @@
       <c r="H39" t="n">
         <v>1</v>
       </c>
-      <c r="I39" t="inlineStr"/>
-      <c r="J39" t="inlineStr"/>
-      <c r="K39" t="inlineStr"/>
+      <c r="I39" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="J39" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="K39" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L39" t="n">
         <v>1</v>
       </c>
@@ -1823,11 +1747,17 @@
         <v>-1065225.8706</v>
       </c>
       <c r="H40" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I40" t="inlineStr"/>
-      <c r="J40" t="inlineStr"/>
-      <c r="K40" t="inlineStr"/>
+      <c r="J40" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="K40" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L40" t="n">
         <v>1</v>
       </c>
@@ -1856,11 +1786,17 @@
         <v>-831791.0392000002</v>
       </c>
       <c r="H41" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I41" t="inlineStr"/>
-      <c r="J41" t="inlineStr"/>
-      <c r="K41" t="inlineStr"/>
+      <c r="J41" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="K41" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L41" t="n">
         <v>1</v>
       </c>
@@ -1892,8 +1828,14 @@
         <v>0</v>
       </c>
       <c r="I42" t="inlineStr"/>
-      <c r="J42" t="inlineStr"/>
-      <c r="K42" t="inlineStr"/>
+      <c r="J42" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="K42" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L42" t="n">
         <v>1</v>
       </c>
@@ -1925,8 +1867,14 @@
         <v>0</v>
       </c>
       <c r="I43" t="inlineStr"/>
-      <c r="J43" t="inlineStr"/>
-      <c r="K43" t="inlineStr"/>
+      <c r="J43" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="K43" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L43" t="n">
         <v>1</v>
       </c>
@@ -1958,8 +1906,14 @@
         <v>0</v>
       </c>
       <c r="I44" t="inlineStr"/>
-      <c r="J44" t="inlineStr"/>
-      <c r="K44" t="inlineStr"/>
+      <c r="J44" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="K44" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L44" t="n">
         <v>1</v>
       </c>
@@ -1988,11 +1942,17 @@
         <v>-822169.1840000002</v>
       </c>
       <c r="H45" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I45" t="inlineStr"/>
-      <c r="J45" t="inlineStr"/>
-      <c r="K45" t="inlineStr"/>
+      <c r="J45" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="K45" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L45" t="n">
         <v>1</v>
       </c>
@@ -2024,8 +1984,14 @@
         <v>0</v>
       </c>
       <c r="I46" t="inlineStr"/>
-      <c r="J46" t="inlineStr"/>
-      <c r="K46" t="inlineStr"/>
+      <c r="J46" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="K46" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L46" t="n">
         <v>1</v>
       </c>
@@ -2057,8 +2023,14 @@
         <v>0</v>
       </c>
       <c r="I47" t="inlineStr"/>
-      <c r="J47" t="inlineStr"/>
-      <c r="K47" t="inlineStr"/>
+      <c r="J47" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="K47" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L47" t="n">
         <v>1</v>
       </c>
@@ -2090,8 +2062,14 @@
         <v>0</v>
       </c>
       <c r="I48" t="inlineStr"/>
-      <c r="J48" t="inlineStr"/>
-      <c r="K48" t="inlineStr"/>
+      <c r="J48" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="K48" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L48" t="n">
         <v>1</v>
       </c>
@@ -2123,8 +2101,14 @@
         <v>0</v>
       </c>
       <c r="I49" t="inlineStr"/>
-      <c r="J49" t="inlineStr"/>
-      <c r="K49" t="inlineStr"/>
+      <c r="J49" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="K49" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L49" t="n">
         <v>1</v>
       </c>
@@ -2156,8 +2140,14 @@
         <v>0</v>
       </c>
       <c r="I50" t="inlineStr"/>
-      <c r="J50" t="inlineStr"/>
-      <c r="K50" t="inlineStr"/>
+      <c r="J50" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="K50" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L50" t="n">
         <v>1</v>
       </c>
@@ -2189,8 +2179,14 @@
         <v>0</v>
       </c>
       <c r="I51" t="inlineStr"/>
-      <c r="J51" t="inlineStr"/>
-      <c r="K51" t="inlineStr"/>
+      <c r="J51" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="K51" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L51" t="n">
         <v>1</v>
       </c>
@@ -2222,8 +2218,14 @@
         <v>0</v>
       </c>
       <c r="I52" t="inlineStr"/>
-      <c r="J52" t="inlineStr"/>
-      <c r="K52" t="inlineStr"/>
+      <c r="J52" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="K52" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L52" t="n">
         <v>1</v>
       </c>
@@ -2255,8 +2257,14 @@
         <v>0</v>
       </c>
       <c r="I53" t="inlineStr"/>
-      <c r="J53" t="inlineStr"/>
-      <c r="K53" t="inlineStr"/>
+      <c r="J53" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="K53" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L53" t="n">
         <v>1</v>
       </c>
@@ -2287,9 +2295,17 @@
       <c r="H54" t="n">
         <v>1</v>
       </c>
-      <c r="I54" t="inlineStr"/>
-      <c r="J54" t="inlineStr"/>
-      <c r="K54" t="inlineStr"/>
+      <c r="I54" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="J54" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="K54" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L54" t="n">
         <v>1</v>
       </c>
@@ -2320,9 +2336,17 @@
       <c r="H55" t="n">
         <v>1</v>
       </c>
-      <c r="I55" t="inlineStr"/>
-      <c r="J55" t="inlineStr"/>
-      <c r="K55" t="inlineStr"/>
+      <c r="I55" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="J55" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="K55" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L55" t="n">
         <v>1</v>
       </c>
@@ -2353,9 +2377,17 @@
       <c r="H56" t="n">
         <v>1</v>
       </c>
-      <c r="I56" t="inlineStr"/>
-      <c r="J56" t="inlineStr"/>
-      <c r="K56" t="inlineStr"/>
+      <c r="I56" t="n">
+        <v>2.61</v>
+      </c>
+      <c r="J56" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="K56" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L56" t="n">
         <v>1</v>
       </c>
@@ -2387,8 +2419,14 @@
         <v>0</v>
       </c>
       <c r="I57" t="inlineStr"/>
-      <c r="J57" t="inlineStr"/>
-      <c r="K57" t="inlineStr"/>
+      <c r="J57" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="K57" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L57" t="n">
         <v>1</v>
       </c>
@@ -2420,8 +2458,14 @@
         <v>0</v>
       </c>
       <c r="I58" t="inlineStr"/>
-      <c r="J58" t="inlineStr"/>
-      <c r="K58" t="inlineStr"/>
+      <c r="J58" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="K58" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L58" t="n">
         <v>1</v>
       </c>
@@ -2453,8 +2497,14 @@
         <v>0</v>
       </c>
       <c r="I59" t="inlineStr"/>
-      <c r="J59" t="inlineStr"/>
-      <c r="K59" t="inlineStr"/>
+      <c r="J59" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="K59" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L59" t="n">
         <v>1</v>
       </c>
@@ -2483,13 +2533,19 @@
         <v>-1116570.5363</v>
       </c>
       <c r="H60" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I60" t="inlineStr"/>
-      <c r="J60" t="inlineStr"/>
-      <c r="K60" t="inlineStr"/>
+      <c r="J60" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="K60" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
       <c r="L60" t="n">
-        <v>1</v>
+        <v>1.006406844106464</v>
       </c>
       <c r="M60" t="inlineStr"/>
     </row>
@@ -2516,7 +2572,7 @@
         <v>-1119132.9891</v>
       </c>
       <c r="H61" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
@@ -2549,7 +2605,7 @@
         <v>-1121062.1557</v>
       </c>
       <c r="H62" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
@@ -2648,7 +2704,7 @@
         <v>-1082674.096</v>
       </c>
       <c r="H65" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
@@ -2681,7 +2737,7 @@
         <v>-1120316.7837</v>
       </c>
       <c r="H66" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
@@ -2747,7 +2803,7 @@
         <v>-1135654.6387</v>
       </c>
       <c r="H68" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
@@ -2780,7 +2836,7 @@
         <v>-1135654.6387</v>
       </c>
       <c r="H69" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
@@ -2813,7 +2869,7 @@
         <v>-1135654.6387</v>
       </c>
       <c r="H70" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
@@ -2846,7 +2902,7 @@
         <v>-1116881.4045</v>
       </c>
       <c r="H71" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
@@ -2879,7 +2935,7 @@
         <v>-1091881.4045</v>
       </c>
       <c r="H72" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
@@ -2912,7 +2968,7 @@
         <v>-1091891.4045</v>
       </c>
       <c r="H73" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
@@ -2978,7 +3034,7 @@
         <v>-1076966.0314</v>
       </c>
       <c r="H75" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
@@ -3011,7 +3067,7 @@
         <v>-1086626.2687</v>
       </c>
       <c r="H76" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
@@ -3044,7 +3100,7 @@
         <v>-1062626.2687</v>
       </c>
       <c r="H77" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
@@ -3077,7 +3133,7 @@
         <v>-1062626.2687</v>
       </c>
       <c r="H78" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
@@ -4430,7 +4486,7 @@
         <v>-2779350.3938</v>
       </c>
       <c r="H119" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr"/>
@@ -4958,11 +5014,17 @@
         <v>-2007804.8086</v>
       </c>
       <c r="H135" t="n">
-        <v>0</v>
-      </c>
-      <c r="I135" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I135" t="n">
+        <v>2.67</v>
+      </c>
       <c r="J135" t="inlineStr"/>
-      <c r="K135" t="inlineStr"/>
+      <c r="K135" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L135" t="n">
         <v>1</v>
       </c>
@@ -4995,7 +5057,11 @@
       </c>
       <c r="I136" t="inlineStr"/>
       <c r="J136" t="inlineStr"/>
-      <c r="K136" t="inlineStr"/>
+      <c r="K136" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L136" t="n">
         <v>1</v>
       </c>
@@ -5028,7 +5094,11 @@
       </c>
       <c r="I137" t="inlineStr"/>
       <c r="J137" t="inlineStr"/>
-      <c r="K137" t="inlineStr"/>
+      <c r="K137" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L137" t="n">
         <v>1</v>
       </c>
@@ -5061,7 +5131,11 @@
       </c>
       <c r="I138" t="inlineStr"/>
       <c r="J138" t="inlineStr"/>
-      <c r="K138" t="inlineStr"/>
+      <c r="K138" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L138" t="n">
         <v>1</v>
       </c>
@@ -5094,7 +5168,11 @@
       </c>
       <c r="I139" t="inlineStr"/>
       <c r="J139" t="inlineStr"/>
-      <c r="K139" t="inlineStr"/>
+      <c r="K139" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L139" t="n">
         <v>1</v>
       </c>
@@ -5127,7 +5205,11 @@
       </c>
       <c r="I140" t="inlineStr"/>
       <c r="J140" t="inlineStr"/>
-      <c r="K140" t="inlineStr"/>
+      <c r="K140" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L140" t="n">
         <v>1</v>
       </c>
@@ -5160,13 +5242,17 @@
       </c>
       <c r="I141" t="inlineStr"/>
       <c r="J141" t="inlineStr"/>
-      <c r="K141" t="inlineStr"/>
+      <c r="K141" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L141" t="n">
         <v>1</v>
       </c>
       <c r="M141" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/BackTest/2019-11-01 BackTest ANKR.xlsx
+++ b/BackTest/2019-11-01 BackTest ANKR.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>CMO</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -748,7 +748,7 @@
         <v>-2152104.7173</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
@@ -781,7 +781,7 @@
         <v>-2172104.7173</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
@@ -814,14 +814,10 @@
         <v>-2122924.7173</v>
       </c>
       <c r="H13" t="n">
-        <v>1</v>
-      </c>
-      <c r="I13" t="n">
-        <v>2.61</v>
-      </c>
-      <c r="J13" t="n">
-        <v>2.61</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I13" t="inlineStr"/>
+      <c r="J13" t="inlineStr"/>
       <c r="K13" t="inlineStr"/>
       <c r="L13" t="n">
         <v>1</v>
@@ -854,14 +850,8 @@
         <v>0</v>
       </c>
       <c r="I14" t="inlineStr"/>
-      <c r="J14" t="n">
-        <v>2.61</v>
-      </c>
-      <c r="K14" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J14" t="inlineStr"/>
+      <c r="K14" t="inlineStr"/>
       <c r="L14" t="n">
         <v>1</v>
       </c>
@@ -893,14 +883,8 @@
         <v>0</v>
       </c>
       <c r="I15" t="inlineStr"/>
-      <c r="J15" t="n">
-        <v>2.61</v>
-      </c>
-      <c r="K15" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J15" t="inlineStr"/>
+      <c r="K15" t="inlineStr"/>
       <c r="L15" t="n">
         <v>1</v>
       </c>
@@ -1589,14 +1573,10 @@
         <v>-1493795.7786</v>
       </c>
       <c r="H36" t="n">
-        <v>1</v>
-      </c>
-      <c r="I36" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="J36" t="n">
-        <v>2.63</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I36" t="inlineStr"/>
+      <c r="J36" t="inlineStr"/>
       <c r="K36" t="inlineStr"/>
       <c r="L36" t="n">
         <v>1</v>
@@ -1626,19 +1606,11 @@
         <v>-1493785.7786</v>
       </c>
       <c r="H37" t="n">
-        <v>1</v>
-      </c>
-      <c r="I37" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="J37" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="K37" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I37" t="inlineStr"/>
+      <c r="J37" t="inlineStr"/>
+      <c r="K37" t="inlineStr"/>
       <c r="L37" t="n">
         <v>1</v>
       </c>
@@ -1670,14 +1642,8 @@
         <v>0</v>
       </c>
       <c r="I38" t="inlineStr"/>
-      <c r="J38" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="K38" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J38" t="inlineStr"/>
+      <c r="K38" t="inlineStr"/>
       <c r="L38" t="n">
         <v>1</v>
       </c>
@@ -1706,19 +1672,11 @@
         <v>-860055.3538000003</v>
       </c>
       <c r="H39" t="n">
-        <v>1</v>
-      </c>
-      <c r="I39" t="n">
-        <v>2.65</v>
-      </c>
-      <c r="J39" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="K39" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I39" t="inlineStr"/>
+      <c r="J39" t="inlineStr"/>
+      <c r="K39" t="inlineStr"/>
       <c r="L39" t="n">
         <v>1</v>
       </c>
@@ -1750,14 +1708,8 @@
         <v>0</v>
       </c>
       <c r="I40" t="inlineStr"/>
-      <c r="J40" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="K40" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J40" t="inlineStr"/>
+      <c r="K40" t="inlineStr"/>
       <c r="L40" t="n">
         <v>1</v>
       </c>
@@ -1789,14 +1741,8 @@
         <v>0</v>
       </c>
       <c r="I41" t="inlineStr"/>
-      <c r="J41" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="K41" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J41" t="inlineStr"/>
+      <c r="K41" t="inlineStr"/>
       <c r="L41" t="n">
         <v>1</v>
       </c>
@@ -1828,14 +1774,8 @@
         <v>0</v>
       </c>
       <c r="I42" t="inlineStr"/>
-      <c r="J42" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="K42" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J42" t="inlineStr"/>
+      <c r="K42" t="inlineStr"/>
       <c r="L42" t="n">
         <v>1</v>
       </c>
@@ -1867,14 +1807,8 @@
         <v>0</v>
       </c>
       <c r="I43" t="inlineStr"/>
-      <c r="J43" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="K43" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J43" t="inlineStr"/>
+      <c r="K43" t="inlineStr"/>
       <c r="L43" t="n">
         <v>1</v>
       </c>
@@ -1906,14 +1840,8 @@
         <v>0</v>
       </c>
       <c r="I44" t="inlineStr"/>
-      <c r="J44" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="K44" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J44" t="inlineStr"/>
+      <c r="K44" t="inlineStr"/>
       <c r="L44" t="n">
         <v>1</v>
       </c>
@@ -1945,14 +1873,8 @@
         <v>0</v>
       </c>
       <c r="I45" t="inlineStr"/>
-      <c r="J45" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="K45" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J45" t="inlineStr"/>
+      <c r="K45" t="inlineStr"/>
       <c r="L45" t="n">
         <v>1</v>
       </c>
@@ -1984,14 +1906,8 @@
         <v>0</v>
       </c>
       <c r="I46" t="inlineStr"/>
-      <c r="J46" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="K46" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J46" t="inlineStr"/>
+      <c r="K46" t="inlineStr"/>
       <c r="L46" t="n">
         <v>1</v>
       </c>
@@ -2023,14 +1939,8 @@
         <v>0</v>
       </c>
       <c r="I47" t="inlineStr"/>
-      <c r="J47" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="K47" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J47" t="inlineStr"/>
+      <c r="K47" t="inlineStr"/>
       <c r="L47" t="n">
         <v>1</v>
       </c>
@@ -2062,14 +1972,8 @@
         <v>0</v>
       </c>
       <c r="I48" t="inlineStr"/>
-      <c r="J48" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="K48" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J48" t="inlineStr"/>
+      <c r="K48" t="inlineStr"/>
       <c r="L48" t="n">
         <v>1</v>
       </c>
@@ -2101,14 +2005,8 @@
         <v>0</v>
       </c>
       <c r="I49" t="inlineStr"/>
-      <c r="J49" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="K49" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J49" t="inlineStr"/>
+      <c r="K49" t="inlineStr"/>
       <c r="L49" t="n">
         <v>1</v>
       </c>
@@ -2140,14 +2038,8 @@
         <v>0</v>
       </c>
       <c r="I50" t="inlineStr"/>
-      <c r="J50" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="K50" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J50" t="inlineStr"/>
+      <c r="K50" t="inlineStr"/>
       <c r="L50" t="n">
         <v>1</v>
       </c>
@@ -2176,17 +2068,11 @@
         <v>-1655118.3839</v>
       </c>
       <c r="H51" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I51" t="inlineStr"/>
-      <c r="J51" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="K51" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J51" t="inlineStr"/>
+      <c r="K51" t="inlineStr"/>
       <c r="L51" t="n">
         <v>1</v>
       </c>
@@ -2215,17 +2101,11 @@
         <v>-2104621.3869</v>
       </c>
       <c r="H52" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I52" t="inlineStr"/>
-      <c r="J52" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="K52" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J52" t="inlineStr"/>
+      <c r="K52" t="inlineStr"/>
       <c r="L52" t="n">
         <v>1</v>
       </c>
@@ -2254,17 +2134,11 @@
         <v>-2104621.3869</v>
       </c>
       <c r="H53" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I53" t="inlineStr"/>
-      <c r="J53" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="K53" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J53" t="inlineStr"/>
+      <c r="K53" t="inlineStr"/>
       <c r="L53" t="n">
         <v>1</v>
       </c>
@@ -2293,19 +2167,11 @@
         <v>-2104621.3869</v>
       </c>
       <c r="H54" t="n">
-        <v>1</v>
-      </c>
-      <c r="I54" t="n">
-        <v>2.6</v>
-      </c>
-      <c r="J54" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="K54" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I54" t="inlineStr"/>
+      <c r="J54" t="inlineStr"/>
+      <c r="K54" t="inlineStr"/>
       <c r="L54" t="n">
         <v>1</v>
       </c>
@@ -2334,19 +2200,11 @@
         <v>-2004621.3869</v>
       </c>
       <c r="H55" t="n">
-        <v>1</v>
-      </c>
-      <c r="I55" t="n">
-        <v>2.6</v>
-      </c>
-      <c r="J55" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="K55" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I55" t="inlineStr"/>
+      <c r="J55" t="inlineStr"/>
+      <c r="K55" t="inlineStr"/>
       <c r="L55" t="n">
         <v>1</v>
       </c>
@@ -2375,19 +2233,11 @@
         <v>-1096580.5363</v>
       </c>
       <c r="H56" t="n">
-        <v>1</v>
-      </c>
-      <c r="I56" t="n">
-        <v>2.61</v>
-      </c>
-      <c r="J56" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="K56" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I56" t="inlineStr"/>
+      <c r="J56" t="inlineStr"/>
+      <c r="K56" t="inlineStr"/>
       <c r="L56" t="n">
         <v>1</v>
       </c>
@@ -2419,14 +2269,8 @@
         <v>0</v>
       </c>
       <c r="I57" t="inlineStr"/>
-      <c r="J57" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="K57" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J57" t="inlineStr"/>
+      <c r="K57" t="inlineStr"/>
       <c r="L57" t="n">
         <v>1</v>
       </c>
@@ -2458,14 +2302,8 @@
         <v>0</v>
       </c>
       <c r="I58" t="inlineStr"/>
-      <c r="J58" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="K58" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J58" t="inlineStr"/>
+      <c r="K58" t="inlineStr"/>
       <c r="L58" t="n">
         <v>1</v>
       </c>
@@ -2497,14 +2335,8 @@
         <v>0</v>
       </c>
       <c r="I59" t="inlineStr"/>
-      <c r="J59" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="K59" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J59" t="inlineStr"/>
+      <c r="K59" t="inlineStr"/>
       <c r="L59" t="n">
         <v>1</v>
       </c>
@@ -2533,19 +2365,13 @@
         <v>-1116570.5363</v>
       </c>
       <c r="H60" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I60" t="inlineStr"/>
-      <c r="J60" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="K60" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
+      <c r="J60" t="inlineStr"/>
+      <c r="K60" t="inlineStr"/>
       <c r="L60" t="n">
-        <v>1.006406844106464</v>
+        <v>1</v>
       </c>
       <c r="M60" t="inlineStr"/>
     </row>
@@ -2572,7 +2398,7 @@
         <v>-1119132.9891</v>
       </c>
       <c r="H61" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
@@ -2605,7 +2431,7 @@
         <v>-1121062.1557</v>
       </c>
       <c r="H62" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
@@ -2704,7 +2530,7 @@
         <v>-1082674.096</v>
       </c>
       <c r="H65" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
@@ -2737,7 +2563,7 @@
         <v>-1120316.7837</v>
       </c>
       <c r="H66" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
@@ -2803,7 +2629,7 @@
         <v>-1135654.6387</v>
       </c>
       <c r="H68" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
@@ -2836,7 +2662,7 @@
         <v>-1135654.6387</v>
       </c>
       <c r="H69" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
@@ -2869,7 +2695,7 @@
         <v>-1135654.6387</v>
       </c>
       <c r="H70" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
@@ -2902,7 +2728,7 @@
         <v>-1116881.4045</v>
       </c>
       <c r="H71" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
@@ -2935,7 +2761,7 @@
         <v>-1091881.4045</v>
       </c>
       <c r="H72" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
@@ -2968,7 +2794,7 @@
         <v>-1091891.4045</v>
       </c>
       <c r="H73" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
@@ -3034,7 +2860,7 @@
         <v>-1076966.0314</v>
       </c>
       <c r="H75" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
@@ -3067,7 +2893,7 @@
         <v>-1086626.2687</v>
       </c>
       <c r="H76" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
@@ -3100,7 +2926,7 @@
         <v>-1062626.2687</v>
       </c>
       <c r="H77" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
@@ -3133,7 +2959,7 @@
         <v>-1062626.2687</v>
       </c>
       <c r="H78" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
@@ -3463,7 +3289,7 @@
         <v>-1841527.8291</v>
       </c>
       <c r="H88" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
@@ -3628,7 +3454,7 @@
         <v>-1840697.8667</v>
       </c>
       <c r="H93" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
@@ -3892,7 +3718,7 @@
         <v>-3052803.5295</v>
       </c>
       <c r="H101" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
@@ -3958,7 +3784,7 @@
         <v>-3072803.5295</v>
       </c>
       <c r="H103" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
@@ -4486,7 +4312,7 @@
         <v>-2779350.3938</v>
       </c>
       <c r="H119" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr"/>
@@ -4585,10 +4411,14 @@
         <v>-2829175.3071</v>
       </c>
       <c r="H122" t="n">
-        <v>0</v>
-      </c>
-      <c r="I122" t="inlineStr"/>
-      <c r="J122" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I122" t="n">
+        <v>2.69</v>
+      </c>
+      <c r="J122" t="n">
+        <v>2.69</v>
+      </c>
       <c r="K122" t="inlineStr"/>
       <c r="L122" t="n">
         <v>1</v>
@@ -4621,8 +4451,14 @@
         <v>0</v>
       </c>
       <c r="I123" t="inlineStr"/>
-      <c r="J123" t="inlineStr"/>
-      <c r="K123" t="inlineStr"/>
+      <c r="J123" t="n">
+        <v>2.69</v>
+      </c>
+      <c r="K123" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L123" t="n">
         <v>1</v>
       </c>
@@ -4654,8 +4490,14 @@
         <v>0</v>
       </c>
       <c r="I124" t="inlineStr"/>
-      <c r="J124" t="inlineStr"/>
-      <c r="K124" t="inlineStr"/>
+      <c r="J124" t="n">
+        <v>2.69</v>
+      </c>
+      <c r="K124" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L124" t="n">
         <v>1</v>
       </c>
@@ -5014,165 +4856,159 @@
         <v>-2007804.8086</v>
       </c>
       <c r="H135" t="n">
-        <v>1</v>
-      </c>
-      <c r="I135" t="n">
-        <v>2.67</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I135" t="inlineStr"/>
       <c r="J135" t="inlineStr"/>
-      <c r="K135" t="inlineStr">
+      <c r="K135" t="inlineStr"/>
+      <c r="L135" t="n">
+        <v>1</v>
+      </c>
+      <c r="M135" t="inlineStr"/>
+    </row>
+    <row r="136">
+      <c r="A136" s="1" t="n">
+        <v>134</v>
+      </c>
+      <c r="B136" t="n">
+        <v>2.67</v>
+      </c>
+      <c r="C136" t="n">
+        <v>2.67</v>
+      </c>
+      <c r="D136" t="n">
+        <v>2.67</v>
+      </c>
+      <c r="E136" t="n">
+        <v>2.67</v>
+      </c>
+      <c r="F136" t="n">
+        <v>201676.6399</v>
+      </c>
+      <c r="G136" t="n">
+        <v>-2007804.8086</v>
+      </c>
+      <c r="H136" t="n">
+        <v>0</v>
+      </c>
+      <c r="I136" t="inlineStr"/>
+      <c r="J136" t="inlineStr"/>
+      <c r="K136" t="inlineStr"/>
+      <c r="L136" t="n">
+        <v>1</v>
+      </c>
+      <c r="M136" t="inlineStr"/>
+    </row>
+    <row r="137">
+      <c r="A137" s="1" t="n">
+        <v>135</v>
+      </c>
+      <c r="B137" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="C137" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="D137" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="E137" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="F137" t="n">
+        <v>992.5</v>
+      </c>
+      <c r="G137" t="n">
+        <v>-2006812.3086</v>
+      </c>
+      <c r="H137" t="n">
+        <v>1</v>
+      </c>
+      <c r="I137" t="n">
+        <v>2.67</v>
+      </c>
+      <c r="J137" t="n">
+        <v>2.67</v>
+      </c>
+      <c r="K137" t="inlineStr"/>
+      <c r="L137" t="n">
+        <v>1</v>
+      </c>
+      <c r="M137" t="inlineStr"/>
+    </row>
+    <row r="138">
+      <c r="A138" s="1" t="n">
+        <v>136</v>
+      </c>
+      <c r="B138" t="n">
+        <v>2.66</v>
+      </c>
+      <c r="C138" t="n">
+        <v>2.66</v>
+      </c>
+      <c r="D138" t="n">
+        <v>2.66</v>
+      </c>
+      <c r="E138" t="n">
+        <v>2.66</v>
+      </c>
+      <c r="F138" t="n">
+        <v>562692.3012</v>
+      </c>
+      <c r="G138" t="n">
+        <v>-2569504.6098</v>
+      </c>
+      <c r="H138" t="n">
+        <v>0</v>
+      </c>
+      <c r="I138" t="inlineStr"/>
+      <c r="J138" t="n">
+        <v>2.67</v>
+      </c>
+      <c r="K138" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="L138" t="n">
+        <v>1</v>
+      </c>
+      <c r="M138" t="inlineStr"/>
+    </row>
+    <row r="139">
+      <c r="A139" s="1" t="n">
+        <v>137</v>
+      </c>
+      <c r="B139" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="C139" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="D139" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="E139" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="F139" t="n">
+        <v>549319</v>
+      </c>
+      <c r="G139" t="n">
+        <v>-3118823.6098</v>
+      </c>
+      <c r="H139" t="n">
+        <v>0</v>
+      </c>
+      <c r="I139" t="inlineStr"/>
+      <c r="J139" t="n">
+        <v>2.67</v>
+      </c>
+      <c r="K139" t="inlineStr">
         <is>
           <t>매수 체결</t>
         </is>
       </c>
-      <c r="L135" t="n">
-        <v>1</v>
-      </c>
-      <c r="M135" t="inlineStr"/>
-    </row>
-    <row r="136">
-      <c r="A136" s="1" t="n">
-        <v>134</v>
-      </c>
-      <c r="B136" t="n">
-        <v>2.67</v>
-      </c>
-      <c r="C136" t="n">
-        <v>2.67</v>
-      </c>
-      <c r="D136" t="n">
-        <v>2.67</v>
-      </c>
-      <c r="E136" t="n">
-        <v>2.67</v>
-      </c>
-      <c r="F136" t="n">
-        <v>201676.6399</v>
-      </c>
-      <c r="G136" t="n">
-        <v>-2007804.8086</v>
-      </c>
-      <c r="H136" t="n">
-        <v>0</v>
-      </c>
-      <c r="I136" t="inlineStr"/>
-      <c r="J136" t="inlineStr"/>
-      <c r="K136" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L136" t="n">
-        <v>1</v>
-      </c>
-      <c r="M136" t="inlineStr"/>
-    </row>
-    <row r="137">
-      <c r="A137" s="1" t="n">
-        <v>135</v>
-      </c>
-      <c r="B137" t="n">
-        <v>2.7</v>
-      </c>
-      <c r="C137" t="n">
-        <v>2.7</v>
-      </c>
-      <c r="D137" t="n">
-        <v>2.7</v>
-      </c>
-      <c r="E137" t="n">
-        <v>2.7</v>
-      </c>
-      <c r="F137" t="n">
-        <v>992.5</v>
-      </c>
-      <c r="G137" t="n">
-        <v>-2006812.3086</v>
-      </c>
-      <c r="H137" t="n">
-        <v>0</v>
-      </c>
-      <c r="I137" t="inlineStr"/>
-      <c r="J137" t="inlineStr"/>
-      <c r="K137" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L137" t="n">
-        <v>1</v>
-      </c>
-      <c r="M137" t="inlineStr"/>
-    </row>
-    <row r="138">
-      <c r="A138" s="1" t="n">
-        <v>136</v>
-      </c>
-      <c r="B138" t="n">
-        <v>2.66</v>
-      </c>
-      <c r="C138" t="n">
-        <v>2.66</v>
-      </c>
-      <c r="D138" t="n">
-        <v>2.66</v>
-      </c>
-      <c r="E138" t="n">
-        <v>2.66</v>
-      </c>
-      <c r="F138" t="n">
-        <v>562692.3012</v>
-      </c>
-      <c r="G138" t="n">
-        <v>-2569504.6098</v>
-      </c>
-      <c r="H138" t="n">
-        <v>0</v>
-      </c>
-      <c r="I138" t="inlineStr"/>
-      <c r="J138" t="inlineStr"/>
-      <c r="K138" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L138" t="n">
-        <v>1</v>
-      </c>
-      <c r="M138" t="inlineStr"/>
-    </row>
-    <row r="139">
-      <c r="A139" s="1" t="n">
-        <v>137</v>
-      </c>
-      <c r="B139" t="n">
-        <v>2.65</v>
-      </c>
-      <c r="C139" t="n">
-        <v>2.65</v>
-      </c>
-      <c r="D139" t="n">
-        <v>2.7</v>
-      </c>
-      <c r="E139" t="n">
-        <v>2.65</v>
-      </c>
-      <c r="F139" t="n">
-        <v>549319</v>
-      </c>
-      <c r="G139" t="n">
-        <v>-3118823.6098</v>
-      </c>
-      <c r="H139" t="n">
-        <v>0</v>
-      </c>
-      <c r="I139" t="inlineStr"/>
-      <c r="J139" t="inlineStr"/>
-      <c r="K139" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
       <c r="L139" t="n">
         <v>1</v>
       </c>
@@ -5204,7 +5040,9 @@
         <v>0</v>
       </c>
       <c r="I140" t="inlineStr"/>
-      <c r="J140" t="inlineStr"/>
+      <c r="J140" t="n">
+        <v>2.67</v>
+      </c>
       <c r="K140" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5241,7 +5079,9 @@
         <v>0</v>
       </c>
       <c r="I141" t="inlineStr"/>
-      <c r="J141" t="inlineStr"/>
+      <c r="J141" t="n">
+        <v>2.67</v>
+      </c>
       <c r="K141" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5253,6 +5093,6 @@
       <c r="M141" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2019-11-01 BackTest ANKR.xlsx
+++ b/BackTest/2019-11-01 BackTest ANKR.xlsx
@@ -748,7 +748,7 @@
         <v>-2152104.7173</v>
       </c>
       <c r="H11" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
@@ -781,7 +781,7 @@
         <v>-2172104.7173</v>
       </c>
       <c r="H12" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
@@ -814,7 +814,7 @@
         <v>-2122924.7173</v>
       </c>
       <c r="H13" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
@@ -1111,7 +1111,7 @@
         <v>-907047.2644000002</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
@@ -1177,7 +1177,7 @@
         <v>-981040.8000000003</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
@@ -1507,10 +1507,14 @@
         <v>-1481666.7786</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
-      </c>
-      <c r="I34" t="inlineStr"/>
-      <c r="J34" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I34" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="J34" t="n">
+        <v>2.65</v>
+      </c>
       <c r="K34" t="inlineStr"/>
       <c r="L34" t="n">
         <v>1</v>
@@ -1540,11 +1544,19 @@
         <v>-1493795.7786</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
-      </c>
-      <c r="I35" t="inlineStr"/>
-      <c r="J35" t="inlineStr"/>
-      <c r="K35" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I35" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="J35" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="K35" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L35" t="n">
         <v>1</v>
       </c>
@@ -1576,8 +1588,14 @@
         <v>0</v>
       </c>
       <c r="I36" t="inlineStr"/>
-      <c r="J36" t="inlineStr"/>
-      <c r="K36" t="inlineStr"/>
+      <c r="J36" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="K36" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L36" t="n">
         <v>1</v>
       </c>
@@ -1609,8 +1627,14 @@
         <v>0</v>
       </c>
       <c r="I37" t="inlineStr"/>
-      <c r="J37" t="inlineStr"/>
-      <c r="K37" t="inlineStr"/>
+      <c r="J37" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="K37" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L37" t="n">
         <v>1</v>
       </c>
@@ -1642,8 +1666,14 @@
         <v>0</v>
       </c>
       <c r="I38" t="inlineStr"/>
-      <c r="J38" t="inlineStr"/>
-      <c r="K38" t="inlineStr"/>
+      <c r="J38" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="K38" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L38" t="n">
         <v>1</v>
       </c>
@@ -1675,8 +1705,14 @@
         <v>0</v>
       </c>
       <c r="I39" t="inlineStr"/>
-      <c r="J39" t="inlineStr"/>
-      <c r="K39" t="inlineStr"/>
+      <c r="J39" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="K39" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L39" t="n">
         <v>1</v>
       </c>
@@ -1708,8 +1744,14 @@
         <v>0</v>
       </c>
       <c r="I40" t="inlineStr"/>
-      <c r="J40" t="inlineStr"/>
-      <c r="K40" t="inlineStr"/>
+      <c r="J40" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="K40" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L40" t="n">
         <v>1</v>
       </c>
@@ -1741,8 +1783,14 @@
         <v>0</v>
       </c>
       <c r="I41" t="inlineStr"/>
-      <c r="J41" t="inlineStr"/>
-      <c r="K41" t="inlineStr"/>
+      <c r="J41" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="K41" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L41" t="n">
         <v>1</v>
       </c>
@@ -1771,11 +1819,17 @@
         <v>-867997.3238000002</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I42" t="inlineStr"/>
-      <c r="J42" t="inlineStr"/>
-      <c r="K42" t="inlineStr"/>
+      <c r="J42" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="K42" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L42" t="n">
         <v>1</v>
       </c>
@@ -1804,11 +1858,17 @@
         <v>-867997.3238000002</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I43" t="inlineStr"/>
-      <c r="J43" t="inlineStr"/>
-      <c r="K43" t="inlineStr"/>
+      <c r="J43" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="K43" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L43" t="n">
         <v>1</v>
       </c>
@@ -1840,8 +1900,14 @@
         <v>0</v>
       </c>
       <c r="I44" t="inlineStr"/>
-      <c r="J44" t="inlineStr"/>
-      <c r="K44" t="inlineStr"/>
+      <c r="J44" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="K44" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L44" t="n">
         <v>1</v>
       </c>
@@ -1873,8 +1939,14 @@
         <v>0</v>
       </c>
       <c r="I45" t="inlineStr"/>
-      <c r="J45" t="inlineStr"/>
-      <c r="K45" t="inlineStr"/>
+      <c r="J45" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="K45" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L45" t="n">
         <v>1</v>
       </c>
@@ -1903,13 +1975,19 @@
         <v>-914440.9843000002</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I46" t="inlineStr"/>
-      <c r="J46" t="inlineStr"/>
-      <c r="K46" t="inlineStr"/>
+      <c r="J46" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="K46" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
       <c r="L46" t="n">
-        <v>1</v>
+        <v>0.9987735849056604</v>
       </c>
       <c r="M46" t="inlineStr"/>
     </row>
@@ -1936,7 +2014,7 @@
         <v>-1013637.3802</v>
       </c>
       <c r="H47" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
@@ -1969,7 +2047,7 @@
         <v>-1290379.7203</v>
       </c>
       <c r="H48" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
@@ -2068,7 +2146,7 @@
         <v>-1655118.3839</v>
       </c>
       <c r="H51" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
@@ -2101,7 +2179,7 @@
         <v>-2104621.3869</v>
       </c>
       <c r="H52" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
@@ -2134,7 +2212,7 @@
         <v>-2104621.3869</v>
       </c>
       <c r="H53" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
@@ -2167,10 +2245,14 @@
         <v>-2104621.3869</v>
       </c>
       <c r="H54" t="n">
-        <v>0</v>
-      </c>
-      <c r="I54" t="inlineStr"/>
-      <c r="J54" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I54" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="J54" t="n">
+        <v>2.6</v>
+      </c>
       <c r="K54" t="inlineStr"/>
       <c r="L54" t="n">
         <v>1</v>
@@ -2200,11 +2282,19 @@
         <v>-2004621.3869</v>
       </c>
       <c r="H55" t="n">
-        <v>0</v>
-      </c>
-      <c r="I55" t="inlineStr"/>
-      <c r="J55" t="inlineStr"/>
-      <c r="K55" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I55" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="J55" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="K55" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L55" t="n">
         <v>1</v>
       </c>
@@ -2233,11 +2323,19 @@
         <v>-1096580.5363</v>
       </c>
       <c r="H56" t="n">
-        <v>0</v>
-      </c>
-      <c r="I56" t="inlineStr"/>
-      <c r="J56" t="inlineStr"/>
-      <c r="K56" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I56" t="n">
+        <v>2.61</v>
+      </c>
+      <c r="J56" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="K56" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L56" t="n">
         <v>1</v>
       </c>
@@ -2269,8 +2367,14 @@
         <v>0</v>
       </c>
       <c r="I57" t="inlineStr"/>
-      <c r="J57" t="inlineStr"/>
-      <c r="K57" t="inlineStr"/>
+      <c r="J57" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="K57" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L57" t="n">
         <v>1</v>
       </c>
@@ -2302,8 +2406,14 @@
         <v>0</v>
       </c>
       <c r="I58" t="inlineStr"/>
-      <c r="J58" t="inlineStr"/>
-      <c r="K58" t="inlineStr"/>
+      <c r="J58" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="K58" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L58" t="n">
         <v>1</v>
       </c>
@@ -2335,8 +2445,14 @@
         <v>0</v>
       </c>
       <c r="I59" t="inlineStr"/>
-      <c r="J59" t="inlineStr"/>
-      <c r="K59" t="inlineStr"/>
+      <c r="J59" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="K59" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L59" t="n">
         <v>1</v>
       </c>
@@ -2368,8 +2484,14 @@
         <v>0</v>
       </c>
       <c r="I60" t="inlineStr"/>
-      <c r="J60" t="inlineStr"/>
-      <c r="K60" t="inlineStr"/>
+      <c r="J60" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="K60" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L60" t="n">
         <v>1</v>
       </c>
@@ -2401,8 +2523,14 @@
         <v>0</v>
       </c>
       <c r="I61" t="inlineStr"/>
-      <c r="J61" t="inlineStr"/>
-      <c r="K61" t="inlineStr"/>
+      <c r="J61" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="K61" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L61" t="n">
         <v>1</v>
       </c>
@@ -2434,8 +2562,14 @@
         <v>0</v>
       </c>
       <c r="I62" t="inlineStr"/>
-      <c r="J62" t="inlineStr"/>
-      <c r="K62" t="inlineStr"/>
+      <c r="J62" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="K62" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L62" t="n">
         <v>1</v>
       </c>
@@ -2467,8 +2601,14 @@
         <v>0</v>
       </c>
       <c r="I63" t="inlineStr"/>
-      <c r="J63" t="inlineStr"/>
-      <c r="K63" t="inlineStr"/>
+      <c r="J63" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="K63" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L63" t="n">
         <v>1</v>
       </c>
@@ -2500,8 +2640,14 @@
         <v>0</v>
       </c>
       <c r="I64" t="inlineStr"/>
-      <c r="J64" t="inlineStr"/>
-      <c r="K64" t="inlineStr"/>
+      <c r="J64" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="K64" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L64" t="n">
         <v>1</v>
       </c>
@@ -2533,8 +2679,14 @@
         <v>0</v>
       </c>
       <c r="I65" t="inlineStr"/>
-      <c r="J65" t="inlineStr"/>
-      <c r="K65" t="inlineStr"/>
+      <c r="J65" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="K65" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L65" t="n">
         <v>1</v>
       </c>
@@ -2566,8 +2718,14 @@
         <v>0</v>
       </c>
       <c r="I66" t="inlineStr"/>
-      <c r="J66" t="inlineStr"/>
-      <c r="K66" t="inlineStr"/>
+      <c r="J66" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="K66" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L66" t="n">
         <v>1</v>
       </c>
@@ -2599,8 +2757,14 @@
         <v>0</v>
       </c>
       <c r="I67" t="inlineStr"/>
-      <c r="J67" t="inlineStr"/>
-      <c r="K67" t="inlineStr"/>
+      <c r="J67" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="K67" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L67" t="n">
         <v>1</v>
       </c>
@@ -2632,8 +2796,14 @@
         <v>0</v>
       </c>
       <c r="I68" t="inlineStr"/>
-      <c r="J68" t="inlineStr"/>
-      <c r="K68" t="inlineStr"/>
+      <c r="J68" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="K68" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L68" t="n">
         <v>1</v>
       </c>
@@ -2665,8 +2835,14 @@
         <v>0</v>
       </c>
       <c r="I69" t="inlineStr"/>
-      <c r="J69" t="inlineStr"/>
-      <c r="K69" t="inlineStr"/>
+      <c r="J69" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="K69" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L69" t="n">
         <v>1</v>
       </c>
@@ -2698,8 +2874,14 @@
         <v>0</v>
       </c>
       <c r="I70" t="inlineStr"/>
-      <c r="J70" t="inlineStr"/>
-      <c r="K70" t="inlineStr"/>
+      <c r="J70" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="K70" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L70" t="n">
         <v>1</v>
       </c>
@@ -2731,8 +2913,14 @@
         <v>0</v>
       </c>
       <c r="I71" t="inlineStr"/>
-      <c r="J71" t="inlineStr"/>
-      <c r="K71" t="inlineStr"/>
+      <c r="J71" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="K71" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L71" t="n">
         <v>1</v>
       </c>
@@ -2764,8 +2952,14 @@
         <v>0</v>
       </c>
       <c r="I72" t="inlineStr"/>
-      <c r="J72" t="inlineStr"/>
-      <c r="K72" t="inlineStr"/>
+      <c r="J72" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="K72" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L72" t="n">
         <v>1</v>
       </c>
@@ -2797,8 +2991,14 @@
         <v>0</v>
       </c>
       <c r="I73" t="inlineStr"/>
-      <c r="J73" t="inlineStr"/>
-      <c r="K73" t="inlineStr"/>
+      <c r="J73" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="K73" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L73" t="n">
         <v>1</v>
       </c>
@@ -2830,8 +3030,14 @@
         <v>0</v>
       </c>
       <c r="I74" t="inlineStr"/>
-      <c r="J74" t="inlineStr"/>
-      <c r="K74" t="inlineStr"/>
+      <c r="J74" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="K74" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L74" t="n">
         <v>1</v>
       </c>
@@ -2863,8 +3069,14 @@
         <v>0</v>
       </c>
       <c r="I75" t="inlineStr"/>
-      <c r="J75" t="inlineStr"/>
-      <c r="K75" t="inlineStr"/>
+      <c r="J75" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="K75" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L75" t="n">
         <v>1</v>
       </c>
@@ -2896,8 +3108,14 @@
         <v>0</v>
       </c>
       <c r="I76" t="inlineStr"/>
-      <c r="J76" t="inlineStr"/>
-      <c r="K76" t="inlineStr"/>
+      <c r="J76" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="K76" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L76" t="n">
         <v>1</v>
       </c>
@@ -2929,8 +3147,14 @@
         <v>0</v>
       </c>
       <c r="I77" t="inlineStr"/>
-      <c r="J77" t="inlineStr"/>
-      <c r="K77" t="inlineStr"/>
+      <c r="J77" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="K77" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L77" t="n">
         <v>1</v>
       </c>
@@ -2962,8 +3186,14 @@
         <v>0</v>
       </c>
       <c r="I78" t="inlineStr"/>
-      <c r="J78" t="inlineStr"/>
-      <c r="K78" t="inlineStr"/>
+      <c r="J78" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="K78" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L78" t="n">
         <v>1</v>
       </c>
@@ -2995,8 +3225,14 @@
         <v>0</v>
       </c>
       <c r="I79" t="inlineStr"/>
-      <c r="J79" t="inlineStr"/>
-      <c r="K79" t="inlineStr"/>
+      <c r="J79" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="K79" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L79" t="n">
         <v>1</v>
       </c>
@@ -3028,8 +3264,14 @@
         <v>0</v>
       </c>
       <c r="I80" t="inlineStr"/>
-      <c r="J80" t="inlineStr"/>
-      <c r="K80" t="inlineStr"/>
+      <c r="J80" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="K80" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L80" t="n">
         <v>1</v>
       </c>
@@ -3061,8 +3303,14 @@
         <v>0</v>
       </c>
       <c r="I81" t="inlineStr"/>
-      <c r="J81" t="inlineStr"/>
-      <c r="K81" t="inlineStr"/>
+      <c r="J81" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="K81" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L81" t="n">
         <v>1</v>
       </c>
@@ -3094,8 +3342,14 @@
         <v>0</v>
       </c>
       <c r="I82" t="inlineStr"/>
-      <c r="J82" t="inlineStr"/>
-      <c r="K82" t="inlineStr"/>
+      <c r="J82" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="K82" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L82" t="n">
         <v>1</v>
       </c>
@@ -3127,8 +3381,14 @@
         <v>0</v>
       </c>
       <c r="I83" t="inlineStr"/>
-      <c r="J83" t="inlineStr"/>
-      <c r="K83" t="inlineStr"/>
+      <c r="J83" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="K83" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L83" t="n">
         <v>1</v>
       </c>
@@ -3160,8 +3420,14 @@
         <v>0</v>
       </c>
       <c r="I84" t="inlineStr"/>
-      <c r="J84" t="inlineStr"/>
-      <c r="K84" t="inlineStr"/>
+      <c r="J84" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="K84" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L84" t="n">
         <v>1</v>
       </c>
@@ -3193,8 +3459,14 @@
         <v>0</v>
       </c>
       <c r="I85" t="inlineStr"/>
-      <c r="J85" t="inlineStr"/>
-      <c r="K85" t="inlineStr"/>
+      <c r="J85" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="K85" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L85" t="n">
         <v>1</v>
       </c>
@@ -3226,8 +3498,14 @@
         <v>0</v>
       </c>
       <c r="I86" t="inlineStr"/>
-      <c r="J86" t="inlineStr"/>
-      <c r="K86" t="inlineStr"/>
+      <c r="J86" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="K86" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L86" t="n">
         <v>1</v>
       </c>
@@ -3259,8 +3537,14 @@
         <v>0</v>
       </c>
       <c r="I87" t="inlineStr"/>
-      <c r="J87" t="inlineStr"/>
-      <c r="K87" t="inlineStr"/>
+      <c r="J87" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="K87" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L87" t="n">
         <v>1</v>
       </c>
@@ -3289,11 +3573,17 @@
         <v>-1841527.8291</v>
       </c>
       <c r="H88" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I88" t="inlineStr"/>
-      <c r="J88" t="inlineStr"/>
-      <c r="K88" t="inlineStr"/>
+      <c r="J88" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="K88" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L88" t="n">
         <v>1</v>
       </c>
@@ -3325,8 +3615,14 @@
         <v>0</v>
       </c>
       <c r="I89" t="inlineStr"/>
-      <c r="J89" t="inlineStr"/>
-      <c r="K89" t="inlineStr"/>
+      <c r="J89" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="K89" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L89" t="n">
         <v>1</v>
       </c>
@@ -3358,8 +3654,14 @@
         <v>0</v>
       </c>
       <c r="I90" t="inlineStr"/>
-      <c r="J90" t="inlineStr"/>
-      <c r="K90" t="inlineStr"/>
+      <c r="J90" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="K90" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L90" t="n">
         <v>1</v>
       </c>
@@ -3391,8 +3693,14 @@
         <v>0</v>
       </c>
       <c r="I91" t="inlineStr"/>
-      <c r="J91" t="inlineStr"/>
-      <c r="K91" t="inlineStr"/>
+      <c r="J91" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="K91" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L91" t="n">
         <v>1</v>
       </c>
@@ -3424,8 +3732,14 @@
         <v>0</v>
       </c>
       <c r="I92" t="inlineStr"/>
-      <c r="J92" t="inlineStr"/>
-      <c r="K92" t="inlineStr"/>
+      <c r="J92" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="K92" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L92" t="n">
         <v>1</v>
       </c>
@@ -3454,11 +3768,17 @@
         <v>-1840697.8667</v>
       </c>
       <c r="H93" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I93" t="inlineStr"/>
-      <c r="J93" t="inlineStr"/>
-      <c r="K93" t="inlineStr"/>
+      <c r="J93" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="K93" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L93" t="n">
         <v>1</v>
       </c>
@@ -3490,8 +3810,14 @@
         <v>0</v>
       </c>
       <c r="I94" t="inlineStr"/>
-      <c r="J94" t="inlineStr"/>
-      <c r="K94" t="inlineStr"/>
+      <c r="J94" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="K94" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L94" t="n">
         <v>1</v>
       </c>
@@ -3523,8 +3849,14 @@
         <v>0</v>
       </c>
       <c r="I95" t="inlineStr"/>
-      <c r="J95" t="inlineStr"/>
-      <c r="K95" t="inlineStr"/>
+      <c r="J95" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="K95" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L95" t="n">
         <v>1</v>
       </c>
@@ -3556,8 +3888,14 @@
         <v>0</v>
       </c>
       <c r="I96" t="inlineStr"/>
-      <c r="J96" t="inlineStr"/>
-      <c r="K96" t="inlineStr"/>
+      <c r="J96" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="K96" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L96" t="n">
         <v>1</v>
       </c>
@@ -3589,8 +3927,14 @@
         <v>0</v>
       </c>
       <c r="I97" t="inlineStr"/>
-      <c r="J97" t="inlineStr"/>
-      <c r="K97" t="inlineStr"/>
+      <c r="J97" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="K97" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L97" t="n">
         <v>1</v>
       </c>
@@ -3622,8 +3966,14 @@
         <v>0</v>
       </c>
       <c r="I98" t="inlineStr"/>
-      <c r="J98" t="inlineStr"/>
-      <c r="K98" t="inlineStr"/>
+      <c r="J98" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="K98" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L98" t="n">
         <v>1</v>
       </c>
@@ -3655,8 +4005,14 @@
         <v>0</v>
       </c>
       <c r="I99" t="inlineStr"/>
-      <c r="J99" t="inlineStr"/>
-      <c r="K99" t="inlineStr"/>
+      <c r="J99" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="K99" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L99" t="n">
         <v>1</v>
       </c>
@@ -3688,8 +4044,14 @@
         <v>0</v>
       </c>
       <c r="I100" t="inlineStr"/>
-      <c r="J100" t="inlineStr"/>
-      <c r="K100" t="inlineStr"/>
+      <c r="J100" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="K100" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L100" t="n">
         <v>1</v>
       </c>
@@ -3718,11 +4080,17 @@
         <v>-3052803.5295</v>
       </c>
       <c r="H101" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I101" t="inlineStr"/>
-      <c r="J101" t="inlineStr"/>
-      <c r="K101" t="inlineStr"/>
+      <c r="J101" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="K101" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L101" t="n">
         <v>1</v>
       </c>
@@ -3754,8 +4122,14 @@
         <v>0</v>
       </c>
       <c r="I102" t="inlineStr"/>
-      <c r="J102" t="inlineStr"/>
-      <c r="K102" t="inlineStr"/>
+      <c r="J102" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="K102" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L102" t="n">
         <v>1</v>
       </c>
@@ -3784,11 +4158,17 @@
         <v>-3072803.5295</v>
       </c>
       <c r="H103" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I103" t="inlineStr"/>
-      <c r="J103" t="inlineStr"/>
-      <c r="K103" t="inlineStr"/>
+      <c r="J103" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="K103" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L103" t="n">
         <v>1</v>
       </c>
@@ -3817,11 +4197,19 @@
         <v>-3072793.5295</v>
       </c>
       <c r="H104" t="n">
-        <v>0</v>
-      </c>
-      <c r="I104" t="inlineStr"/>
-      <c r="J104" t="inlineStr"/>
-      <c r="K104" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I104" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="J104" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="K104" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L104" t="n">
         <v>1</v>
       </c>
@@ -3853,8 +4241,14 @@
         <v>0</v>
       </c>
       <c r="I105" t="inlineStr"/>
-      <c r="J105" t="inlineStr"/>
-      <c r="K105" t="inlineStr"/>
+      <c r="J105" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="K105" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L105" t="n">
         <v>1</v>
       </c>
@@ -3883,11 +4277,19 @@
         <v>-3112783.5295</v>
       </c>
       <c r="H106" t="n">
-        <v>0</v>
-      </c>
-      <c r="I106" t="inlineStr"/>
-      <c r="J106" t="inlineStr"/>
-      <c r="K106" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I106" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="J106" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="K106" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L106" t="n">
         <v>1</v>
       </c>
@@ -3919,8 +4321,14 @@
         <v>0</v>
       </c>
       <c r="I107" t="inlineStr"/>
-      <c r="J107" t="inlineStr"/>
-      <c r="K107" t="inlineStr"/>
+      <c r="J107" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="K107" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L107" t="n">
         <v>1</v>
       </c>
@@ -3952,8 +4360,14 @@
         <v>0</v>
       </c>
       <c r="I108" t="inlineStr"/>
-      <c r="J108" t="inlineStr"/>
-      <c r="K108" t="inlineStr"/>
+      <c r="J108" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="K108" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L108" t="n">
         <v>1</v>
       </c>
@@ -3985,8 +4399,14 @@
         <v>0</v>
       </c>
       <c r="I109" t="inlineStr"/>
-      <c r="J109" t="inlineStr"/>
-      <c r="K109" t="inlineStr"/>
+      <c r="J109" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="K109" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L109" t="n">
         <v>1</v>
       </c>
@@ -4018,8 +4438,14 @@
         <v>0</v>
       </c>
       <c r="I110" t="inlineStr"/>
-      <c r="J110" t="inlineStr"/>
-      <c r="K110" t="inlineStr"/>
+      <c r="J110" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="K110" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L110" t="n">
         <v>1</v>
       </c>
@@ -4051,8 +4477,14 @@
         <v>0</v>
       </c>
       <c r="I111" t="inlineStr"/>
-      <c r="J111" t="inlineStr"/>
-      <c r="K111" t="inlineStr"/>
+      <c r="J111" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="K111" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L111" t="n">
         <v>1</v>
       </c>
@@ -4084,8 +4516,14 @@
         <v>0</v>
       </c>
       <c r="I112" t="inlineStr"/>
-      <c r="J112" t="inlineStr"/>
-      <c r="K112" t="inlineStr"/>
+      <c r="J112" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="K112" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L112" t="n">
         <v>1</v>
       </c>
@@ -4117,8 +4555,14 @@
         <v>0</v>
       </c>
       <c r="I113" t="inlineStr"/>
-      <c r="J113" t="inlineStr"/>
-      <c r="K113" t="inlineStr"/>
+      <c r="J113" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="K113" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L113" t="n">
         <v>1</v>
       </c>
@@ -4150,8 +4594,14 @@
         <v>0</v>
       </c>
       <c r="I114" t="inlineStr"/>
-      <c r="J114" t="inlineStr"/>
-      <c r="K114" t="inlineStr"/>
+      <c r="J114" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="K114" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L114" t="n">
         <v>1</v>
       </c>
@@ -4180,13 +4630,19 @@
         <v>-2733777.0976</v>
       </c>
       <c r="H115" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I115" t="inlineStr"/>
-      <c r="J115" t="inlineStr"/>
-      <c r="K115" t="inlineStr"/>
+      <c r="J115" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="K115" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
       <c r="L115" t="n">
-        <v>1</v>
+        <v>1.033461538461539</v>
       </c>
       <c r="M115" t="inlineStr"/>
     </row>
@@ -4213,7 +4669,7 @@
         <v>-2733777.0976</v>
       </c>
       <c r="H116" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
@@ -4411,14 +4867,10 @@
         <v>-2829175.3071</v>
       </c>
       <c r="H122" t="n">
-        <v>1</v>
-      </c>
-      <c r="I122" t="n">
-        <v>2.69</v>
-      </c>
-      <c r="J122" t="n">
-        <v>2.69</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I122" t="inlineStr"/>
+      <c r="J122" t="inlineStr"/>
       <c r="K122" t="inlineStr"/>
       <c r="L122" t="n">
         <v>1</v>
@@ -4451,14 +4903,8 @@
         <v>0</v>
       </c>
       <c r="I123" t="inlineStr"/>
-      <c r="J123" t="n">
-        <v>2.69</v>
-      </c>
-      <c r="K123" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J123" t="inlineStr"/>
+      <c r="K123" t="inlineStr"/>
       <c r="L123" t="n">
         <v>1</v>
       </c>
@@ -4490,14 +4936,8 @@
         <v>0</v>
       </c>
       <c r="I124" t="inlineStr"/>
-      <c r="J124" t="n">
-        <v>2.69</v>
-      </c>
-      <c r="K124" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J124" t="inlineStr"/>
+      <c r="K124" t="inlineStr"/>
       <c r="L124" t="n">
         <v>1</v>
       </c>
@@ -4592,10 +5032,14 @@
         <v>-2829175.3071</v>
       </c>
       <c r="H127" t="n">
-        <v>0</v>
-      </c>
-      <c r="I127" t="inlineStr"/>
-      <c r="J127" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I127" t="n">
+        <v>2.69</v>
+      </c>
+      <c r="J127" t="n">
+        <v>2.69</v>
+      </c>
       <c r="K127" t="inlineStr"/>
       <c r="L127" t="n">
         <v>1</v>
@@ -4625,11 +5069,19 @@
         <v>-2829175.3071</v>
       </c>
       <c r="H128" t="n">
-        <v>0</v>
-      </c>
-      <c r="I128" t="inlineStr"/>
-      <c r="J128" t="inlineStr"/>
-      <c r="K128" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I128" t="n">
+        <v>2.69</v>
+      </c>
+      <c r="J128" t="n">
+        <v>2.69</v>
+      </c>
+      <c r="K128" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L128" t="n">
         <v>1</v>
       </c>
@@ -4658,11 +5110,19 @@
         <v>-2821767.8997</v>
       </c>
       <c r="H129" t="n">
-        <v>0</v>
-      </c>
-      <c r="I129" t="inlineStr"/>
-      <c r="J129" t="inlineStr"/>
-      <c r="K129" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I129" t="n">
+        <v>2.69</v>
+      </c>
+      <c r="J129" t="n">
+        <v>2.69</v>
+      </c>
+      <c r="K129" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L129" t="n">
         <v>1</v>
       </c>
@@ -4691,10 +5151,14 @@
         <v>-2821767.8997</v>
       </c>
       <c r="H130" t="n">
-        <v>0</v>
-      </c>
-      <c r="I130" t="inlineStr"/>
-      <c r="J130" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I130" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="J130" t="n">
+        <v>2.7</v>
+      </c>
       <c r="K130" t="inlineStr"/>
       <c r="L130" t="n">
         <v>1</v>
@@ -4724,11 +5188,19 @@
         <v>-1912576.5359</v>
       </c>
       <c r="H131" t="n">
-        <v>0</v>
-      </c>
-      <c r="I131" t="inlineStr"/>
-      <c r="J131" t="inlineStr"/>
-      <c r="K131" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I131" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="J131" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="K131" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L131" t="n">
         <v>1</v>
       </c>
@@ -4757,11 +5229,19 @@
         <v>-2014868.8086</v>
       </c>
       <c r="H132" t="n">
-        <v>0</v>
-      </c>
-      <c r="I132" t="inlineStr"/>
-      <c r="J132" t="inlineStr"/>
-      <c r="K132" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I132" t="n">
+        <v>2.71</v>
+      </c>
+      <c r="J132" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="K132" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L132" t="n">
         <v>1</v>
       </c>
@@ -4790,11 +5270,19 @@
         <v>-2007804.8086</v>
       </c>
       <c r="H133" t="n">
-        <v>0</v>
-      </c>
-      <c r="I133" t="inlineStr"/>
-      <c r="J133" t="inlineStr"/>
-      <c r="K133" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I133" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="J133" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="K133" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L133" t="n">
         <v>1</v>
       </c>
@@ -4823,11 +5311,19 @@
         <v>-2007804.8086</v>
       </c>
       <c r="H134" t="n">
-        <v>0</v>
-      </c>
-      <c r="I134" t="inlineStr"/>
-      <c r="J134" t="inlineStr"/>
-      <c r="K134" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I134" t="n">
+        <v>2.67</v>
+      </c>
+      <c r="J134" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="K134" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L134" t="n">
         <v>1</v>
       </c>
@@ -4856,11 +5352,19 @@
         <v>-2007804.8086</v>
       </c>
       <c r="H135" t="n">
-        <v>0</v>
-      </c>
-      <c r="I135" t="inlineStr"/>
-      <c r="J135" t="inlineStr"/>
-      <c r="K135" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I135" t="n">
+        <v>2.67</v>
+      </c>
+      <c r="J135" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="K135" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L135" t="n">
         <v>1</v>
       </c>
@@ -4889,11 +5393,19 @@
         <v>-2007804.8086</v>
       </c>
       <c r="H136" t="n">
-        <v>0</v>
-      </c>
-      <c r="I136" t="inlineStr"/>
-      <c r="J136" t="inlineStr"/>
-      <c r="K136" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I136" t="n">
+        <v>2.67</v>
+      </c>
+      <c r="J136" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="K136" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L136" t="n">
         <v>1</v>
       </c>
@@ -4928,9 +5440,13 @@
         <v>2.67</v>
       </c>
       <c r="J137" t="n">
-        <v>2.67</v>
-      </c>
-      <c r="K137" t="inlineStr"/>
+        <v>2.7</v>
+      </c>
+      <c r="K137" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L137" t="n">
         <v>1</v>
       </c>
@@ -4959,15 +5475,17 @@
         <v>-2569504.6098</v>
       </c>
       <c r="H138" t="n">
-        <v>0</v>
-      </c>
-      <c r="I138" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I138" t="n">
+        <v>2.7</v>
+      </c>
       <c r="J138" t="n">
-        <v>2.67</v>
+        <v>2.7</v>
       </c>
       <c r="K138" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L138" t="n">
@@ -4998,15 +5516,17 @@
         <v>-3118823.6098</v>
       </c>
       <c r="H139" t="n">
-        <v>0</v>
-      </c>
-      <c r="I139" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I139" t="n">
+        <v>2.66</v>
+      </c>
       <c r="J139" t="n">
-        <v>2.67</v>
+        <v>2.7</v>
       </c>
       <c r="K139" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L139" t="n">
@@ -5037,11 +5557,13 @@
         <v>-3118813.6098</v>
       </c>
       <c r="H140" t="n">
-        <v>0</v>
-      </c>
-      <c r="I140" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I140" t="n">
+        <v>2.65</v>
+      </c>
       <c r="J140" t="n">
-        <v>2.67</v>
+        <v>2.7</v>
       </c>
       <c r="K140" t="inlineStr">
         <is>
@@ -5080,7 +5602,7 @@
       </c>
       <c r="I141" t="inlineStr"/>
       <c r="J141" t="n">
-        <v>2.67</v>
+        <v>2.7</v>
       </c>
       <c r="K141" t="inlineStr">
         <is>

--- a/BackTest/2019-11-01 BackTest ANKR.xlsx
+++ b/BackTest/2019-11-01 BackTest ANKR.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M141"/>
+  <dimension ref="A1:L141"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -389,40 +389,35 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>volume</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>trade_state</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>trade_state</t>
+          <t>BuyPrice</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>BuyPrice</t>
+          <t>bprelay</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>bprelay</t>
+          <t>Condition</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>Condition</t>
+          <t>Profits</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>Profits</t>
-        </is>
-      </c>
-      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>Price_point</t>
         </is>
@@ -448,18 +443,15 @@
         <v>587949.3998</v>
       </c>
       <c r="G2" t="n">
-        <v>-2344945.8647</v>
-      </c>
-      <c r="H2" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H2" t="inlineStr"/>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
-      <c r="K2" t="inlineStr"/>
-      <c r="L2" t="n">
-        <v>1</v>
-      </c>
-      <c r="M2" t="inlineStr"/>
+      <c r="K2" t="n">
+        <v>1</v>
+      </c>
+      <c r="L2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -481,18 +473,15 @@
         <v>249084.5435</v>
       </c>
       <c r="G3" t="n">
-        <v>-2344945.8647</v>
-      </c>
-      <c r="H3" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H3" t="inlineStr"/>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
-      <c r="K3" t="inlineStr"/>
-      <c r="L3" t="n">
-        <v>1</v>
-      </c>
-      <c r="M3" t="inlineStr"/>
+      <c r="K3" t="n">
+        <v>1</v>
+      </c>
+      <c r="L3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -514,18 +503,15 @@
         <v>26854.5826</v>
       </c>
       <c r="G4" t="n">
-        <v>-2318091.2821</v>
-      </c>
-      <c r="H4" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H4" t="inlineStr"/>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr"/>
-      <c r="L4" t="n">
-        <v>1</v>
-      </c>
-      <c r="M4" t="inlineStr"/>
+      <c r="K4" t="n">
+        <v>1</v>
+      </c>
+      <c r="L4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -547,18 +533,15 @@
         <v>7491.98</v>
       </c>
       <c r="G5" t="n">
-        <v>-2310599.3021</v>
-      </c>
-      <c r="H5" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H5" t="inlineStr"/>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
-      <c r="K5" t="inlineStr"/>
-      <c r="L5" t="n">
-        <v>1</v>
-      </c>
-      <c r="M5" t="inlineStr"/>
+      <c r="K5" t="n">
+        <v>1</v>
+      </c>
+      <c r="L5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -580,18 +563,15 @@
         <v>10267.4965</v>
       </c>
       <c r="G6" t="n">
-        <v>-2300331.8056</v>
-      </c>
-      <c r="H6" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H6" t="inlineStr"/>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
-      <c r="K6" t="inlineStr"/>
-      <c r="L6" t="n">
-        <v>1</v>
-      </c>
-      <c r="M6" t="inlineStr"/>
+      <c r="K6" t="n">
+        <v>1</v>
+      </c>
+      <c r="L6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -613,18 +593,15 @@
         <v>168355.1392</v>
       </c>
       <c r="G7" t="n">
-        <v>-2131976.6664</v>
-      </c>
-      <c r="H7" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H7" t="inlineStr"/>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
-      <c r="K7" t="inlineStr"/>
-      <c r="L7" t="n">
-        <v>1</v>
-      </c>
-      <c r="M7" t="inlineStr"/>
+      <c r="K7" t="n">
+        <v>1</v>
+      </c>
+      <c r="L7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -646,18 +623,15 @@
         <v>10</v>
       </c>
       <c r="G8" t="n">
-        <v>-2131966.6664</v>
-      </c>
-      <c r="H8" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H8" t="inlineStr"/>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
-      <c r="K8" t="inlineStr"/>
-      <c r="L8" t="n">
-        <v>1</v>
-      </c>
-      <c r="M8" t="inlineStr"/>
+      <c r="K8" t="n">
+        <v>1</v>
+      </c>
+      <c r="L8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -679,18 +653,15 @@
         <v>64713.0942</v>
       </c>
       <c r="G9" t="n">
-        <v>-2131966.6664</v>
-      </c>
-      <c r="H9" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H9" t="inlineStr"/>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
-      <c r="K9" t="inlineStr"/>
-      <c r="L9" t="n">
-        <v>1</v>
-      </c>
-      <c r="M9" t="inlineStr"/>
+      <c r="K9" t="n">
+        <v>1</v>
+      </c>
+      <c r="L9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -712,18 +683,15 @@
         <v>167120.3123</v>
       </c>
       <c r="G10" t="n">
-        <v>-1964846.3541</v>
-      </c>
-      <c r="H10" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H10" t="inlineStr"/>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
-      <c r="K10" t="inlineStr"/>
-      <c r="L10" t="n">
-        <v>1</v>
-      </c>
-      <c r="M10" t="inlineStr"/>
+      <c r="K10" t="n">
+        <v>1</v>
+      </c>
+      <c r="L10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -745,18 +713,15 @@
         <v>187258.3632</v>
       </c>
       <c r="G11" t="n">
-        <v>-2152104.7173</v>
-      </c>
-      <c r="H11" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H11" t="inlineStr"/>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
-      <c r="K11" t="inlineStr"/>
-      <c r="L11" t="n">
-        <v>1</v>
-      </c>
-      <c r="M11" t="inlineStr"/>
+      <c r="K11" t="n">
+        <v>1</v>
+      </c>
+      <c r="L11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -778,18 +743,19 @@
         <v>20000</v>
       </c>
       <c r="G12" t="n">
-        <v>-2172104.7173</v>
+        <v>1</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
-      </c>
-      <c r="I12" t="inlineStr"/>
+        <v>2.62</v>
+      </c>
+      <c r="I12" t="n">
+        <v>2.62</v>
+      </c>
       <c r="J12" t="inlineStr"/>
-      <c r="K12" t="inlineStr"/>
-      <c r="L12" t="n">
-        <v>1</v>
-      </c>
-      <c r="M12" t="inlineStr"/>
+      <c r="K12" t="n">
+        <v>1</v>
+      </c>
+      <c r="L12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -811,18 +777,23 @@
         <v>49180</v>
       </c>
       <c r="G13" t="n">
-        <v>-2122924.7173</v>
+        <v>1</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
-      </c>
-      <c r="I13" t="inlineStr"/>
-      <c r="J13" t="inlineStr"/>
-      <c r="K13" t="inlineStr"/>
-      <c r="L13" t="n">
-        <v>1</v>
-      </c>
-      <c r="M13" t="inlineStr"/>
+        <v>2.61</v>
+      </c>
+      <c r="I13" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="K13" t="n">
+        <v>1</v>
+      </c>
+      <c r="L13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -844,18 +815,21 @@
         <v>62032</v>
       </c>
       <c r="G14" t="n">
-        <v>-2122924.7173</v>
-      </c>
-      <c r="H14" t="n">
-        <v>0</v>
-      </c>
-      <c r="I14" t="inlineStr"/>
-      <c r="J14" t="inlineStr"/>
-      <c r="K14" t="inlineStr"/>
-      <c r="L14" t="n">
-        <v>1</v>
-      </c>
-      <c r="M14" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H14" t="inlineStr"/>
+      <c r="I14" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="K14" t="n">
+        <v>1</v>
+      </c>
+      <c r="L14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -877,18 +851,15 @@
         <v>15866</v>
       </c>
       <c r="G15" t="n">
-        <v>-2122924.7173</v>
-      </c>
-      <c r="H15" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H15" t="inlineStr"/>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
-      <c r="K15" t="inlineStr"/>
-      <c r="L15" t="n">
-        <v>1</v>
-      </c>
-      <c r="M15" t="inlineStr"/>
+      <c r="K15" t="n">
+        <v>1</v>
+      </c>
+      <c r="L15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -910,18 +881,15 @@
         <v>296189.0688</v>
       </c>
       <c r="G16" t="n">
-        <v>-1826735.6485</v>
-      </c>
-      <c r="H16" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H16" t="inlineStr"/>
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
-      <c r="K16" t="inlineStr"/>
-      <c r="L16" t="n">
-        <v>1</v>
-      </c>
-      <c r="M16" t="inlineStr"/>
+      <c r="K16" t="n">
+        <v>1</v>
+      </c>
+      <c r="L16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -943,18 +911,15 @@
         <v>226582.831</v>
       </c>
       <c r="G17" t="n">
-        <v>-2053318.4795</v>
-      </c>
-      <c r="H17" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H17" t="inlineStr"/>
       <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
-      <c r="K17" t="inlineStr"/>
-      <c r="L17" t="n">
-        <v>1</v>
-      </c>
-      <c r="M17" t="inlineStr"/>
+      <c r="K17" t="n">
+        <v>1</v>
+      </c>
+      <c r="L17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -976,18 +941,15 @@
         <v>96415.5981</v>
       </c>
       <c r="G18" t="n">
-        <v>-2053318.4795</v>
-      </c>
-      <c r="H18" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H18" t="inlineStr"/>
       <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
-      <c r="K18" t="inlineStr"/>
-      <c r="L18" t="n">
-        <v>1</v>
-      </c>
-      <c r="M18" t="inlineStr"/>
+      <c r="K18" t="n">
+        <v>1</v>
+      </c>
+      <c r="L18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -1009,18 +971,15 @@
         <v>43443.1707</v>
       </c>
       <c r="G19" t="n">
-        <v>-2053318.4795</v>
-      </c>
-      <c r="H19" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H19" t="inlineStr"/>
       <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
-      <c r="K19" t="inlineStr"/>
-      <c r="L19" t="n">
-        <v>1</v>
-      </c>
-      <c r="M19" t="inlineStr"/>
+      <c r="K19" t="n">
+        <v>1</v>
+      </c>
+      <c r="L19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -1042,18 +1001,15 @@
         <v>1455207.318</v>
       </c>
       <c r="G20" t="n">
-        <v>-598111.1615000002</v>
-      </c>
-      <c r="H20" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H20" t="inlineStr"/>
       <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
-      <c r="K20" t="inlineStr"/>
-      <c r="L20" t="n">
-        <v>1</v>
-      </c>
-      <c r="M20" t="inlineStr"/>
+      <c r="K20" t="n">
+        <v>1</v>
+      </c>
+      <c r="L20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1075,18 +1031,15 @@
         <v>280936.1029</v>
       </c>
       <c r="G21" t="n">
-        <v>-879047.2644000002</v>
-      </c>
-      <c r="H21" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H21" t="inlineStr"/>
       <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
-      <c r="K21" t="inlineStr"/>
-      <c r="L21" t="n">
-        <v>1</v>
-      </c>
-      <c r="M21" t="inlineStr"/>
+      <c r="K21" t="n">
+        <v>1</v>
+      </c>
+      <c r="L21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1108,18 +1061,15 @@
         <v>28000</v>
       </c>
       <c r="G22" t="n">
-        <v>-907047.2644000002</v>
-      </c>
-      <c r="H22" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H22" t="inlineStr"/>
       <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
-      <c r="K22" t="inlineStr"/>
-      <c r="L22" t="n">
-        <v>1</v>
-      </c>
-      <c r="M22" t="inlineStr"/>
+      <c r="K22" t="n">
+        <v>1</v>
+      </c>
+      <c r="L22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1141,18 +1091,15 @@
         <v>10</v>
       </c>
       <c r="G23" t="n">
-        <v>-907037.2644000002</v>
-      </c>
-      <c r="H23" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H23" t="inlineStr"/>
       <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
-      <c r="K23" t="inlineStr"/>
-      <c r="L23" t="n">
-        <v>1</v>
-      </c>
-      <c r="M23" t="inlineStr"/>
+      <c r="K23" t="n">
+        <v>1</v>
+      </c>
+      <c r="L23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1174,18 +1121,15 @@
         <v>74003.5356</v>
       </c>
       <c r="G24" t="n">
-        <v>-981040.8000000003</v>
-      </c>
-      <c r="H24" t="n">
         <v>2</v>
       </c>
+      <c r="H24" t="inlineStr"/>
       <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
-      <c r="K24" t="inlineStr"/>
-      <c r="L24" t="n">
-        <v>1</v>
-      </c>
-      <c r="M24" t="inlineStr"/>
+      <c r="K24" t="n">
+        <v>1</v>
+      </c>
+      <c r="L24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1207,18 +1151,15 @@
         <v>342535.6851</v>
       </c>
       <c r="G25" t="n">
-        <v>-1323576.4851</v>
-      </c>
-      <c r="H25" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H25" t="inlineStr"/>
       <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
-      <c r="K25" t="inlineStr"/>
-      <c r="L25" t="n">
-        <v>1</v>
-      </c>
-      <c r="M25" t="inlineStr"/>
+      <c r="K25" t="n">
+        <v>1</v>
+      </c>
+      <c r="L25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1240,18 +1181,15 @@
         <v>66204.83530000001</v>
       </c>
       <c r="G26" t="n">
-        <v>-1323576.4851</v>
-      </c>
-      <c r="H26" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H26" t="inlineStr"/>
       <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
-      <c r="K26" t="inlineStr"/>
-      <c r="L26" t="n">
-        <v>1</v>
-      </c>
-      <c r="M26" t="inlineStr"/>
+      <c r="K26" t="n">
+        <v>1</v>
+      </c>
+      <c r="L26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1273,18 +1211,15 @@
         <v>120093.155</v>
       </c>
       <c r="G27" t="n">
-        <v>-1443669.6401</v>
-      </c>
-      <c r="H27" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H27" t="inlineStr"/>
       <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
-      <c r="K27" t="inlineStr"/>
-      <c r="L27" t="n">
-        <v>1</v>
-      </c>
-      <c r="M27" t="inlineStr"/>
+      <c r="K27" t="n">
+        <v>1</v>
+      </c>
+      <c r="L27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1306,18 +1241,15 @@
         <v>24809.3816</v>
       </c>
       <c r="G28" t="n">
-        <v>-1443669.6401</v>
-      </c>
-      <c r="H28" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H28" t="inlineStr"/>
       <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
-      <c r="K28" t="inlineStr"/>
-      <c r="L28" t="n">
-        <v>1</v>
-      </c>
-      <c r="M28" t="inlineStr"/>
+      <c r="K28" t="n">
+        <v>1</v>
+      </c>
+      <c r="L28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1339,18 +1271,15 @@
         <v>26874.5319</v>
       </c>
       <c r="G29" t="n">
-        <v>-1443669.6401</v>
-      </c>
-      <c r="H29" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H29" t="inlineStr"/>
       <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
-      <c r="K29" t="inlineStr"/>
-      <c r="L29" t="n">
-        <v>1</v>
-      </c>
-      <c r="M29" t="inlineStr"/>
+      <c r="K29" t="n">
+        <v>1</v>
+      </c>
+      <c r="L29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -1372,18 +1301,15 @@
         <v>33481</v>
       </c>
       <c r="G30" t="n">
-        <v>-1443669.6401</v>
-      </c>
-      <c r="H30" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H30" t="inlineStr"/>
       <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
-      <c r="K30" t="inlineStr"/>
-      <c r="L30" t="n">
-        <v>1</v>
-      </c>
-      <c r="M30" t="inlineStr"/>
+      <c r="K30" t="n">
+        <v>1</v>
+      </c>
+      <c r="L30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1405,18 +1331,15 @@
         <v>160389.0796</v>
       </c>
       <c r="G31" t="n">
-        <v>-1443669.6401</v>
-      </c>
-      <c r="H31" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H31" t="inlineStr"/>
       <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
-      <c r="K31" t="inlineStr"/>
-      <c r="L31" t="n">
-        <v>1</v>
-      </c>
-      <c r="M31" t="inlineStr"/>
+      <c r="K31" t="n">
+        <v>1</v>
+      </c>
+      <c r="L31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1438,18 +1361,15 @@
         <v>56379.8615</v>
       </c>
       <c r="G32" t="n">
-        <v>-1387289.7786</v>
-      </c>
-      <c r="H32" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H32" t="inlineStr"/>
       <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
-      <c r="K32" t="inlineStr"/>
-      <c r="L32" t="n">
-        <v>1</v>
-      </c>
-      <c r="M32" t="inlineStr"/>
+      <c r="K32" t="n">
+        <v>1</v>
+      </c>
+      <c r="L32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1471,18 +1391,15 @@
         <v>94377</v>
       </c>
       <c r="G33" t="n">
-        <v>-1481666.7786</v>
-      </c>
-      <c r="H33" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H33" t="inlineStr"/>
       <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
-      <c r="K33" t="inlineStr"/>
-      <c r="L33" t="n">
-        <v>1</v>
-      </c>
-      <c r="M33" t="inlineStr"/>
+      <c r="K33" t="n">
+        <v>1</v>
+      </c>
+      <c r="L33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1504,22 +1421,15 @@
         <v>20000</v>
       </c>
       <c r="G34" t="n">
-        <v>-1481666.7786</v>
-      </c>
-      <c r="H34" t="n">
-        <v>1</v>
-      </c>
-      <c r="I34" t="n">
-        <v>2.65</v>
-      </c>
-      <c r="J34" t="n">
-        <v>2.65</v>
-      </c>
-      <c r="K34" t="inlineStr"/>
-      <c r="L34" t="n">
-        <v>1</v>
-      </c>
-      <c r="M34" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H34" t="inlineStr"/>
+      <c r="I34" t="inlineStr"/>
+      <c r="J34" t="inlineStr"/>
+      <c r="K34" t="n">
+        <v>1</v>
+      </c>
+      <c r="L34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1541,26 +1451,15 @@
         <v>12129</v>
       </c>
       <c r="G35" t="n">
-        <v>-1493795.7786</v>
-      </c>
-      <c r="H35" t="n">
-        <v>1</v>
-      </c>
-      <c r="I35" t="n">
-        <v>2.65</v>
-      </c>
-      <c r="J35" t="n">
-        <v>2.65</v>
-      </c>
-      <c r="K35" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
-      <c r="L35" t="n">
-        <v>1</v>
-      </c>
-      <c r="M35" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H35" t="inlineStr"/>
+      <c r="I35" t="inlineStr"/>
+      <c r="J35" t="inlineStr"/>
+      <c r="K35" t="n">
+        <v>1</v>
+      </c>
+      <c r="L35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1582,24 +1481,19 @@
         <v>1594.8743</v>
       </c>
       <c r="G36" t="n">
-        <v>-1493795.7786</v>
+        <v>1</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
-      </c>
-      <c r="I36" t="inlineStr"/>
-      <c r="J36" t="n">
-        <v>2.65</v>
-      </c>
-      <c r="K36" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L36" t="n">
-        <v>1</v>
-      </c>
-      <c r="M36" t="inlineStr"/>
+        <v>2.63</v>
+      </c>
+      <c r="I36" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="J36" t="inlineStr"/>
+      <c r="K36" t="n">
+        <v>1</v>
+      </c>
+      <c r="L36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1621,24 +1515,23 @@
         <v>10</v>
       </c>
       <c r="G37" t="n">
-        <v>-1493785.7786</v>
+        <v>1</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
-      </c>
-      <c r="I37" t="inlineStr"/>
-      <c r="J37" t="n">
-        <v>2.65</v>
-      </c>
-      <c r="K37" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L37" t="n">
-        <v>1</v>
-      </c>
-      <c r="M37" t="inlineStr"/>
+        <v>2.63</v>
+      </c>
+      <c r="I37" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="J37" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="K37" t="n">
+        <v>1</v>
+      </c>
+      <c r="L37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1660,24 +1553,21 @@
         <v>1000</v>
       </c>
       <c r="G38" t="n">
-        <v>-1494785.7786</v>
-      </c>
-      <c r="H38" t="n">
-        <v>0</v>
-      </c>
-      <c r="I38" t="inlineStr"/>
-      <c r="J38" t="n">
-        <v>2.65</v>
-      </c>
-      <c r="K38" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L38" t="n">
-        <v>1</v>
-      </c>
-      <c r="M38" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H38" t="inlineStr"/>
+      <c r="I38" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="J38" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="K38" t="n">
+        <v>1</v>
+      </c>
+      <c r="L38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1699,24 +1589,15 @@
         <v>634730.4248</v>
       </c>
       <c r="G39" t="n">
-        <v>-860055.3538000003</v>
-      </c>
-      <c r="H39" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H39" t="inlineStr"/>
       <c r="I39" t="inlineStr"/>
-      <c r="J39" t="n">
-        <v>2.65</v>
-      </c>
-      <c r="K39" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L39" t="n">
-        <v>1</v>
-      </c>
-      <c r="M39" t="inlineStr"/>
+      <c r="J39" t="inlineStr"/>
+      <c r="K39" t="n">
+        <v>1</v>
+      </c>
+      <c r="L39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1738,24 +1619,15 @@
         <v>205170.5168</v>
       </c>
       <c r="G40" t="n">
-        <v>-1065225.8706</v>
-      </c>
-      <c r="H40" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H40" t="inlineStr"/>
       <c r="I40" t="inlineStr"/>
-      <c r="J40" t="n">
-        <v>2.65</v>
-      </c>
-      <c r="K40" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L40" t="n">
-        <v>1</v>
-      </c>
-      <c r="M40" t="inlineStr"/>
+      <c r="J40" t="inlineStr"/>
+      <c r="K40" t="n">
+        <v>1</v>
+      </c>
+      <c r="L40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1777,24 +1649,15 @@
         <v>233434.8314</v>
       </c>
       <c r="G41" t="n">
-        <v>-831791.0392000002</v>
-      </c>
-      <c r="H41" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H41" t="inlineStr"/>
       <c r="I41" t="inlineStr"/>
-      <c r="J41" t="n">
-        <v>2.65</v>
-      </c>
-      <c r="K41" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L41" t="n">
-        <v>1</v>
-      </c>
-      <c r="M41" t="inlineStr"/>
+      <c r="J41" t="inlineStr"/>
+      <c r="K41" t="n">
+        <v>1</v>
+      </c>
+      <c r="L41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -1816,24 +1679,15 @@
         <v>36206.2846</v>
       </c>
       <c r="G42" t="n">
-        <v>-867997.3238000002</v>
-      </c>
-      <c r="H42" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H42" t="inlineStr"/>
       <c r="I42" t="inlineStr"/>
-      <c r="J42" t="n">
-        <v>2.65</v>
-      </c>
-      <c r="K42" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L42" t="n">
-        <v>1</v>
-      </c>
-      <c r="M42" t="inlineStr"/>
+      <c r="J42" t="inlineStr"/>
+      <c r="K42" t="n">
+        <v>1</v>
+      </c>
+      <c r="L42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -1855,24 +1709,15 @@
         <v>6061.2559</v>
       </c>
       <c r="G43" t="n">
-        <v>-867997.3238000002</v>
-      </c>
-      <c r="H43" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H43" t="inlineStr"/>
       <c r="I43" t="inlineStr"/>
-      <c r="J43" t="n">
-        <v>2.65</v>
-      </c>
-      <c r="K43" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L43" t="n">
-        <v>1</v>
-      </c>
-      <c r="M43" t="inlineStr"/>
+      <c r="J43" t="inlineStr"/>
+      <c r="K43" t="n">
+        <v>1</v>
+      </c>
+      <c r="L43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -1894,24 +1739,15 @@
         <v>10</v>
       </c>
       <c r="G44" t="n">
-        <v>-867997.3238000002</v>
-      </c>
-      <c r="H44" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H44" t="inlineStr"/>
       <c r="I44" t="inlineStr"/>
-      <c r="J44" t="n">
-        <v>2.65</v>
-      </c>
-      <c r="K44" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L44" t="n">
-        <v>1</v>
-      </c>
-      <c r="M44" t="inlineStr"/>
+      <c r="J44" t="inlineStr"/>
+      <c r="K44" t="n">
+        <v>1</v>
+      </c>
+      <c r="L44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -1933,24 +1769,15 @@
         <v>45828.1398</v>
       </c>
       <c r="G45" t="n">
-        <v>-822169.1840000002</v>
-      </c>
-      <c r="H45" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H45" t="inlineStr"/>
       <c r="I45" t="inlineStr"/>
-      <c r="J45" t="n">
-        <v>2.65</v>
-      </c>
-      <c r="K45" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L45" t="n">
-        <v>1</v>
-      </c>
-      <c r="M45" t="inlineStr"/>
+      <c r="J45" t="inlineStr"/>
+      <c r="K45" t="n">
+        <v>1</v>
+      </c>
+      <c r="L45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -1972,24 +1799,15 @@
         <v>92271.8003</v>
       </c>
       <c r="G46" t="n">
-        <v>-914440.9843000002</v>
-      </c>
-      <c r="H46" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H46" t="inlineStr"/>
       <c r="I46" t="inlineStr"/>
-      <c r="J46" t="n">
-        <v>2.65</v>
-      </c>
-      <c r="K46" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="L46" t="n">
-        <v>0.9987735849056604</v>
-      </c>
-      <c r="M46" t="inlineStr"/>
+      <c r="J46" t="inlineStr"/>
+      <c r="K46" t="n">
+        <v>1</v>
+      </c>
+      <c r="L46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -2011,18 +1829,15 @@
         <v>99196.3959</v>
       </c>
       <c r="G47" t="n">
-        <v>-1013637.3802</v>
-      </c>
-      <c r="H47" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H47" t="inlineStr"/>
       <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
-      <c r="K47" t="inlineStr"/>
-      <c r="L47" t="n">
-        <v>1</v>
-      </c>
-      <c r="M47" t="inlineStr"/>
+      <c r="K47" t="n">
+        <v>1</v>
+      </c>
+      <c r="L47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -2044,18 +1859,15 @@
         <v>276742.3401</v>
       </c>
       <c r="G48" t="n">
-        <v>-1290379.7203</v>
-      </c>
-      <c r="H48" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H48" t="inlineStr"/>
       <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
-      <c r="K48" t="inlineStr"/>
-      <c r="L48" t="n">
-        <v>1</v>
-      </c>
-      <c r="M48" t="inlineStr"/>
+      <c r="K48" t="n">
+        <v>1</v>
+      </c>
+      <c r="L48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -2077,18 +1889,19 @@
         <v>29031.1787</v>
       </c>
       <c r="G49" t="n">
-        <v>-1290379.7203</v>
+        <v>1</v>
       </c>
       <c r="H49" t="n">
-        <v>0</v>
-      </c>
-      <c r="I49" t="inlineStr"/>
+        <v>2.63</v>
+      </c>
+      <c r="I49" t="n">
+        <v>2.63</v>
+      </c>
       <c r="J49" t="inlineStr"/>
-      <c r="K49" t="inlineStr"/>
-      <c r="L49" t="n">
-        <v>1</v>
-      </c>
-      <c r="M49" t="inlineStr"/>
+      <c r="K49" t="n">
+        <v>1</v>
+      </c>
+      <c r="L49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -2110,18 +1923,21 @@
         <v>7393.5361</v>
       </c>
       <c r="G50" t="n">
-        <v>-1290379.7203</v>
-      </c>
-      <c r="H50" t="n">
-        <v>0</v>
-      </c>
-      <c r="I50" t="inlineStr"/>
-      <c r="J50" t="inlineStr"/>
-      <c r="K50" t="inlineStr"/>
-      <c r="L50" t="n">
-        <v>1</v>
-      </c>
-      <c r="M50" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H50" t="inlineStr"/>
+      <c r="I50" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="J50" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="K50" t="n">
+        <v>1</v>
+      </c>
+      <c r="L50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -2143,18 +1959,21 @@
         <v>364738.6636</v>
       </c>
       <c r="G51" t="n">
-        <v>-1655118.3839</v>
-      </c>
-      <c r="H51" t="n">
-        <v>0</v>
-      </c>
-      <c r="I51" t="inlineStr"/>
-      <c r="J51" t="inlineStr"/>
-      <c r="K51" t="inlineStr"/>
-      <c r="L51" t="n">
-        <v>1</v>
-      </c>
-      <c r="M51" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H51" t="inlineStr"/>
+      <c r="I51" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="J51" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="K51" t="n">
+        <v>1</v>
+      </c>
+      <c r="L51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -2176,18 +1995,23 @@
         <v>449503.003</v>
       </c>
       <c r="G52" t="n">
-        <v>-2104621.3869</v>
+        <v>1</v>
       </c>
       <c r="H52" t="n">
-        <v>0</v>
-      </c>
-      <c r="I52" t="inlineStr"/>
-      <c r="J52" t="inlineStr"/>
-      <c r="K52" t="inlineStr"/>
-      <c r="L52" t="n">
-        <v>1</v>
-      </c>
-      <c r="M52" t="inlineStr"/>
+        <v>2.62</v>
+      </c>
+      <c r="I52" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="J52" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
+      <c r="K52" t="n">
+        <v>1</v>
+      </c>
+      <c r="L52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -2209,18 +2033,21 @@
         <v>4752.3106</v>
       </c>
       <c r="G53" t="n">
-        <v>-2104621.3869</v>
-      </c>
-      <c r="H53" t="n">
-        <v>0</v>
-      </c>
-      <c r="I53" t="inlineStr"/>
-      <c r="J53" t="inlineStr"/>
-      <c r="K53" t="inlineStr"/>
-      <c r="L53" t="n">
-        <v>1</v>
-      </c>
-      <c r="M53" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H53" t="inlineStr"/>
+      <c r="I53" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="J53" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K53" t="n">
+        <v>1</v>
+      </c>
+      <c r="L53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -2242,22 +2069,21 @@
         <v>28002.1039</v>
       </c>
       <c r="G54" t="n">
-        <v>-2104621.3869</v>
-      </c>
-      <c r="H54" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H54" t="inlineStr"/>
       <c r="I54" t="n">
-        <v>2.6</v>
-      </c>
-      <c r="J54" t="n">
-        <v>2.6</v>
-      </c>
-      <c r="K54" t="inlineStr"/>
-      <c r="L54" t="n">
-        <v>1</v>
-      </c>
-      <c r="M54" t="inlineStr"/>
+        <v>2.63</v>
+      </c>
+      <c r="J54" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K54" t="n">
+        <v>1</v>
+      </c>
+      <c r="L54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -2279,26 +2105,23 @@
         <v>100000</v>
       </c>
       <c r="G55" t="n">
-        <v>-2004621.3869</v>
+        <v>1</v>
       </c>
       <c r="H55" t="n">
-        <v>1</v>
+        <v>2.6</v>
       </c>
       <c r="I55" t="n">
-        <v>2.6</v>
-      </c>
-      <c r="J55" t="n">
-        <v>2.6</v>
-      </c>
-      <c r="K55" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="L55" t="n">
-        <v>1</v>
-      </c>
-      <c r="M55" t="inlineStr"/>
+        <v>2.63</v>
+      </c>
+      <c r="J55" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K55" t="n">
+        <v>1</v>
+      </c>
+      <c r="L55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -2320,26 +2143,21 @@
         <v>908040.8506</v>
       </c>
       <c r="G56" t="n">
-        <v>-1096580.5363</v>
-      </c>
-      <c r="H56" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H56" t="inlineStr"/>
       <c r="I56" t="n">
-        <v>2.61</v>
-      </c>
-      <c r="J56" t="n">
-        <v>2.6</v>
-      </c>
-      <c r="K56" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
-      <c r="L56" t="n">
-        <v>1</v>
-      </c>
-      <c r="M56" t="inlineStr"/>
+        <v>2.63</v>
+      </c>
+      <c r="J56" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K56" t="n">
+        <v>1</v>
+      </c>
+      <c r="L56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2361,24 +2179,21 @@
         <v>206395.2787</v>
       </c>
       <c r="G57" t="n">
-        <v>-1096580.5363</v>
-      </c>
-      <c r="H57" t="n">
-        <v>0</v>
-      </c>
-      <c r="I57" t="inlineStr"/>
-      <c r="J57" t="n">
-        <v>2.6</v>
-      </c>
-      <c r="K57" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L57" t="n">
-        <v>1</v>
-      </c>
-      <c r="M57" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H57" t="inlineStr"/>
+      <c r="I57" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="J57" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K57" t="n">
+        <v>1</v>
+      </c>
+      <c r="L57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -2400,24 +2215,21 @@
         <v>20000</v>
       </c>
       <c r="G58" t="n">
-        <v>-1116580.5363</v>
-      </c>
-      <c r="H58" t="n">
-        <v>0</v>
-      </c>
-      <c r="I58" t="inlineStr"/>
-      <c r="J58" t="n">
-        <v>2.6</v>
-      </c>
-      <c r="K58" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L58" t="n">
-        <v>1</v>
-      </c>
-      <c r="M58" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H58" t="inlineStr"/>
+      <c r="I58" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="J58" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K58" t="n">
+        <v>1</v>
+      </c>
+      <c r="L58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2439,24 +2251,21 @@
         <v>10</v>
       </c>
       <c r="G59" t="n">
-        <v>-1116570.5363</v>
-      </c>
-      <c r="H59" t="n">
-        <v>0</v>
-      </c>
-      <c r="I59" t="inlineStr"/>
-      <c r="J59" t="n">
-        <v>2.6</v>
-      </c>
-      <c r="K59" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L59" t="n">
-        <v>1</v>
-      </c>
-      <c r="M59" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H59" t="inlineStr"/>
+      <c r="I59" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="J59" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K59" t="n">
+        <v>1</v>
+      </c>
+      <c r="L59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -2478,24 +2287,21 @@
         <v>1435.9962</v>
       </c>
       <c r="G60" t="n">
-        <v>-1116570.5363</v>
-      </c>
-      <c r="H60" t="n">
-        <v>0</v>
-      </c>
-      <c r="I60" t="inlineStr"/>
-      <c r="J60" t="n">
-        <v>2.6</v>
-      </c>
-      <c r="K60" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L60" t="n">
-        <v>1</v>
-      </c>
-      <c r="M60" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H60" t="inlineStr"/>
+      <c r="I60" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="J60" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K60" t="n">
+        <v>1</v>
+      </c>
+      <c r="L60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2517,24 +2323,21 @@
         <v>2562.4528</v>
       </c>
       <c r="G61" t="n">
-        <v>-1119132.9891</v>
-      </c>
-      <c r="H61" t="n">
-        <v>0</v>
-      </c>
-      <c r="I61" t="inlineStr"/>
-      <c r="J61" t="n">
-        <v>2.6</v>
-      </c>
-      <c r="K61" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L61" t="n">
-        <v>1</v>
-      </c>
-      <c r="M61" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H61" t="inlineStr"/>
+      <c r="I61" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="J61" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K61" t="n">
+        <v>1</v>
+      </c>
+      <c r="L61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2556,24 +2359,21 @@
         <v>1929.1666</v>
       </c>
       <c r="G62" t="n">
-        <v>-1121062.1557</v>
-      </c>
-      <c r="H62" t="n">
-        <v>0</v>
-      </c>
-      <c r="I62" t="inlineStr"/>
-      <c r="J62" t="n">
-        <v>2.6</v>
-      </c>
-      <c r="K62" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L62" t="n">
-        <v>1</v>
-      </c>
-      <c r="M62" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H62" t="inlineStr"/>
+      <c r="I62" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="J62" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K62" t="n">
+        <v>1</v>
+      </c>
+      <c r="L62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2595,24 +2395,21 @@
         <v>22388.0597</v>
       </c>
       <c r="G63" t="n">
-        <v>-1098674.096</v>
-      </c>
-      <c r="H63" t="n">
-        <v>0</v>
-      </c>
-      <c r="I63" t="inlineStr"/>
-      <c r="J63" t="n">
-        <v>2.6</v>
-      </c>
-      <c r="K63" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L63" t="n">
-        <v>1</v>
-      </c>
-      <c r="M63" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H63" t="inlineStr"/>
+      <c r="I63" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="J63" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K63" t="n">
+        <v>1</v>
+      </c>
+      <c r="L63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -2634,24 +2431,21 @@
         <v>15671.6417</v>
       </c>
       <c r="G64" t="n">
-        <v>-1098674.096</v>
-      </c>
-      <c r="H64" t="n">
-        <v>0</v>
-      </c>
-      <c r="I64" t="inlineStr"/>
-      <c r="J64" t="n">
-        <v>2.6</v>
-      </c>
-      <c r="K64" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L64" t="n">
-        <v>1</v>
-      </c>
-      <c r="M64" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H64" t="inlineStr"/>
+      <c r="I64" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="J64" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K64" t="n">
+        <v>1</v>
+      </c>
+      <c r="L64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -2673,24 +2467,21 @@
         <v>16000</v>
       </c>
       <c r="G65" t="n">
-        <v>-1082674.096</v>
-      </c>
-      <c r="H65" t="n">
-        <v>0</v>
-      </c>
-      <c r="I65" t="inlineStr"/>
-      <c r="J65" t="n">
-        <v>2.6</v>
-      </c>
-      <c r="K65" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L65" t="n">
-        <v>1</v>
-      </c>
-      <c r="M65" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H65" t="inlineStr"/>
+      <c r="I65" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="J65" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K65" t="n">
+        <v>1</v>
+      </c>
+      <c r="L65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -2712,24 +2503,21 @@
         <v>37642.6877</v>
       </c>
       <c r="G66" t="n">
-        <v>-1120316.7837</v>
-      </c>
-      <c r="H66" t="n">
-        <v>0</v>
-      </c>
-      <c r="I66" t="inlineStr"/>
-      <c r="J66" t="n">
-        <v>2.6</v>
-      </c>
-      <c r="K66" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L66" t="n">
-        <v>1</v>
-      </c>
-      <c r="M66" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H66" t="inlineStr"/>
+      <c r="I66" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="J66" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K66" t="n">
+        <v>1</v>
+      </c>
+      <c r="L66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -2751,24 +2539,21 @@
         <v>22304.8327</v>
       </c>
       <c r="G67" t="n">
-        <v>-1098011.951</v>
-      </c>
-      <c r="H67" t="n">
-        <v>0</v>
-      </c>
-      <c r="I67" t="inlineStr"/>
-      <c r="J67" t="n">
-        <v>2.6</v>
-      </c>
-      <c r="K67" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L67" t="n">
-        <v>1</v>
-      </c>
-      <c r="M67" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H67" t="inlineStr"/>
+      <c r="I67" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="J67" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K67" t="n">
+        <v>1</v>
+      </c>
+      <c r="L67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -2790,24 +2575,21 @@
         <v>37642.6877</v>
       </c>
       <c r="G68" t="n">
-        <v>-1135654.6387</v>
-      </c>
-      <c r="H68" t="n">
-        <v>0</v>
-      </c>
-      <c r="I68" t="inlineStr"/>
-      <c r="J68" t="n">
-        <v>2.6</v>
-      </c>
-      <c r="K68" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L68" t="n">
-        <v>1</v>
-      </c>
-      <c r="M68" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H68" t="inlineStr"/>
+      <c r="I68" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="J68" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K68" t="n">
+        <v>1</v>
+      </c>
+      <c r="L68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -2829,24 +2611,21 @@
         <v>728093.101</v>
       </c>
       <c r="G69" t="n">
-        <v>-1135654.6387</v>
-      </c>
-      <c r="H69" t="n">
-        <v>0</v>
-      </c>
-      <c r="I69" t="inlineStr"/>
-      <c r="J69" t="n">
-        <v>2.6</v>
-      </c>
-      <c r="K69" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L69" t="n">
-        <v>1</v>
-      </c>
-      <c r="M69" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H69" t="inlineStr"/>
+      <c r="I69" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="J69" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K69" t="n">
+        <v>1</v>
+      </c>
+      <c r="L69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -2868,24 +2647,21 @@
         <v>357859.7169</v>
       </c>
       <c r="G70" t="n">
-        <v>-1135654.6387</v>
-      </c>
-      <c r="H70" t="n">
-        <v>0</v>
-      </c>
-      <c r="I70" t="inlineStr"/>
-      <c r="J70" t="n">
-        <v>2.6</v>
-      </c>
-      <c r="K70" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L70" t="n">
-        <v>1</v>
-      </c>
-      <c r="M70" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H70" t="inlineStr"/>
+      <c r="I70" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="J70" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K70" t="n">
+        <v>1</v>
+      </c>
+      <c r="L70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -2907,24 +2683,21 @@
         <v>18773.2342</v>
       </c>
       <c r="G71" t="n">
-        <v>-1116881.4045</v>
-      </c>
-      <c r="H71" t="n">
-        <v>0</v>
-      </c>
-      <c r="I71" t="inlineStr"/>
-      <c r="J71" t="n">
-        <v>2.6</v>
-      </c>
-      <c r="K71" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L71" t="n">
-        <v>1</v>
-      </c>
-      <c r="M71" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H71" t="inlineStr"/>
+      <c r="I71" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="J71" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K71" t="n">
+        <v>1</v>
+      </c>
+      <c r="L71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -2946,24 +2719,21 @@
         <v>25000</v>
       </c>
       <c r="G72" t="n">
-        <v>-1091881.4045</v>
-      </c>
-      <c r="H72" t="n">
-        <v>0</v>
-      </c>
-      <c r="I72" t="inlineStr"/>
-      <c r="J72" t="n">
-        <v>2.6</v>
-      </c>
-      <c r="K72" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L72" t="n">
-        <v>1</v>
-      </c>
-      <c r="M72" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H72" t="inlineStr"/>
+      <c r="I72" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="J72" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K72" t="n">
+        <v>1</v>
+      </c>
+      <c r="L72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -2985,24 +2755,21 @@
         <v>10</v>
       </c>
       <c r="G73" t="n">
-        <v>-1091891.4045</v>
-      </c>
-      <c r="H73" t="n">
-        <v>0</v>
-      </c>
-      <c r="I73" t="inlineStr"/>
-      <c r="J73" t="n">
-        <v>2.6</v>
-      </c>
-      <c r="K73" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L73" t="n">
-        <v>1</v>
-      </c>
-      <c r="M73" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H73" t="inlineStr"/>
+      <c r="I73" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="J73" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K73" t="n">
+        <v>1</v>
+      </c>
+      <c r="L73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -3024,24 +2791,21 @@
         <v>14925.3731</v>
       </c>
       <c r="G74" t="n">
-        <v>-1076966.0314</v>
-      </c>
-      <c r="H74" t="n">
-        <v>0</v>
-      </c>
-      <c r="I74" t="inlineStr"/>
-      <c r="J74" t="n">
-        <v>2.6</v>
-      </c>
-      <c r="K74" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L74" t="n">
-        <v>1</v>
-      </c>
-      <c r="M74" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H74" t="inlineStr"/>
+      <c r="I74" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="J74" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K74" t="n">
+        <v>1</v>
+      </c>
+      <c r="L74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -3063,24 +2827,21 @@
         <v>3800</v>
       </c>
       <c r="G75" t="n">
-        <v>-1076966.0314</v>
-      </c>
-      <c r="H75" t="n">
-        <v>0</v>
-      </c>
-      <c r="I75" t="inlineStr"/>
-      <c r="J75" t="n">
-        <v>2.6</v>
-      </c>
-      <c r="K75" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L75" t="n">
-        <v>1</v>
-      </c>
-      <c r="M75" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H75" t="inlineStr"/>
+      <c r="I75" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="J75" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K75" t="n">
+        <v>1</v>
+      </c>
+      <c r="L75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -3102,24 +2863,21 @@
         <v>9660.237300000001</v>
       </c>
       <c r="G76" t="n">
-        <v>-1086626.2687</v>
-      </c>
-      <c r="H76" t="n">
-        <v>0</v>
-      </c>
-      <c r="I76" t="inlineStr"/>
-      <c r="J76" t="n">
-        <v>2.6</v>
-      </c>
-      <c r="K76" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L76" t="n">
-        <v>1</v>
-      </c>
-      <c r="M76" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H76" t="inlineStr"/>
+      <c r="I76" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="J76" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K76" t="n">
+        <v>1</v>
+      </c>
+      <c r="L76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -3141,24 +2899,21 @@
         <v>24000</v>
       </c>
       <c r="G77" t="n">
-        <v>-1062626.2687</v>
-      </c>
-      <c r="H77" t="n">
-        <v>0</v>
-      </c>
-      <c r="I77" t="inlineStr"/>
-      <c r="J77" t="n">
-        <v>2.6</v>
-      </c>
-      <c r="K77" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L77" t="n">
-        <v>1</v>
-      </c>
-      <c r="M77" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H77" t="inlineStr"/>
+      <c r="I77" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="J77" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K77" t="n">
+        <v>1</v>
+      </c>
+      <c r="L77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -3180,24 +2935,21 @@
         <v>17000</v>
       </c>
       <c r="G78" t="n">
-        <v>-1062626.2687</v>
-      </c>
-      <c r="H78" t="n">
-        <v>0</v>
-      </c>
-      <c r="I78" t="inlineStr"/>
-      <c r="J78" t="n">
-        <v>2.6</v>
-      </c>
-      <c r="K78" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L78" t="n">
-        <v>1</v>
-      </c>
-      <c r="M78" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H78" t="inlineStr"/>
+      <c r="I78" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="J78" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K78" t="n">
+        <v>1</v>
+      </c>
+      <c r="L78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -3219,24 +2971,21 @@
         <v>2926.3157</v>
       </c>
       <c r="G79" t="n">
-        <v>-1065552.5844</v>
-      </c>
-      <c r="H79" t="n">
-        <v>0</v>
-      </c>
-      <c r="I79" t="inlineStr"/>
-      <c r="J79" t="n">
-        <v>2.6</v>
-      </c>
-      <c r="K79" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L79" t="n">
-        <v>1</v>
-      </c>
-      <c r="M79" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H79" t="inlineStr"/>
+      <c r="I79" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="J79" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K79" t="n">
+        <v>1</v>
+      </c>
+      <c r="L79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -3258,24 +3007,21 @@
         <v>17000</v>
       </c>
       <c r="G80" t="n">
-        <v>-1048552.5844</v>
-      </c>
-      <c r="H80" t="n">
-        <v>0</v>
-      </c>
-      <c r="I80" t="inlineStr"/>
-      <c r="J80" t="n">
-        <v>2.6</v>
-      </c>
-      <c r="K80" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L80" t="n">
-        <v>1</v>
-      </c>
-      <c r="M80" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H80" t="inlineStr"/>
+      <c r="I80" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="J80" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K80" t="n">
+        <v>1</v>
+      </c>
+      <c r="L80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -3297,24 +3043,21 @@
         <v>1468.6792</v>
       </c>
       <c r="G81" t="n">
-        <v>-1050021.2636</v>
-      </c>
-      <c r="H81" t="n">
-        <v>0</v>
-      </c>
-      <c r="I81" t="inlineStr"/>
-      <c r="J81" t="n">
-        <v>2.6</v>
-      </c>
-      <c r="K81" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L81" t="n">
-        <v>1</v>
-      </c>
-      <c r="M81" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H81" t="inlineStr"/>
+      <c r="I81" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="J81" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K81" t="n">
+        <v>1</v>
+      </c>
+      <c r="L81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -3336,24 +3079,21 @@
         <v>813760.3202</v>
       </c>
       <c r="G82" t="n">
-        <v>-1863781.5838</v>
-      </c>
-      <c r="H82" t="n">
-        <v>0</v>
-      </c>
-      <c r="I82" t="inlineStr"/>
-      <c r="J82" t="n">
-        <v>2.6</v>
-      </c>
-      <c r="K82" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L82" t="n">
-        <v>1</v>
-      </c>
-      <c r="M82" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H82" t="inlineStr"/>
+      <c r="I82" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="J82" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K82" t="n">
+        <v>1</v>
+      </c>
+      <c r="L82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -3375,24 +3115,21 @@
         <v>659657.5074999999</v>
       </c>
       <c r="G83" t="n">
-        <v>-1863781.5838</v>
-      </c>
-      <c r="H83" t="n">
-        <v>0</v>
-      </c>
-      <c r="I83" t="inlineStr"/>
-      <c r="J83" t="n">
-        <v>2.6</v>
-      </c>
-      <c r="K83" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L83" t="n">
-        <v>1</v>
-      </c>
-      <c r="M83" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H83" t="inlineStr"/>
+      <c r="I83" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="J83" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K83" t="n">
+        <v>1</v>
+      </c>
+      <c r="L83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -3414,24 +3151,21 @@
         <v>11320.7547</v>
       </c>
       <c r="G84" t="n">
-        <v>-1852460.8291</v>
-      </c>
-      <c r="H84" t="n">
-        <v>0</v>
-      </c>
-      <c r="I84" t="inlineStr"/>
-      <c r="J84" t="n">
-        <v>2.6</v>
-      </c>
-      <c r="K84" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L84" t="n">
-        <v>1</v>
-      </c>
-      <c r="M84" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H84" t="inlineStr"/>
+      <c r="I84" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="J84" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K84" t="n">
+        <v>1</v>
+      </c>
+      <c r="L84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -3453,24 +3187,21 @@
         <v>60775.5211</v>
       </c>
       <c r="G85" t="n">
-        <v>-1852460.8291</v>
-      </c>
-      <c r="H85" t="n">
-        <v>0</v>
-      </c>
-      <c r="I85" t="inlineStr"/>
-      <c r="J85" t="n">
-        <v>2.6</v>
-      </c>
-      <c r="K85" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L85" t="n">
-        <v>1</v>
-      </c>
-      <c r="M85" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H85" t="inlineStr"/>
+      <c r="I85" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="J85" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K85" t="n">
+        <v>1</v>
+      </c>
+      <c r="L85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -3492,24 +3223,21 @@
         <v>10933</v>
       </c>
       <c r="G86" t="n">
-        <v>-1841527.8291</v>
-      </c>
-      <c r="H86" t="n">
-        <v>0</v>
-      </c>
-      <c r="I86" t="inlineStr"/>
-      <c r="J86" t="n">
-        <v>2.6</v>
-      </c>
-      <c r="K86" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L86" t="n">
-        <v>1</v>
-      </c>
-      <c r="M86" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H86" t="inlineStr"/>
+      <c r="I86" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="J86" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K86" t="n">
+        <v>1</v>
+      </c>
+      <c r="L86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -3531,24 +3259,21 @@
         <v>417.2284</v>
       </c>
       <c r="G87" t="n">
-        <v>-1841527.8291</v>
-      </c>
-      <c r="H87" t="n">
-        <v>0</v>
-      </c>
-      <c r="I87" t="inlineStr"/>
-      <c r="J87" t="n">
-        <v>2.6</v>
-      </c>
-      <c r="K87" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L87" t="n">
-        <v>1</v>
-      </c>
-      <c r="M87" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H87" t="inlineStr"/>
+      <c r="I87" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="J87" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K87" t="n">
+        <v>1</v>
+      </c>
+      <c r="L87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -3570,24 +3295,21 @@
         <v>831.086</v>
       </c>
       <c r="G88" t="n">
-        <v>-1841527.8291</v>
-      </c>
-      <c r="H88" t="n">
-        <v>0</v>
-      </c>
-      <c r="I88" t="inlineStr"/>
-      <c r="J88" t="n">
-        <v>2.6</v>
-      </c>
-      <c r="K88" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L88" t="n">
-        <v>1</v>
-      </c>
-      <c r="M88" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H88" t="inlineStr"/>
+      <c r="I88" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="J88" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K88" t="n">
+        <v>1</v>
+      </c>
+      <c r="L88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -3609,24 +3331,21 @@
         <v>1238.5766</v>
       </c>
       <c r="G89" t="n">
-        <v>-1840289.2525</v>
-      </c>
-      <c r="H89" t="n">
-        <v>0</v>
-      </c>
-      <c r="I89" t="inlineStr"/>
-      <c r="J89" t="n">
-        <v>2.6</v>
-      </c>
-      <c r="K89" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L89" t="n">
-        <v>1</v>
-      </c>
-      <c r="M89" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H89" t="inlineStr"/>
+      <c r="I89" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="J89" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K89" t="n">
+        <v>1</v>
+      </c>
+      <c r="L89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -3648,24 +3367,21 @@
         <v>820.5992</v>
       </c>
       <c r="G90" t="n">
-        <v>-1840289.2525</v>
-      </c>
-      <c r="H90" t="n">
-        <v>0</v>
-      </c>
-      <c r="I90" t="inlineStr"/>
-      <c r="J90" t="n">
-        <v>2.6</v>
-      </c>
-      <c r="K90" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L90" t="n">
-        <v>1</v>
-      </c>
-      <c r="M90" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H90" t="inlineStr"/>
+      <c r="I90" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="J90" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K90" t="n">
+        <v>1</v>
+      </c>
+      <c r="L90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -3687,24 +3403,21 @@
         <v>408.6142</v>
       </c>
       <c r="G91" t="n">
-        <v>-1840697.8667</v>
-      </c>
-      <c r="H91" t="n">
-        <v>0</v>
-      </c>
-      <c r="I91" t="inlineStr"/>
-      <c r="J91" t="n">
-        <v>2.6</v>
-      </c>
-      <c r="K91" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L91" t="n">
-        <v>1</v>
-      </c>
-      <c r="M91" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H91" t="inlineStr"/>
+      <c r="I91" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="J91" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K91" t="n">
+        <v>1</v>
+      </c>
+      <c r="L91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -3726,24 +3439,21 @@
         <v>1444.4096</v>
       </c>
       <c r="G92" t="n">
-        <v>-1840697.8667</v>
-      </c>
-      <c r="H92" t="n">
-        <v>0</v>
-      </c>
-      <c r="I92" t="inlineStr"/>
-      <c r="J92" t="n">
-        <v>2.6</v>
-      </c>
-      <c r="K92" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L92" t="n">
-        <v>1</v>
-      </c>
-      <c r="M92" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H92" t="inlineStr"/>
+      <c r="I92" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="J92" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K92" t="n">
+        <v>1</v>
+      </c>
+      <c r="L92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -3765,24 +3475,21 @@
         <v>0.0001</v>
       </c>
       <c r="G93" t="n">
-        <v>-1840697.8667</v>
-      </c>
-      <c r="H93" t="n">
-        <v>0</v>
-      </c>
-      <c r="I93" t="inlineStr"/>
-      <c r="J93" t="n">
-        <v>2.6</v>
-      </c>
-      <c r="K93" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L93" t="n">
-        <v>1</v>
-      </c>
-      <c r="M93" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H93" t="inlineStr"/>
+      <c r="I93" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="J93" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K93" t="n">
+        <v>1</v>
+      </c>
+      <c r="L93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -3804,24 +3511,21 @@
         <v>10</v>
       </c>
       <c r="G94" t="n">
-        <v>-1840687.8667</v>
-      </c>
-      <c r="H94" t="n">
-        <v>0</v>
-      </c>
-      <c r="I94" t="inlineStr"/>
-      <c r="J94" t="n">
-        <v>2.6</v>
-      </c>
-      <c r="K94" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L94" t="n">
-        <v>1</v>
-      </c>
-      <c r="M94" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H94" t="inlineStr"/>
+      <c r="I94" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="J94" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K94" t="n">
+        <v>1</v>
+      </c>
+      <c r="L94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -3843,24 +3547,21 @@
         <v>846.8045</v>
       </c>
       <c r="G95" t="n">
-        <v>-1841534.6712</v>
-      </c>
-      <c r="H95" t="n">
-        <v>0</v>
-      </c>
-      <c r="I95" t="inlineStr"/>
-      <c r="J95" t="n">
-        <v>2.6</v>
-      </c>
-      <c r="K95" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L95" t="n">
-        <v>1</v>
-      </c>
-      <c r="M95" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H95" t="inlineStr"/>
+      <c r="I95" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="J95" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K95" t="n">
+        <v>1</v>
+      </c>
+      <c r="L95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -3882,24 +3583,21 @@
         <v>1000</v>
       </c>
       <c r="G96" t="n">
-        <v>-1840534.6712</v>
-      </c>
-      <c r="H96" t="n">
-        <v>0</v>
-      </c>
-      <c r="I96" t="inlineStr"/>
-      <c r="J96" t="n">
-        <v>2.6</v>
-      </c>
-      <c r="K96" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L96" t="n">
-        <v>1</v>
-      </c>
-      <c r="M96" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H96" t="inlineStr"/>
+      <c r="I96" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="J96" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K96" t="n">
+        <v>1</v>
+      </c>
+      <c r="L96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -3921,24 +3619,21 @@
         <v>836.194</v>
       </c>
       <c r="G97" t="n">
-        <v>-1840534.6712</v>
-      </c>
-      <c r="H97" t="n">
-        <v>0</v>
-      </c>
-      <c r="I97" t="inlineStr"/>
-      <c r="J97" t="n">
-        <v>2.6</v>
-      </c>
-      <c r="K97" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L97" t="n">
-        <v>1</v>
-      </c>
-      <c r="M97" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H97" t="inlineStr"/>
+      <c r="I97" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="J97" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K97" t="n">
+        <v>1</v>
+      </c>
+      <c r="L97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -3960,24 +3655,21 @@
         <v>47980</v>
       </c>
       <c r="G98" t="n">
-        <v>-1888514.6712</v>
-      </c>
-      <c r="H98" t="n">
-        <v>0</v>
-      </c>
-      <c r="I98" t="inlineStr"/>
-      <c r="J98" t="n">
-        <v>2.6</v>
-      </c>
-      <c r="K98" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L98" t="n">
-        <v>1</v>
-      </c>
-      <c r="M98" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H98" t="inlineStr"/>
+      <c r="I98" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="J98" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K98" t="n">
+        <v>1</v>
+      </c>
+      <c r="L98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -3999,24 +3691,21 @@
         <v>60031.6383</v>
       </c>
       <c r="G99" t="n">
-        <v>-1828483.0329</v>
-      </c>
-      <c r="H99" t="n">
-        <v>0</v>
-      </c>
-      <c r="I99" t="inlineStr"/>
-      <c r="J99" t="n">
-        <v>2.6</v>
-      </c>
-      <c r="K99" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L99" t="n">
-        <v>1</v>
-      </c>
-      <c r="M99" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H99" t="inlineStr"/>
+      <c r="I99" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="J99" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K99" t="n">
+        <v>1</v>
+      </c>
+      <c r="L99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -4038,24 +3727,21 @@
         <v>8302.081099999999</v>
       </c>
       <c r="G100" t="n">
-        <v>-1828483.0329</v>
-      </c>
-      <c r="H100" t="n">
-        <v>0</v>
-      </c>
-      <c r="I100" t="inlineStr"/>
-      <c r="J100" t="n">
-        <v>2.6</v>
-      </c>
-      <c r="K100" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L100" t="n">
-        <v>1</v>
-      </c>
-      <c r="M100" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H100" t="inlineStr"/>
+      <c r="I100" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="J100" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K100" t="n">
+        <v>1</v>
+      </c>
+      <c r="L100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -4077,24 +3763,21 @@
         <v>1224320.4966</v>
       </c>
       <c r="G101" t="n">
-        <v>-3052803.5295</v>
-      </c>
-      <c r="H101" t="n">
-        <v>0</v>
-      </c>
-      <c r="I101" t="inlineStr"/>
-      <c r="J101" t="n">
-        <v>2.6</v>
-      </c>
-      <c r="K101" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L101" t="n">
-        <v>1</v>
-      </c>
-      <c r="M101" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H101" t="inlineStr"/>
+      <c r="I101" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="J101" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K101" t="n">
+        <v>1</v>
+      </c>
+      <c r="L101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
@@ -4116,24 +3799,21 @@
         <v>25739.3277</v>
       </c>
       <c r="G102" t="n">
-        <v>-3052803.5295</v>
-      </c>
-      <c r="H102" t="n">
-        <v>0</v>
-      </c>
-      <c r="I102" t="inlineStr"/>
-      <c r="J102" t="n">
-        <v>2.6</v>
-      </c>
-      <c r="K102" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L102" t="n">
-        <v>1</v>
-      </c>
-      <c r="M102" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H102" t="inlineStr"/>
+      <c r="I102" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="J102" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K102" t="n">
+        <v>1</v>
+      </c>
+      <c r="L102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
@@ -4155,24 +3835,21 @@
         <v>20000</v>
       </c>
       <c r="G103" t="n">
-        <v>-3072803.5295</v>
-      </c>
-      <c r="H103" t="n">
-        <v>0</v>
-      </c>
-      <c r="I103" t="inlineStr"/>
-      <c r="J103" t="n">
-        <v>2.6</v>
-      </c>
-      <c r="K103" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L103" t="n">
-        <v>1</v>
-      </c>
-      <c r="M103" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H103" t="inlineStr"/>
+      <c r="I103" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="J103" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K103" t="n">
+        <v>1</v>
+      </c>
+      <c r="L103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
@@ -4194,26 +3871,21 @@
         <v>10</v>
       </c>
       <c r="G104" t="n">
-        <v>-3072793.5295</v>
-      </c>
-      <c r="H104" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H104" t="inlineStr"/>
       <c r="I104" t="n">
-        <v>2.62</v>
-      </c>
-      <c r="J104" t="n">
-        <v>2.6</v>
-      </c>
-      <c r="K104" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L104" t="n">
-        <v>1</v>
-      </c>
-      <c r="M104" t="inlineStr"/>
+        <v>2.63</v>
+      </c>
+      <c r="J104" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K104" t="n">
+        <v>1</v>
+      </c>
+      <c r="L104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
@@ -4235,24 +3907,21 @@
         <v>40000</v>
       </c>
       <c r="G105" t="n">
-        <v>-3112793.5295</v>
-      </c>
-      <c r="H105" t="n">
-        <v>0</v>
-      </c>
-      <c r="I105" t="inlineStr"/>
-      <c r="J105" t="n">
-        <v>2.6</v>
-      </c>
-      <c r="K105" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L105" t="n">
-        <v>1</v>
-      </c>
-      <c r="M105" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H105" t="inlineStr"/>
+      <c r="I105" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="J105" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K105" t="n">
+        <v>1</v>
+      </c>
+      <c r="L105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
@@ -4274,26 +3943,21 @@
         <v>10</v>
       </c>
       <c r="G106" t="n">
-        <v>-3112783.5295</v>
-      </c>
-      <c r="H106" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H106" t="inlineStr"/>
       <c r="I106" t="n">
-        <v>2.62</v>
-      </c>
-      <c r="J106" t="n">
-        <v>2.6</v>
-      </c>
-      <c r="K106" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L106" t="n">
-        <v>1</v>
-      </c>
-      <c r="M106" t="inlineStr"/>
+        <v>2.63</v>
+      </c>
+      <c r="J106" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K106" t="n">
+        <v>1</v>
+      </c>
+      <c r="L106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
@@ -4315,24 +3979,21 @@
         <v>60000</v>
       </c>
       <c r="G107" t="n">
-        <v>-3172783.5295</v>
-      </c>
-      <c r="H107" t="n">
-        <v>0</v>
-      </c>
-      <c r="I107" t="inlineStr"/>
-      <c r="J107" t="n">
-        <v>2.6</v>
-      </c>
-      <c r="K107" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L107" t="n">
-        <v>1</v>
-      </c>
-      <c r="M107" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H107" t="inlineStr"/>
+      <c r="I107" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="J107" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K107" t="n">
+        <v>1</v>
+      </c>
+      <c r="L107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
@@ -4354,24 +4015,21 @@
         <v>593936.3381000001</v>
       </c>
       <c r="G108" t="n">
-        <v>-2578847.1914</v>
-      </c>
-      <c r="H108" t="n">
-        <v>0</v>
-      </c>
-      <c r="I108" t="inlineStr"/>
-      <c r="J108" t="n">
-        <v>2.6</v>
-      </c>
-      <c r="K108" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L108" t="n">
-        <v>1</v>
-      </c>
-      <c r="M108" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H108" t="inlineStr"/>
+      <c r="I108" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="J108" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K108" t="n">
+        <v>1</v>
+      </c>
+      <c r="L108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
@@ -4393,24 +4051,21 @@
         <v>20906.3432</v>
       </c>
       <c r="G109" t="n">
-        <v>-2557940.8482</v>
-      </c>
-      <c r="H109" t="n">
-        <v>0</v>
-      </c>
-      <c r="I109" t="inlineStr"/>
-      <c r="J109" t="n">
-        <v>2.6</v>
-      </c>
-      <c r="K109" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L109" t="n">
-        <v>1</v>
-      </c>
-      <c r="M109" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H109" t="inlineStr"/>
+      <c r="I109" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="J109" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K109" t="n">
+        <v>1</v>
+      </c>
+      <c r="L109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
@@ -4432,24 +4087,21 @@
         <v>29093.6568</v>
       </c>
       <c r="G110" t="n">
-        <v>-2557940.8482</v>
-      </c>
-      <c r="H110" t="n">
-        <v>0</v>
-      </c>
-      <c r="I110" t="inlineStr"/>
-      <c r="J110" t="n">
-        <v>2.6</v>
-      </c>
-      <c r="K110" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L110" t="n">
-        <v>1</v>
-      </c>
-      <c r="M110" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H110" t="inlineStr"/>
+      <c r="I110" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="J110" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K110" t="n">
+        <v>1</v>
+      </c>
+      <c r="L110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
@@ -4471,24 +4123,21 @@
         <v>62746.4232</v>
       </c>
       <c r="G111" t="n">
-        <v>-2495194.425</v>
-      </c>
-      <c r="H111" t="n">
-        <v>0</v>
-      </c>
-      <c r="I111" t="inlineStr"/>
-      <c r="J111" t="n">
-        <v>2.6</v>
-      </c>
-      <c r="K111" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L111" t="n">
-        <v>1</v>
-      </c>
-      <c r="M111" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H111" t="inlineStr"/>
+      <c r="I111" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="J111" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K111" t="n">
+        <v>1</v>
+      </c>
+      <c r="L111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
@@ -4510,24 +4159,21 @@
         <v>292286.3763</v>
       </c>
       <c r="G112" t="n">
-        <v>-2787480.8013</v>
-      </c>
-      <c r="H112" t="n">
-        <v>0</v>
-      </c>
-      <c r="I112" t="inlineStr"/>
-      <c r="J112" t="n">
-        <v>2.6</v>
-      </c>
-      <c r="K112" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L112" t="n">
-        <v>1</v>
-      </c>
-      <c r="M112" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H112" t="inlineStr"/>
+      <c r="I112" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="J112" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K112" t="n">
+        <v>1</v>
+      </c>
+      <c r="L112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
@@ -4549,24 +4195,21 @@
         <v>53703.7037</v>
       </c>
       <c r="G113" t="n">
-        <v>-2733777.0976</v>
-      </c>
-      <c r="H113" t="n">
-        <v>0</v>
-      </c>
-      <c r="I113" t="inlineStr"/>
-      <c r="J113" t="n">
-        <v>2.6</v>
-      </c>
-      <c r="K113" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L113" t="n">
-        <v>1</v>
-      </c>
-      <c r="M113" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H113" t="inlineStr"/>
+      <c r="I113" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="J113" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K113" t="n">
+        <v>1</v>
+      </c>
+      <c r="L113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
@@ -4588,24 +4231,21 @@
         <v>40277.7777</v>
       </c>
       <c r="G114" t="n">
-        <v>-2733777.0976</v>
-      </c>
-      <c r="H114" t="n">
-        <v>0</v>
-      </c>
-      <c r="I114" t="inlineStr"/>
-      <c r="J114" t="n">
-        <v>2.6</v>
-      </c>
-      <c r="K114" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L114" t="n">
-        <v>1</v>
-      </c>
-      <c r="M114" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H114" t="inlineStr"/>
+      <c r="I114" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="J114" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K114" t="n">
+        <v>1</v>
+      </c>
+      <c r="L114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
@@ -4627,24 +4267,21 @@
         <v>23013.2526</v>
       </c>
       <c r="G115" t="n">
-        <v>-2733777.0976</v>
-      </c>
-      <c r="H115" t="n">
-        <v>2</v>
-      </c>
-      <c r="I115" t="inlineStr"/>
-      <c r="J115" t="n">
-        <v>2.6</v>
-      </c>
-      <c r="K115" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="L115" t="n">
-        <v>1.033461538461539</v>
-      </c>
-      <c r="M115" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H115" t="inlineStr"/>
+      <c r="I115" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="J115" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K115" t="n">
+        <v>1</v>
+      </c>
+      <c r="L115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
@@ -4666,18 +4303,21 @@
         <v>4893.7592</v>
       </c>
       <c r="G116" t="n">
-        <v>-2733777.0976</v>
-      </c>
-      <c r="H116" t="n">
-        <v>2</v>
-      </c>
-      <c r="I116" t="inlineStr"/>
-      <c r="J116" t="inlineStr"/>
-      <c r="K116" t="inlineStr"/>
-      <c r="L116" t="n">
-        <v>1</v>
-      </c>
-      <c r="M116" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H116" t="inlineStr"/>
+      <c r="I116" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="J116" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K116" t="n">
+        <v>1</v>
+      </c>
+      <c r="L116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
@@ -4699,18 +4339,21 @@
         <v>9298.1111</v>
       </c>
       <c r="G117" t="n">
-        <v>-2733777.0976</v>
-      </c>
-      <c r="H117" t="n">
-        <v>0</v>
-      </c>
-      <c r="I117" t="inlineStr"/>
-      <c r="J117" t="inlineStr"/>
-      <c r="K117" t="inlineStr"/>
-      <c r="L117" t="n">
-        <v>1</v>
-      </c>
-      <c r="M117" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H117" t="inlineStr"/>
+      <c r="I117" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="J117" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K117" t="n">
+        <v>1</v>
+      </c>
+      <c r="L117" t="inlineStr"/>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
@@ -4732,18 +4375,21 @@
         <v>45573.2962</v>
       </c>
       <c r="G118" t="n">
-        <v>-2779350.3938</v>
-      </c>
-      <c r="H118" t="n">
-        <v>0</v>
-      </c>
-      <c r="I118" t="inlineStr"/>
-      <c r="J118" t="inlineStr"/>
-      <c r="K118" t="inlineStr"/>
-      <c r="L118" t="n">
-        <v>1</v>
-      </c>
-      <c r="M118" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H118" t="inlineStr"/>
+      <c r="I118" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="J118" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K118" t="n">
+        <v>1</v>
+      </c>
+      <c r="L118" t="inlineStr"/>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
@@ -4765,18 +4411,21 @@
         <v>47608.2155</v>
       </c>
       <c r="G119" t="n">
-        <v>-2779350.3938</v>
-      </c>
-      <c r="H119" t="n">
-        <v>0</v>
-      </c>
-      <c r="I119" t="inlineStr"/>
-      <c r="J119" t="inlineStr"/>
-      <c r="K119" t="inlineStr"/>
-      <c r="L119" t="n">
-        <v>1</v>
-      </c>
-      <c r="M119" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H119" t="inlineStr"/>
+      <c r="I119" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="J119" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K119" t="n">
+        <v>1</v>
+      </c>
+      <c r="L119" t="inlineStr"/>
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
@@ -4798,18 +4447,21 @@
         <v>1811.6666</v>
       </c>
       <c r="G120" t="n">
-        <v>-2777538.7272</v>
-      </c>
-      <c r="H120" t="n">
-        <v>0</v>
-      </c>
-      <c r="I120" t="inlineStr"/>
-      <c r="J120" t="inlineStr"/>
-      <c r="K120" t="inlineStr"/>
-      <c r="L120" t="n">
-        <v>1</v>
-      </c>
-      <c r="M120" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H120" t="inlineStr"/>
+      <c r="I120" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="J120" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K120" t="n">
+        <v>1</v>
+      </c>
+      <c r="L120" t="inlineStr"/>
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
@@ -4831,18 +4483,21 @@
         <v>51636.5799</v>
       </c>
       <c r="G121" t="n">
-        <v>-2829175.3071</v>
-      </c>
-      <c r="H121" t="n">
-        <v>0</v>
-      </c>
-      <c r="I121" t="inlineStr"/>
-      <c r="J121" t="inlineStr"/>
-      <c r="K121" t="inlineStr"/>
-      <c r="L121" t="n">
-        <v>1</v>
-      </c>
-      <c r="M121" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H121" t="inlineStr"/>
+      <c r="I121" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="J121" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K121" t="n">
+        <v>1</v>
+      </c>
+      <c r="L121" t="inlineStr"/>
     </row>
     <row r="122">
       <c r="A122" s="1" t="n">
@@ -4864,18 +4519,21 @@
         <v>3682.249</v>
       </c>
       <c r="G122" t="n">
-        <v>-2829175.3071</v>
-      </c>
-      <c r="H122" t="n">
-        <v>0</v>
-      </c>
-      <c r="I122" t="inlineStr"/>
-      <c r="J122" t="inlineStr"/>
-      <c r="K122" t="inlineStr"/>
-      <c r="L122" t="n">
-        <v>1</v>
-      </c>
-      <c r="M122" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H122" t="inlineStr"/>
+      <c r="I122" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="J122" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K122" t="n">
+        <v>1</v>
+      </c>
+      <c r="L122" t="inlineStr"/>
     </row>
     <row r="123">
       <c r="A123" s="1" t="n">
@@ -4897,18 +4555,21 @@
         <v>2761.71</v>
       </c>
       <c r="G123" t="n">
-        <v>-2829175.3071</v>
-      </c>
-      <c r="H123" t="n">
-        <v>0</v>
-      </c>
-      <c r="I123" t="inlineStr"/>
-      <c r="J123" t="inlineStr"/>
-      <c r="K123" t="inlineStr"/>
-      <c r="L123" t="n">
-        <v>1</v>
-      </c>
-      <c r="M123" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H123" t="inlineStr"/>
+      <c r="I123" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="J123" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K123" t="n">
+        <v>1</v>
+      </c>
+      <c r="L123" t="inlineStr"/>
     </row>
     <row r="124">
       <c r="A124" s="1" t="n">
@@ -4930,18 +4591,21 @@
         <v>2071.2825</v>
       </c>
       <c r="G124" t="n">
-        <v>-2829175.3071</v>
-      </c>
-      <c r="H124" t="n">
-        <v>0</v>
-      </c>
-      <c r="I124" t="inlineStr"/>
-      <c r="J124" t="inlineStr"/>
-      <c r="K124" t="inlineStr"/>
-      <c r="L124" t="n">
-        <v>1</v>
-      </c>
-      <c r="M124" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H124" t="inlineStr"/>
+      <c r="I124" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="J124" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K124" t="n">
+        <v>1</v>
+      </c>
+      <c r="L124" t="inlineStr"/>
     </row>
     <row r="125">
       <c r="A125" s="1" t="n">
@@ -4963,18 +4627,21 @@
         <v>1553.4386</v>
       </c>
       <c r="G125" t="n">
-        <v>-2829175.3071</v>
-      </c>
-      <c r="H125" t="n">
-        <v>0</v>
-      </c>
-      <c r="I125" t="inlineStr"/>
-      <c r="J125" t="inlineStr"/>
-      <c r="K125" t="inlineStr"/>
-      <c r="L125" t="n">
-        <v>1</v>
-      </c>
-      <c r="M125" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H125" t="inlineStr"/>
+      <c r="I125" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="J125" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K125" t="n">
+        <v>1</v>
+      </c>
+      <c r="L125" t="inlineStr"/>
     </row>
     <row r="126">
       <c r="A126" s="1" t="n">
@@ -4996,18 +4663,21 @@
         <v>466.0594</v>
       </c>
       <c r="G126" t="n">
-        <v>-2829175.3071</v>
-      </c>
-      <c r="H126" t="n">
-        <v>0</v>
-      </c>
-      <c r="I126" t="inlineStr"/>
-      <c r="J126" t="inlineStr"/>
-      <c r="K126" t="inlineStr"/>
-      <c r="L126" t="n">
-        <v>1</v>
-      </c>
-      <c r="M126" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H126" t="inlineStr"/>
+      <c r="I126" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="J126" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K126" t="n">
+        <v>1</v>
+      </c>
+      <c r="L126" t="inlineStr"/>
     </row>
     <row r="127">
       <c r="A127" s="1" t="n">
@@ -5029,22 +4699,21 @@
         <v>209.7211</v>
       </c>
       <c r="G127" t="n">
-        <v>-2829175.3071</v>
-      </c>
-      <c r="H127" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H127" t="inlineStr"/>
       <c r="I127" t="n">
-        <v>2.69</v>
-      </c>
-      <c r="J127" t="n">
-        <v>2.69</v>
-      </c>
-      <c r="K127" t="inlineStr"/>
-      <c r="L127" t="n">
-        <v>1</v>
-      </c>
-      <c r="M127" t="inlineStr"/>
+        <v>2.63</v>
+      </c>
+      <c r="J127" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K127" t="n">
+        <v>1</v>
+      </c>
+      <c r="L127" t="inlineStr"/>
     </row>
     <row r="128">
       <c r="A128" s="1" t="n">
@@ -5066,26 +4735,21 @@
         <v>11623.0482</v>
       </c>
       <c r="G128" t="n">
-        <v>-2829175.3071</v>
-      </c>
-      <c r="H128" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H128" t="inlineStr"/>
       <c r="I128" t="n">
-        <v>2.69</v>
-      </c>
-      <c r="J128" t="n">
-        <v>2.69</v>
-      </c>
-      <c r="K128" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="L128" t="n">
-        <v>1</v>
-      </c>
-      <c r="M128" t="inlineStr"/>
+        <v>2.63</v>
+      </c>
+      <c r="J128" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K128" t="n">
+        <v>1</v>
+      </c>
+      <c r="L128" t="inlineStr"/>
     </row>
     <row r="129">
       <c r="A129" s="1" t="n">
@@ -5107,26 +4771,21 @@
         <v>7407.4074</v>
       </c>
       <c r="G129" t="n">
-        <v>-2821767.8997</v>
-      </c>
-      <c r="H129" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H129" t="inlineStr"/>
       <c r="I129" t="n">
-        <v>2.69</v>
-      </c>
-      <c r="J129" t="n">
-        <v>2.69</v>
-      </c>
-      <c r="K129" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="L129" t="n">
-        <v>1</v>
-      </c>
-      <c r="M129" t="inlineStr"/>
+        <v>2.63</v>
+      </c>
+      <c r="J129" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K129" t="n">
+        <v>1</v>
+      </c>
+      <c r="L129" t="inlineStr"/>
     </row>
     <row r="130">
       <c r="A130" s="1" t="n">
@@ -5148,22 +4807,21 @@
         <v>50000</v>
       </c>
       <c r="G130" t="n">
-        <v>-2821767.8997</v>
-      </c>
-      <c r="H130" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H130" t="inlineStr"/>
       <c r="I130" t="n">
-        <v>2.7</v>
-      </c>
-      <c r="J130" t="n">
-        <v>2.7</v>
-      </c>
-      <c r="K130" t="inlineStr"/>
-      <c r="L130" t="n">
-        <v>1</v>
-      </c>
-      <c r="M130" t="inlineStr"/>
+        <v>2.63</v>
+      </c>
+      <c r="J130" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K130" t="n">
+        <v>1</v>
+      </c>
+      <c r="L130" t="inlineStr"/>
     </row>
     <row r="131">
       <c r="A131" s="1" t="n">
@@ -5185,26 +4843,21 @@
         <v>909191.3638000001</v>
       </c>
       <c r="G131" t="n">
-        <v>-1912576.5359</v>
-      </c>
-      <c r="H131" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H131" t="inlineStr"/>
       <c r="I131" t="n">
-        <v>2.7</v>
-      </c>
-      <c r="J131" t="n">
-        <v>2.7</v>
-      </c>
-      <c r="K131" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
-      <c r="L131" t="n">
-        <v>1</v>
-      </c>
-      <c r="M131" t="inlineStr"/>
+        <v>2.63</v>
+      </c>
+      <c r="J131" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K131" t="n">
+        <v>1</v>
+      </c>
+      <c r="L131" t="inlineStr"/>
     </row>
     <row r="132">
       <c r="A132" s="1" t="n">
@@ -5226,26 +4879,21 @@
         <v>102292.2727</v>
       </c>
       <c r="G132" t="n">
-        <v>-2014868.8086</v>
-      </c>
-      <c r="H132" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H132" t="inlineStr"/>
       <c r="I132" t="n">
-        <v>2.71</v>
-      </c>
-      <c r="J132" t="n">
-        <v>2.7</v>
-      </c>
-      <c r="K132" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L132" t="n">
-        <v>1</v>
-      </c>
-      <c r="M132" t="inlineStr"/>
+        <v>2.63</v>
+      </c>
+      <c r="J132" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K132" t="n">
+        <v>1</v>
+      </c>
+      <c r="L132" t="inlineStr"/>
     </row>
     <row r="133">
       <c r="A133" s="1" t="n">
@@ -5267,26 +4915,21 @@
         <v>7064</v>
       </c>
       <c r="G133" t="n">
-        <v>-2007804.8086</v>
-      </c>
-      <c r="H133" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H133" t="inlineStr"/>
       <c r="I133" t="n">
-        <v>2.65</v>
-      </c>
-      <c r="J133" t="n">
-        <v>2.7</v>
-      </c>
-      <c r="K133" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L133" t="n">
-        <v>1</v>
-      </c>
-      <c r="M133" t="inlineStr"/>
+        <v>2.63</v>
+      </c>
+      <c r="J133" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K133" t="n">
+        <v>1</v>
+      </c>
+      <c r="L133" t="inlineStr"/>
     </row>
     <row r="134">
       <c r="A134" s="1" t="n">
@@ -5308,26 +4951,21 @@
         <v>40412</v>
       </c>
       <c r="G134" t="n">
-        <v>-2007804.8086</v>
-      </c>
-      <c r="H134" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H134" t="inlineStr"/>
       <c r="I134" t="n">
-        <v>2.67</v>
-      </c>
-      <c r="J134" t="n">
-        <v>2.7</v>
-      </c>
-      <c r="K134" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L134" t="n">
-        <v>1</v>
-      </c>
-      <c r="M134" t="inlineStr"/>
+        <v>2.63</v>
+      </c>
+      <c r="J134" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K134" t="n">
+        <v>1</v>
+      </c>
+      <c r="L134" t="inlineStr"/>
     </row>
     <row r="135">
       <c r="A135" s="1" t="n">
@@ -5349,26 +4987,21 @@
         <v>1108994.0469</v>
       </c>
       <c r="G135" t="n">
-        <v>-2007804.8086</v>
-      </c>
-      <c r="H135" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H135" t="inlineStr"/>
       <c r="I135" t="n">
-        <v>2.67</v>
-      </c>
-      <c r="J135" t="n">
-        <v>2.7</v>
-      </c>
-      <c r="K135" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L135" t="n">
-        <v>1</v>
-      </c>
-      <c r="M135" t="inlineStr"/>
+        <v>2.63</v>
+      </c>
+      <c r="J135" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K135" t="n">
+        <v>1</v>
+      </c>
+      <c r="L135" t="inlineStr"/>
     </row>
     <row r="136">
       <c r="A136" s="1" t="n">
@@ -5390,26 +5023,21 @@
         <v>201676.6399</v>
       </c>
       <c r="G136" t="n">
-        <v>-2007804.8086</v>
-      </c>
-      <c r="H136" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H136" t="inlineStr"/>
       <c r="I136" t="n">
-        <v>2.67</v>
-      </c>
-      <c r="J136" t="n">
-        <v>2.7</v>
-      </c>
-      <c r="K136" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L136" t="n">
-        <v>1</v>
-      </c>
-      <c r="M136" t="inlineStr"/>
+        <v>2.63</v>
+      </c>
+      <c r="J136" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K136" t="n">
+        <v>1</v>
+      </c>
+      <c r="L136" t="inlineStr"/>
     </row>
     <row r="137">
       <c r="A137" s="1" t="n">
@@ -5431,26 +5059,21 @@
         <v>992.5</v>
       </c>
       <c r="G137" t="n">
-        <v>-2006812.3086</v>
-      </c>
-      <c r="H137" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H137" t="inlineStr"/>
       <c r="I137" t="n">
-        <v>2.67</v>
-      </c>
-      <c r="J137" t="n">
-        <v>2.7</v>
-      </c>
-      <c r="K137" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L137" t="n">
-        <v>1</v>
-      </c>
-      <c r="M137" t="inlineStr"/>
+        <v>2.63</v>
+      </c>
+      <c r="J137" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K137" t="n">
+        <v>1</v>
+      </c>
+      <c r="L137" t="inlineStr"/>
     </row>
     <row r="138">
       <c r="A138" s="1" t="n">
@@ -5472,26 +5095,21 @@
         <v>562692.3012</v>
       </c>
       <c r="G138" t="n">
-        <v>-2569504.6098</v>
-      </c>
-      <c r="H138" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H138" t="inlineStr"/>
       <c r="I138" t="n">
-        <v>2.7</v>
-      </c>
-      <c r="J138" t="n">
-        <v>2.7</v>
-      </c>
-      <c r="K138" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L138" t="n">
-        <v>1</v>
-      </c>
-      <c r="M138" t="inlineStr"/>
+        <v>2.63</v>
+      </c>
+      <c r="J138" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K138" t="n">
+        <v>1</v>
+      </c>
+      <c r="L138" t="inlineStr"/>
     </row>
     <row r="139">
       <c r="A139" s="1" t="n">
@@ -5513,26 +5131,21 @@
         <v>549319</v>
       </c>
       <c r="G139" t="n">
-        <v>-3118823.6098</v>
-      </c>
-      <c r="H139" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H139" t="inlineStr"/>
       <c r="I139" t="n">
-        <v>2.66</v>
-      </c>
-      <c r="J139" t="n">
-        <v>2.7</v>
-      </c>
-      <c r="K139" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L139" t="n">
-        <v>1</v>
-      </c>
-      <c r="M139" t="inlineStr"/>
+        <v>2.63</v>
+      </c>
+      <c r="J139" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K139" t="n">
+        <v>1</v>
+      </c>
+      <c r="L139" t="inlineStr"/>
     </row>
     <row r="140">
       <c r="A140" s="1" t="n">
@@ -5554,26 +5167,21 @@
         <v>10</v>
       </c>
       <c r="G140" t="n">
-        <v>-3118813.6098</v>
-      </c>
-      <c r="H140" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H140" t="inlineStr"/>
       <c r="I140" t="n">
-        <v>2.65</v>
-      </c>
-      <c r="J140" t="n">
-        <v>2.7</v>
-      </c>
-      <c r="K140" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L140" t="n">
-        <v>1</v>
-      </c>
-      <c r="M140" t="inlineStr"/>
+        <v>2.63</v>
+      </c>
+      <c r="J140" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K140" t="n">
+        <v>1</v>
+      </c>
+      <c r="L140" t="inlineStr"/>
     </row>
     <row r="141">
       <c r="A141" s="1" t="n">
@@ -5595,24 +5203,21 @@
         <v>53542.4758</v>
       </c>
       <c r="G141" t="n">
-        <v>-3172356.0856</v>
-      </c>
-      <c r="H141" t="n">
-        <v>0</v>
-      </c>
-      <c r="I141" t="inlineStr"/>
-      <c r="J141" t="n">
-        <v>2.7</v>
-      </c>
-      <c r="K141" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L141" t="n">
-        <v>1</v>
-      </c>
-      <c r="M141" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H141" t="inlineStr"/>
+      <c r="I141" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="J141" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K141" t="n">
+        <v>1</v>
+      </c>
+      <c r="L141" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
